--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biggoony\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgr\Desktop\딥러닝\2022_DeepLearningStudy\02_Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B93DB6-C18E-463D-8386-B8989AA273C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E706F8E-8756-4455-A725-FC610A569774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F024A8C4-8B3C-4841-A32B-357FBAE52720}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{F024A8C4-8B3C-4841-A32B-357FBAE52720}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
   <si>
     <t>1주차 이론시험 채점표</t>
   </si>
@@ -199,6 +201,12 @@
   <si>
     <t>7,8-(5)</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -518,6 +526,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -527,9 +568,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -547,36 +585,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -897,936 +905,974 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F777BB-0227-422A-A965-4E2DA720532F}">
   <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V29" sqref="V29"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:V11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="4"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="4"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="4"/>
-    </row>
-    <row r="4" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="1"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="1"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="1"/>
+    </row>
+    <row r="4" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="4"/>
-    </row>
-    <row r="5" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="1"/>
+    </row>
+    <row r="5" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="N5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="O5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="P5" s="12" t="s">
+      <c r="P5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q5" s="12" t="s">
+      <c r="Q5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="R5" s="12" t="s">
+      <c r="R5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="S5" s="12" t="s">
+      <c r="S5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="T5" s="12" t="s">
+      <c r="T5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U5" s="13" t="s">
+      <c r="U5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="V5" s="13" t="s">
+      <c r="V5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="W5" s="14" t="s">
+      <c r="W5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="X5" s="4"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="X5" s="1"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="17" t="str">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="8" t="str">
         <f>COUNTIF(B6:U6,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
-      <c r="X6" s="4"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="X6" s="1"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="17" t="str">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="8" t="str">
         <f t="shared" ref="W7:W26" si="0">COUNTIF(B7:U7,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
-      <c r="X7" s="4"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="X7" s="1"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="17" t="str">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>0%</v>
       </c>
-      <c r="X8" s="4"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+      <c r="X8" s="1"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="17" t="str">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="8" t="str">
         <f t="shared" si="0"/>
         <v>0%</v>
       </c>
-      <c r="X9" s="4"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+      <c r="X9" s="1"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="17" t="str">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>0%</v>
       </c>
-      <c r="X10" s="4"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+      <c r="X10" s="1"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="17" t="str">
+      <c r="B11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="U11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="V11" s="7"/>
+      <c r="W11" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-      <c r="X11" s="4"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
+        <v>70%</v>
+      </c>
+      <c r="X11" s="1"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="17" t="str">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="8" t="str">
         <f t="shared" si="0"/>
         <v>0%</v>
       </c>
-      <c r="X12" s="4"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
+      <c r="X12" s="1"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="17" t="str">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="8" t="str">
         <f t="shared" si="0"/>
         <v>0%</v>
       </c>
-      <c r="X13" s="4"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+      <c r="X13" s="1"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="17" t="str">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="8" t="str">
         <f t="shared" si="0"/>
         <v>0%</v>
       </c>
-      <c r="X14" s="4"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
+      <c r="X14" s="1"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="17" t="str">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="8" t="str">
         <f t="shared" si="0"/>
         <v>0%</v>
       </c>
-      <c r="X15" s="4"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
+      <c r="X15" s="1"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="17" t="str">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="8" t="str">
         <f t="shared" si="0"/>
         <v>0%</v>
       </c>
-      <c r="X16" s="4"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
+      <c r="X16" s="1"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="17" t="str">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="8" t="str">
         <f t="shared" si="0"/>
         <v>0%</v>
       </c>
-      <c r="X17" s="4"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
+      <c r="X17" s="1"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="17" t="str">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="8" t="str">
         <f t="shared" si="0"/>
         <v>0%</v>
       </c>
-      <c r="X18" s="4"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
+      <c r="X18" s="1"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="17" t="str">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="8" t="str">
         <f t="shared" si="0"/>
         <v>0%</v>
       </c>
-      <c r="X19" s="4"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
+      <c r="X19" s="1"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="17" t="str">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="8" t="str">
         <f t="shared" si="0"/>
         <v>0%</v>
       </c>
-      <c r="X20" s="4"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
+      <c r="X20" s="1"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="17" t="str">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="8" t="str">
         <f t="shared" si="0"/>
         <v>0%</v>
       </c>
-      <c r="X21" s="4"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
+      <c r="X21" s="1"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A22" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="17" t="str">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="8" t="str">
         <f t="shared" si="0"/>
         <v>0%</v>
       </c>
-      <c r="X22" s="4"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
+      <c r="X22" s="1"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A23" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="17" t="str">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="8" t="str">
         <f t="shared" si="0"/>
         <v>0%</v>
       </c>
-      <c r="X23" s="4"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="s">
+      <c r="X23" s="1"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A24" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="17" t="str">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="8" t="str">
         <f t="shared" si="0"/>
         <v>0%</v>
       </c>
-      <c r="X24" s="4"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A25" s="15" t="s">
+      <c r="X24" s="1"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A25" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="16"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="17" t="str">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="8" t="str">
         <f t="shared" si="0"/>
         <v>0%</v>
       </c>
-      <c r="X25" s="4"/>
-    </row>
-    <row r="26" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="15" t="s">
+      <c r="X25" s="1"/>
+    </row>
+    <row r="26" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="16"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="17" t="str">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="8" t="str">
         <f t="shared" si="0"/>
         <v>0%</v>
       </c>
-      <c r="X26" s="4"/>
-    </row>
-    <row r="27" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="18" t="s">
+      <c r="X26" s="1"/>
+    </row>
+    <row r="27" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="10">
         <f>COUNTIF(B6:B26,"O")*5</f>
-        <v>0</v>
-      </c>
-      <c r="C27" s="19">
+        <v>5</v>
+      </c>
+      <c r="C27" s="10">
         <f>COUNTIF(C6:C26,"O")*5</f>
         <v>0</v>
       </c>
-      <c r="D27" s="19">
-        <f t="shared" ref="C27:V27" si="1">COUNTIF(D6:D26,"O")*5</f>
+      <c r="D27" s="10">
+        <f t="shared" ref="D27:T27" si="1">COUNTIF(D6:D26,"O")*5</f>
         <v>0</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F27" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F27" s="19">
+      <c r="G27" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H27" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I27" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G27" s="19">
+      <c r="J27" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H27" s="19">
+      <c r="K27" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L27" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="M27" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="N27" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="O27" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="P27" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I27" s="19">
+      <c r="Q27" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="19">
+        <v>5</v>
+      </c>
+      <c r="R27" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="19">
+        <v>5</v>
+      </c>
+      <c r="S27" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="19">
+        <v>5</v>
+      </c>
+      <c r="T27" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N27" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O27" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R27" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S27" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T27" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U27" s="19">
+        <v>5</v>
+      </c>
+      <c r="U27" s="10">
         <f>COUNTIF(U6:U26,"O")*5</f>
-        <v>0</v>
-      </c>
-      <c r="V27" s="19">
+        <v>5</v>
+      </c>
+      <c r="V27" s="10">
         <f>COUNTIF(V6:V26,"O")*5</f>
         <v>0</v>
       </c>
-      <c r="W27" s="20">
+      <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>
-        <v>0</v>
-      </c>
-      <c r="X27" s="16" t="s">
+        <v>3.5</v>
+      </c>
+      <c r="X27" s="7" t="s">
         <v>24</v>
       </c>
     </row>

--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgr\Desktop\딥러닝\2022_DeepLearningStudy\02_Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E706F8E-8756-4455-A725-FC610A569774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E13894-C2A5-4E10-895D-4D23D1FC6059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{F024A8C4-8B3C-4841-A32B-357FBAE52720}"/>
   </bookViews>

--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ijin/Desktop/2022_DeepLearningStudy/02_Test_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\popo2\OneDrive\바탕 화면\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940A6743-C295-B449-9FE4-110D72A0FA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195511B4-B542-4B85-9B37-71D6A30A2FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="18940" windowHeight="7620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1992" yWindow="1968" windowWidth="16428" windowHeight="9996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="54">
   <si>
     <t>김도희</t>
   </si>
@@ -235,6 +235,7 @@
       <sz val="30"/>
       <color rgb="FF000000"/>
       <name val="HY헤드라인M"/>
+      <family val="1"/>
       <charset val="129"/>
     </font>
     <font>
@@ -242,6 +243,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="HY헤드라인M"/>
+      <family val="1"/>
       <charset val="129"/>
     </font>
     <font>
@@ -883,11 +885,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="65" zoomScaleNormal="65" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:V15"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="12" t="s">
@@ -1397,30 +1399,68 @@
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
+      <c r="B14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
+      <c r="Q14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="T14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="U14" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="V14" s="7"/>
       <c r="W14" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>60%</v>
       </c>
       <c r="X14" s="1"/>
     </row>
@@ -1840,23 +1880,23 @@
       </c>
       <c r="B27" s="10">
         <f>COUNTIF(B6:B26,"O")*5</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C27" s="10">
         <f>COUNTIF(C6:C26,"O")*5</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" s="10">
         <f t="shared" ref="D27:T27" si="1">COUNTIF(D6:D26,"O")*5</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E27" s="10">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F27" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G27" s="10">
         <f t="shared" si="1"/>
@@ -1880,11 +1920,11 @@
       </c>
       <c r="L27" s="10">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M27" s="10">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N27" s="10">
         <f t="shared" si="1"/>
@@ -1892,7 +1932,7 @@
       </c>
       <c r="O27" s="10">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="P27" s="10">
         <f t="shared" si="1"/>
@@ -1904,19 +1944,19 @@
       </c>
       <c r="R27" s="10">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="S27" s="10">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T27" s="10">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="U27" s="10">
         <f>COUNTIF(U6:U26,"O")*5</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="V27" s="10">
         <f>COUNTIF(V6:V26,"O")*5</f>
@@ -1924,7 +1964,7 @@
       </c>
       <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="X27" s="7" t="s">
         <v>45</v>

--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\popo2\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hjwon\Desktop\딥러닝 스터디\2022_DeepLearningStudy\02_Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195511B4-B542-4B85-9B37-71D6A30A2FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6380CE4-87C2-49CB-A3AD-548B294B13D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1992" yWindow="1968" windowWidth="16428" windowHeight="9996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="54">
   <si>
     <t>김도희</t>
   </si>
@@ -201,7 +201,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -886,12 +886,12 @@
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="B25" sqref="B25:V25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
         <v>26</v>
       </c>
@@ -919,7 +919,7 @@
       <c r="W1" s="14"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="15"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -945,7 +945,7 @@
       <c r="W2" s="17"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -971,7 +971,7 @@
       <c r="W3" s="17"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="18" t="s">
         <v>49</v>
       </c>
@@ -999,7 +999,7 @@
       <c r="W4" s="20"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>35</v>
       </c>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
         <v>34</v>
       </c>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>31</v>
       </c>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>39</v>
       </c>
@@ -1264,7 +1264,7 @@
       </c>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A11" s="6" t="s">
         <v>43</v>
       </c>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
         <v>29</v>
       </c>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
         <v>30</v>
       </c>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>28</v>
       </c>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="X15" s="1"/>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
         <v>40</v>
       </c>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
         <v>48</v>
       </c>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="X17" s="1"/>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
         <v>33</v>
       </c>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="X18" s="1"/>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
         <v>42</v>
       </c>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="X19" s="1"/>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
         <v>37</v>
       </c>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="X20" s="1"/>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
         <v>44</v>
       </c>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="X21" s="1"/>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A22" s="6" t="s">
         <v>38</v>
       </c>
@@ -1750,7 +1750,7 @@
       </c>
       <c r="X22" s="1"/>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
         <v>36</v>
       </c>
@@ -1781,7 +1781,7 @@
       </c>
       <c r="X23" s="1"/>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A24" s="6" t="s">
         <v>46</v>
       </c>
@@ -1812,38 +1812,76 @@
       </c>
       <c r="X24" s="1"/>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A25" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
+      <c r="B25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
+      <c r="Q25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="S25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="T25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="U25" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="V25" s="7"/>
       <c r="W25" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>95%</v>
       </c>
       <c r="X25" s="1"/>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A26" s="6" t="s">
         <v>41</v>
       </c>
@@ -1874,65 +1912,65 @@
       </c>
       <c r="X26" s="1"/>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A27" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B27" s="10">
         <f>COUNTIF(B6:B26,"O")*5</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C27" s="10">
         <f>COUNTIF(C6:C26,"O")*5</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D27" s="10">
         <f t="shared" ref="D27:T27" si="1">COUNTIF(D6:D26,"O")*5</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E27" s="10">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F27" s="10">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G27" s="10">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H27" s="10">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I27" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J27" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K27" s="10">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L27" s="10">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M27" s="10">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N27" s="10">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O27" s="10">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="P27" s="10">
         <f t="shared" si="1"/>
@@ -1940,23 +1978,23 @@
       </c>
       <c r="Q27" s="10">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R27" s="10">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="S27" s="10">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="T27" s="10">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="U27" s="10">
         <f>COUNTIF(U6:U26,"O")*5</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="V27" s="10">
         <f>COUNTIF(V6:V26,"O")*5</f>
@@ -1964,7 +2002,7 @@
       </c>
       <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>
-        <v>13.5</v>
+        <v>18.25</v>
       </c>
       <c r="X27" s="7" t="s">
         <v>45</v>

--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hjwon\Desktop\딥러닝 스터디\2022_DeepLearningStudy\02_Test_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2022_DeepLearningStudy\2022_DeepLearningStudy\02_Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6380CE4-87C2-49CB-A3AD-548B294B13D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="60">
   <si>
     <t>김도희</t>
   </si>
@@ -195,13 +194,37 @@
   <si>
     <t>X</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -258,6 +281,21 @@
       <name val="나눔명조"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="12">
@@ -506,7 +544,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -541,6 +579,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -881,125 +922,125 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:V25"/>
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="15"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="17"/>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="18"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="17"/>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="18"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="21"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1071,7 +1112,7 @@
       </c>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -1102,7 +1143,7 @@
       </c>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>35</v>
       </c>
@@ -1171,7 +1212,7 @@
       </c>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>34</v>
       </c>
@@ -1202,38 +1243,76 @@
       </c>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
+      <c r="B9" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="R9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="S9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="T9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="U9" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="V9" s="12"/>
       <c r="W9" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>75%</v>
       </c>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>39</v>
       </c>
@@ -1264,7 +1343,7 @@
       </c>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>43</v>
       </c>
@@ -1333,7 +1412,7 @@
       </c>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>29</v>
       </c>
@@ -1364,7 +1443,7 @@
       </c>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>30</v>
       </c>
@@ -1395,7 +1474,7 @@
       </c>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
@@ -1464,7 +1543,7 @@
       </c>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>28</v>
       </c>
@@ -1533,7 +1612,7 @@
       </c>
       <c r="X15" s="1"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>40</v>
       </c>
@@ -1564,7 +1643,7 @@
       </c>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>48</v>
       </c>
@@ -1595,7 +1674,7 @@
       </c>
       <c r="X17" s="1"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>33</v>
       </c>
@@ -1626,7 +1705,7 @@
       </c>
       <c r="X18" s="1"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>42</v>
       </c>
@@ -1657,7 +1736,7 @@
       </c>
       <c r="X19" s="1"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>37</v>
       </c>
@@ -1688,7 +1767,7 @@
       </c>
       <c r="X20" s="1"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>44</v>
       </c>
@@ -1719,7 +1798,7 @@
       </c>
       <c r="X21" s="1"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>38</v>
       </c>
@@ -1750,7 +1829,7 @@
       </c>
       <c r="X22" s="1"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>36</v>
       </c>
@@ -1781,7 +1860,7 @@
       </c>
       <c r="X23" s="1"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>46</v>
       </c>
@@ -1812,7 +1891,7 @@
       </c>
       <c r="X24" s="1"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>47</v>
       </c>
@@ -1881,7 +1960,7 @@
       </c>
       <c r="X25" s="1"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>41</v>
       </c>
@@ -1912,21 +1991,21 @@
       </c>
       <c r="X26" s="1"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B27" s="10">
         <f>COUNTIF(B6:B26,"O")*5</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C27" s="10">
         <f>COUNTIF(C6:C26,"O")*5</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D27" s="10">
         <f t="shared" ref="D27:T27" si="1">COUNTIF(D6:D26,"O")*5</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E27" s="10">
         <f t="shared" si="1"/>
@@ -1934,7 +2013,7 @@
       </c>
       <c r="F27" s="10">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G27" s="10">
         <f t="shared" si="1"/>
@@ -1946,31 +2025,31 @@
       </c>
       <c r="I27" s="10">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J27" s="10">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K27" s="10">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L27" s="10">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M27" s="10">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N27" s="10">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O27" s="10">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="P27" s="10">
         <f t="shared" si="1"/>
@@ -1978,19 +2057,19 @@
       </c>
       <c r="Q27" s="10">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="R27" s="10">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="S27" s="10">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T27" s="10">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="U27" s="10">
         <f>COUNTIF(U6:U26,"O")*5</f>
@@ -2002,7 +2081,7 @@
       </c>
       <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>
-        <v>18.25</v>
+        <v>22</v>
       </c>
       <c r="X27" s="7" t="s">
         <v>45</v>

--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2022_DeepLearningStudy\2022_DeepLearningStudy\02_Test_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\2022_DeepLearningStudy\02_Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA87C273-6A31-4B20-AC61-9898040F7FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="60">
   <si>
     <t>김도희</t>
   </si>
@@ -223,8 +222,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -922,17 +921,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24">
       <c r="A1" s="13" t="s">
         <v>26</v>
       </c>
@@ -960,7 +959,7 @@
       <c r="W1" s="15"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24">
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -986,7 +985,7 @@
       <c r="W2" s="18"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24">
       <c r="A3" s="16"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -1012,7 +1011,7 @@
       <c r="W3" s="18"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24">
       <c r="A4" s="19" t="s">
         <v>49</v>
       </c>
@@ -1040,7 +1039,7 @@
       <c r="W4" s="21"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1112,7 +1111,7 @@
       </c>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -1143,7 +1142,7 @@
       </c>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24">
       <c r="A7" s="6" t="s">
         <v>35</v>
       </c>
@@ -1212,7 +1211,7 @@
       </c>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24">
       <c r="A8" s="6" t="s">
         <v>34</v>
       </c>
@@ -1243,7 +1242,7 @@
       </c>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24">
       <c r="A9" s="6" t="s">
         <v>31</v>
       </c>
@@ -1312,38 +1311,76 @@
       </c>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24">
       <c r="A10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
+      <c r="B10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
+      <c r="Q10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="U10" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="V10" s="7"/>
       <c r="W10" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>90%</v>
       </c>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24">
       <c r="A11" s="6" t="s">
         <v>43</v>
       </c>
@@ -1412,7 +1449,7 @@
       </c>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24">
       <c r="A12" s="6" t="s">
         <v>29</v>
       </c>
@@ -1443,7 +1480,7 @@
       </c>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24">
       <c r="A13" s="6" t="s">
         <v>30</v>
       </c>
@@ -1474,7 +1511,7 @@
       </c>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
@@ -1543,7 +1580,7 @@
       </c>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24">
       <c r="A15" s="6" t="s">
         <v>28</v>
       </c>
@@ -1612,7 +1649,7 @@
       </c>
       <c r="X15" s="1"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24">
       <c r="A16" s="6" t="s">
         <v>40</v>
       </c>
@@ -1643,7 +1680,7 @@
       </c>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24">
       <c r="A17" s="6" t="s">
         <v>48</v>
       </c>
@@ -1674,7 +1711,7 @@
       </c>
       <c r="X17" s="1"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24">
       <c r="A18" s="6" t="s">
         <v>33</v>
       </c>
@@ -1705,7 +1742,7 @@
       </c>
       <c r="X18" s="1"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24">
       <c r="A19" s="6" t="s">
         <v>42</v>
       </c>
@@ -1736,7 +1773,7 @@
       </c>
       <c r="X19" s="1"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24">
       <c r="A20" s="6" t="s">
         <v>37</v>
       </c>
@@ -1767,7 +1804,7 @@
       </c>
       <c r="X20" s="1"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24">
       <c r="A21" s="6" t="s">
         <v>44</v>
       </c>
@@ -1798,7 +1835,7 @@
       </c>
       <c r="X21" s="1"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24">
       <c r="A22" s="6" t="s">
         <v>38</v>
       </c>
@@ -1829,7 +1866,7 @@
       </c>
       <c r="X22" s="1"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24">
       <c r="A23" s="6" t="s">
         <v>36</v>
       </c>
@@ -1860,7 +1897,7 @@
       </c>
       <c r="X23" s="1"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24">
       <c r="A24" s="6" t="s">
         <v>46</v>
       </c>
@@ -1891,7 +1928,7 @@
       </c>
       <c r="X24" s="1"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24">
       <c r="A25" s="6" t="s">
         <v>47</v>
       </c>
@@ -1960,7 +1997,7 @@
       </c>
       <c r="X25" s="1"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24">
       <c r="A26" s="6" t="s">
         <v>41</v>
       </c>
@@ -1991,21 +2028,21 @@
       </c>
       <c r="X26" s="1"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24">
       <c r="A27" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B27" s="10">
         <f>COUNTIF(B6:B26,"O")*5</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C27" s="10">
         <f>COUNTIF(C6:C26,"O")*5</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D27" s="10">
         <f t="shared" ref="D27:T27" si="1">COUNTIF(D6:D26,"O")*5</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E27" s="10">
         <f t="shared" si="1"/>
@@ -2013,43 +2050,43 @@
       </c>
       <c r="F27" s="10">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G27" s="10">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H27" s="10">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I27" s="10">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J27" s="10">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K27" s="10">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L27" s="10">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M27" s="10">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N27" s="10">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="O27" s="10">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="P27" s="10">
         <f t="shared" si="1"/>
@@ -2057,23 +2094,23 @@
       </c>
       <c r="Q27" s="10">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R27" s="10">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="S27" s="10">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="T27" s="10">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="U27" s="10">
         <f>COUNTIF(U6:U26,"O")*5</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="V27" s="10">
         <f>COUNTIF(V6:V26,"O")*5</f>
@@ -2081,7 +2118,7 @@
       </c>
       <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>
-        <v>22</v>
+        <v>26.5</v>
       </c>
       <c r="X27" s="7" t="s">
         <v>45</v>
@@ -2094,6 +2131,6 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\2022_DeepLearningStudy\02_Test_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2affedf885c1892d/바탕 화면/ㄴ/2022_DeepLearningStudy/02_Test_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA87C273-6A31-4B20-AC61-9898040F7FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{BA87C273-6A31-4B20-AC61-9898040F7FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C6CCCD5-C378-4BCB-80F8-3941EFF9DE58}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="5115" yWindow="540" windowWidth="21510" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="60">
   <si>
     <t>김도희</t>
   </si>
@@ -926,7 +928,7 @@
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="Z22" sqref="Z22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
@@ -1901,30 +1903,68 @@
       <c r="A24" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
+      <c r="B24" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
+      <c r="Q24" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="R24" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="S24" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="T24" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="U24" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="V24" s="7"/>
       <c r="W24" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>60%</v>
       </c>
       <c r="X24" s="1"/>
     </row>
@@ -2034,7 +2074,7 @@
       </c>
       <c r="B27" s="10">
         <f>COUNTIF(B6:B26,"O")*5</f>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C27" s="10">
         <f>COUNTIF(C6:C26,"O")*5</f>
@@ -2042,7 +2082,7 @@
       </c>
       <c r="D27" s="10">
         <f t="shared" ref="D27:T27" si="1">COUNTIF(D6:D26,"O")*5</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E27" s="10">
         <f t="shared" si="1"/>
@@ -2054,7 +2094,7 @@
       </c>
       <c r="G27" s="10">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H27" s="10">
         <f t="shared" si="1"/>
@@ -2062,15 +2102,15 @@
       </c>
       <c r="I27" s="10">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J27" s="10">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K27" s="10">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L27" s="10">
         <f t="shared" si="1"/>
@@ -2082,7 +2122,7 @@
       </c>
       <c r="N27" s="10">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="O27" s="10">
         <f t="shared" si="1"/>
@@ -2094,23 +2134,23 @@
       </c>
       <c r="Q27" s="10">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="R27" s="10">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="S27" s="10">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="T27" s="10">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="U27" s="10">
         <f>COUNTIF(U6:U26,"O")*5</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="V27" s="10">
         <f>COUNTIF(V6:V26,"O")*5</f>
@@ -2118,7 +2158,7 @@
       </c>
       <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>
-        <v>26.5</v>
+        <v>29.5</v>
       </c>
       <c r="X27" s="7" t="s">
         <v>45</v>

--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2affedf885c1892d/바탕 화면/ㄴ/2022_DeepLearningStudy/02_Test_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\딥러닝 스터디 4기\깃 폴더\2022_DeepLearningStudy\02_Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{BA87C273-6A31-4B20-AC61-9898040F7FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C6CCCD5-C378-4BCB-80F8-3941EFF9DE58}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB28168-589E-43C6-9069-3ED226F7D9EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5115" yWindow="540" windowWidth="21510" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="1350" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="60">
   <si>
     <t>김도희</t>
   </si>
@@ -928,7 +928,7 @@
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="Z22" sqref="Z22"/>
+      <selection activeCell="B8" sqref="B8:V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
@@ -1217,30 +1217,70 @@
       <c r="A8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
+      <c r="B8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="U8" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="V8" s="7"/>
       <c r="W8" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>95%</v>
       </c>
       <c r="X8" s="1"/>
     </row>
@@ -2074,43 +2114,43 @@
       </c>
       <c r="B27" s="10">
         <f>COUNTIF(B6:B26,"O")*5</f>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C27" s="10">
         <f>COUNTIF(C6:C26,"O")*5</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D27" s="10">
         <f t="shared" ref="D27:T27" si="1">COUNTIF(D6:D26,"O")*5</f>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E27" s="10">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F27" s="10">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G27" s="10">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H27" s="10">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I27" s="10">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J27" s="10">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K27" s="10">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L27" s="10">
         <f t="shared" si="1"/>
@@ -2118,39 +2158,39 @@
       </c>
       <c r="M27" s="10">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N27" s="10">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="O27" s="10">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="P27" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q27" s="10">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="R27" s="10">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="S27" s="10">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="T27" s="10">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="U27" s="10">
         <f>COUNTIF(U6:U26,"O")*5</f>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="V27" s="10">
         <f>COUNTIF(V6:V26,"O")*5</f>
@@ -2158,7 +2198,7 @@
       </c>
       <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>
-        <v>29.5</v>
+        <v>34.25</v>
       </c>
       <c r="X27" s="7" t="s">
         <v>45</v>

--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -1,37 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\딥러닝 스터디 4기\깃 폴더\2022_DeepLearningStudy\02_Test_Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB28168-589E-43C6-9069-3ED226F7D9EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="9.103.88.44548"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="1350" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>김도희</t>
   </si>
@@ -190,138 +174,207 @@
   </si>
   <si>
     <t>O</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>X</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>O</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>O</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>O</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>X</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>O</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>X</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="26">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF3F3F76"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FFFFFFFF"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="30"/>
+      <sz val="30.0"/>
+      <name val="HY헤드라인M"/>
       <color rgb="FF000000"/>
-      <name val="HY헤드라인M"/>
-      <family val="1"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="HY헤드라인M"/>
       <color rgb="FF000000"/>
-      <name val="HY헤드라인M"/>
-      <family val="1"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="8.0"/>
+      <name val="나눔명조"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="나눔명조"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <sz val="8.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="10"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="15.0"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <color theme="3"/>
     </font>
     <font>
-      <sz val="8"/>
+      <b/>
+      <sz val="13.0"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDAE3F3"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
@@ -339,13 +392,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF4472C4"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
@@ -374,13 +427,356 @@
         </stop>
       </gradientFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="22">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -399,114 +795,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,34 +813,169 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color auto="1"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="17" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="18" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="19" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -552,83 +986,118 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="49">
     <cellStyle name="20% - 강조색1" xfId="3" builtinId="30"/>
+    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
+    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
+    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
+    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
+    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
+    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
+    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
+    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
+    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
+    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
+    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
+    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
+    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
+    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
+    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
+    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
+    <cellStyle name="강조색1" xfId="25" builtinId="29"/>
+    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
+    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
+    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
+    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
+    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
+    <cellStyle name="경고문" xfId="11" builtinId="11"/>
+    <cellStyle name="계산" xfId="18" builtinId="22"/>
+    <cellStyle name="나쁨" xfId="23" builtinId="27"/>
     <cellStyle name="메모" xfId="2" builtinId="10"/>
+    <cellStyle name="백분율" xfId="6" builtinId="5"/>
+    <cellStyle name="보통" xfId="24" builtinId="28"/>
+    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
+    <cellStyle name="셀 확인" xfId="19" builtinId="23"/>
+    <cellStyle name="쉼표" xfId="4" builtinId="3"/>
+    <cellStyle name="쉼표[0]" xfId="7" builtinId="6"/>
+    <cellStyle name="연결된 셀" xfId="20" builtinId="24"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="요약" xfId="21" builtinId="25"/>
     <cellStyle name="입력" xfId="1" builtinId="20"/>
+    <cellStyle name="제목" xfId="12" builtinId="15"/>
+    <cellStyle name="제목 1" xfId="13" builtinId="16"/>
+    <cellStyle name="제목 2" xfId="14" builtinId="17"/>
+    <cellStyle name="제목 3" xfId="15" builtinId="18"/>
+    <cellStyle name="제목 4" xfId="16" builtinId="19"/>
+    <cellStyle name="좋음" xfId="22" builtinId="26"/>
+    <cellStyle name="출력" xfId="17" builtinId="21"/>
+    <cellStyle name="통화" xfId="5" builtinId="4"/>
+    <cellStyle name="통화[0]" xfId="8" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="9" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -923,125 +1392,124 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:V8"/>
+      <selection activeCell="Y24" sqref="Y24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.62500000" defaultRowHeight="16.500000"/>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="15"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="14"/>
       <c r="X1" s="1"/>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="18"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="17"/>
       <c r="X2" s="1"/>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="18"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="17"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:24">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:24" ht="17.250000">
+      <c r="A4" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="21"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="20"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" ht="17.250000">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1208,7 +1676,7 @@
       </c>
       <c r="V7" s="7"/>
       <c r="W7" s="8" t="str">
-        <f t="shared" ref="W7:W26" si="0">COUNTIF(B7:U7,"O")*5&amp;"%"</f>
+        <f>COUNTIF(B7:U7,"O")*5&amp;"%"</f>
         <v>50%</v>
       </c>
       <c r="X7" s="1"/>
@@ -1279,7 +1747,7 @@
       </c>
       <c r="V8" s="7"/>
       <c r="W8" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B8:U8,"O")*5&amp;"%"</f>
         <v>95%</v>
       </c>
       <c r="X8" s="1"/>
@@ -1288,67 +1756,67 @@
       <c r="A9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="M9" s="12" t="s">
+      <c r="M9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="N9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="O9" s="12" t="s">
+      <c r="O9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12" t="s">
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="R9" s="12" t="s">
+      <c r="R9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="S9" s="12" t="s">
+      <c r="S9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="T9" s="12" t="s">
+      <c r="T9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="U9" s="12" t="s">
+      <c r="U9" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="V9" s="12"/>
+      <c r="V9" s="7"/>
       <c r="W9" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B9:U9,"O")*5&amp;"%"</f>
         <v>75%</v>
       </c>
       <c r="X9" s="1"/>
@@ -1417,7 +1885,7 @@
       </c>
       <c r="V10" s="7"/>
       <c r="W10" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B10:U10,"O")*5&amp;"%"</f>
         <v>90%</v>
       </c>
       <c r="X10" s="1"/>
@@ -1486,7 +1954,7 @@
       </c>
       <c r="V11" s="7"/>
       <c r="W11" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B11:U11,"O")*5&amp;"%"</f>
         <v>70%</v>
       </c>
       <c r="X11" s="1"/>
@@ -1517,7 +1985,7 @@
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
       <c r="W12" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B12:U12,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
       <c r="X12" s="1"/>
@@ -1548,7 +2016,7 @@
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
       <c r="W13" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B13:U13,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
       <c r="X13" s="1"/>
@@ -1617,7 +2085,7 @@
       </c>
       <c r="V14" s="7"/>
       <c r="W14" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B14:U14,"O")*5&amp;"%"</f>
         <v>60%</v>
       </c>
       <c r="X14" s="1"/>
@@ -1686,7 +2154,7 @@
       </c>
       <c r="V15" s="7"/>
       <c r="W15" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B15:U15,"O")*5&amp;"%"</f>
         <v>90%</v>
       </c>
       <c r="X15" s="1"/>
@@ -1717,7 +2185,7 @@
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
       <c r="W16" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B16:U16,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
       <c r="X16" s="1"/>
@@ -1748,7 +2216,7 @@
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
       <c r="W17" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B17:U17,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
       <c r="X17" s="1"/>
@@ -1779,7 +2247,7 @@
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
       <c r="W18" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B18:U18,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
       <c r="X18" s="1"/>
@@ -1788,30 +2256,68 @@
       <c r="A19" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
+      <c r="B19" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="M19" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="N19" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="O19" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="R19" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="S19" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="T19" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="U19" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="V19" s="21"/>
       <c r="W19" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
+        <f>COUNTIF(B19:U19,"O")*5&amp;"%"</f>
+        <v>70%</v>
       </c>
       <c r="X19" s="1"/>
     </row>
@@ -1841,7 +2347,7 @@
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
       <c r="W20" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B20:U20,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
       <c r="X20" s="1"/>
@@ -1872,7 +2378,7 @@
       <c r="U21" s="7"/>
       <c r="V21" s="7"/>
       <c r="W21" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B21:U21,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
       <c r="X21" s="1"/>
@@ -1903,7 +2409,7 @@
       <c r="U22" s="7"/>
       <c r="V22" s="7"/>
       <c r="W22" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B22:U22,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
       <c r="X22" s="1"/>
@@ -1934,7 +2440,7 @@
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
       <c r="W23" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B23:U23,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
       <c r="X23" s="1"/>
@@ -2003,7 +2509,7 @@
       </c>
       <c r="V24" s="7"/>
       <c r="W24" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B24:U24,"O")*5&amp;"%"</f>
         <v>60%</v>
       </c>
       <c r="X24" s="1"/>
@@ -2072,7 +2578,7 @@
       </c>
       <c r="V25" s="7"/>
       <c r="W25" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B25:U25,"O")*5&amp;"%"</f>
         <v>95%</v>
       </c>
       <c r="X25" s="1"/>
@@ -2103,90 +2609,90 @@
       <c r="U26" s="7"/>
       <c r="V26" s="7"/>
       <c r="W26" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B26:U26,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
       <c r="X26" s="1"/>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:24" ht="17.250000">
       <c r="A27" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B27" s="10">
         <f>COUNTIF(B6:B26,"O")*5</f>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C27" s="10">
         <f>COUNTIF(C6:C26,"O")*5</f>
+        <v>40</v>
+      </c>
+      <c r="D27" s="10">
+        <f>COUNTIF(D6:D26,"O")*5</f>
+        <v>40</v>
+      </c>
+      <c r="E27" s="10">
+        <f>COUNTIF(E6:E26,"O")*5</f>
+        <v>25</v>
+      </c>
+      <c r="F27" s="10">
+        <f>COUNTIF(F6:F26,"O")*5</f>
+        <v>30</v>
+      </c>
+      <c r="G27" s="10">
+        <f>COUNTIF(G6:G26,"O")*5</f>
+        <v>40</v>
+      </c>
+      <c r="H27" s="10">
+        <f>COUNTIF(H6:H26,"O")*5</f>
+        <v>30</v>
+      </c>
+      <c r="I27" s="10">
+        <f>COUNTIF(I6:I26,"O")*5</f>
+        <v>30</v>
+      </c>
+      <c r="J27" s="10">
+        <f>COUNTIF(J6:J26,"O")*5</f>
         <v>35</v>
       </c>
-      <c r="D27" s="10">
-        <f t="shared" ref="D27:T27" si="1">COUNTIF(D6:D26,"O")*5</f>
+      <c r="K27" s="10">
+        <f>COUNTIF(K6:K26,"O")*5</f>
         <v>40</v>
       </c>
-      <c r="E27" s="10">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="F27" s="10">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="G27" s="10">
-        <f t="shared" si="1"/>
+      <c r="L27" s="10">
+        <f>COUNTIF(L6:L26,"O")*5</f>
         <v>35</v>
       </c>
-      <c r="H27" s="10">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="I27" s="10">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="J27" s="10">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="K27" s="10">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="L27" s="10">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
       <c r="M27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(M6:M26,"O")*5</f>
+        <v>45</v>
+      </c>
+      <c r="N27" s="10">
+        <f>COUNTIF(N6:N26,"O")*5</f>
         <v>40</v>
       </c>
-      <c r="N27" s="10">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
       <c r="O27" s="10">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <f>COUNTIF(O6:O26,"O")*5</f>
+        <v>45</v>
       </c>
       <c r="P27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(P6:P26,"O")*5</f>
         <v>5</v>
       </c>
       <c r="Q27" s="10">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <f>COUNTIF(Q6:Q26,"O")*5</f>
+        <v>45</v>
       </c>
       <c r="R27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(R6:R26,"O")*5</f>
+        <v>50</v>
+      </c>
+      <c r="S27" s="10">
+        <f>COUNTIF(S6:S26,"O")*5</f>
         <v>45</v>
       </c>
-      <c r="S27" s="10">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
       <c r="T27" s="10">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <f>COUNTIF(T6:T26,"O")*5</f>
+        <v>45</v>
       </c>
       <c r="U27" s="10">
         <f>COUNTIF(U6:U26,"O")*5</f>
@@ -2198,7 +2704,7 @@
       </c>
       <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>
-        <v>34.25</v>
+        <v>37.75</v>
       </c>
       <c r="X27" s="7" t="s">
         <v>45</v>
@@ -2209,8 +2715,8 @@
     <mergeCell ref="A1:W3"/>
     <mergeCell ref="A4:W4"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -202,7 +202,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
@@ -301,12 +301,6 @@
       <color rgb="FFFA7D00"/>
     </font>
     <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FFFFFFFF"/>
-    </font>
-    <font>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
       <color rgb="FFFA7D00"/>
@@ -349,7 +343,7 @@
       <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,12 +374,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFED7D31"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4472C4"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -596,7 +584,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -744,7 +732,6 @@
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -753,7 +740,6 @@
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -762,7 +748,6 @@
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -777,22 +762,6 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -807,7 +776,6 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -816,7 +784,6 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -827,7 +794,6 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -882,19 +848,22 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="17" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="18" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="19" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="17" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="18" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -909,77 +878,74 @@
     <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -992,10 +958,10 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1004,47 +970,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1396,7 +1359,7 @@
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="Y24" sqref="Y24"/>
+      <selection activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62500000" defaultRowHeight="16.500000"/>
@@ -2256,68 +2219,70 @@
       <c r="A19" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="G19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="21" t="s">
+      <c r="H19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I19" s="21" t="s">
+      <c r="I19" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="J19" s="21" t="s">
+      <c r="J19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K19" s="21" t="s">
+      <c r="K19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="L19" s="21" t="s">
+      <c r="L19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="M19" s="21" t="s">
+      <c r="M19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="N19" s="21" t="s">
+      <c r="N19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="O19" s="21" t="s">
+      <c r="O19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21" t="s">
+      <c r="P19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="R19" s="21" t="s">
+      <c r="Q19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="S19" s="21" t="s">
+      <c r="R19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="T19" s="21" t="s">
+      <c r="S19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="U19" s="21" t="s">
+      <c r="T19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="U19" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="V19" s="21"/>
+      <c r="V19" s="7"/>
       <c r="W19" s="8" t="str">
         <f>COUNTIF(B19:U19,"O")*5&amp;"%"</f>
-        <v>70%</v>
+        <v>75%</v>
       </c>
       <c r="X19" s="1"/>
     </row>
@@ -2676,7 +2641,7 @@
       </c>
       <c r="P27" s="10">
         <f>COUNTIF(P6:P26,"O")*5</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q27" s="10">
         <f>COUNTIF(Q6:Q26,"O")*5</f>
@@ -2704,7 +2669,7 @@
       </c>
       <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>
-        <v>37.75</v>
+        <v>38</v>
       </c>
       <c r="X27" s="7" t="s">
         <v>45</v>

--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -1,21 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="9.103.88.44548"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\66547\OneDrive\사진\바탕 화면\새 폴더\2022_DeepLearningStudy\02_Test_Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F770FEA-0D3D-4191-8F4E-83467624532D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="62">
   <si>
     <t>김도희</t>
   </si>
@@ -195,169 +211,95 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
-      <color rgb="FF000000"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="맑은 고딕"/>
-      <color rgb="FF3F3F76"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="맑은 고딕"/>
-      <color rgb="FFFFFFFF"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
-      <color rgb="FF000000"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="30.0"/>
+      <sz val="30"/>
+      <color rgb="FF000000"/>
       <name val="HY헤드라인M"/>
-      <color rgb="FF000000"/>
+      <family val="1"/>
+      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="HY헤드라인M"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <sz val="8.0"/>
-      <name val="나눔명조"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <sz val="8.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF000000"/>
+      <family val="1"/>
+      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
-      <color theme="10"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="맑은 고딕"/>
-      <color theme="11"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
-      <color rgb="FFFF0000"/>
-    </font>
-    <font>
-      <sz val="18.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FF3F3F3F"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FFFA7D00"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FFFFFFFF"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FFFA7D00"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FF006100"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FF9C0006"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FF9C6500"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="0"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FF7F7F7F"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -427,356 +369,13 @@
         </stop>
       </gradientFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="22">
+  <borders count="14">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FFACCCEA"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399980"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -795,17 +394,114 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -813,169 +509,40 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="17" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="18" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="19" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -986,118 +553,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="6">
     <cellStyle name="20% - 강조색1" xfId="3" builtinId="30"/>
-    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
-    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
-    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
-    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
-    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
-    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
-    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
-    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
-    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
-    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
-    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
-    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
-    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
-    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
-    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
-    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
-    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
-    <cellStyle name="강조색1" xfId="25" builtinId="29"/>
-    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
-    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
-    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
-    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
-    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
-    <cellStyle name="경고문" xfId="11" builtinId="11"/>
-    <cellStyle name="계산" xfId="18" builtinId="22"/>
-    <cellStyle name="나쁨" xfId="23" builtinId="27"/>
     <cellStyle name="메모" xfId="2" builtinId="10"/>
-    <cellStyle name="백분율" xfId="6" builtinId="5"/>
-    <cellStyle name="보통" xfId="24" builtinId="28"/>
-    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
-    <cellStyle name="셀 확인" xfId="19" builtinId="23"/>
-    <cellStyle name="쉼표" xfId="4" builtinId="3"/>
-    <cellStyle name="쉼표[0]" xfId="7" builtinId="6"/>
-    <cellStyle name="연결된 셀" xfId="20" builtinId="24"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="요약" xfId="21" builtinId="25"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="입력" xfId="1" builtinId="20"/>
-    <cellStyle name="제목" xfId="12" builtinId="15"/>
-    <cellStyle name="제목 1" xfId="13" builtinId="16"/>
-    <cellStyle name="제목 2" xfId="14" builtinId="17"/>
-    <cellStyle name="제목 3" xfId="15" builtinId="18"/>
-    <cellStyle name="제목 4" xfId="16" builtinId="19"/>
-    <cellStyle name="좋음" xfId="22" builtinId="26"/>
-    <cellStyle name="출력" xfId="17" builtinId="21"/>
-    <cellStyle name="통화" xfId="5" builtinId="4"/>
-    <cellStyle name="통화[0]" xfId="8" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="4" builtinId="8" hidden="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1392,124 +926,124 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="Y24" sqref="Y24"/>
+      <selection activeCell="B26" sqref="B26:V26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.62500000" defaultRowHeight="16.500000"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="15"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:24">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="17"/>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="18"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:24">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="17"/>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="18"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:24" ht="17.250000">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="21"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:24" ht="17.250000">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1581,7 +1115,7 @@
       </c>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -1607,12 +1141,12 @@
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
       <c r="W6" s="8" t="str">
-        <f>COUNTIF(B6:U6,"O")*5&amp;"%"</f>
+        <f t="shared" ref="W6:W26" si="0">COUNTIF(B6:U6,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>35</v>
       </c>
@@ -1676,12 +1210,12 @@
       </c>
       <c r="V7" s="7"/>
       <c r="W7" s="8" t="str">
-        <f>COUNTIF(B7:U7,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>50%</v>
       </c>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>34</v>
       </c>
@@ -1747,12 +1281,12 @@
       </c>
       <c r="V8" s="7"/>
       <c r="W8" s="8" t="str">
-        <f>COUNTIF(B8:U8,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>95%</v>
       </c>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>31</v>
       </c>
@@ -1816,12 +1350,12 @@
       </c>
       <c r="V9" s="7"/>
       <c r="W9" s="8" t="str">
-        <f>COUNTIF(B9:U9,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>75%</v>
       </c>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>39</v>
       </c>
@@ -1885,12 +1419,12 @@
       </c>
       <c r="V10" s="7"/>
       <c r="W10" s="8" t="str">
-        <f>COUNTIF(B10:U10,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>90%</v>
       </c>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>43</v>
       </c>
@@ -1954,12 +1488,12 @@
       </c>
       <c r="V11" s="7"/>
       <c r="W11" s="8" t="str">
-        <f>COUNTIF(B11:U11,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>70%</v>
       </c>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>29</v>
       </c>
@@ -1985,12 +1519,12 @@
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
       <c r="W12" s="8" t="str">
-        <f>COUNTIF(B12:U12,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>0%</v>
       </c>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>30</v>
       </c>
@@ -2016,12 +1550,12 @@
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
       <c r="W13" s="8" t="str">
-        <f>COUNTIF(B13:U13,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>0%</v>
       </c>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
@@ -2085,12 +1619,12 @@
       </c>
       <c r="V14" s="7"/>
       <c r="W14" s="8" t="str">
-        <f>COUNTIF(B14:U14,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>60%</v>
       </c>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>28</v>
       </c>
@@ -2154,12 +1688,12 @@
       </c>
       <c r="V15" s="7"/>
       <c r="W15" s="8" t="str">
-        <f>COUNTIF(B15:U15,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>90%</v>
       </c>
       <c r="X15" s="1"/>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>40</v>
       </c>
@@ -2185,12 +1719,12 @@
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
       <c r="W16" s="8" t="str">
-        <f>COUNTIF(B16:U16,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>0%</v>
       </c>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>48</v>
       </c>
@@ -2216,12 +1750,12 @@
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
       <c r="W17" s="8" t="str">
-        <f>COUNTIF(B17:U17,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>0%</v>
       </c>
       <c r="X17" s="1"/>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>33</v>
       </c>
@@ -2247,81 +1781,81 @@
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
       <c r="W18" s="8" t="str">
-        <f>COUNTIF(B18:U18,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>0%</v>
       </c>
       <c r="X18" s="1"/>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="G19" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="21" t="s">
+      <c r="H19" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="I19" s="21" t="s">
+      <c r="I19" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="J19" s="21" t="s">
+      <c r="J19" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="K19" s="21" t="s">
+      <c r="K19" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="L19" s="21" t="s">
+      <c r="L19" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="M19" s="21" t="s">
+      <c r="M19" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="N19" s="21" t="s">
+      <c r="N19" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="O19" s="21" t="s">
+      <c r="O19" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21" t="s">
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="R19" s="21" t="s">
+      <c r="R19" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="S19" s="21" t="s">
+      <c r="S19" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="T19" s="21" t="s">
+      <c r="T19" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="U19" s="21" t="s">
+      <c r="U19" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="V19" s="21"/>
+      <c r="V19" s="12"/>
       <c r="W19" s="8" t="str">
-        <f>COUNTIF(B19:U19,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>70%</v>
       </c>
       <c r="X19" s="1"/>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>37</v>
       </c>
@@ -2347,12 +1881,12 @@
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
       <c r="W20" s="8" t="str">
-        <f>COUNTIF(B20:U20,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>0%</v>
       </c>
       <c r="X20" s="1"/>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>44</v>
       </c>
@@ -2378,12 +1912,12 @@
       <c r="U21" s="7"/>
       <c r="V21" s="7"/>
       <c r="W21" s="8" t="str">
-        <f>COUNTIF(B21:U21,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>0%</v>
       </c>
       <c r="X21" s="1"/>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>38</v>
       </c>
@@ -2409,12 +1943,12 @@
       <c r="U22" s="7"/>
       <c r="V22" s="7"/>
       <c r="W22" s="8" t="str">
-        <f>COUNTIF(B22:U22,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>0%</v>
       </c>
       <c r="X22" s="1"/>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>36</v>
       </c>
@@ -2440,12 +1974,12 @@
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
       <c r="W23" s="8" t="str">
-        <f>COUNTIF(B23:U23,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>0%</v>
       </c>
       <c r="X23" s="1"/>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>46</v>
       </c>
@@ -2509,12 +2043,12 @@
       </c>
       <c r="V24" s="7"/>
       <c r="W24" s="8" t="str">
-        <f>COUNTIF(B24:U24,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>60%</v>
       </c>
       <c r="X24" s="1"/>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>47</v>
       </c>
@@ -2578,133 +2112,173 @@
       </c>
       <c r="V25" s="7"/>
       <c r="W25" s="8" t="str">
-        <f>COUNTIF(B25:U25,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>95%</v>
       </c>
       <c r="X25" s="1"/>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
+      <c r="B26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="N26" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="O26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="R26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="S26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="T26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V26" s="12"/>
       <c r="W26" s="8" t="str">
-        <f>COUNTIF(B26:U26,"O")*5&amp;"%"</f>
-        <v>0%</v>
+        <f t="shared" si="0"/>
+        <v>85%</v>
       </c>
       <c r="X26" s="1"/>
     </row>
-    <row r="27" spans="1:24" ht="17.250000">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B27" s="10">
-        <f>COUNTIF(B6:B26,"O")*5</f>
-        <v>50</v>
+        <f t="shared" ref="B27:V27" si="1">COUNTIF(B6:B26,"O")*5</f>
+        <v>55</v>
       </c>
       <c r="C27" s="10">
-        <f>COUNTIF(C6:C26,"O")*5</f>
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="D27" s="10">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="E27" s="10">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="G27" s="10">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="H27" s="10">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="I27" s="10">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="J27" s="10">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="D27" s="10">
-        <f>COUNTIF(D6:D26,"O")*5</f>
+      <c r="K27" s="10">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="E27" s="10">
-        <f>COUNTIF(E6:E26,"O")*5</f>
-        <v>25</v>
-      </c>
-      <c r="F27" s="10">
-        <f>COUNTIF(F6:F26,"O")*5</f>
-        <v>30</v>
-      </c>
-      <c r="G27" s="10">
-        <f>COUNTIF(G6:G26,"O")*5</f>
+      <c r="L27" s="10">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="H27" s="10">
-        <f>COUNTIF(H6:H26,"O")*5</f>
-        <v>30</v>
-      </c>
-      <c r="I27" s="10">
-        <f>COUNTIF(I6:I26,"O")*5</f>
-        <v>30</v>
-      </c>
-      <c r="J27" s="10">
-        <f>COUNTIF(J6:J26,"O")*5</f>
-        <v>35</v>
-      </c>
-      <c r="K27" s="10">
-        <f>COUNTIF(K6:K26,"O")*5</f>
+      <c r="M27" s="10">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="N27" s="10">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="L27" s="10">
-        <f>COUNTIF(L6:L26,"O")*5</f>
-        <v>35</v>
-      </c>
-      <c r="M27" s="10">
-        <f>COUNTIF(M6:M26,"O")*5</f>
+      <c r="O27" s="10">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="P27" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="Q27" s="10">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="R27" s="10">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="S27" s="10">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="T27" s="10">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="U27" s="10">
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="N27" s="10">
-        <f>COUNTIF(N6:N26,"O")*5</f>
-        <v>40</v>
-      </c>
-      <c r="O27" s="10">
-        <f>COUNTIF(O6:O26,"O")*5</f>
-        <v>45</v>
-      </c>
-      <c r="P27" s="10">
-        <f>COUNTIF(P6:P26,"O")*5</f>
-        <v>5</v>
-      </c>
-      <c r="Q27" s="10">
-        <f>COUNTIF(Q6:Q26,"O")*5</f>
-        <v>45</v>
-      </c>
-      <c r="R27" s="10">
-        <f>COUNTIF(R6:R26,"O")*5</f>
-        <v>50</v>
-      </c>
-      <c r="S27" s="10">
-        <f>COUNTIF(S6:S26,"O")*5</f>
-        <v>45</v>
-      </c>
-      <c r="T27" s="10">
-        <f>COUNTIF(T6:T26,"O")*5</f>
-        <v>45</v>
-      </c>
-      <c r="U27" s="10">
-        <f>COUNTIF(U6:U26,"O")*5</f>
-        <v>40</v>
-      </c>
       <c r="V27" s="10">
-        <f>COUNTIF(V6:V26,"O")*5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>
-        <v>37.75</v>
+        <v>42</v>
       </c>
       <c r="X27" s="7" t="s">
         <v>45</v>
@@ -2716,7 +2290,7 @@
     <mergeCell ref="A4:W4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\66547\OneDrive\사진\바탕 화면\새 폴더\2022_DeepLearningStudy\02_Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F770FEA-0D3D-4191-8F4E-83467624532D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2528CC1D-755A-48B6-ABC6-D275A3F1D236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -930,7 +930,7 @@
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:V26"/>
+      <selection activeCell="T42" sqref="T42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -1,37 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="9.103.88.44548"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\66547\OneDrive\사진\바탕 화면\새 폴더\2022_DeepLearningStudy\02_Test_Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2528CC1D-755A-48B6-ABC6-D275A3F1D236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>김도희</t>
   </si>
@@ -214,92 +198,161 @@
   </si>
   <si>
     <t>o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="24">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF3F3F76"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FFFFFFFF"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="30"/>
+      <sz val="30.0"/>
+      <name val="HY헤드라인M"/>
       <color rgb="FF000000"/>
-      <name val="HY헤드라인M"/>
-      <family val="1"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="HY헤드라인M"/>
       <color rgb="FF000000"/>
-      <name val="HY헤드라인M"/>
-      <family val="1"/>
-      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="10"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="11"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="11.0"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -322,12 +375,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFED7D31"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4472C4"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -369,13 +416,356 @@
         </stop>
       </gradientFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="22">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -394,114 +784,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,129 +802,288 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color auto="1"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="18" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="19" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="49">
     <cellStyle name="20% - 강조색1" xfId="3" builtinId="30"/>
+    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
+    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
+    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
+    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
+    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
+    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
+    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
+    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
+    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
+    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
+    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
+    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
+    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
+    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
+    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
+    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
+    <cellStyle name="강조색1" xfId="25" builtinId="29"/>
+    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
+    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
+    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
+    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
+    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
+    <cellStyle name="경고문" xfId="11" builtinId="11"/>
+    <cellStyle name="계산" xfId="18" builtinId="22"/>
+    <cellStyle name="나쁨" xfId="23" builtinId="27"/>
     <cellStyle name="메모" xfId="2" builtinId="10"/>
+    <cellStyle name="백분율" xfId="8" builtinId="5"/>
+    <cellStyle name="보통" xfId="24" builtinId="28"/>
+    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
+    <cellStyle name="셀 확인" xfId="19" builtinId="23"/>
+    <cellStyle name="쉼표" xfId="6" builtinId="3"/>
+    <cellStyle name="쉼표[0]" xfId="9" builtinId="6"/>
+    <cellStyle name="연결된 셀" xfId="20" builtinId="24"/>
     <cellStyle name="열어 본 하이퍼링크" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="요약" xfId="21" builtinId="25"/>
     <cellStyle name="입력" xfId="1" builtinId="20"/>
+    <cellStyle name="제목" xfId="12" builtinId="15"/>
+    <cellStyle name="제목 1" xfId="13" builtinId="16"/>
+    <cellStyle name="제목 2" xfId="14" builtinId="17"/>
+    <cellStyle name="제목 3" xfId="15" builtinId="18"/>
+    <cellStyle name="제목 4" xfId="16" builtinId="19"/>
+    <cellStyle name="좋음" xfId="22" builtinId="26"/>
+    <cellStyle name="출력" xfId="17" builtinId="21"/>
+    <cellStyle name="통화" xfId="7" builtinId="4"/>
+    <cellStyle name="통화[0]" xfId="10" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="4" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -926,124 +1378,124 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="T42" sqref="T42"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.62500000" defaultRowHeight="16.500000"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:24">
+      <c r="A1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="15"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="14"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="18"/>
+    <row r="2" spans="1:24">
+      <c r="A2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="17"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="18"/>
+    <row r="3" spans="1:24">
+      <c r="A3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="17"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:24" ht="17.250000">
+      <c r="A4" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="21"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="20"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="17.250000">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1115,7 +1567,7 @@
       </c>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -1141,12 +1593,12 @@
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
       <c r="W6" s="8" t="str">
-        <f t="shared" ref="W6:W26" si="0">COUNTIF(B6:U6,"O")*5&amp;"%"</f>
+        <f>COUNTIF(B6:U6,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24">
       <c r="A7" s="6" t="s">
         <v>35</v>
       </c>
@@ -1210,12 +1662,12 @@
       </c>
       <c r="V7" s="7"/>
       <c r="W7" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B7:U7,"O")*5&amp;"%"</f>
         <v>50%</v>
       </c>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24">
       <c r="A8" s="6" t="s">
         <v>34</v>
       </c>
@@ -1281,12 +1733,12 @@
       </c>
       <c r="V8" s="7"/>
       <c r="W8" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B8:U8,"O")*5&amp;"%"</f>
         <v>95%</v>
       </c>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24">
       <c r="A9" s="6" t="s">
         <v>31</v>
       </c>
@@ -1350,12 +1802,12 @@
       </c>
       <c r="V9" s="7"/>
       <c r="W9" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B9:U9,"O")*5&amp;"%"</f>
         <v>75%</v>
       </c>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24">
       <c r="A10" s="6" t="s">
         <v>39</v>
       </c>
@@ -1419,12 +1871,12 @@
       </c>
       <c r="V10" s="7"/>
       <c r="W10" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B10:U10,"O")*5&amp;"%"</f>
         <v>90%</v>
       </c>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24">
       <c r="A11" s="6" t="s">
         <v>43</v>
       </c>
@@ -1488,12 +1940,12 @@
       </c>
       <c r="V11" s="7"/>
       <c r="W11" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B11:U11,"O")*5&amp;"%"</f>
         <v>70%</v>
       </c>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24">
       <c r="A12" s="6" t="s">
         <v>29</v>
       </c>
@@ -1519,12 +1971,12 @@
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
       <c r="W12" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B12:U12,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24">
       <c r="A13" s="6" t="s">
         <v>30</v>
       </c>
@@ -1550,12 +2002,12 @@
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
       <c r="W13" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B13:U13,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
@@ -1619,12 +2071,12 @@
       </c>
       <c r="V14" s="7"/>
       <c r="W14" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B14:U14,"O")*5&amp;"%"</f>
         <v>60%</v>
       </c>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24">
       <c r="A15" s="6" t="s">
         <v>28</v>
       </c>
@@ -1688,12 +2140,12 @@
       </c>
       <c r="V15" s="7"/>
       <c r="W15" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B15:U15,"O")*5&amp;"%"</f>
         <v>90%</v>
       </c>
       <c r="X15" s="1"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24">
       <c r="A16" s="6" t="s">
         <v>40</v>
       </c>
@@ -1719,12 +2171,12 @@
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
       <c r="W16" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B16:U16,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24">
       <c r="A17" s="6" t="s">
         <v>48</v>
       </c>
@@ -1750,12 +2202,12 @@
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
       <c r="W17" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B17:U17,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
       <c r="X17" s="1"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24">
       <c r="A18" s="6" t="s">
         <v>33</v>
       </c>
@@ -1781,81 +2233,83 @@
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
       <c r="W18" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B18:U18,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
       <c r="X18" s="1"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24">
       <c r="A19" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I19" s="12" t="s">
+      <c r="I19" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="J19" s="12" t="s">
+      <c r="J19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K19" s="12" t="s">
+      <c r="K19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="L19" s="12" t="s">
+      <c r="L19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="M19" s="12" t="s">
+      <c r="M19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="N19" s="12" t="s">
+      <c r="N19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="O19" s="12" t="s">
+      <c r="O19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12" t="s">
+      <c r="P19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="R19" s="12" t="s">
+      <c r="Q19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="S19" s="12" t="s">
+      <c r="R19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="T19" s="12" t="s">
+      <c r="S19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="U19" s="12" t="s">
+      <c r="T19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="U19" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="V19" s="12"/>
+      <c r="V19" s="7"/>
       <c r="W19" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>70%</v>
+        <f>COUNTIF(B19:U19,"O")*5&amp;"%"</f>
+        <v>75%</v>
       </c>
       <c r="X19" s="1"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24">
       <c r="A20" s="6" t="s">
         <v>37</v>
       </c>
@@ -1881,12 +2335,12 @@
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
       <c r="W20" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B20:U20,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
       <c r="X20" s="1"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24">
       <c r="A21" s="6" t="s">
         <v>44</v>
       </c>
@@ -1912,12 +2366,12 @@
       <c r="U21" s="7"/>
       <c r="V21" s="7"/>
       <c r="W21" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B21:U21,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
       <c r="X21" s="1"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24">
       <c r="A22" s="6" t="s">
         <v>38</v>
       </c>
@@ -1943,12 +2397,12 @@
       <c r="U22" s="7"/>
       <c r="V22" s="7"/>
       <c r="W22" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B22:U22,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
       <c r="X22" s="1"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24">
       <c r="A23" s="6" t="s">
         <v>36</v>
       </c>
@@ -1974,12 +2428,12 @@
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
       <c r="W23" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B23:U23,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
       <c r="X23" s="1"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24">
       <c r="A24" s="6" t="s">
         <v>46</v>
       </c>
@@ -2043,12 +2497,12 @@
       </c>
       <c r="V24" s="7"/>
       <c r="W24" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B24:U24,"O")*5&amp;"%"</f>
         <v>60%</v>
       </c>
       <c r="X24" s="1"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24">
       <c r="A25" s="6" t="s">
         <v>47</v>
       </c>
@@ -2112,173 +2566,173 @@
       </c>
       <c r="V25" s="7"/>
       <c r="W25" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B25:U25,"O")*5&amp;"%"</f>
         <v>95%</v>
       </c>
       <c r="X25" s="1"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24">
       <c r="A26" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="G26" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H26" s="12" t="s">
+      <c r="H26" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I26" s="12" t="s">
+      <c r="I26" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="J26" s="12" t="s">
+      <c r="J26" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K26" s="12" t="s">
+      <c r="K26" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="L26" s="12" t="s">
+      <c r="L26" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="M26" s="12" t="s">
+      <c r="M26" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="N26" s="12" t="s">
+      <c r="N26" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="O26" s="12" t="s">
+      <c r="O26" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="P26" s="12" t="s">
+      <c r="P26" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="Q26" s="12" t="s">
+      <c r="Q26" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="R26" s="12" t="s">
+      <c r="R26" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="S26" s="12" t="s">
+      <c r="S26" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="T26" s="12" t="s">
+      <c r="T26" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="U26" s="12" t="s">
+      <c r="U26" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="V26" s="12"/>
+      <c r="V26" s="7"/>
       <c r="W26" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B26:U26,"O")*5&amp;"%"</f>
         <v>85%</v>
       </c>
       <c r="X26" s="1"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="17.250000">
       <c r="A27" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B27" s="10">
-        <f t="shared" ref="B27:V27" si="1">COUNTIF(B6:B26,"O")*5</f>
+        <f>COUNTIF(B6:B26,"O")*5</f>
         <v>55</v>
       </c>
       <c r="C27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(C6:C26,"O")*5</f>
         <v>45</v>
       </c>
       <c r="D27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D6:D26,"O")*5</f>
         <v>45</v>
       </c>
       <c r="E27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(E6:E26,"O")*5</f>
         <v>30</v>
       </c>
       <c r="F27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F6:F26,"O")*5</f>
         <v>35</v>
       </c>
       <c r="G27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(G6:G26,"O")*5</f>
         <v>45</v>
       </c>
       <c r="H27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(H6:H26,"O")*5</f>
         <v>30</v>
       </c>
       <c r="I27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(I6:I26,"O")*5</f>
         <v>35</v>
       </c>
       <c r="J27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(J6:J26,"O")*5</f>
         <v>40</v>
       </c>
       <c r="K27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(K6:K26,"O")*5</f>
         <v>40</v>
       </c>
       <c r="L27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(L6:L26,"O")*5</f>
         <v>40</v>
       </c>
       <c r="M27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(M6:M26,"O")*5</f>
         <v>50</v>
       </c>
       <c r="N27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(N6:N26,"O")*5</f>
         <v>40</v>
       </c>
       <c r="O27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(O6:O26,"O")*5</f>
         <v>50</v>
       </c>
       <c r="P27" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>COUNTIF(P6:P26,"O")*5</f>
+        <v>15</v>
       </c>
       <c r="Q27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(Q6:Q26,"O")*5</f>
         <v>50</v>
       </c>
       <c r="R27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(R6:R26,"O")*5</f>
         <v>55</v>
       </c>
       <c r="S27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(S6:S26,"O")*5</f>
         <v>50</v>
       </c>
       <c r="T27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(T6:T26,"O")*5</f>
         <v>50</v>
       </c>
       <c r="U27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(U6:U26,"O")*5</f>
         <v>45</v>
       </c>
       <c r="V27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(V6:V26,"O")*5</f>
         <v>0</v>
       </c>
       <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>
-        <v>42</v>
+        <v>42.25</v>
       </c>
       <c r="X27" s="7" t="s">
         <v>45</v>
@@ -2290,7 +2744,7 @@
     <mergeCell ref="A4:W4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\66547\OneDrive\사진\바탕 화면\새 폴더\2022_DeepLearningStudy\02_Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2528CC1D-755A-48B6-ABC6-D275A3F1D236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD9D7B1-F261-4851-A1C5-4CDD80657327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4200" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -930,7 +930,7 @@
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="T42" sqref="T42"/>
+      <selection activeCell="B26" sqref="B26:V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\66547\OneDrive\사진\바탕 화면\새 폴더\2022_DeepLearningStudy\02_Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD9D7B1-F261-4851-A1C5-4CDD80657327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E82FCAB-F289-4D69-9B14-05571B28149D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4890" yWindow="3420" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -1,37 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="9.103.88.44548"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\66547\OneDrive\사진\바탕 화면\새 폴더\2022_DeepLearningStudy\02_Test_Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E82FCAB-F289-4D69-9B14-05571B28149D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="3420" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>김도희</t>
   </si>
@@ -214,92 +198,161 @@
   </si>
   <si>
     <t>o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="24">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF3F3F76"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FFFFFFFF"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="30"/>
+      <sz val="30.0"/>
+      <name val="HY헤드라인M"/>
       <color rgb="FF000000"/>
-      <name val="HY헤드라인M"/>
-      <family val="1"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="HY헤드라인M"/>
       <color rgb="FF000000"/>
-      <name val="HY헤드라인M"/>
-      <family val="1"/>
-      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="10"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="11"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="11.0"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -322,12 +375,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFED7D31"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4472C4"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -369,13 +416,356 @@
         </stop>
       </gradientFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="22">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -394,114 +784,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,129 +802,288 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color auto="1"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="18" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="19" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="49">
     <cellStyle name="20% - 강조색1" xfId="3" builtinId="30"/>
+    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
+    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
+    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
+    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
+    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
+    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
+    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
+    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
+    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
+    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
+    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
+    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
+    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
+    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
+    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
+    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
+    <cellStyle name="강조색1" xfId="25" builtinId="29"/>
+    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
+    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
+    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
+    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
+    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
+    <cellStyle name="경고문" xfId="11" builtinId="11"/>
+    <cellStyle name="계산" xfId="18" builtinId="22"/>
+    <cellStyle name="나쁨" xfId="23" builtinId="27"/>
     <cellStyle name="메모" xfId="2" builtinId="10"/>
+    <cellStyle name="백분율" xfId="8" builtinId="5"/>
+    <cellStyle name="보통" xfId="24" builtinId="28"/>
+    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
+    <cellStyle name="셀 확인" xfId="19" builtinId="23"/>
+    <cellStyle name="쉼표" xfId="6" builtinId="3"/>
+    <cellStyle name="쉼표[0]" xfId="9" builtinId="6"/>
+    <cellStyle name="연결된 셀" xfId="20" builtinId="24"/>
     <cellStyle name="열어 본 하이퍼링크" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="요약" xfId="21" builtinId="25"/>
     <cellStyle name="입력" xfId="1" builtinId="20"/>
+    <cellStyle name="제목" xfId="12" builtinId="15"/>
+    <cellStyle name="제목 1" xfId="13" builtinId="16"/>
+    <cellStyle name="제목 2" xfId="14" builtinId="17"/>
+    <cellStyle name="제목 3" xfId="15" builtinId="18"/>
+    <cellStyle name="제목 4" xfId="16" builtinId="19"/>
+    <cellStyle name="좋음" xfId="22" builtinId="26"/>
+    <cellStyle name="출력" xfId="17" builtinId="21"/>
+    <cellStyle name="통화" xfId="7" builtinId="4"/>
+    <cellStyle name="통화[0]" xfId="10" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="4" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -926,124 +1378,124 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:V26"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.62500000" defaultRowHeight="16.500000"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:24">
+      <c r="A1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="15"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="14"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="18"/>
+    <row r="2" spans="1:24">
+      <c r="A2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="17"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="18"/>
+    <row r="3" spans="1:24">
+      <c r="A3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="17"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:24" ht="17.250000">
+      <c r="A4" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="21"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="20"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="17.250000">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1115,7 +1567,7 @@
       </c>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -1141,12 +1593,12 @@
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
       <c r="W6" s="8" t="str">
-        <f t="shared" ref="W6:W26" si="0">COUNTIF(B6:U6,"O")*5&amp;"%"</f>
+        <f>COUNTIF(B6:U6,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24">
       <c r="A7" s="6" t="s">
         <v>35</v>
       </c>
@@ -1210,12 +1662,12 @@
       </c>
       <c r="V7" s="7"/>
       <c r="W7" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B7:U7,"O")*5&amp;"%"</f>
         <v>50%</v>
       </c>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24">
       <c r="A8" s="6" t="s">
         <v>34</v>
       </c>
@@ -1281,12 +1733,12 @@
       </c>
       <c r="V8" s="7"/>
       <c r="W8" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B8:U8,"O")*5&amp;"%"</f>
         <v>95%</v>
       </c>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24">
       <c r="A9" s="6" t="s">
         <v>31</v>
       </c>
@@ -1350,12 +1802,12 @@
       </c>
       <c r="V9" s="7"/>
       <c r="W9" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B9:U9,"O")*5&amp;"%"</f>
         <v>75%</v>
       </c>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24">
       <c r="A10" s="6" t="s">
         <v>39</v>
       </c>
@@ -1419,12 +1871,12 @@
       </c>
       <c r="V10" s="7"/>
       <c r="W10" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B10:U10,"O")*5&amp;"%"</f>
         <v>90%</v>
       </c>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24">
       <c r="A11" s="6" t="s">
         <v>43</v>
       </c>
@@ -1488,12 +1940,12 @@
       </c>
       <c r="V11" s="7"/>
       <c r="W11" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B11:U11,"O")*5&amp;"%"</f>
         <v>70%</v>
       </c>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24">
       <c r="A12" s="6" t="s">
         <v>29</v>
       </c>
@@ -1519,12 +1971,12 @@
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
       <c r="W12" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B12:U12,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24">
       <c r="A13" s="6" t="s">
         <v>30</v>
       </c>
@@ -1550,12 +2002,12 @@
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
       <c r="W13" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B13:U13,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
@@ -1619,12 +2071,12 @@
       </c>
       <c r="V14" s="7"/>
       <c r="W14" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B14:U14,"O")*5&amp;"%"</f>
         <v>60%</v>
       </c>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24">
       <c r="A15" s="6" t="s">
         <v>28</v>
       </c>
@@ -1688,12 +2140,12 @@
       </c>
       <c r="V15" s="7"/>
       <c r="W15" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B15:U15,"O")*5&amp;"%"</f>
         <v>90%</v>
       </c>
       <c r="X15" s="1"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24">
       <c r="A16" s="6" t="s">
         <v>40</v>
       </c>
@@ -1719,12 +2171,12 @@
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
       <c r="W16" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B16:U16,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24">
       <c r="A17" s="6" t="s">
         <v>48</v>
       </c>
@@ -1750,12 +2202,12 @@
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
       <c r="W17" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B17:U17,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
       <c r="X17" s="1"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24">
       <c r="A18" s="6" t="s">
         <v>33</v>
       </c>
@@ -1781,81 +2233,83 @@
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
       <c r="W18" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B18:U18,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
       <c r="X18" s="1"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24">
       <c r="A19" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I19" s="12" t="s">
+      <c r="I19" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="J19" s="12" t="s">
+      <c r="J19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K19" s="12" t="s">
+      <c r="K19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="L19" s="12" t="s">
+      <c r="L19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="M19" s="12" t="s">
+      <c r="M19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="N19" s="12" t="s">
+      <c r="N19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="O19" s="12" t="s">
+      <c r="O19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12" t="s">
+      <c r="P19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="R19" s="12" t="s">
+      <c r="Q19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="S19" s="12" t="s">
+      <c r="R19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="T19" s="12" t="s">
+      <c r="S19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="U19" s="12" t="s">
+      <c r="T19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="U19" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="V19" s="12"/>
+      <c r="V19" s="7"/>
       <c r="W19" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>70%</v>
+        <f>COUNTIF(B19:U19,"O")*5&amp;"%"</f>
+        <v>75%</v>
       </c>
       <c r="X19" s="1"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24">
       <c r="A20" s="6" t="s">
         <v>37</v>
       </c>
@@ -1881,12 +2335,12 @@
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
       <c r="W20" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B20:U20,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
       <c r="X20" s="1"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24">
       <c r="A21" s="6" t="s">
         <v>44</v>
       </c>
@@ -1912,12 +2366,12 @@
       <c r="U21" s="7"/>
       <c r="V21" s="7"/>
       <c r="W21" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B21:U21,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
       <c r="X21" s="1"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24">
       <c r="A22" s="6" t="s">
         <v>38</v>
       </c>
@@ -1943,12 +2397,12 @@
       <c r="U22" s="7"/>
       <c r="V22" s="7"/>
       <c r="W22" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B22:U22,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
       <c r="X22" s="1"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24">
       <c r="A23" s="6" t="s">
         <v>36</v>
       </c>
@@ -1974,12 +2428,12 @@
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
       <c r="W23" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B23:U23,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
       <c r="X23" s="1"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24">
       <c r="A24" s="6" t="s">
         <v>46</v>
       </c>
@@ -2043,12 +2497,12 @@
       </c>
       <c r="V24" s="7"/>
       <c r="W24" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B24:U24,"O")*5&amp;"%"</f>
         <v>60%</v>
       </c>
       <c r="X24" s="1"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24">
       <c r="A25" s="6" t="s">
         <v>47</v>
       </c>
@@ -2112,173 +2566,173 @@
       </c>
       <c r="V25" s="7"/>
       <c r="W25" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B25:U25,"O")*5&amp;"%"</f>
         <v>95%</v>
       </c>
       <c r="X25" s="1"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24">
       <c r="A26" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="G26" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H26" s="12" t="s">
+      <c r="H26" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I26" s="12" t="s">
+      <c r="I26" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="J26" s="12" t="s">
+      <c r="J26" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K26" s="12" t="s">
+      <c r="K26" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="L26" s="12" t="s">
+      <c r="L26" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="M26" s="12" t="s">
+      <c r="M26" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="N26" s="12" t="s">
+      <c r="N26" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="O26" s="12" t="s">
+      <c r="O26" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="P26" s="12" t="s">
+      <c r="P26" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="Q26" s="12" t="s">
+      <c r="Q26" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="R26" s="12" t="s">
+      <c r="R26" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="S26" s="12" t="s">
+      <c r="S26" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="T26" s="12" t="s">
+      <c r="T26" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="U26" s="12" t="s">
+      <c r="U26" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="V26" s="12"/>
+      <c r="V26" s="7"/>
       <c r="W26" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B26:U26,"O")*5&amp;"%"</f>
         <v>85%</v>
       </c>
       <c r="X26" s="1"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="17.250000">
       <c r="A27" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B27" s="10">
-        <f t="shared" ref="B27:V27" si="1">COUNTIF(B6:B26,"O")*5</f>
+        <f>COUNTIF(B6:B26,"O")*5</f>
         <v>55</v>
       </c>
       <c r="C27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(C6:C26,"O")*5</f>
         <v>45</v>
       </c>
       <c r="D27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D6:D26,"O")*5</f>
         <v>45</v>
       </c>
       <c r="E27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(E6:E26,"O")*5</f>
         <v>30</v>
       </c>
       <c r="F27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F6:F26,"O")*5</f>
         <v>35</v>
       </c>
       <c r="G27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(G6:G26,"O")*5</f>
         <v>45</v>
       </c>
       <c r="H27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(H6:H26,"O")*5</f>
         <v>30</v>
       </c>
       <c r="I27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(I6:I26,"O")*5</f>
         <v>35</v>
       </c>
       <c r="J27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(J6:J26,"O")*5</f>
         <v>40</v>
       </c>
       <c r="K27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(K6:K26,"O")*5</f>
         <v>40</v>
       </c>
       <c r="L27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(L6:L26,"O")*5</f>
         <v>40</v>
       </c>
       <c r="M27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(M6:M26,"O")*5</f>
         <v>50</v>
       </c>
       <c r="N27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(N6:N26,"O")*5</f>
         <v>40</v>
       </c>
       <c r="O27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(O6:O26,"O")*5</f>
         <v>50</v>
       </c>
       <c r="P27" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>COUNTIF(P6:P26,"O")*5</f>
+        <v>15</v>
       </c>
       <c r="Q27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(Q6:Q26,"O")*5</f>
         <v>50</v>
       </c>
       <c r="R27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(R6:R26,"O")*5</f>
         <v>55</v>
       </c>
       <c r="S27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(S6:S26,"O")*5</f>
         <v>50</v>
       </c>
       <c r="T27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(T6:T26,"O")*5</f>
         <v>50</v>
       </c>
       <c r="U27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(U6:U26,"O")*5</f>
         <v>45</v>
       </c>
       <c r="V27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(V6:V26,"O")*5</f>
         <v>0</v>
       </c>
       <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>
-        <v>42</v>
+        <v>42.25</v>
       </c>
       <c r="X27" s="7" t="s">
         <v>45</v>
@@ -2290,7 +2744,7 @@
     <mergeCell ref="A4:W4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -1,21 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="9.103.88.44548"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlfkr\Desktop\딥러닝스터디\2022_DeepLearningStudy\02_Test_Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F1CF95-8B39-48BF-A9B4-9F832476D053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="20430" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="62">
   <si>
     <t>김도희</t>
   </si>
@@ -195,169 +211,102 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
-      <color rgb="FF000000"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="맑은 고딕"/>
-      <color rgb="FF3F3F76"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="맑은 고딕"/>
-      <color rgb="FFFFFFFF"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
-      <color rgb="FF000000"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="30.0"/>
+      <sz val="30"/>
+      <color rgb="FF000000"/>
       <name val="HY헤드라인M"/>
-      <color rgb="FF000000"/>
+      <family val="1"/>
+      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="HY헤드라인M"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <sz val="8.0"/>
-      <name val="나눔명조"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <sz val="8.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF000000"/>
+      <family val="1"/>
+      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
-      <color theme="10"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="맑은 고딕"/>
-      <color theme="11"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
-      <color rgb="FFFF0000"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
-      <sz val="18.0"/>
+      <sz val="8"/>
       <name val="맑은 고딕"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FF3F3F3F"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FFFA7D00"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FFFFFFFF"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FFFA7D00"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FF006100"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FF9C0006"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FF9C6500"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="0"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FF7F7F7F"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -427,356 +376,13 @@
         </stop>
       </gradientFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="22">
+  <borders count="14">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FFACCCEA"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399980"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -795,17 +401,114 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -813,169 +516,40 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="17" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="18" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="19" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -986,118 +560,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="6">
     <cellStyle name="20% - 강조색1" xfId="3" builtinId="30"/>
-    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
-    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
-    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
-    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
-    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
-    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
-    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
-    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
-    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
-    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
-    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
-    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
-    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
-    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
-    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
-    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
-    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
-    <cellStyle name="강조색1" xfId="25" builtinId="29"/>
-    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
-    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
-    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
-    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
-    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
-    <cellStyle name="경고문" xfId="11" builtinId="11"/>
-    <cellStyle name="계산" xfId="18" builtinId="22"/>
-    <cellStyle name="나쁨" xfId="23" builtinId="27"/>
     <cellStyle name="메모" xfId="2" builtinId="10"/>
-    <cellStyle name="백분율" xfId="6" builtinId="5"/>
-    <cellStyle name="보통" xfId="24" builtinId="28"/>
-    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
-    <cellStyle name="셀 확인" xfId="19" builtinId="23"/>
-    <cellStyle name="쉼표" xfId="4" builtinId="3"/>
-    <cellStyle name="쉼표[0]" xfId="7" builtinId="6"/>
-    <cellStyle name="연결된 셀" xfId="20" builtinId="24"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="요약" xfId="21" builtinId="25"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="입력" xfId="1" builtinId="20"/>
-    <cellStyle name="제목" xfId="12" builtinId="15"/>
-    <cellStyle name="제목 1" xfId="13" builtinId="16"/>
-    <cellStyle name="제목 2" xfId="14" builtinId="17"/>
-    <cellStyle name="제목 3" xfId="15" builtinId="18"/>
-    <cellStyle name="제목 4" xfId="16" builtinId="19"/>
-    <cellStyle name="좋음" xfId="22" builtinId="26"/>
-    <cellStyle name="출력" xfId="17" builtinId="21"/>
-    <cellStyle name="통화" xfId="5" builtinId="4"/>
-    <cellStyle name="통화[0]" xfId="8" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="4" builtinId="8" hidden="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1392,124 +933,124 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="Y24" sqref="Y24"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.62500000" defaultRowHeight="16.500000"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="15"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:24">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="17"/>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="18"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:24">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="17"/>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="18"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:24" ht="17.250000">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="21"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:24" ht="17.250000">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1581,7 +1122,7 @@
       </c>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -1607,12 +1148,12 @@
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
       <c r="W6" s="8" t="str">
-        <f>COUNTIF(B6:U6,"O")*5&amp;"%"</f>
+        <f t="shared" ref="W6:W26" si="0">COUNTIF(B6:U6,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>35</v>
       </c>
@@ -1676,12 +1217,12 @@
       </c>
       <c r="V7" s="7"/>
       <c r="W7" s="8" t="str">
-        <f>COUNTIF(B7:U7,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>50%</v>
       </c>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>34</v>
       </c>
@@ -1747,12 +1288,12 @@
       </c>
       <c r="V8" s="7"/>
       <c r="W8" s="8" t="str">
-        <f>COUNTIF(B8:U8,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>95%</v>
       </c>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>31</v>
       </c>
@@ -1816,12 +1357,12 @@
       </c>
       <c r="V9" s="7"/>
       <c r="W9" s="8" t="str">
-        <f>COUNTIF(B9:U9,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>75%</v>
       </c>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>39</v>
       </c>
@@ -1885,12 +1426,12 @@
       </c>
       <c r="V10" s="7"/>
       <c r="W10" s="8" t="str">
-        <f>COUNTIF(B10:U10,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>90%</v>
       </c>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>43</v>
       </c>
@@ -1954,12 +1495,12 @@
       </c>
       <c r="V11" s="7"/>
       <c r="W11" s="8" t="str">
-        <f>COUNTIF(B11:U11,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>70%</v>
       </c>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>29</v>
       </c>
@@ -1985,12 +1526,12 @@
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
       <c r="W12" s="8" t="str">
-        <f>COUNTIF(B12:U12,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>0%</v>
       </c>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>30</v>
       </c>
@@ -2016,12 +1557,12 @@
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
       <c r="W13" s="8" t="str">
-        <f>COUNTIF(B13:U13,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>0%</v>
       </c>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
@@ -2085,12 +1626,12 @@
       </c>
       <c r="V14" s="7"/>
       <c r="W14" s="8" t="str">
-        <f>COUNTIF(B14:U14,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>60%</v>
       </c>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>28</v>
       </c>
@@ -2154,12 +1695,12 @@
       </c>
       <c r="V15" s="7"/>
       <c r="W15" s="8" t="str">
-        <f>COUNTIF(B15:U15,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>90%</v>
       </c>
       <c r="X15" s="1"/>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>40</v>
       </c>
@@ -2185,12 +1726,12 @@
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
       <c r="W16" s="8" t="str">
-        <f>COUNTIF(B16:U16,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>0%</v>
       </c>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>48</v>
       </c>
@@ -2216,12 +1757,12 @@
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
       <c r="W17" s="8" t="str">
-        <f>COUNTIF(B17:U17,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>0%</v>
       </c>
       <c r="X17" s="1"/>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>33</v>
       </c>
@@ -2247,112 +1788,152 @@
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
       <c r="W18" s="8" t="str">
-        <f>COUNTIF(B18:U18,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>0%</v>
       </c>
       <c r="X18" s="1"/>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="G19" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="21" t="s">
+      <c r="H19" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="I19" s="21" t="s">
+      <c r="I19" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="J19" s="21" t="s">
+      <c r="J19" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="K19" s="21" t="s">
+      <c r="K19" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="L19" s="21" t="s">
+      <c r="L19" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="M19" s="21" t="s">
+      <c r="M19" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="N19" s="21" t="s">
+      <c r="N19" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="O19" s="21" t="s">
+      <c r="O19" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21" t="s">
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="R19" s="21" t="s">
+      <c r="R19" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="S19" s="21" t="s">
+      <c r="S19" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="T19" s="21" t="s">
+      <c r="T19" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="U19" s="21" t="s">
+      <c r="U19" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="V19" s="21"/>
+      <c r="V19" s="12"/>
       <c r="W19" s="8" t="str">
-        <f>COUNTIF(B19:U19,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>70%</v>
       </c>
       <c r="X19" s="1"/>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
+      <c r="B20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="O20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="R20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="S20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="T20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V20" s="12"/>
       <c r="W20" s="8" t="str">
-        <f>COUNTIF(B20:U20,"O")*5&amp;"%"</f>
-        <v>0%</v>
+        <f t="shared" si="0"/>
+        <v>95%</v>
       </c>
       <c r="X20" s="1"/>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>44</v>
       </c>
@@ -2378,12 +1959,12 @@
       <c r="U21" s="7"/>
       <c r="V21" s="7"/>
       <c r="W21" s="8" t="str">
-        <f>COUNTIF(B21:U21,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>0%</v>
       </c>
       <c r="X21" s="1"/>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>38</v>
       </c>
@@ -2409,12 +1990,12 @@
       <c r="U22" s="7"/>
       <c r="V22" s="7"/>
       <c r="W22" s="8" t="str">
-        <f>COUNTIF(B22:U22,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>0%</v>
       </c>
       <c r="X22" s="1"/>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>36</v>
       </c>
@@ -2440,12 +2021,12 @@
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
       <c r="W23" s="8" t="str">
-        <f>COUNTIF(B23:U23,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>0%</v>
       </c>
       <c r="X23" s="1"/>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>46</v>
       </c>
@@ -2509,12 +2090,12 @@
       </c>
       <c r="V24" s="7"/>
       <c r="W24" s="8" t="str">
-        <f>COUNTIF(B24:U24,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>60%</v>
       </c>
       <c r="X24" s="1"/>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>47</v>
       </c>
@@ -2578,12 +2159,12 @@
       </c>
       <c r="V25" s="7"/>
       <c r="W25" s="8" t="str">
-        <f>COUNTIF(B25:U25,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>95%</v>
       </c>
       <c r="X25" s="1"/>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>41</v>
       </c>
@@ -2609,102 +2190,102 @@
       <c r="U26" s="7"/>
       <c r="V26" s="7"/>
       <c r="W26" s="8" t="str">
-        <f>COUNTIF(B26:U26,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>0%</v>
       </c>
       <c r="X26" s="1"/>
     </row>
-    <row r="27" spans="1:24" ht="17.250000">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B27" s="10">
-        <f>COUNTIF(B6:B26,"O")*5</f>
-        <v>50</v>
+        <f t="shared" ref="B27:V27" si="1">COUNTIF(B6:B26,"O")*5</f>
+        <v>55</v>
       </c>
       <c r="C27" s="10">
-        <f>COUNTIF(C6:C26,"O")*5</f>
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="D27" s="10">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="E27" s="10">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="G27" s="10">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="H27" s="10">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="I27" s="10">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="J27" s="10">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="D27" s="10">
-        <f>COUNTIF(D6:D26,"O")*5</f>
+      <c r="K27" s="10">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="L27" s="10">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="E27" s="10">
-        <f>COUNTIF(E6:E26,"O")*5</f>
-        <v>25</v>
-      </c>
-      <c r="F27" s="10">
-        <f>COUNTIF(F6:F26,"O")*5</f>
-        <v>30</v>
-      </c>
-      <c r="G27" s="10">
-        <f>COUNTIF(G6:G26,"O")*5</f>
-        <v>40</v>
-      </c>
-      <c r="H27" s="10">
-        <f>COUNTIF(H6:H26,"O")*5</f>
-        <v>30</v>
-      </c>
-      <c r="I27" s="10">
-        <f>COUNTIF(I6:I26,"O")*5</f>
-        <v>30</v>
-      </c>
-      <c r="J27" s="10">
-        <f>COUNTIF(J6:J26,"O")*5</f>
-        <v>35</v>
-      </c>
-      <c r="K27" s="10">
-        <f>COUNTIF(K6:K26,"O")*5</f>
-        <v>40</v>
-      </c>
-      <c r="L27" s="10">
-        <f>COUNTIF(L6:L26,"O")*5</f>
-        <v>35</v>
-      </c>
       <c r="M27" s="10">
-        <f>COUNTIF(M6:M26,"O")*5</f>
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="N27" s="10">
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="N27" s="10">
-        <f>COUNTIF(N6:N26,"O")*5</f>
-        <v>40</v>
-      </c>
       <c r="O27" s="10">
-        <f>COUNTIF(O6:O26,"O")*5</f>
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="P27" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="Q27" s="10">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="R27" s="10">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="S27" s="10">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="T27" s="10">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="U27" s="10">
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="P27" s="10">
-        <f>COUNTIF(P6:P26,"O")*5</f>
-        <v>5</v>
-      </c>
-      <c r="Q27" s="10">
-        <f>COUNTIF(Q6:Q26,"O")*5</f>
-        <v>45</v>
-      </c>
-      <c r="R27" s="10">
-        <f>COUNTIF(R6:R26,"O")*5</f>
-        <v>50</v>
-      </c>
-      <c r="S27" s="10">
-        <f>COUNTIF(S6:S26,"O")*5</f>
-        <v>45</v>
-      </c>
-      <c r="T27" s="10">
-        <f>COUNTIF(T6:T26,"O")*5</f>
-        <v>45</v>
-      </c>
-      <c r="U27" s="10">
-        <f>COUNTIF(U6:U26,"O")*5</f>
-        <v>40</v>
-      </c>
       <c r="V27" s="10">
-        <f>COUNTIF(V6:V26,"O")*5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>
-        <v>37.75</v>
+        <v>42.5</v>
       </c>
       <c r="X27" s="7" t="s">
         <v>45</v>
@@ -2716,7 +2297,7 @@
     <mergeCell ref="A4:W4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlfkr\Desktop\딥러닝스터디\2022_DeepLearningStudy\02_Test_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2affedf885c1892d/바탕 화면/ㄴ/2022_DeepLearningStudy/02_Test_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6C3608-AAAB-46BC-88C1-A2129B741E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{2A6C3608-AAAB-46BC-88C1-A2129B741E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{933A0C7D-A3C4-4347-BD23-6AE1A91719AB}"/>
   <bookViews>
-    <workbookView xWindow="6510" yWindow="1050" windowWidth="20430" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="54">
   <si>
     <t>유하영</t>
   </si>
@@ -1250,7 +1250,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1259,7 +1259,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="8" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1576,7 +1576,7 @@
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="AB22" sqref="AB22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2755,7 +2755,9 @@
       <c r="O24" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="P24" s="7"/>
+      <c r="P24" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="Q24" s="7" t="s">
         <v>45</v>
       </c>
@@ -2771,7 +2773,9 @@
       <c r="U24" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="V24" s="7"/>
+      <c r="V24" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="W24" s="8" t="str">
         <f t="shared" si="0"/>
         <v>60%</v>
@@ -3004,7 +3008,7 @@
       </c>
       <c r="V27" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>

--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2affedf885c1892d/바탕 화면/ㄴ/2022_DeepLearningStudy/02_Test_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hjwon\Desktop\딥러닝 스터디\2022_DeepLearningStudy\02_Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{2A6C3608-AAAB-46BC-88C1-A2129B741E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{933A0C7D-A3C4-4347-BD23-6AE1A91719AB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB425135-08AA-4D3C-83CE-38999821C586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="54">
   <si>
     <t>유하영</t>
   </si>
@@ -1575,13 +1575,13 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="AB22" sqref="AB22"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="V25" sqref="B25:V25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
         <v>43</v>
       </c>
@@ -1609,7 +1609,7 @@
       <c r="W1" s="14"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="15"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -1635,7 +1635,7 @@
       <c r="W2" s="17"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -1661,7 +1661,7 @@
       <c r="W3" s="17"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="18" t="s">
         <v>12</v>
       </c>
@@ -1689,7 +1689,7 @@
       <c r="W4" s="20"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>31</v>
       </c>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>36</v>
       </c>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
         <v>39</v>
       </c>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>41</v>
       </c>
@@ -2070,7 +2070,7 @@
       </c>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
@@ -2139,7 +2139,7 @@
       </c>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
         <v>37</v>
       </c>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
         <v>30</v>
       </c>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>35</v>
       </c>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>42</v>
       </c>
@@ -2339,7 +2339,7 @@
       </c>
       <c r="X15" s="1"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
         <v>23</v>
       </c>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
         <v>29</v>
       </c>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="X17" s="1"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
         <v>40</v>
       </c>
@@ -2432,7 +2432,7 @@
       </c>
       <c r="X18" s="1"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
         <v>22</v>
       </c>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="X19" s="1"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
         <v>34</v>
       </c>
@@ -2574,7 +2574,7 @@
       </c>
       <c r="X20" s="1"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
         <v>28</v>
       </c>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="X21" s="1"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A22" s="6" t="s">
         <v>33</v>
       </c>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="X22" s="1"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
         <v>38</v>
       </c>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="X23" s="1"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A24" s="6" t="s">
         <v>25</v>
       </c>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="X24" s="1"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A25" s="6" t="s">
         <v>26</v>
       </c>
@@ -2828,7 +2828,9 @@
       <c r="O25" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P25" s="7"/>
+      <c r="P25" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="Q25" s="7" t="s">
         <v>48</v>
       </c>
@@ -2844,14 +2846,16 @@
       <c r="U25" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="V25" s="7"/>
+      <c r="V25" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="W25" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>95%</v>
+        <v>100%</v>
       </c>
       <c r="X25" s="1"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A26" s="6" t="s">
         <v>21</v>
       </c>
@@ -2922,7 +2926,7 @@
       </c>
       <c r="X26" s="1"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A27" s="9" t="s">
         <v>17</v>
       </c>
@@ -2984,7 +2988,7 @@
       </c>
       <c r="P27" s="10">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="10">
         <f t="shared" si="1"/>
@@ -3008,11 +3012,11 @@
       </c>
       <c r="V27" s="10">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>
-        <v>50.75</v>
+        <v>51</v>
       </c>
       <c r="X27" s="7" t="s">
         <v>24</v>

--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -5,24 +5,22 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hjwon\Desktop\딥러닝 스터디\2022_DeepLearningStudy\02_Test_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\2022_DeepLearningStudy\02_Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB425135-08AA-4D3C-83CE-38999821C586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F693459-AA1C-4B9D-BE7E-0E9A1832705A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -31,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="55">
   <si>
     <t>유하영</t>
   </si>
@@ -194,6 +192,10 @@
   </si>
   <si>
     <t>X</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -1575,13 +1577,13 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="V25" sqref="B25:V25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
         <v>43</v>
       </c>
@@ -1609,7 +1611,7 @@
       <c r="W1" s="14"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" s="15"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -1635,7 +1637,7 @@
       <c r="W2" s="17"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -1661,7 +1663,7 @@
       <c r="W3" s="17"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A4" s="18" t="s">
         <v>12</v>
       </c>
@@ -1689,7 +1691,7 @@
       <c r="W4" s="20"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1761,7 +1763,7 @@
       </c>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>31</v>
       </c>
@@ -1792,7 +1794,7 @@
       </c>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>36</v>
       </c>
@@ -1861,7 +1863,7 @@
       </c>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>39</v>
       </c>
@@ -1932,7 +1934,7 @@
       </c>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
@@ -2001,7 +2003,7 @@
       </c>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>41</v>
       </c>
@@ -2047,7 +2049,9 @@
       <c r="O10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="P10" s="7"/>
+      <c r="P10" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="Q10" s="7" t="s">
         <v>45</v>
       </c>
@@ -2063,14 +2067,16 @@
       <c r="U10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="V10" s="7"/>
+      <c r="V10" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="W10" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>90%</v>
+        <v>95%</v>
       </c>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
@@ -2139,7 +2145,7 @@
       </c>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>37</v>
       </c>
@@ -2170,7 +2176,7 @@
       </c>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>30</v>
       </c>
@@ -2201,7 +2207,7 @@
       </c>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
         <v>35</v>
       </c>
@@ -2270,7 +2276,7 @@
       </c>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
         <v>42</v>
       </c>
@@ -2339,7 +2345,7 @@
       </c>
       <c r="X15" s="1"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
         <v>23</v>
       </c>
@@ -2370,7 +2376,7 @@
       </c>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
         <v>29</v>
       </c>
@@ -2401,7 +2407,7 @@
       </c>
       <c r="X17" s="1"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
         <v>40</v>
       </c>
@@ -2432,7 +2438,7 @@
       </c>
       <c r="X18" s="1"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
         <v>22</v>
       </c>
@@ -2503,7 +2509,7 @@
       </c>
       <c r="X19" s="1"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
         <v>34</v>
       </c>
@@ -2574,7 +2580,7 @@
       </c>
       <c r="X20" s="1"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
         <v>28</v>
       </c>
@@ -2605,7 +2611,7 @@
       </c>
       <c r="X21" s="1"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
         <v>33</v>
       </c>
@@ -2636,7 +2642,7 @@
       </c>
       <c r="X22" s="1"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
         <v>38</v>
       </c>
@@ -2709,7 +2715,7 @@
       </c>
       <c r="X23" s="1"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
         <v>25</v>
       </c>
@@ -2782,7 +2788,7 @@
       </c>
       <c r="X24" s="1"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
         <v>26</v>
       </c>
@@ -2855,7 +2861,7 @@
       </c>
       <c r="X25" s="1"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
         <v>21</v>
       </c>
@@ -2926,7 +2932,7 @@
       </c>
       <c r="X26" s="1"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A27" s="9" t="s">
         <v>17</v>
       </c>
@@ -2988,7 +2994,7 @@
       </c>
       <c r="P27" s="10">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q27" s="10">
         <f t="shared" si="1"/>
@@ -3012,11 +3018,11 @@
       </c>
       <c r="V27" s="10">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>
-        <v>51</v>
+        <v>51.25</v>
       </c>
       <c r="X27" s="7" t="s">
         <v>24</v>

--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\2022_DeepLearningStudy\02_Test_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Desktop\DeepStudy\2022_DeepLearningStudy\02_Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F693459-AA1C-4B9D-BE7E-0E9A1832705A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA41F34-8AFC-482E-8B62-4C51838EA922}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,6 @@
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="55">
   <si>
     <t>유하영</t>
   </si>
@@ -1578,7 +1577,7 @@
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+      <selection activeCell="B6" sqref="B6:V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1767,30 +1766,72 @@
       <c r="A6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="W6" s="8" t="str">
         <f t="shared" ref="W6:W26" si="0">COUNTIF(B6:U6,"O")*5&amp;"%"</f>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="X6" s="1"/>
     </row>
@@ -2938,91 +2979,91 @@
       </c>
       <c r="B27" s="10">
         <f t="shared" ref="B27:V27" si="1">COUNTIF(B6:B26,"O")*5</f>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C27" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D27" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E27" s="10">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F27" s="10">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G27" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H27" s="10">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I27" s="10">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J27" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K27" s="10">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L27" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="M27" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N27" s="10">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="O27" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="P27" s="10">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Q27" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="R27" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="S27" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="T27" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="U27" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="V27" s="10">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>
-        <v>51.25</v>
+        <v>56.25</v>
       </c>
       <c r="X27" s="7" t="s">
         <v>24</v>

--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0dd125179e27eca2/사진/바탕 화면/새 폴더/2022_DeepLearningStudy/02_Test_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ijin/Desktop/2022_DeepLearningStudy/02_Test_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_544916B8FD4D4C63453D93ED813C01D345C9CB7E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACB00FCA-B7F7-4F87-896B-77F3A79781AB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA70657-B861-3040-9F44-9430A14B5244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4545" yWindow="3075" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4540" yWindow="3080" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="53">
   <si>
     <t>맞음: O 틀림: X</t>
   </si>
@@ -187,13 +187,17 @@
   </si>
   <si>
     <t>7,8-(4)</t>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -742,7 +746,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -751,7 +755,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="8" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1068,12 +1072,12 @@
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:V26"/>
+      <selection activeCell="B15" sqref="B15:V15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -1101,7 +1105,7 @@
       <c r="W1" s="14"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24">
       <c r="A2" s="15"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -1127,7 +1131,7 @@
       <c r="W2" s="17"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -1153,7 +1157,7 @@
       <c r="W3" s="17"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24">
       <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
@@ -1181,7 +1185,7 @@
       <c r="W4" s="20"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1253,7 +1257,7 @@
       </c>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24">
       <c r="A6" s="6" t="s">
         <v>34</v>
       </c>
@@ -1326,7 +1330,7 @@
       </c>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24">
       <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
@@ -1395,7 +1399,7 @@
       </c>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24">
       <c r="A8" s="6" t="s">
         <v>46</v>
       </c>
@@ -1466,7 +1470,7 @@
       </c>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24">
       <c r="A9" s="6" t="s">
         <v>37</v>
       </c>
@@ -1535,7 +1539,7 @@
       </c>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24">
       <c r="A10" s="6" t="s">
         <v>44</v>
       </c>
@@ -1608,7 +1612,7 @@
       </c>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24">
       <c r="A11" s="6" t="s">
         <v>33</v>
       </c>
@@ -1677,7 +1681,7 @@
       </c>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24">
       <c r="A12" s="6" t="s">
         <v>32</v>
       </c>
@@ -1708,7 +1712,7 @@
       </c>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24">
       <c r="A13" s="6" t="s">
         <v>36</v>
       </c>
@@ -1739,7 +1743,7 @@
       </c>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24">
       <c r="A14" s="6" t="s">
         <v>39</v>
       </c>
@@ -1808,7 +1812,7 @@
       </c>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24">
       <c r="A15" s="6" t="s">
         <v>45</v>
       </c>
@@ -1854,7 +1858,9 @@
       <c r="O15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="P15" s="7"/>
+      <c r="P15" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="Q15" s="7" t="s">
         <v>23</v>
       </c>
@@ -1870,14 +1876,16 @@
       <c r="U15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="V15" s="7"/>
+      <c r="V15" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="W15" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>90%</v>
+        <v>95%</v>
       </c>
       <c r="X15" s="1"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24">
       <c r="A16" s="6" t="s">
         <v>47</v>
       </c>
@@ -1950,7 +1958,7 @@
       </c>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24">
       <c r="A17" s="6" t="s">
         <v>41</v>
       </c>
@@ -1981,7 +1989,7 @@
       </c>
       <c r="X17" s="1"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24">
       <c r="A18" s="6" t="s">
         <v>42</v>
       </c>
@@ -2012,7 +2020,7 @@
       </c>
       <c r="X18" s="1"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24">
       <c r="A19" s="6" t="s">
         <v>48</v>
       </c>
@@ -2083,7 +2091,7 @@
       </c>
       <c r="X19" s="1"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24">
       <c r="A20" s="6" t="s">
         <v>30</v>
       </c>
@@ -2154,7 +2162,7 @@
       </c>
       <c r="X20" s="1"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24">
       <c r="A21" s="6" t="s">
         <v>35</v>
       </c>
@@ -2185,7 +2193,7 @@
       </c>
       <c r="X21" s="1"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24">
       <c r="A22" s="6" t="s">
         <v>38</v>
       </c>
@@ -2216,7 +2224,7 @@
       </c>
       <c r="X22" s="1"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24">
       <c r="A23" s="6" t="s">
         <v>43</v>
       </c>
@@ -2289,7 +2297,7 @@
       </c>
       <c r="X23" s="1"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24">
       <c r="A24" s="6" t="s">
         <v>51</v>
       </c>
@@ -2362,7 +2370,7 @@
       </c>
       <c r="X24" s="1"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24">
       <c r="A25" s="6" t="s">
         <v>40</v>
       </c>
@@ -2435,7 +2443,7 @@
       </c>
       <c r="X25" s="1"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24">
       <c r="A26" s="6" t="s">
         <v>49</v>
       </c>
@@ -2508,7 +2516,7 @@
       </c>
       <c r="X26" s="1"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24">
       <c r="A27" s="9" t="s">
         <v>17</v>
       </c>
@@ -2570,7 +2578,7 @@
       </c>
       <c r="P27" s="10">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Q27" s="10">
         <f t="shared" si="1"/>
@@ -2594,11 +2602,11 @@
       </c>
       <c r="V27" s="10">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>
-        <v>60.75</v>
+        <v>61</v>
       </c>
       <c r="X27" s="7" t="s">
         <v>50</v>

--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ijin/Desktop/2022_DeepLearningStudy/02_Test_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/14ab70bdc0bfc001/바탕 화면/병아리/2022_DeepLearningStudy/02_Test_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA70657-B861-3040-9F44-9430A14B5244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{5AA70657-B861-3040-9F44-9430A14B5244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D63FD1F4-D996-4B7B-AB9B-C43533DBCBA3}"/>
   <bookViews>
-    <workbookView xWindow="4540" yWindow="3080" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="53">
   <si>
     <t>맞음: O 틀림: X</t>
   </si>
@@ -197,7 +197,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1071,13 +1071,13 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:V15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -1105,7 +1105,7 @@
       <c r="W1" s="14"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -1131,7 +1131,7 @@
       <c r="W2" s="17"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -1157,7 +1157,7 @@
       <c r="W3" s="17"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
@@ -1185,7 +1185,7 @@
       <c r="W4" s="20"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>34</v>
       </c>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
@@ -1399,7 +1399,7 @@
       </c>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>46</v>
       </c>
@@ -1470,7 +1470,7 @@
       </c>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>37</v>
       </c>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>44</v>
       </c>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>33</v>
       </c>
@@ -1681,7 +1681,7 @@
       </c>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>32</v>
       </c>
@@ -1712,38 +1712,80 @@
       </c>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
+      <c r="B13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="T13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="U13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="V13" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="W13" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>95%</v>
       </c>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>39</v>
       </c>
@@ -1812,7 +1854,7 @@
       </c>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>45</v>
       </c>
@@ -1885,7 +1927,7 @@
       </c>
       <c r="X15" s="1"/>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>47</v>
       </c>
@@ -1958,7 +2000,7 @@
       </c>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>41</v>
       </c>
@@ -1989,7 +2031,7 @@
       </c>
       <c r="X17" s="1"/>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>42</v>
       </c>
@@ -2020,7 +2062,7 @@
       </c>
       <c r="X18" s="1"/>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>48</v>
       </c>
@@ -2091,7 +2133,7 @@
       </c>
       <c r="X19" s="1"/>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>30</v>
       </c>
@@ -2162,7 +2204,7 @@
       </c>
       <c r="X20" s="1"/>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>35</v>
       </c>
@@ -2193,7 +2235,7 @@
       </c>
       <c r="X21" s="1"/>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>38</v>
       </c>
@@ -2224,7 +2266,7 @@
       </c>
       <c r="X22" s="1"/>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>43</v>
       </c>
@@ -2297,7 +2339,7 @@
       </c>
       <c r="X23" s="1"/>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>51</v>
       </c>
@@ -2370,7 +2412,7 @@
       </c>
       <c r="X24" s="1"/>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>40</v>
       </c>
@@ -2443,7 +2485,7 @@
       </c>
       <c r="X25" s="1"/>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>49</v>
       </c>
@@ -2516,53 +2558,53 @@
       </c>
       <c r="X26" s="1"/>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B27" s="10">
         <f t="shared" ref="B27:V27" si="1">COUNTIF(B6:B26,"O")*5</f>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C27" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D27" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E27" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F27" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G27" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H27" s="10">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I27" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J27" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K27" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L27" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M27" s="10">
         <f t="shared" si="1"/>
@@ -2570,35 +2612,35 @@
       </c>
       <c r="N27" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="O27" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="P27" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Q27" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="R27" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="S27" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="T27" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="U27" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="V27" s="10">
         <f t="shared" si="1"/>
@@ -2606,7 +2648,7 @@
       </c>
       <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>
-        <v>61</v>
+        <v>65.75</v>
       </c>
       <c r="X27" s="7" t="s">
         <v>50</v>

--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/14ab70bdc0bfc001/바탕 화면/병아리/2022_DeepLearningStudy/02_Test_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2022_DeepLearningStudy\2022_DeepLearningStudy\02_Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{5AA70657-B861-3040-9F44-9430A14B5244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D63FD1F4-D996-4B7B-AB9B-C43533DBCBA3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="56">
   <si>
     <t>맞음: O 틀림: X</t>
   </si>
@@ -190,13 +189,25 @@
   </si>
   <si>
     <t>O</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -562,9 +573,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20% - 강조색1" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="메모" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="입력" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - 강조색1" xfId="3"/>
+    <cellStyle name="메모" xfId="2"/>
+    <cellStyle name="입력" xfId="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
@@ -746,7 +757,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -755,7 +766,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1067,12 +1078,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1475,7 +1486,7 @@
         <v>37</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>23</v>
@@ -1516,7 +1527,9 @@
       <c r="O9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="P9" s="7"/>
+      <c r="P9" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="Q9" s="7" t="s">
         <v>23</v>
       </c>
@@ -1532,10 +1545,12 @@
       <c r="U9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="V9" s="7"/>
+      <c r="V9" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="W9" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>75%</v>
+        <v>80%</v>
       </c>
       <c r="X9" s="1"/>
     </row>
@@ -2620,7 +2635,7 @@
       </c>
       <c r="P27" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="10">
         <f t="shared" si="1"/>
@@ -2648,7 +2663,7 @@
       </c>
       <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>
-        <v>65.75</v>
+        <v>66</v>
       </c>
       <c r="X27" s="7" t="s">
         <v>50</v>

--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blueb\OneDrive\바탕 화면\새 폴더 (3)\2022_DeepLearningStudy\02_Test_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5635b272914cf7ac/바탕 화면/03_Team_Data/D팀/2022_DeepLearningStudy/02_Test_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A0B2F3-7E5B-41B4-8852-CBA87855A6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{73A0B2F3-7E5B-41B4-8852-CBA87855A6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA8EFC2C-EE1C-4564-A007-0C5DF4FD260F}"/>
   <bookViews>
-    <workbookView xWindow="7548" yWindow="0" windowWidth="15420" windowHeight="11292" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="56">
   <si>
     <t>맞음: O 틀림: X</t>
   </si>
@@ -1084,12 +1084,12 @@
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection activeCell="B22" sqref="B22:V22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -1117,7 +1117,7 @@
       <c r="W1" s="14"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="15"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -1143,7 +1143,7 @@
       <c r="W2" s="17"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -1169,7 +1169,7 @@
       <c r="W3" s="17"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
@@ -1197,7 +1197,7 @@
       <c r="W4" s="20"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>34</v>
       </c>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
         <v>46</v>
       </c>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>37</v>
       </c>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>44</v>
       </c>
@@ -1628,7 +1628,7 @@
       </c>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A11" s="6" t="s">
         <v>33</v>
       </c>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
         <v>32</v>
       </c>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
         <v>36</v>
       </c>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>39</v>
       </c>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>45</v>
       </c>
@@ -1943,7 +1943,7 @@
       </c>
       <c r="X15" s="1"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
         <v>47</v>
       </c>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
         <v>41</v>
       </c>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="X17" s="1"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
         <v>42</v>
       </c>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="X18" s="1"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
         <v>48</v>
       </c>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="X19" s="1"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
         <v>30</v>
       </c>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="X20" s="1"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
         <v>35</v>
       </c>
@@ -2293,38 +2293,80 @@
       </c>
       <c r="X21" s="1"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A22" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
+      <c r="B22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="R22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="S22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="T22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="U22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="V22" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="W22" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>65%</v>
       </c>
       <c r="X22" s="1"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
         <v>43</v>
       </c>
@@ -2397,7 +2439,7 @@
       </c>
       <c r="X23" s="1"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A24" s="6" t="s">
         <v>51</v>
       </c>
@@ -2470,7 +2512,7 @@
       </c>
       <c r="X24" s="1"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A25" s="6" t="s">
         <v>40</v>
       </c>
@@ -2543,7 +2585,7 @@
       </c>
       <c r="X25" s="1"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A26" s="6" t="s">
         <v>49</v>
       </c>
@@ -2616,13 +2658,13 @@
       </c>
       <c r="X26" s="1"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A27" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B27" s="10">
         <f t="shared" ref="B27:V27" si="1">COUNTIF(B6:B26,"O")*5</f>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C27" s="10">
         <f t="shared" si="1"/>
@@ -2634,15 +2676,15 @@
       </c>
       <c r="E27" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F27" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G27" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H27" s="10">
         <f t="shared" si="1"/>
@@ -2650,19 +2692,19 @@
       </c>
       <c r="I27" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="J27" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K27" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="L27" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M27" s="10">
         <f t="shared" si="1"/>
@@ -2670,7 +2712,7 @@
       </c>
       <c r="N27" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="O27" s="10">
         <f t="shared" si="1"/>
@@ -2678,15 +2720,15 @@
       </c>
       <c r="P27" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="Q27" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="R27" s="10">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="S27" s="10">
         <f t="shared" si="1"/>
@@ -2698,7 +2740,7 @@
       </c>
       <c r="U27" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="V27" s="10">
         <f t="shared" si="1"/>
@@ -2706,7 +2748,7 @@
       </c>
       <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>
-        <v>70</v>
+        <v>73.25</v>
       </c>
       <c r="X27" s="7" t="s">
         <v>50</v>

--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5635b272914cf7ac/바탕 화면/03_Team_Data/D팀/2022_DeepLearningStudy/02_Test_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{73A0B2F3-7E5B-41B4-8852-CBA87855A6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA8EFC2C-EE1C-4564-A007-0C5DF4FD260F}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{73A0B2F3-7E5B-41B4-8852-CBA87855A6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81E86816-27CD-4D3F-A1BA-36E61B58E02B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="56">
   <si>
     <t>맞음: O 틀림: X</t>
   </si>
@@ -1084,7 +1084,7 @@
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:V22"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2051,30 +2051,72 @@
       <c r="A18" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
+      <c r="B18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="R18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="S18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="T18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="U18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="V18" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="W18" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>85%</v>
       </c>
       <c r="X18" s="1"/>
     </row>
@@ -2664,7 +2706,7 @@
       </c>
       <c r="B27" s="10">
         <f t="shared" ref="B27:V27" si="1">COUNTIF(B6:B26,"O")*5</f>
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C27" s="10">
         <f t="shared" si="1"/>
@@ -2672,7 +2714,7 @@
       </c>
       <c r="D27" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E27" s="10">
         <f t="shared" si="1"/>
@@ -2684,63 +2726,63 @@
       </c>
       <c r="G27" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H27" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I27" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="J27" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K27" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="L27" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M27" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N27" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="O27" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="P27" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="Q27" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="R27" s="10">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="S27" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="T27" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="U27" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="V27" s="10">
         <f t="shared" si="1"/>
@@ -2748,7 +2790,7 @@
       </c>
       <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>
-        <v>73.25</v>
+        <v>77.5</v>
       </c>
       <c r="X27" s="7" t="s">
         <v>50</v>

--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5635b272914cf7ac/바탕 화면/03_Team_Data/D팀/2022_DeepLearningStudy/02_Test_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{73A0B2F3-7E5B-41B4-8852-CBA87855A6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81E86816-27CD-4D3F-A1BA-36E61B58E02B}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{73A0B2F3-7E5B-41B4-8852-CBA87855A6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EF01EE6-5620-43A0-8C78-14AD07021CCE}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="56">
   <si>
     <t>맞음: O 틀림: X</t>
   </si>
@@ -1084,7 +1084,7 @@
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+      <selection activeCell="B12" sqref="B12:V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1701,30 +1701,72 @@
       <c r="A12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
+      <c r="B12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="T12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="U12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="V12" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="W12" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>80%</v>
       </c>
       <c r="X12" s="1"/>
     </row>
@@ -2706,7 +2748,7 @@
       </c>
       <c r="B27" s="10">
         <f t="shared" ref="B27:V27" si="1">COUNTIF(B6:B26,"O")*5</f>
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C27" s="10">
         <f t="shared" si="1"/>
@@ -2714,39 +2756,39 @@
       </c>
       <c r="D27" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E27" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F27" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G27" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H27" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I27" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="J27" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K27" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L27" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M27" s="10">
         <f t="shared" si="1"/>
@@ -2754,11 +2796,11 @@
       </c>
       <c r="N27" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="O27" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P27" s="10">
         <f t="shared" si="1"/>
@@ -2766,15 +2808,15 @@
       </c>
       <c r="Q27" s="10">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="R27" s="10">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="S27" s="10">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="T27" s="10">
         <f t="shared" si="1"/>
@@ -2782,7 +2824,7 @@
       </c>
       <c r="U27" s="10">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="V27" s="10">
         <f t="shared" si="1"/>
@@ -2790,7 +2832,7 @@
       </c>
       <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>
-        <v>77.5</v>
+        <v>81.5</v>
       </c>
       <c r="X27" s="7" t="s">
         <v>50</v>

--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5635b272914cf7ac/바탕 화면/03_Team_Data/D팀/2022_DeepLearningStudy/02_Test_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{73A0B2F3-7E5B-41B4-8852-CBA87855A6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EF01EE6-5620-43A0-8C78-14AD07021CCE}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{73A0B2F3-7E5B-41B4-8852-CBA87855A6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5561C70-DE5D-4BB2-B305-58CC42E1BA95}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5635b272914cf7ac/바탕 화면/03_Team_Data/D팀/2022_DeepLearningStudy/02_Test_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\딥러닝 스터디 4기\깃 폴더\2022_DeepLearningStudy\02_Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{73A0B2F3-7E5B-41B4-8852-CBA87855A6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5561C70-DE5D-4BB2-B305-58CC42E1BA95}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304BDFB2-555B-4B0E-AD35-AB25124EDA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2670" yWindow="1230" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="57">
   <si>
     <t>맞음: O 틀림: X</t>
   </si>
@@ -202,6 +202,10 @@
   </si>
   <si>
     <t>X</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1084,12 +1088,12 @@
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:V12"/>
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -1117,7 +1121,7 @@
       <c r="W1" s="14"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -1143,7 +1147,7 @@
       <c r="W2" s="17"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -1169,7 +1173,7 @@
       <c r="W3" s="17"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
@@ -1197,7 +1201,7 @@
       <c r="W4" s="20"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1269,7 +1273,7 @@
       </c>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>34</v>
       </c>
@@ -1342,7 +1346,7 @@
       </c>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
@@ -1411,7 +1415,7 @@
       </c>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>46</v>
       </c>
@@ -1475,14 +1479,16 @@
       <c r="U8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="V8" s="7"/>
+      <c r="V8" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="W8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>95%</v>
       </c>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>37</v>
       </c>
@@ -1555,7 +1561,7 @@
       </c>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>44</v>
       </c>
@@ -1628,7 +1634,7 @@
       </c>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>33</v>
       </c>
@@ -1697,7 +1703,7 @@
       </c>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>32</v>
       </c>
@@ -1770,7 +1776,7 @@
       </c>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>36</v>
       </c>
@@ -1843,7 +1849,7 @@
       </c>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>39</v>
       </c>
@@ -1912,7 +1918,7 @@
       </c>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>45</v>
       </c>
@@ -1985,7 +1991,7 @@
       </c>
       <c r="X15" s="1"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>47</v>
       </c>
@@ -2058,7 +2064,7 @@
       </c>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>41</v>
       </c>
@@ -2089,7 +2095,7 @@
       </c>
       <c r="X17" s="1"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>42</v>
       </c>
@@ -2162,7 +2168,7 @@
       </c>
       <c r="X18" s="1"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>48</v>
       </c>
@@ -2233,7 +2239,7 @@
       </c>
       <c r="X19" s="1"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>30</v>
       </c>
@@ -2304,7 +2310,7 @@
       </c>
       <c r="X20" s="1"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>35</v>
       </c>
@@ -2377,7 +2383,7 @@
       </c>
       <c r="X21" s="1"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>38</v>
       </c>
@@ -2450,7 +2456,7 @@
       </c>
       <c r="X22" s="1"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>43</v>
       </c>
@@ -2523,7 +2529,7 @@
       </c>
       <c r="X23" s="1"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>51</v>
       </c>
@@ -2596,7 +2602,7 @@
       </c>
       <c r="X24" s="1"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>40</v>
       </c>
@@ -2669,7 +2675,7 @@
       </c>
       <c r="X25" s="1"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>49</v>
       </c>
@@ -2742,7 +2748,7 @@
       </c>
       <c r="X26" s="1"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>17</v>
       </c>

--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\마도요\2022_DeepLearningStudy\02_Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A70B5B-7D60-432C-97FB-6DB16474B0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EA0186-EB98-4020-8B92-891DBC78B2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3750" yWindow="675" windowWidth="22980" windowHeight="20925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1410" yWindow="390" windowWidth="22980" windowHeight="20925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1081,7 +1081,7 @@
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="Y23" sqref="Y23"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -1,35 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\마도요\2022_DeepLearningStudy\02_Test_Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EA0186-EB98-4020-8B92-891DBC78B2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="9.103.88.44548"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="390" windowWidth="22980" windowHeight="20925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>맞음: O 틀림: X</t>
   </si>
@@ -188,89 +174,172 @@
   </si>
   <si>
     <t>O</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>X</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="26">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF3F3F76"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FFFFFFFF"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="30"/>
+      <sz val="30.0"/>
+      <name val="HY헤드라인M"/>
       <color rgb="FF000000"/>
-      <name val="HY헤드라인M"/>
-      <family val="1"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="HY헤드라인M"/>
       <color rgb="FF000000"/>
-      <name val="HY헤드라인M"/>
-      <family val="1"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="8.0"/>
+      <name val="돋움"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <sz val="8.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
-      <sz val="8"/>
+      <u/>
+      <sz val="11.0"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+      <color theme="10"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -334,13 +403,362 @@
         </stop>
       </gradientFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="23">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -360,113 +778,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,34 +810,178 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color auto="1"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="19" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="18" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="20" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -512,69 +992,117 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="20% - 강조색1" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="메모" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="입력" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+  <cellStyles count="52">
+    <cellStyle name="20% - 강조색1" xfId="28" builtinId="30"/>
+    <cellStyle name="20% - 강조색2" xfId="32" builtinId="34"/>
+    <cellStyle name="20% - 강조색3" xfId="36" builtinId="38"/>
+    <cellStyle name="20% - 강조색4" xfId="40" builtinId="42"/>
+    <cellStyle name="20% - 강조색5" xfId="44" builtinId="46"/>
+    <cellStyle name="20% - 강조색6" xfId="48" builtinId="50"/>
+    <cellStyle name="40% - 강조색1" xfId="29" builtinId="31"/>
+    <cellStyle name="40% - 강조색2" xfId="33" builtinId="35"/>
+    <cellStyle name="40% - 강조색3" xfId="37" builtinId="39"/>
+    <cellStyle name="40% - 강조색4" xfId="41" builtinId="43"/>
+    <cellStyle name="40% - 강조색5" xfId="45" builtinId="47"/>
+    <cellStyle name="40% - 강조색6" xfId="49" builtinId="51"/>
+    <cellStyle name="60% - 강조색1" xfId="30" builtinId="32"/>
+    <cellStyle name="60% - 강조색2" xfId="34" builtinId="36"/>
+    <cellStyle name="60% - 강조색3" xfId="38" builtinId="40"/>
+    <cellStyle name="60% - 강조색4" xfId="42" builtinId="44"/>
+    <cellStyle name="60% - 강조색5" xfId="46" builtinId="48"/>
+    <cellStyle name="60% - 강조색6" xfId="50" builtinId="52"/>
+    <cellStyle name="강조색1" xfId="27" builtinId="29"/>
+    <cellStyle name="강조색2" xfId="31" builtinId="33"/>
+    <cellStyle name="강조색3" xfId="35" builtinId="37"/>
+    <cellStyle name="강조색4" xfId="39" builtinId="41"/>
+    <cellStyle name="강조색5" xfId="43" builtinId="45"/>
+    <cellStyle name="강조색6" xfId="47" builtinId="49"/>
+    <cellStyle name="경고문" xfId="12" builtinId="11"/>
+    <cellStyle name="계산" xfId="20" builtinId="22"/>
+    <cellStyle name="나쁨" xfId="25" builtinId="27"/>
+    <cellStyle name="메모" xfId="11" builtinId="10"/>
+    <cellStyle name="백분율" xfId="6" builtinId="5"/>
+    <cellStyle name="보통" xfId="26" builtinId="28"/>
+    <cellStyle name="설명텍스트" xfId="51" builtinId="53"/>
+    <cellStyle name="셀 확인" xfId="21" builtinId="23"/>
+    <cellStyle name="쉼표" xfId="4" builtinId="3"/>
+    <cellStyle name="쉼표[0]" xfId="7" builtinId="6"/>
+    <cellStyle name="연결된 셀" xfId="22" builtinId="24"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="요약" xfId="23" builtinId="25"/>
+    <cellStyle name="입력" xfId="18" builtinId="20"/>
+    <cellStyle name="제목" xfId="13" builtinId="15"/>
+    <cellStyle name="제목 1" xfId="14" builtinId="16"/>
+    <cellStyle name="제목 2" xfId="15" builtinId="17"/>
+    <cellStyle name="제목 3" xfId="16" builtinId="18"/>
+    <cellStyle name="제목 4" xfId="17" builtinId="19"/>
+    <cellStyle name="좋음" xfId="24" builtinId="26"/>
+    <cellStyle name="출력" xfId="19" builtinId="21"/>
+    <cellStyle name="통화" xfId="5" builtinId="4"/>
+    <cellStyle name="통화[0]" xfId="8" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="20% - 강조색1" xfId="3"/>
+    <cellStyle name="메모" xfId="2"/>
+    <cellStyle name="입력" xfId="1"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -754,8 +1282,8 @@
       </border>
     </dxf>
   </dxfs>
-  <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+  <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -764,7 +1292,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -774,14 +1302,6 @@
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1076,17 +1596,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.62500000" defaultRowHeight="16.500000"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24">
       <c r="A1" s="12" t="s">
         <v>51</v>
       </c>
@@ -1114,7 +1633,7 @@
       <c r="W1" s="14"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24">
       <c r="A2" s="15"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -1140,7 +1659,7 @@
       <c r="W2" s="17"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -1166,7 +1685,7 @@
       <c r="W3" s="17"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="17.250000">
       <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
@@ -1194,7 +1713,7 @@
       <c r="W4" s="20"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="17.250000">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -1266,7 +1785,7 @@
       </c>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24">
       <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
@@ -1334,12 +1853,12 @@
         <v>45</v>
       </c>
       <c r="W6" s="8" t="str">
-        <f t="shared" ref="W6:W26" si="0">COUNTIF(B6:U6,"O")*5&amp;"%"</f>
+        <f>COUNTIF(B6:U6,"O")*5&amp;"%"</f>
         <v>100%</v>
       </c>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1407,12 +1926,12 @@
         <v>49</v>
       </c>
       <c r="W7" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B7:U7,"O")*5&amp;"%"</f>
         <v>50%</v>
       </c>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -1480,12 +1999,12 @@
         <v>48</v>
       </c>
       <c r="W8" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B8:U8,"O")*5&amp;"%"</f>
         <v>95%</v>
       </c>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24">
       <c r="A9" s="6" t="s">
         <v>2</v>
       </c>
@@ -1553,12 +2072,12 @@
         <v>33</v>
       </c>
       <c r="W9" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B9:U9,"O")*5&amp;"%"</f>
         <v>80%</v>
       </c>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
@@ -1626,12 +2145,12 @@
         <v>49</v>
       </c>
       <c r="W10" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B10:U10,"O")*5&amp;"%"</f>
         <v>95%</v>
       </c>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
@@ -1695,12 +2214,12 @@
       </c>
       <c r="V11" s="7"/>
       <c r="W11" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B11:U11,"O")*5&amp;"%"</f>
         <v>70%</v>
       </c>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24">
       <c r="A12" s="6" t="s">
         <v>17</v>
       </c>
@@ -1768,12 +2287,12 @@
         <v>33</v>
       </c>
       <c r="W12" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B12:U12,"O")*5&amp;"%"</f>
         <v>80%</v>
       </c>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24">
       <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
@@ -1841,12 +2360,12 @@
         <v>33</v>
       </c>
       <c r="W13" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B13:U13,"O")*5&amp;"%"</f>
         <v>95%</v>
       </c>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24">
       <c r="A14" s="6" t="s">
         <v>9</v>
       </c>
@@ -1910,12 +2429,12 @@
       </c>
       <c r="V14" s="7"/>
       <c r="W14" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B14:U14,"O")*5&amp;"%"</f>
         <v>60%</v>
       </c>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24">
       <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
@@ -1983,12 +2502,12 @@
         <v>45</v>
       </c>
       <c r="W15" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B15:U15,"O")*5&amp;"%"</f>
         <v>95%</v>
       </c>
       <c r="X15" s="1"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24">
       <c r="A16" s="6" t="s">
         <v>18</v>
       </c>
@@ -2056,12 +2575,12 @@
         <v>45</v>
       </c>
       <c r="W16" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B16:U16,"O")*5&amp;"%"</f>
         <v>90%</v>
       </c>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24">
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
@@ -2129,12 +2648,12 @@
         <v>52</v>
       </c>
       <c r="W17" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B17:U17,"O")*5&amp;"%"</f>
         <v>75%</v>
       </c>
       <c r="X17" s="1"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24">
       <c r="A18" s="6" t="s">
         <v>3</v>
       </c>
@@ -2202,12 +2721,12 @@
         <v>33</v>
       </c>
       <c r="W18" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B18:U18,"O")*5&amp;"%"</f>
         <v>85%</v>
       </c>
       <c r="X18" s="1"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24">
       <c r="A19" s="6" t="s">
         <v>20</v>
       </c>
@@ -2271,14 +2790,16 @@
       <c r="U19" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="V19" s="7"/>
+      <c r="V19" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="W19" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B19:U19,"O")*5&amp;"%"</f>
         <v>75%</v>
       </c>
       <c r="X19" s="1"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24">
       <c r="A20" s="6" t="s">
         <v>11</v>
       </c>
@@ -2344,12 +2865,12 @@
       </c>
       <c r="V20" s="7"/>
       <c r="W20" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B20:U20,"O")*5&amp;"%"</f>
         <v>95%</v>
       </c>
       <c r="X20" s="1"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24">
       <c r="A21" s="6" t="s">
         <v>8</v>
       </c>
@@ -2417,12 +2938,12 @@
         <v>45</v>
       </c>
       <c r="W21" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B21:U21,"O")*5&amp;"%"</f>
         <v>80%</v>
       </c>
       <c r="X21" s="1"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24">
       <c r="A22" s="6" t="s">
         <v>6</v>
       </c>
@@ -2490,12 +3011,12 @@
         <v>33</v>
       </c>
       <c r="W22" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B22:U22,"O")*5&amp;"%"</f>
         <v>65%</v>
       </c>
       <c r="X22" s="1"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24">
       <c r="A23" s="6" t="s">
         <v>14</v>
       </c>
@@ -2563,12 +3084,12 @@
         <v>45</v>
       </c>
       <c r="W23" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B23:U23,"O")*5&amp;"%"</f>
         <v>75%</v>
       </c>
       <c r="X23" s="1"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24">
       <c r="A24" s="6" t="s">
         <v>22</v>
       </c>
@@ -2636,12 +3157,12 @@
         <v>49</v>
       </c>
       <c r="W24" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B24:U24,"O")*5&amp;"%"</f>
         <v>60%</v>
       </c>
       <c r="X24" s="1"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24">
       <c r="A25" s="6" t="s">
         <v>12</v>
       </c>
@@ -2709,12 +3230,12 @@
         <v>45</v>
       </c>
       <c r="W25" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B25:U25,"O")*5&amp;"%"</f>
         <v>100%</v>
       </c>
       <c r="X25" s="1"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24">
       <c r="A26" s="6" t="s">
         <v>21</v>
       </c>
@@ -2782,98 +3303,98 @@
         <v>49</v>
       </c>
       <c r="W26" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B26:U26,"O")*5&amp;"%"</f>
         <v>85%</v>
       </c>
       <c r="X26" s="1"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="17.250000">
       <c r="A27" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="10">
-        <f t="shared" ref="B27:V27" si="1">COUNTIF(B6:B26,"O")*5</f>
+        <f>COUNTIF(B6:B26,"O")*5</f>
         <v>105</v>
       </c>
       <c r="C27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(C6:C26,"O")*5</f>
         <v>65</v>
       </c>
       <c r="D27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D6:D26,"O")*5</f>
         <v>80</v>
       </c>
       <c r="E27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(E6:E26,"O")*5</f>
         <v>75</v>
       </c>
       <c r="F27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F6:F26,"O")*5</f>
         <v>80</v>
       </c>
       <c r="G27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(G6:G26,"O")*5</f>
         <v>90</v>
       </c>
       <c r="H27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(H6:H26,"O")*5</f>
         <v>65</v>
       </c>
       <c r="I27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(I6:I26,"O")*5</f>
         <v>75</v>
       </c>
       <c r="J27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(J6:J26,"O")*5</f>
         <v>90</v>
       </c>
       <c r="K27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(K6:K26,"O")*5</f>
         <v>85</v>
       </c>
       <c r="L27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(L6:L26,"O")*5</f>
         <v>85</v>
       </c>
       <c r="M27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(M6:M26,"O")*5</f>
         <v>85</v>
       </c>
       <c r="N27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(N6:N26,"O")*5</f>
         <v>80</v>
       </c>
       <c r="O27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(O6:O26,"O")*5</f>
         <v>90</v>
       </c>
       <c r="P27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(P6:P26,"O")*5</f>
         <v>75</v>
       </c>
       <c r="Q27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(Q6:Q26,"O")*5</f>
         <v>95</v>
       </c>
       <c r="R27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(R6:R26,"O")*5</f>
         <v>105</v>
       </c>
       <c r="S27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(S6:S26,"O")*5</f>
         <v>95</v>
       </c>
       <c r="T27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(T6:T26,"O")*5</f>
         <v>90</v>
       </c>
       <c r="U27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(U6:U26,"O")*5</f>
         <v>95</v>
       </c>
       <c r="V27" s="10">
-        <f t="shared" si="1"/>
-        <v>55</v>
+        <f>COUNTIF(V6:V26,"O")*5</f>
+        <v>60</v>
       </c>
       <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>
@@ -2888,8 +3409,8 @@
     <mergeCell ref="A1:W3"/>
     <mergeCell ref="A4:W4"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlfkr\Desktop\딥러닝스터디\2022_DeepLearningStudy\02_Test_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgr\Desktop\딥러닝\2022_DeepLearningStudy\02_Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91A0394-2B7D-48B4-8782-590B56A927A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62EF2CA-8816-4A20-8646-AE5AED9628E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6165" yWindow="705" windowWidth="20430" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="57">
   <si>
     <t>맞음: O 틀림: X</t>
   </si>
@@ -196,6 +196,14 @@
   </si>
   <si>
     <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1095,12 +1103,12 @@
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="X20" sqref="X20"/>
+      <selection activeCell="Z12" sqref="Z12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
         <v>51</v>
       </c>
@@ -1128,7 +1136,7 @@
       <c r="W1" s="14"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" s="15"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -1154,7 +1162,7 @@
       <c r="W2" s="17"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -1180,7 +1188,7 @@
       <c r="W3" s="17"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
@@ -1208,7 +1216,7 @@
       <c r="W4" s="20"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -1280,7 +1288,7 @@
       </c>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
@@ -1353,7 +1361,7 @@
       </c>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1426,7 +1434,7 @@
       </c>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -1499,7 +1507,7 @@
       </c>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>2</v>
       </c>
@@ -1572,7 +1580,7 @@
       </c>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
@@ -1645,7 +1653,7 @@
       </c>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
@@ -1691,7 +1699,9 @@
       <c r="O11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="P11" s="7"/>
+      <c r="P11" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="Q11" s="7" t="s">
         <v>45</v>
       </c>
@@ -1707,14 +1717,16 @@
       <c r="U11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="V11" s="7"/>
+      <c r="V11" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="W11" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>70%</v>
+        <v>75%</v>
       </c>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>17</v>
       </c>
@@ -1787,7 +1799,7 @@
       </c>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
@@ -1860,7 +1872,7 @@
       </c>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
         <v>9</v>
       </c>
@@ -1933,7 +1945,7 @@
       </c>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
@@ -2006,7 +2018,7 @@
       </c>
       <c r="X15" s="1"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
         <v>18</v>
       </c>
@@ -2079,7 +2091,7 @@
       </c>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
@@ -2152,7 +2164,7 @@
       </c>
       <c r="X17" s="1"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
         <v>3</v>
       </c>
@@ -2225,7 +2237,7 @@
       </c>
       <c r="X18" s="1"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
         <v>20</v>
       </c>
@@ -2298,7 +2310,7 @@
       </c>
       <c r="X19" s="1"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
         <v>11</v>
       </c>
@@ -2371,7 +2383,7 @@
       </c>
       <c r="X20" s="1"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
         <v>8</v>
       </c>
@@ -2444,7 +2456,7 @@
       </c>
       <c r="X21" s="1"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
         <v>6</v>
       </c>
@@ -2517,7 +2529,7 @@
       </c>
       <c r="X22" s="1"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
         <v>14</v>
       </c>
@@ -2590,7 +2602,7 @@
       </c>
       <c r="X23" s="1"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
         <v>22</v>
       </c>
@@ -2663,7 +2675,7 @@
       </c>
       <c r="X24" s="1"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
         <v>12</v>
       </c>
@@ -2736,7 +2748,7 @@
       </c>
       <c r="X25" s="1"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
         <v>21</v>
       </c>
@@ -2809,7 +2821,7 @@
       </c>
       <c r="X26" s="1"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A27" s="9" t="s">
         <v>27</v>
       </c>
@@ -2871,7 +2883,7 @@
       </c>
       <c r="P27" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Q27" s="10">
         <f t="shared" si="1"/>
@@ -2899,7 +2911,7 @@
       </c>
       <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>
-        <v>85.5</v>
+        <v>85.75</v>
       </c>
       <c r="X27" s="7" t="s">
         <v>19</v>

--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -5,24 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgr\Desktop\딥러닝\2022_DeepLearningStudy\02_Test_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biggoony\Desktop\2022_DeepLearningStudy\02_Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62EF2CA-8816-4A20-8646-AE5AED9628E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73A0E52-D83B-478C-91A3-D348ACC28574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="61">
   <si>
     <t>맞음: O 틀림: X</t>
   </si>
@@ -205,13 +205,29 @@
   <si>
     <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2주차 이론시험 채점표</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3주차 이론시험 채점표</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,6-(6)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4-(6)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -276,6 +292,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -1102,13 +1124,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="Z12" sqref="Z12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>51</v>
       </c>
@@ -1136,7 +1158,7 @@
       <c r="W1" s="14"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -1162,7 +1184,7 @@
       <c r="W2" s="17"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -1188,7 +1210,7 @@
       <c r="W3" s="17"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
@@ -1216,7 +1238,7 @@
       <c r="W4" s="20"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -1288,7 +1310,7 @@
       </c>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
@@ -1361,7 +1383,7 @@
       </c>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1434,7 +1456,7 @@
       </c>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -1507,7 +1529,7 @@
       </c>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>2</v>
       </c>
@@ -1580,7 +1602,7 @@
       </c>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
@@ -1653,7 +1675,7 @@
       </c>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
@@ -1726,7 +1748,7 @@
       </c>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>17</v>
       </c>
@@ -1799,7 +1821,7 @@
       </c>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
@@ -1872,7 +1894,7 @@
       </c>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>9</v>
       </c>
@@ -1945,7 +1967,7 @@
       </c>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
@@ -2018,7 +2040,7 @@
       </c>
       <c r="X15" s="1"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>18</v>
       </c>
@@ -2091,7 +2113,7 @@
       </c>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
@@ -2164,7 +2186,7 @@
       </c>
       <c r="X17" s="1"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>3</v>
       </c>
@@ -2237,7 +2259,7 @@
       </c>
       <c r="X18" s="1"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>20</v>
       </c>
@@ -2310,7 +2332,7 @@
       </c>
       <c r="X19" s="1"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>11</v>
       </c>
@@ -2383,7 +2405,7 @@
       </c>
       <c r="X20" s="1"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>8</v>
       </c>
@@ -2456,7 +2478,7 @@
       </c>
       <c r="X21" s="1"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>6</v>
       </c>
@@ -2529,7 +2551,7 @@
       </c>
       <c r="X22" s="1"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>14</v>
       </c>
@@ -2602,7 +2624,7 @@
       </c>
       <c r="X23" s="1"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>22</v>
       </c>
@@ -2675,7 +2697,7 @@
       </c>
       <c r="X24" s="1"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>12</v>
       </c>
@@ -2748,7 +2770,7 @@
       </c>
       <c r="X25" s="1"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>21</v>
       </c>
@@ -2821,7 +2843,7 @@
       </c>
       <c r="X26" s="1"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>27</v>
       </c>
@@ -2926,4 +2948,1841 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2541F2DA-D1E3-4F70-BC7E-ADB398C7ED14}">
+  <dimension ref="A1:W27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="14"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="17"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="17"/>
+    </row>
+    <row r="4" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="20"/>
+    </row>
+    <row r="5" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="8" t="str">
+        <f t="shared" ref="W6:W26" si="0">COUNTIF(B6:U6,"O")*5&amp;"%"</f>
+        <v>0%</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="10">
+        <f t="shared" ref="B27:V27" si="1">COUNTIF(B6:B26,"O")*5</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S27" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U27" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V27" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W27" s="11">
+        <f>SUM(B27:U27)/20</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:W3"/>
+    <mergeCell ref="A4:W4"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2178EA0-EF93-4B14-8307-6D91FD08E0ED}">
+  <dimension ref="A1:W27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="14"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="17"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="17"/>
+    </row>
+    <row r="4" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="20"/>
+    </row>
+    <row r="5" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="8" t="str">
+        <f t="shared" ref="W6:W26" si="0">COUNTIF(B6:U6,"O")*5&amp;"%"</f>
+        <v>0%</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="10">
+        <f t="shared" ref="B27:V27" si="1">COUNTIF(B6:B26,"O")*5</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S27" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U27" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V27" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W27" s="11">
+        <f>SUM(B27:U27)/20</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:W3"/>
+    <mergeCell ref="A4:W4"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -1,28 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biggoony\Desktop\2022_DeepLearningStudy\02_Test_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sihyun/Documents/GitHub/2022_DeepLearningStudy/02_Test_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73A0E52-D83B-478C-91A3-D348ACC28574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839035E4-B159-024C-AE33-9EC70593E680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6280" yWindow="3940" windowWidth="25080" windowHeight="14140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="63">
   <si>
     <t>맞음: O 틀림: X</t>
   </si>
@@ -220,6 +222,14 @@
   </si>
   <si>
     <t>3,4-(6)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -227,7 +237,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1128,9 +1138,9 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24">
       <c r="A1" s="12" t="s">
         <v>51</v>
       </c>
@@ -1158,7 +1168,7 @@
       <c r="W1" s="14"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24">
       <c r="A2" s="15"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -1184,7 +1194,7 @@
       <c r="W2" s="17"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -1210,7 +1220,7 @@
       <c r="W3" s="17"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24">
       <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
@@ -1238,7 +1248,7 @@
       <c r="W4" s="20"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -1310,7 +1320,7 @@
       </c>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24">
       <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
@@ -1383,7 +1393,7 @@
       </c>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1456,7 +1466,7 @@
       </c>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -1529,7 +1539,7 @@
       </c>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24">
       <c r="A9" s="6" t="s">
         <v>2</v>
       </c>
@@ -1602,7 +1612,7 @@
       </c>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
@@ -1675,7 +1685,7 @@
       </c>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
@@ -1748,7 +1758,7 @@
       </c>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24">
       <c r="A12" s="6" t="s">
         <v>17</v>
       </c>
@@ -1821,7 +1831,7 @@
       </c>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24">
       <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
@@ -1894,7 +1904,7 @@
       </c>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24">
       <c r="A14" s="6" t="s">
         <v>9</v>
       </c>
@@ -1967,7 +1977,7 @@
       </c>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24">
       <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
@@ -2040,7 +2050,7 @@
       </c>
       <c r="X15" s="1"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24">
       <c r="A16" s="6" t="s">
         <v>18</v>
       </c>
@@ -2113,7 +2123,7 @@
       </c>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24">
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
@@ -2186,7 +2196,7 @@
       </c>
       <c r="X17" s="1"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24">
       <c r="A18" s="6" t="s">
         <v>3</v>
       </c>
@@ -2259,7 +2269,7 @@
       </c>
       <c r="X18" s="1"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24">
       <c r="A19" s="6" t="s">
         <v>20</v>
       </c>
@@ -2332,7 +2342,7 @@
       </c>
       <c r="X19" s="1"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24">
       <c r="A20" s="6" t="s">
         <v>11</v>
       </c>
@@ -2405,7 +2415,7 @@
       </c>
       <c r="X20" s="1"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24">
       <c r="A21" s="6" t="s">
         <v>8</v>
       </c>
@@ -2478,7 +2488,7 @@
       </c>
       <c r="X21" s="1"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24">
       <c r="A22" s="6" t="s">
         <v>6</v>
       </c>
@@ -2551,7 +2561,7 @@
       </c>
       <c r="X22" s="1"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24">
       <c r="A23" s="6" t="s">
         <v>14</v>
       </c>
@@ -2624,7 +2634,7 @@
       </c>
       <c r="X23" s="1"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24">
       <c r="A24" s="6" t="s">
         <v>22</v>
       </c>
@@ -2697,7 +2707,7 @@
       </c>
       <c r="X24" s="1"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24">
       <c r="A25" s="6" t="s">
         <v>12</v>
       </c>
@@ -2770,7 +2780,7 @@
       </c>
       <c r="X25" s="1"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24">
       <c r="A26" s="6" t="s">
         <v>21</v>
       </c>
@@ -2843,7 +2853,7 @@
       </c>
       <c r="X26" s="1"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24">
       <c r="A27" s="9" t="s">
         <v>27</v>
       </c>
@@ -2954,13 +2964,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2541F2DA-D1E3-4F70-BC7E-ADB398C7ED14}">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23">
       <c r="A1" s="12" t="s">
         <v>57</v>
       </c>
@@ -2987,7 +2997,7 @@
       <c r="V1" s="13"/>
       <c r="W1" s="14"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23">
       <c r="A2" s="15"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -3012,7 +3022,7 @@
       <c r="V2" s="16"/>
       <c r="W2" s="17"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -3037,7 +3047,7 @@
       <c r="V3" s="16"/>
       <c r="W3" s="17"/>
     </row>
-    <row r="4" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" ht="18" thickBot="1">
       <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
@@ -3064,7 +3074,7 @@
       <c r="V4" s="19"/>
       <c r="W4" s="20"/>
     </row>
-    <row r="5" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" ht="18" thickBot="1">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -3135,7 +3145,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23">
       <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
@@ -3165,7 +3175,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -3195,7 +3205,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -3225,37 +3235,79 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23">
       <c r="A9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
+      <c r="B9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="U9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="V9" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="W9" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+        <v>75%</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
@@ -3285,7 +3337,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
@@ -3315,7 +3367,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23">
       <c r="A12" s="6" t="s">
         <v>17</v>
       </c>
@@ -3345,7 +3397,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23">
       <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
@@ -3375,7 +3427,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23">
       <c r="A14" s="6" t="s">
         <v>9</v>
       </c>
@@ -3405,7 +3457,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23">
       <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
@@ -3435,7 +3487,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23">
       <c r="A16" s="6" t="s">
         <v>18</v>
       </c>
@@ -3465,7 +3517,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23">
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
@@ -3495,7 +3547,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23">
       <c r="A18" s="6" t="s">
         <v>3</v>
       </c>
@@ -3525,7 +3577,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23">
       <c r="A19" s="6" t="s">
         <v>20</v>
       </c>
@@ -3555,7 +3607,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23">
       <c r="A20" s="6" t="s">
         <v>11</v>
       </c>
@@ -3585,7 +3637,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23">
       <c r="A21" s="6" t="s">
         <v>59</v>
       </c>
@@ -3615,7 +3667,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23">
       <c r="A22" s="6" t="s">
         <v>8</v>
       </c>
@@ -3645,7 +3697,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23">
       <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
@@ -3675,7 +3727,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23">
       <c r="A24" s="6" t="s">
         <v>14</v>
       </c>
@@ -3705,7 +3757,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23">
       <c r="A25" s="6" t="s">
         <v>22</v>
       </c>
@@ -3735,7 +3787,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" ht="18" thickBot="1">
       <c r="A26" s="6" t="s">
         <v>12</v>
       </c>
@@ -3765,97 +3817,97 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" ht="18" thickBot="1">
       <c r="A27" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="10">
         <f t="shared" ref="B27:V27" si="1">COUNTIF(B6:B26,"O")*5</f>
+        <v>5</v>
+      </c>
+      <c r="C27" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D27" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E27" s="10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C27" s="10">
+      <c r="F27" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D27" s="10">
+      <c r="G27" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H27" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I27" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J27" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="K27" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L27" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="M27" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="N27" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="O27" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="P27" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="Q27" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E27" s="10">
+      <c r="R27" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F27" s="10">
+      <c r="S27" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="T27" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="U27" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G27" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N27" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O27" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R27" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S27" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T27" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U27" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="V27" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>
-        <v>0</v>
+        <v>3.75</v>
       </c>
     </row>
   </sheetData>
@@ -3873,13 +3925,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2178EA0-EF93-4B14-8307-6D91FD08E0ED}">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23">
       <c r="A1" s="12" t="s">
         <v>58</v>
       </c>
@@ -3906,7 +3958,7 @@
       <c r="V1" s="13"/>
       <c r="W1" s="14"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23">
       <c r="A2" s="15"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -3931,7 +3983,7 @@
       <c r="V2" s="16"/>
       <c r="W2" s="17"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -3956,7 +4008,7 @@
       <c r="V3" s="16"/>
       <c r="W3" s="17"/>
     </row>
-    <row r="4" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" ht="18" thickBot="1">
       <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
@@ -3983,7 +4035,7 @@
       <c r="V4" s="19"/>
       <c r="W4" s="20"/>
     </row>
-    <row r="5" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" ht="18" thickBot="1">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -4054,7 +4106,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23">
       <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
@@ -4084,7 +4136,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -4114,7 +4166,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -4144,7 +4196,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23">
       <c r="A9" s="6" t="s">
         <v>2</v>
       </c>
@@ -4174,7 +4226,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
@@ -4204,7 +4256,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
@@ -4234,7 +4286,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23">
       <c r="A12" s="6" t="s">
         <v>17</v>
       </c>
@@ -4264,7 +4316,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23">
       <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
@@ -4294,7 +4346,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23">
       <c r="A14" s="6" t="s">
         <v>9</v>
       </c>
@@ -4324,7 +4376,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23">
       <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
@@ -4354,7 +4406,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23">
       <c r="A16" s="6" t="s">
         <v>60</v>
       </c>
@@ -4384,7 +4436,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23">
       <c r="A17" s="6" t="s">
         <v>18</v>
       </c>
@@ -4414,7 +4466,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23">
       <c r="A18" s="6" t="s">
         <v>15</v>
       </c>
@@ -4444,7 +4496,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23">
       <c r="A19" s="6" t="s">
         <v>3</v>
       </c>
@@ -4474,7 +4526,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23">
       <c r="A20" s="6" t="s">
         <v>20</v>
       </c>
@@ -4504,7 +4556,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23">
       <c r="A21" s="6" t="s">
         <v>11</v>
       </c>
@@ -4534,7 +4586,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23">
       <c r="A22" s="6" t="s">
         <v>8</v>
       </c>
@@ -4564,7 +4616,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23">
       <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
@@ -4594,37 +4646,79 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23">
       <c r="A24" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
+      <c r="B24" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="R24" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="S24" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="T24" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="U24" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="V24" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="W24" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+        <v>95%</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" s="6" t="s">
         <v>22</v>
       </c>
@@ -4654,7 +4748,7 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" ht="18" thickBot="1">
       <c r="A26" s="6" t="s">
         <v>12</v>
       </c>
@@ -4684,97 +4778,97 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" ht="18" thickBot="1">
       <c r="A27" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="10">
         <f t="shared" ref="B27:V27" si="1">COUNTIF(B6:B26,"O")*5</f>
+        <v>5</v>
+      </c>
+      <c r="C27" s="10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C27" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="D27" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E27" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F27" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G27" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H27" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I27" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J27" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K27" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L27" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M27" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N27" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O27" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P27" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q27" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R27" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S27" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T27" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U27" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V27" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>
-        <v>0</v>
+        <v>4.75</v>
       </c>
     </row>
   </sheetData>

--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sihyun/Documents/GitHub/2022_DeepLearningStudy/02_Test_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ijin/Desktop/2022_DeepLearningStudy/02_Test_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839035E4-B159-024C-AE33-9EC70593E680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537C7460-0F8B-D540-88AF-26595ACBEE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6280" yWindow="3940" windowWidth="25080" windowHeight="14140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4660" yWindow="3020" windowWidth="25080" windowHeight="14140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="63">
   <si>
     <t>맞음: O 틀림: X</t>
   </si>
@@ -237,7 +237,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -309,6 +309,14 @@
       <sz val="8"/>
       <name val="돋움"/>
       <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -558,7 +566,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -621,6 +629,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2965,7 +2976,7 @@
   <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="B7" sqref="B7:V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -3179,30 +3190,72 @@
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
+      <c r="B7" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q7" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="R7" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="S7" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="T7" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="U7" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="V7" s="21" t="s">
+        <v>45</v>
+      </c>
       <c r="W7" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -3823,91 +3876,91 @@
       </c>
       <c r="B27" s="10">
         <f t="shared" ref="B27:V27" si="1">COUNTIF(B6:B26,"O")*5</f>
+        <v>10</v>
+      </c>
+      <c r="C27" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D27" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E27" s="10">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C27" s="10">
+      <c r="F27" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="D27" s="10">
+      <c r="G27" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H27" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I27" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J27" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="K27" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="L27" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="M27" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="N27" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="O27" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="P27" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="Q27" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E27" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="10">
+      <c r="R27" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H27" s="10">
+      <c r="S27" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="T27" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="U27" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I27" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="J27" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="K27" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="L27" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M27" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="N27" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="O27" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="P27" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="Q27" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R27" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S27" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="T27" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="U27" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="V27" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>
-        <v>3.75</v>
+        <v>8.75</v>
       </c>
     </row>
   </sheetData>
@@ -3926,7 +3979,7 @@
   <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -4620,30 +4673,70 @@
       <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
+      <c r="B23" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="L23" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="M23" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="N23" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="O23" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="R23" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="S23" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="T23" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="U23" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="V23" s="21" t="s">
+        <v>45</v>
+      </c>
       <c r="W23" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>95%</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -4784,91 +4877,91 @@
       </c>
       <c r="B27" s="10">
         <f t="shared" ref="B27:V27" si="1">COUNTIF(B6:B26,"O")*5</f>
+        <v>10</v>
+      </c>
+      <c r="C27" s="10">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C27" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="D27" s="10">
         <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E27" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G27" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H27" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I27" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J27" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="K27" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="L27" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="M27" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="N27" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="O27" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="P27" s="10">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E27" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F27" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="G27" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="H27" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="I27" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="J27" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="K27" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="L27" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M27" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="N27" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="O27" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="P27" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
       <c r="Q27" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R27" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S27" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T27" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U27" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V27" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>
-        <v>4.75</v>
+        <v>9.5</v>
       </c>
     </row>
   </sheetData>

--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ijin/Desktop/2022_DeepLearningStudy/02_Test_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\popo2\OneDrive\바탕 화면\2022_DeepLearningStudy\02_Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537C7460-0F8B-D540-88AF-26595ACBEE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A589E5D1-CB7C-4344-9709-023FE1981EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4660" yWindow="3020" windowWidth="25080" windowHeight="14140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="63">
   <si>
     <t>맞음: O 틀림: X</t>
   </si>
@@ -603,6 +603,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -629,9 +632,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1149,114 +1149,114 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="15"/>
       <c r="X1" s="1"/>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="17"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="18"/>
       <c r="X2" s="1"/>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="17"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="18"/>
       <c r="X3" s="1"/>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="21"/>
       <c r="X4" s="1"/>
     </row>
     <row r="5" spans="1:24">
@@ -2976,114 +2976,114 @@
   <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:V7"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="15"/>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="17"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="18"/>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="17"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="18"/>
     </row>
     <row r="4" spans="1:23" ht="18" thickBot="1">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="21"/>
     </row>
     <row r="5" spans="1:23" ht="18" thickBot="1">
       <c r="A5" s="2" t="s">
@@ -3190,67 +3190,67 @@
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="M7" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="O7" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="P7" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q7" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="R7" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="S7" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="T7" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="U7" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="V7" s="21" t="s">
+      <c r="C7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="V7" s="12" t="s">
         <v>45</v>
       </c>
       <c r="W7" s="8" t="str">
@@ -3978,115 +3978,115 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2178EA0-EF93-4B14-8307-6D91FD08E0ED}">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="15"/>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="17"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="18"/>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="17"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="18"/>
     </row>
     <row r="4" spans="1:23" ht="18" thickBot="1">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="21"/>
     </row>
     <row r="5" spans="1:23" ht="18" thickBot="1">
       <c r="A5" s="2" t="s">
@@ -4673,65 +4673,65 @@
       <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="I23" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="J23" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="K23" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="L23" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="M23" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="N23" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="O23" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="R23" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="S23" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="T23" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="U23" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="V23" s="21" t="s">
+      <c r="B23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="O23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="R23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="S23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="T23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="U23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="V23" s="12" t="s">
         <v>45</v>
       </c>
       <c r="W23" s="8" t="str">
@@ -4785,9 +4785,7 @@
       <c r="O24" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P24" s="7" t="s">
-        <v>62</v>
-      </c>
+      <c r="P24" s="7"/>
       <c r="Q24" s="7" t="s">
         <v>62</v>
       </c>
@@ -4808,7 +4806,7 @@
       </c>
       <c r="W24" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>95%</v>
+        <v>90%</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -4933,7 +4931,7 @@
       </c>
       <c r="P27" s="10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="10">
         <f t="shared" si="1"/>
@@ -4961,7 +4959,7 @@
       </c>
       <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
     </row>
   </sheetData>

--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\popo2\OneDrive\바탕 화면\2022_DeepLearningStudy\02_Test_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\2022_DeepLearningStudy\02_Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A589E5D1-CB7C-4344-9709-023FE1981EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669F7F50-A4C7-43DE-B7C9-69466C404270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="63">
   <si>
     <t>맞음: O 틀림: X</t>
   </si>
@@ -3978,8 +3976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2178EA0-EF93-4B14-8307-6D91FD08E0ED}">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
@@ -4523,30 +4521,72 @@
       <c r="A18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
+      <c r="B18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="T18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="U18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="V18" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="W18" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>55%</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -4875,91 +4915,91 @@
       </c>
       <c r="B27" s="10">
         <f t="shared" ref="B27:V27" si="1">COUNTIF(B6:B26,"O")*5</f>
+        <v>15</v>
+      </c>
+      <c r="C27" s="10">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C27" s="10">
+      <c r="D27" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="E27" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="G27" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H27" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I27" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J27" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="K27" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="L27" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="M27" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="N27" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="O27" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="P27" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="D27" s="10">
+      <c r="Q27" s="10">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="E27" s="10">
+      <c r="R27" s="10">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="F27" s="10">
+      <c r="S27" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="T27" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="U27" s="10">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G27" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="H27" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="I27" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="J27" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="K27" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L27" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="M27" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="N27" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="O27" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="P27" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="R27" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="S27" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="T27" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="U27" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
       <c r="V27" s="10">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>
-        <v>9.25</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\2022_DeepLearningStudy\02_Test_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Desktop\DeepStudy\2022_DeepLearningStudy\02_Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669F7F50-A4C7-43DE-B7C9-69466C404270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD63D22E-DCAE-47A2-8A1B-62BFF1C4B78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,14 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="63">
   <si>
     <t>맞음: O 틀림: X</t>
   </si>
@@ -3977,7 +3979,7 @@
   <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
@@ -4623,30 +4625,70 @@
       <c r="A20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
+      <c r="B20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
+      <c r="Q20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="R20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="S20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="T20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="U20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="V20" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="W20" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>85%</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -4915,91 +4957,91 @@
       </c>
       <c r="B27" s="10">
         <f t="shared" ref="B27:V27" si="1">COUNTIF(B6:B26,"O")*5</f>
+        <v>20</v>
+      </c>
+      <c r="C27" s="10">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="C27" s="10">
+      <c r="D27" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E27" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G27" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H27" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I27" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J27" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="K27" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="L27" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="M27" s="10">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="D27" s="10">
+      <c r="N27" s="10">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="E27" s="10">
+      <c r="O27" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="P27" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="Q27" s="10">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="F27" s="10">
+      <c r="R27" s="10">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G27" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="H27" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="I27" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="J27" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="K27" s="10">
+      <c r="S27" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="T27" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="U27" s="10">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="L27" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="M27" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="N27" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="O27" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="P27" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="Q27" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="R27" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="S27" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="T27" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="U27" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
       <c r="V27" s="10">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>
-        <v>12</v>
+        <v>16.25</v>
       </c>
     </row>
   </sheetData>

--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Desktop\DeepStudy\2022_DeepLearningStudy\02_Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD63D22E-DCAE-47A2-8A1B-62BFF1C4B78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5A724D-5A05-4F85-9737-E657325263BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="63">
   <si>
     <t>맞음: O 틀림: X</t>
   </si>
@@ -2975,8 +2975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2541F2DA-D1E3-4F70-BC7E-ADB398C7ED14}">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
@@ -3754,30 +3754,72 @@
       <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="W23" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>75%</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -3876,91 +3918,91 @@
       </c>
       <c r="B27" s="10">
         <f t="shared" ref="B27:V27" si="1">COUNTIF(B6:B26,"O")*5</f>
+        <v>15</v>
+      </c>
+      <c r="C27" s="10">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C27" s="10">
+      <c r="D27" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="E27" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G27" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H27" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I27" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J27" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="K27" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="L27" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="M27" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="N27" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="O27" s="10">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="D27" s="10">
+      <c r="P27" s="10">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="E27" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F27" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="G27" s="10">
+      <c r="Q27" s="10">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="H27" s="10">
+      <c r="R27" s="10">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I27" s="10">
+      <c r="S27" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="T27" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="U27" s="10">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="J27" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="K27" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L27" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="M27" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="N27" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="O27" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="P27" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="Q27" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="R27" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="S27" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="T27" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="U27" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
       <c r="V27" s="10">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>
-        <v>8.75</v>
+        <v>12.5</v>
       </c>
     </row>
   </sheetData>
@@ -3978,7 +4020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2178EA0-EF93-4B14-8307-6D91FD08E0ED}">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="15390" windowHeight="5440" activeTab="1"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="15390" windowHeight="5440" activeTab="2"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -21,210 +21,210 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="68">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="68">
   <x:si>
     <x:t>맞음: O 틀림: X</x:t>
   </x:si>
   <x:si>
+    <x:t>80%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>85%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>90%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김예림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>95%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>65%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이규리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이재홍</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하정원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이지원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오정은</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김도희</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강희정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이지수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>안규호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>x</x:t>
+  </x:si>
+  <x:si>
+    <x:t>황유현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>o</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최동석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김시현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정의진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정답률</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이지우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X</x:t>
+  </x:si>
+  <x:si>
+    <x:t>권노희</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김아름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>O</x:t>
+  </x:si>
+  <x:si>
+    <x:t>75%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>윤희성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유하영</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설현기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,4-(2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,2-(5)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,2-(4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,2-(1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7,8-(2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,6-(1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,6-(2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7,8-(4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,2-(2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,4-(1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,4-(3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7,8-(5)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,6-(4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,6-(6)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,4-(5)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,6-(5)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,6-(3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&lt;-평균</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7,8-(1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,2-(3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7,8-(3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,4-(6)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7,8-(6)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,4-(4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3주차 이론시험 채점표</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1주차 이론시험 채점표</x:t>
+  </x:si>
+  <x:si>
     <x:t>2주차 이론시험 채점표</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3주차 이론시험 채점표</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1주차 이론시험 채점표</x:t>
-  </x:si>
-  <x:si>
-    <x:t>80%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>95%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>65%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>60%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>85%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>90%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김예림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이규리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하정원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유하영</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정의진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김시현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이재홍</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김아름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>황유현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이지우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설현기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정답률</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최동석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>윤희성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>안규호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>x</x:t>
-  </x:si>
-  <x:si>
-    <x:t>o</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이지수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>O</x:t>
-  </x:si>
-  <x:si>
-    <x:t>총점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이지원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>권노희</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강희정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오정은</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김도희</x:t>
-  </x:si>
-  <x:si>
-    <x:t>75%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,2-(1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,2-(4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,2-(5)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7,8-(1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,2-(3)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7,8-(2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,2-(2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,4-(4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,6-(3)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,6-(2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,4-(5)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,4-(1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,6-(1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>&lt;-평균</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,6-(4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,4-(2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7,8-(3)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,4-(3)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,6-(5)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7,8-(5)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,6-(6)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,4-(6)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7,8-(4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7,8-(6)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>100%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45%</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -277,10 +277,6 @@
           <hs:underlineType val="1"/>
           <hs:underlineShape val="solid"/>
           <hs:underlineColor rgb="ff0563c1"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
         </x:font>
       </mc:Choice>
       <mc:Fallback>
@@ -302,10 +298,6 @@
           <hs:underlineType val="1"/>
           <hs:underlineShape val="solid"/>
           <hs:underlineColor rgb="ff954f72"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
         </x:font>
       </mc:Choice>
       <mc:Fallback>
@@ -323,12 +315,28 @@
       <x:color rgb="ffffffff"/>
       <x:b val="1"/>
     </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-      <x:b val="1"/>
-    </x:font>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+          <x:b val="1"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+          <x:b val="1"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -351,12 +359,28 @@
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:font>
-      <x:name val="HY헤드라인M"/>
-      <x:sz val="30"/>
-      <x:color rgb="ff000000"/>
-      <x:b val="1"/>
-    </x:font>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="HY헤드라인M"/>
+          <x:sz val="30"/>
+          <x:color rgb="ff000000"/>
+          <x:b val="1"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="HY헤드라인M"/>
+          <x:sz val="30"/>
+          <x:color rgb="ff000000"/>
+          <x:b val="1"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -984,7 +1008,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1005,7 +1028,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1026,7 +1048,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1057,7 +1078,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1088,7 +1108,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1166,7 +1185,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1201,7 +1219,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1236,7 +1253,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1281,7 +1297,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1325,7 +1340,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1718,7 +1732,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:24">
       <x:c r="A1" s="13" t="s">
-        <x:v>3</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B1" s="14"/>
       <x:c r="C1" s="14"/>
@@ -1826,142 +1840,142 @@
     </x:row>
     <x:row r="5" spans="1:24">
       <x:c r="A5" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B5" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C5" s="3" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D5" s="3" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E5" s="3" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F5" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G5" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H5" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="I5" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J5" s="3" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="K5" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="L5" s="3" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="M5" s="3" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="N5" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="O5" s="3" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="P5" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="Q5" s="3" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="R5" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="B5" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C5" s="3" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="D5" s="3" t="s">
+      <x:c r="S5" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="T5" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="U5" s="4" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="V5" s="4" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="W5" s="5" t="s">
         <x:v>28</x:v>
-      </x:c>
-      <x:c r="E5" s="3" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="F5" s="3" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="G5" s="3" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H5" s="3" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="I5" s="3" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="J5" s="3" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="K5" s="3" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="L5" s="3" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="M5" s="3" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="N5" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="O5" s="3" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="P5" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="Q5" s="3" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="R5" s="3" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="S5" s="3" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="T5" s="3" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="U5" s="4" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="V5" s="4" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="W5" s="5" t="s">
-        <x:v>25</x:v>
       </x:c>
       <x:c r="X5" s="1"/>
     </x:row>
     <x:row r="6" spans="1:24">
       <x:c r="A6" s="6" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B6" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C6" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D6" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E6" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F6" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G6" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H6" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I6" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J6" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="K6" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="L6" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="M6" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="N6" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="O6" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="P6" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="Q6" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="R6" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="S6" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="T6" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="U6" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="V6" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="W6" s="8" t="str">
         <x:f t="shared" ref="W6:W26" si="0">COUNTIF(B6:U6,"O")*5&amp;"%"</x:f>
@@ -1974,67 +1988,67 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="B7" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C7" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D7" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="7" t="s">
-        <x:v>31</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F7" s="7" t="s">
-        <x:v>31</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G7" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H7" s="7" t="s">
-        <x:v>31</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I7" s="7" t="s">
-        <x:v>31</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="J7" s="7" t="s">
-        <x:v>31</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K7" s="7" t="s">
-        <x:v>31</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="L7" s="7" t="s">
-        <x:v>31</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="M7" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="N7" s="7" t="s">
-        <x:v>31</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="O7" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="P7" s="7" t="s">
-        <x:v>31</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="Q7" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="R7" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="S7" s="7" t="s">
-        <x:v>31</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="T7" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="U7" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="V7" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="W7" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -2044,70 +2058,70 @@
     </x:row>
     <x:row r="8" spans="1:24">
       <x:c r="A8" s="6" t="s">
-        <x:v>46</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B8" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C8" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D8" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E8" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F8" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G8" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H8" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I8" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J8" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="K8" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="L8" s="7" t="s">
-        <x:v>31</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="M8" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="N8" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="O8" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="P8" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="Q8" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="R8" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="S8" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="T8" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="U8" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="V8" s="7" t="s">
-        <x:v>31</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="W8" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -2117,70 +2131,70 @@
     </x:row>
     <x:row r="9" spans="1:24">
       <x:c r="A9" s="6" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B9" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C9" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D9" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E9" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F9" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G9" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H9" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I9" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J9" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="K9" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="L9" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="M9" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="N9" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="O9" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="P9" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="Q9" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="R9" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="S9" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="T9" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="U9" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V9" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W9" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -2190,70 +2204,70 @@
     </x:row>
     <x:row r="10" spans="1:24">
       <x:c r="A10" s="6" t="s">
-        <x:v>44</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B10" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C10" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D10" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E10" s="7" t="s">
-        <x:v>31</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F10" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G10" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H10" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I10" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J10" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="K10" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="L10" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="M10" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="N10" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="O10" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="P10" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="Q10" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="R10" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="S10" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="T10" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="U10" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="V10" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="W10" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -2263,70 +2277,70 @@
     </x:row>
     <x:row r="11" spans="1:24">
       <x:c r="A11" s="6" t="s">
-        <x:v>53</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B11" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C11" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D11" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E11" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F11" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G11" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H11" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I11" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J11" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K11" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="L11" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="M11" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="N11" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="O11" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="P11" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="Q11" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="R11" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="S11" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="T11" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="U11" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="V11" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W11" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -2336,70 +2350,70 @@
     </x:row>
     <x:row r="12" spans="1:24">
       <x:c r="A12" s="6" t="s">
-        <x:v>57</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B12" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C12" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D12" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E12" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F12" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G12" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H12" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I12" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J12" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="K12" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="L12" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="M12" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N12" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="O12" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="P12" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Q12" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="R12" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="S12" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="T12" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U12" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="V12" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W12" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -2409,70 +2423,70 @@
     </x:row>
     <x:row r="13" spans="1:24">
       <x:c r="A13" s="6" t="s">
-        <x:v>59</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B13" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C13" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D13" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E13" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F13" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G13" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H13" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I13" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J13" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="K13" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="L13" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="M13" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N13" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="O13" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="P13" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="Q13" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="R13" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="S13" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="T13" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="U13" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="V13" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W13" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -2482,70 +2496,70 @@
     </x:row>
     <x:row r="14" spans="1:24">
       <x:c r="A14" s="6" t="s">
-        <x:v>49</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B14" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C14" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D14" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E14" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F14" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G14" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H14" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I14" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J14" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K14" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L14" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="M14" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="N14" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O14" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="P14" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="Q14" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R14" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="S14" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="T14" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="U14" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="V14" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="W14" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -2555,70 +2569,70 @@
     </x:row>
     <x:row r="15" spans="1:24">
       <x:c r="A15" s="6" t="s">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B15" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C15" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D15" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E15" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F15" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G15" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H15" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I15" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J15" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="K15" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="L15" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="M15" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="N15" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="O15" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="P15" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="Q15" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="R15" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="S15" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="T15" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U15" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="V15" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="W15" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -2628,70 +2642,70 @@
     </x:row>
     <x:row r="16" spans="1:24">
       <x:c r="A16" s="6" t="s">
-        <x:v>54</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B16" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C16" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D16" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E16" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F16" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G16" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H16" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I16" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J16" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="K16" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="L16" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="M16" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="N16" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="O16" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="P16" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="Q16" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="R16" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="S16" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="T16" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="U16" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="V16" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="W16" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -2701,70 +2715,70 @@
     </x:row>
     <x:row r="17" spans="1:24">
       <x:c r="A17" s="6" t="s">
-        <x:v>51</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B17" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C17" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D17" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E17" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F17" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G17" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H17" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I17" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J17" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="K17" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="L17" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M17" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="N17" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="O17" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="P17" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Q17" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="R17" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="S17" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="T17" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="U17" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="V17" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="W17" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -2774,70 +2788,70 @@
     </x:row>
     <x:row r="18" spans="1:24">
       <x:c r="A18" s="6" t="s">
-        <x:v>50</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B18" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C18" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D18" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E18" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F18" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G18" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H18" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I18" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J18" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="K18" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="L18" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="M18" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="N18" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="O18" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="P18" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="Q18" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="R18" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="S18" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="T18" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="U18" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="V18" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W18" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -2847,70 +2861,70 @@
     </x:row>
     <x:row r="19" spans="1:24">
       <x:c r="A19" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B19" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C19" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J19" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="K19" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="L19" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="M19" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="N19" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="O19" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="P19" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="Q19" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="R19" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="S19" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="T19" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="U19" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V19" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="W19" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -2920,70 +2934,70 @@
     </x:row>
     <x:row r="20" spans="1:24">
       <x:c r="A20" s="6" t="s">
-        <x:v>60</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B20" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C20" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D20" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E20" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F20" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G20" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H20" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I20" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J20" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="K20" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="L20" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="M20" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="N20" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="O20" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="P20" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="Q20" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="R20" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="S20" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="T20" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="U20" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="V20" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="W20" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -2993,70 +3007,70 @@
     </x:row>
     <x:row r="21" spans="1:24">
       <x:c r="A21" s="6" t="s">
-        <x:v>45</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B21" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C21" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D21" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E21" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F21" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G21" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H21" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I21" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J21" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="K21" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="L21" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="M21" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="N21" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O21" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P21" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="Q21" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="R21" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="S21" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="T21" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="U21" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="V21" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="W21" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -3066,70 +3080,70 @@
     </x:row>
     <x:row r="22" spans="1:24">
       <x:c r="A22" s="6" t="s">
-        <x:v>47</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B22" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C22" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D22" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E22" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F22" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G22" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H22" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I22" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J22" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="K22" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="L22" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="M22" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N22" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="O22" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P22" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="Q22" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="R22" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="S22" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T22" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U22" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="V22" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W22" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -3139,70 +3153,70 @@
     </x:row>
     <x:row r="23" spans="1:24">
       <x:c r="A23" s="6" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B23" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C23" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D23" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E23" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F23" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G23" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H23" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I23" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J23" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="K23" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L23" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="M23" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="N23" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O23" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="P23" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="Q23" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R23" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="S23" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="T23" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="U23" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="V23" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="W23" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -3212,70 +3226,70 @@
     </x:row>
     <x:row r="24" spans="1:24">
       <x:c r="A24" s="6" t="s">
-        <x:v>64</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B24" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C24" s="7" t="s">
-        <x:v>31</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D24" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E24" s="7" t="s">
-        <x:v>31</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F24" s="7" t="s">
-        <x:v>31</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G24" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H24" s="7" t="s">
-        <x:v>31</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I24" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J24" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="K24" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="L24" s="7" t="s">
-        <x:v>31</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="M24" s="7" t="s">
-        <x:v>31</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="N24" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="O24" s="7" t="s">
-        <x:v>31</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="P24" s="7" t="s">
-        <x:v>31</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="Q24" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="R24" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="S24" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="T24" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="U24" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="V24" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="W24" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -3285,70 +3299,70 @@
     </x:row>
     <x:row r="25" spans="1:24">
       <x:c r="A25" s="6" t="s">
-        <x:v>61</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B25" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C25" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D25" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E25" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F25" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G25" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H25" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I25" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J25" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="K25" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="L25" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="M25" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="N25" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="O25" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="P25" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="Q25" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="R25" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="S25" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="T25" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="U25" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="V25" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="W25" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -3358,70 +3372,70 @@
     </x:row>
     <x:row r="26" spans="1:24">
       <x:c r="A26" s="6" t="s">
-        <x:v>65</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B26" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C26" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D26" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E26" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F26" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G26" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H26" s="7" t="s">
-        <x:v>31</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I26" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J26" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="K26" s="7" t="s">
-        <x:v>31</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="L26" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="M26" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="N26" s="7" t="s">
-        <x:v>31</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="O26" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="P26" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="Q26" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="R26" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="S26" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="T26" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="U26" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="V26" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="W26" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -3431,7 +3445,7 @@
     </x:row>
     <x:row r="27" spans="1:24">
       <x:c r="A27" s="9" t="s">
-        <x:v>35</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B27" s="10">
         <x:f t="shared" ref="B27:V27" si="1">COUNTIF(B6:B26,"O")*5</x:f>
@@ -3522,7 +3536,7 @@
         <x:v>85.75</x:v>
       </x:c>
       <x:c r="X27" s="7" t="s">
-        <x:v>55</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3530,7 +3544,7 @@
     <x:mergeCell ref="A1:W3"/>
     <x:mergeCell ref="A4:W4"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -3540,7 +3554,7 @@
   <x:sheetPr codeName="Sheet2"/>
   <x:dimension ref="A1:W27"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A5" zoomScale="52" zoomScaleNormal="52" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A5" zoomScale="52" zoomScaleNormal="52" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:selection activeCell="J33" activeCellId="0" sqref="J33:J33"/>
     </x:sheetView>
   </x:sheetViews>
@@ -3548,7 +3562,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:23">
       <x:c r="A1" s="13" t="s">
-        <x:v>1</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B1" s="14"/>
       <x:c r="C1" s="14"/>
@@ -3652,78 +3666,78 @@
     </x:row>
     <x:row r="5" spans="1:23" ht="17.149999999999999">
       <x:c r="A5" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B5" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C5" s="3" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D5" s="3" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E5" s="3" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F5" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G5" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H5" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="I5" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J5" s="3" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="K5" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="L5" s="3" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="M5" s="3" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="N5" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="O5" s="3" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="P5" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="Q5" s="3" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="R5" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="B5" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C5" s="3" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="D5" s="3" t="s">
+      <x:c r="S5" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="T5" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="U5" s="4" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="V5" s="4" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="W5" s="5" t="s">
         <x:v>28</x:v>
-      </x:c>
-      <x:c r="E5" s="3" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="F5" s="3" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="G5" s="3" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H5" s="3" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="I5" s="3" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="J5" s="3" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="K5" s="3" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="L5" s="3" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="M5" s="3" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="N5" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="O5" s="3" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="P5" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="Q5" s="3" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="R5" s="3" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="S5" s="3" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="T5" s="3" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="U5" s="4" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="V5" s="4" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="W5" s="5" t="s">
-        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:23">
       <x:c r="A6" s="6" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B6" s="7"/>
       <x:c r="C6" s="7"/>
@@ -3756,67 +3770,67 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="B7" s="12" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C7" s="12" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D7" s="12" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E7" s="12" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F7" s="12" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G7" s="12" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H7" s="12" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I7" s="12" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J7" s="12" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="K7" s="12" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="L7" s="12" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="M7" s="12" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="N7" s="12" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="O7" s="12" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="P7" s="12" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="Q7" s="12" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="R7" s="12" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="S7" s="12" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="T7" s="12" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="U7" s="12" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="V7" s="12" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="W7" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -3825,7 +3839,7 @@
     </x:row>
     <x:row r="8" spans="1:23">
       <x:c r="A8" s="6" t="s">
-        <x:v>46</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B8" s="7"/>
       <x:c r="C8" s="7"/>
@@ -3855,70 +3869,70 @@
     </x:row>
     <x:row r="9" spans="1:23">
       <x:c r="A9" s="6" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B9" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C9" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D9" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E9" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F9" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G9" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H9" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I9" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J9" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="K9" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="L9" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="M9" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="N9" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="O9" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="P9" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="Q9" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R9" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S9" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="T9" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="U9" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V9" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="W9" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -3927,7 +3941,7 @@
     </x:row>
     <x:row r="10" spans="1:23">
       <x:c r="A10" s="6" t="s">
-        <x:v>44</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B10" s="7"/>
       <x:c r="C10" s="7"/>
@@ -3957,7 +3971,7 @@
     </x:row>
     <x:row r="11" spans="1:23">
       <x:c r="A11" s="6" t="s">
-        <x:v>53</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B11" s="7"/>
       <x:c r="C11" s="7"/>
@@ -3987,7 +4001,7 @@
     </x:row>
     <x:row r="12" spans="1:23">
       <x:c r="A12" s="6" t="s">
-        <x:v>57</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B12" s="7"/>
       <x:c r="C12" s="7"/>
@@ -4017,7 +4031,7 @@
     </x:row>
     <x:row r="13" spans="1:23">
       <x:c r="A13" s="6" t="s">
-        <x:v>59</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B13" s="7"/>
       <x:c r="C13" s="7"/>
@@ -4047,7 +4061,7 @@
     </x:row>
     <x:row r="14" spans="1:23">
       <x:c r="A14" s="6" t="s">
-        <x:v>49</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B14" s="7"/>
       <x:c r="C14" s="7"/>
@@ -4077,7 +4091,7 @@
     </x:row>
     <x:row r="15" spans="1:23">
       <x:c r="A15" s="6" t="s">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B15" s="7"/>
       <x:c r="C15" s="7"/>
@@ -4107,7 +4121,7 @@
     </x:row>
     <x:row r="16" spans="1:23">
       <x:c r="A16" s="6" t="s">
-        <x:v>54</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B16" s="7"/>
       <x:c r="C16" s="7"/>
@@ -4137,7 +4151,7 @@
     </x:row>
     <x:row r="17" spans="1:23">
       <x:c r="A17" s="6" t="s">
-        <x:v>51</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B17" s="7"/>
       <x:c r="C17" s="7"/>
@@ -4167,7 +4181,7 @@
     </x:row>
     <x:row r="18" spans="1:23">
       <x:c r="A18" s="6" t="s">
-        <x:v>50</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B18" s="7"/>
       <x:c r="C18" s="7"/>
@@ -4197,7 +4211,7 @@
     </x:row>
     <x:row r="19" spans="1:23">
       <x:c r="A19" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B19" s="7"/>
       <x:c r="C19" s="7"/>
@@ -4227,7 +4241,7 @@
     </x:row>
     <x:row r="20" spans="1:23">
       <x:c r="A20" s="6" t="s">
-        <x:v>60</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B20" s="7"/>
       <x:c r="C20" s="7"/>
@@ -4257,7 +4271,7 @@
     </x:row>
     <x:row r="21" spans="1:23">
       <x:c r="A21" s="6" t="s">
-        <x:v>62</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B21" s="7"/>
       <x:c r="C21" s="7"/>
@@ -4287,70 +4301,70 @@
     </x:row>
     <x:row r="22" spans="1:23">
       <x:c r="A22" s="6" t="s">
-        <x:v>45</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B22" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C22" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D22" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E22" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F22" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G22" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H22" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I22" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J22" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="K22" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L22" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="M22" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N22" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="O22" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P22" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Q22" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="R22" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="S22" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T22" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U22" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="V22" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W22" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -4359,70 +4373,70 @@
     </x:row>
     <x:row r="23" spans="1:23">
       <x:c r="A23" s="6" t="s">
-        <x:v>47</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B23" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C23" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D23" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E23" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F23" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G23" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H23" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I23" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J23" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="K23" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="L23" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="M23" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="N23" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="O23" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P23" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Q23" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="R23" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="S23" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="T23" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="U23" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="V23" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="W23" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -4431,7 +4445,7 @@
     </x:row>
     <x:row r="24" spans="1:23">
       <x:c r="A24" s="6" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B24" s="7"/>
       <x:c r="C24" s="7"/>
@@ -4461,7 +4475,7 @@
     </x:row>
     <x:row r="25" spans="1:23">
       <x:c r="A25" s="6" t="s">
-        <x:v>64</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B25" s="7"/>
       <x:c r="C25" s="7"/>
@@ -4491,7 +4505,7 @@
     </x:row>
     <x:row r="26" spans="1:23">
       <x:c r="A26" s="6" t="s">
-        <x:v>61</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B26" s="7"/>
       <x:c r="C26" s="7"/>
@@ -4521,7 +4535,7 @@
     </x:row>
     <x:row r="27" spans="1:23" ht="17.149999999999999">
       <x:c r="A27" s="9" t="s">
-        <x:v>35</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B27" s="10">
         <x:f t="shared" ref="B27:V27" si="1">COUNTIF(B6:B26,"O")*5</x:f>
@@ -4617,7 +4631,7 @@
     <x:mergeCell ref="A1:W3"/>
     <x:mergeCell ref="A4:W4"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="4294967293" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -4627,15 +4641,15 @@
   <x:sheetPr codeName="Sheet3"/>
   <x:dimension ref="A1:W27"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="B6" activeCellId="0" sqref="B6:B6"/>
+    <x:sheetView tabSelected="1" topLeftCell="A7" zoomScale="52" zoomScaleNormal="52" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="B19" activeCellId="0" sqref="B19:V19"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
+  <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
   <x:sheetData>
     <x:row r="1" spans="1:23">
       <x:c r="A1" s="13" t="s">
-        <x:v>2</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B1" s="14"/>
       <x:c r="C1" s="14"/>
@@ -4710,7 +4724,7 @@
       <x:c r="V3" s="17"/>
       <x:c r="W3" s="18"/>
     </x:row>
-    <x:row r="4" spans="1:23" ht="18">
+    <x:row r="4" spans="1:23" ht="16.75">
       <x:c r="A4" s="19" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -4737,80 +4751,80 @@
       <x:c r="V4" s="20"/>
       <x:c r="W4" s="21"/>
     </x:row>
-    <x:row r="5" spans="1:23" ht="18">
+    <x:row r="5" spans="1:23" ht="17.149999999999999">
       <x:c r="A5" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B5" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C5" s="3" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D5" s="3" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E5" s="3" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F5" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G5" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H5" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="I5" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J5" s="3" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="K5" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="L5" s="3" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="M5" s="3" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="N5" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="O5" s="3" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="P5" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="Q5" s="3" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="R5" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="B5" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C5" s="3" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="D5" s="3" t="s">
+      <x:c r="S5" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="T5" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="U5" s="4" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="V5" s="4" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="W5" s="5" t="s">
         <x:v>28</x:v>
-      </x:c>
-      <x:c r="E5" s="3" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="F5" s="3" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="G5" s="3" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H5" s="3" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="I5" s="3" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="J5" s="3" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="K5" s="3" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="L5" s="3" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="M5" s="3" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="N5" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="O5" s="3" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="P5" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="Q5" s="3" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="R5" s="3" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="S5" s="3" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="T5" s="3" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="U5" s="4" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="V5" s="4" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="W5" s="5" t="s">
-        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:23">
       <x:c r="A6" s="6" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B6" s="7"/>
       <x:c r="C6" s="7"/>
@@ -4870,7 +4884,7 @@
     </x:row>
     <x:row r="8" spans="1:23">
       <x:c r="A8" s="6" t="s">
-        <x:v>46</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B8" s="7"/>
       <x:c r="C8" s="7"/>
@@ -4900,7 +4914,7 @@
     </x:row>
     <x:row r="9" spans="1:23">
       <x:c r="A9" s="6" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B9" s="7"/>
       <x:c r="C9" s="7"/>
@@ -4930,7 +4944,7 @@
     </x:row>
     <x:row r="10" spans="1:23">
       <x:c r="A10" s="6" t="s">
-        <x:v>44</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B10" s="7"/>
       <x:c r="C10" s="7"/>
@@ -4960,7 +4974,7 @@
     </x:row>
     <x:row r="11" spans="1:23">
       <x:c r="A11" s="6" t="s">
-        <x:v>53</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B11" s="7"/>
       <x:c r="C11" s="7"/>
@@ -4990,7 +5004,7 @@
     </x:row>
     <x:row r="12" spans="1:23">
       <x:c r="A12" s="6" t="s">
-        <x:v>57</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B12" s="7"/>
       <x:c r="C12" s="7"/>
@@ -5020,7 +5034,7 @@
     </x:row>
     <x:row r="13" spans="1:23">
       <x:c r="A13" s="6" t="s">
-        <x:v>59</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B13" s="7"/>
       <x:c r="C13" s="7"/>
@@ -5050,7 +5064,7 @@
     </x:row>
     <x:row r="14" spans="1:23">
       <x:c r="A14" s="6" t="s">
-        <x:v>49</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B14" s="7"/>
       <x:c r="C14" s="7"/>
@@ -5080,7 +5094,7 @@
     </x:row>
     <x:row r="15" spans="1:23">
       <x:c r="A15" s="6" t="s">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B15" s="7"/>
       <x:c r="C15" s="7"/>
@@ -5110,7 +5124,7 @@
     </x:row>
     <x:row r="16" spans="1:23">
       <x:c r="A16" s="6" t="s">
-        <x:v>63</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B16" s="7"/>
       <x:c r="C16" s="7"/>
@@ -5140,7 +5154,7 @@
     </x:row>
     <x:row r="17" spans="1:23">
       <x:c r="A17" s="6" t="s">
-        <x:v>54</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B17" s="7"/>
       <x:c r="C17" s="7"/>
@@ -5170,70 +5184,70 @@
     </x:row>
     <x:row r="18" spans="1:23">
       <x:c r="A18" s="6" t="s">
-        <x:v>51</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B18" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C18" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D18" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E18" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F18" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G18" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H18" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I18" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J18" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K18" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="L18" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="M18" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N18" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O18" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="P18" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="Q18" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R18" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S18" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="T18" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="U18" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V18" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="W18" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -5242,98 +5256,138 @@
     </x:row>
     <x:row r="19" spans="1:23">
       <x:c r="A19" s="6" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="B19" s="7"/>
-      <x:c r="C19" s="7"/>
-      <x:c r="D19" s="7"/>
-      <x:c r="E19" s="7"/>
-      <x:c r="F19" s="7"/>
-      <x:c r="G19" s="7"/>
-      <x:c r="H19" s="7"/>
-      <x:c r="I19" s="7"/>
-      <x:c r="J19" s="7"/>
-      <x:c r="K19" s="7"/>
-      <x:c r="L19" s="7"/>
-      <x:c r="M19" s="7"/>
-      <x:c r="N19" s="7"/>
-      <x:c r="O19" s="7"/>
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B19" s="7" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C19" s="7" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D19" s="7" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E19" s="7" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="F19" s="7" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="G19" s="7" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H19" s="7" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I19" s="7" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="J19" s="7" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="K19" s="7" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="L19" s="7" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="M19" s="7" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="N19" s="7" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="O19" s="7" t="s">
+        <x:v>33</x:v>
+      </x:c>
       <x:c r="P19" s="7"/>
-      <x:c r="Q19" s="7"/>
-      <x:c r="R19" s="7"/>
-      <x:c r="S19" s="7"/>
-      <x:c r="T19" s="7"/>
-      <x:c r="U19" s="7"/>
-      <x:c r="V19" s="7"/>
+      <x:c r="Q19" s="7" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R19" s="7" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="S19" s="7" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="T19" s="7" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="U19" s="7" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="V19" s="7" t="s">
+        <x:v>33</x:v>
+      </x:c>
       <x:c r="W19" s="8" t="str">
         <x:f t="shared" si="0"/>
-        <x:v>0%</x:v>
+        <x:v>80%</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:23">
       <x:c r="A20" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B20" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C20" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D20" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E20" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F20" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G20" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H20" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I20" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J20" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="K20" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="L20" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M20" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N20" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="O20" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="P20" s="7"/>
       <x:c r="Q20" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="R20" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="S20" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="T20" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="U20" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="V20" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="W20" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -5342,7 +5396,7 @@
     </x:row>
     <x:row r="21" spans="1:23">
       <x:c r="A21" s="6" t="s">
-        <x:v>60</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B21" s="7"/>
       <x:c r="C21" s="7"/>
@@ -5372,7 +5426,7 @@
     </x:row>
     <x:row r="22" spans="1:23">
       <x:c r="A22" s="6" t="s">
-        <x:v>45</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B22" s="7"/>
       <x:c r="C22" s="7"/>
@@ -5402,68 +5456,68 @@
     </x:row>
     <x:row r="23" spans="1:23">
       <x:c r="A23" s="6" t="s">
-        <x:v>47</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B23" s="12" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C23" s="12" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D23" s="12" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E23" s="12" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F23" s="12" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G23" s="12" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H23" s="12" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I23" s="12" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J23" s="12" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="K23" s="12" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="L23" s="12" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="M23" s="12" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="N23" s="12" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="O23" s="12" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="P23" s="12"/>
       <x:c r="Q23" s="12" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="R23" s="12" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="S23" s="12" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="T23" s="12" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="U23" s="12" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="V23" s="12" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="W23" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -5472,68 +5526,68 @@
     </x:row>
     <x:row r="24" spans="1:23">
       <x:c r="A24" s="6" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B24" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C24" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D24" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E24" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F24" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G24" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H24" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I24" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J24" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="K24" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="L24" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="M24" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="N24" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="O24" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="P24" s="7"/>
       <x:c r="Q24" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="R24" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="S24" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="T24" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="U24" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="V24" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="W24" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -5542,7 +5596,7 @@
     </x:row>
     <x:row r="25" spans="1:23">
       <x:c r="A25" s="6" t="s">
-        <x:v>64</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B25" s="7"/>
       <x:c r="C25" s="7"/>
@@ -5570,9 +5624,9 @@
         <x:v>0%</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:23" ht="18">
+    <x:row r="26" spans="1:23">
       <x:c r="A26" s="6" t="s">
-        <x:v>61</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B26" s="7"/>
       <x:c r="C26" s="7"/>
@@ -5600,97 +5654,97 @@
         <x:v>0%</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:23" ht="18">
+    <x:row r="27" spans="1:23" ht="17.149999999999999">
       <x:c r="A27" s="9" t="s">
-        <x:v>35</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B27" s="10">
         <x:f t="shared" ref="B27:V27" si="1">COUNTIF(B6:B26,"O")*5</x:f>
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C27" s="10">
+        <x:f t="shared" si="1"/>
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C27" s="10">
+      <x:c r="D27" s="10">
+        <x:f t="shared" si="1"/>
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E27" s="10">
+        <x:f t="shared" si="1"/>
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F27" s="10">
+        <x:f t="shared" si="1"/>
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G27" s="10">
         <x:f t="shared" si="1"/>
         <x:v>15</x:v>
       </x:c>
-      <x:c r="D27" s="10">
+      <x:c r="H27" s="10">
         <x:f t="shared" si="1"/>
         <x:v>20</x:v>
       </x:c>
-      <x:c r="E27" s="10">
+      <x:c r="I27" s="10">
         <x:f t="shared" si="1"/>
         <x:v>20</x:v>
       </x:c>
-      <x:c r="F27" s="10">
+      <x:c r="J27" s="10">
         <x:f t="shared" si="1"/>
         <x:v>20</x:v>
       </x:c>
-      <x:c r="G27" s="10">
+      <x:c r="K27" s="10">
+        <x:f t="shared" si="1"/>
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L27" s="10">
         <x:f t="shared" si="1"/>
         <x:v>15</x:v>
       </x:c>
-      <x:c r="H27" s="10">
+      <x:c r="M27" s="10">
         <x:f t="shared" si="1"/>
         <x:v>15</x:v>
       </x:c>
-      <x:c r="I27" s="10">
-        <x:f t="shared" si="1"/>
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="J27" s="10">
-        <x:f t="shared" si="1"/>
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="K27" s="10">
+      <x:c r="N27" s="10">
         <x:f t="shared" si="1"/>
         <x:v>20</x:v>
       </x:c>
-      <x:c r="L27" s="10">
-        <x:f t="shared" si="1"/>
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="M27" s="10">
-        <x:f t="shared" si="1"/>
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="N27" s="10">
-        <x:f t="shared" si="1"/>
-        <x:v>15</x:v>
-      </x:c>
       <x:c r="O27" s="10">
         <x:f t="shared" si="1"/>
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="P27" s="10">
+        <x:f t="shared" si="1"/>
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="Q27" s="10">
+        <x:f t="shared" si="1"/>
         <x:v>20</x:v>
       </x:c>
-      <x:c r="P27" s="10">
-        <x:f t="shared" si="1"/>
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="Q27" s="10">
-        <x:f t="shared" si="1"/>
-        <x:v>15</x:v>
-      </x:c>
       <x:c r="R27" s="10">
         <x:f t="shared" si="1"/>
-        <x:v>15</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="S27" s="10">
         <x:f t="shared" si="1"/>
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="T27" s="10">
+        <x:f t="shared" si="1"/>
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="U27" s="10">
+        <x:f t="shared" si="1"/>
         <x:v>20</x:v>
       </x:c>
-      <x:c r="T27" s="10">
-        <x:f t="shared" si="1"/>
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="U27" s="10">
-        <x:f t="shared" si="1"/>
-        <x:v>15</x:v>
-      </x:c>
       <x:c r="V27" s="10">
         <x:f t="shared" si="1"/>
-        <x:v>20</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="W27" s="11">
         <x:f>SUM(B27:U27)/20</x:f>
-        <x:v>16.25</x:v>
+        <x:v>20.25</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -5698,7 +5752,7 @@
     <x:mergeCell ref="A1:W3"/>
     <x:mergeCell ref="A4:W4"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -26,133 +26,163 @@
     <x:t>맞음: O 틀림: X</x:t>
   </x:si>
   <x:si>
+    <x:t>최동석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정답률</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이지원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이규리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>황유현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이지수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>안규호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>95%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이재홍</x:t>
+  </x:si>
+  <x:si>
+    <x:t>o</x:t>
+  </x:si>
+  <x:si>
+    <x:t>65%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>90%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>85%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50%</x:t>
+  </x:si>
+  <x:si>
     <x:t>80%</x:t>
   </x:si>
   <x:si>
-    <x:t>60%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>85%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>90%</x:t>
+    <x:t>55%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강희정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김도희</x:t>
+  </x:si>
+  <x:si>
+    <x:t>x</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문제</x:t>
   </x:si>
   <x:si>
     <x:t>김예림</x:t>
   </x:si>
   <x:si>
-    <x:t>95%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>65%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이규리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이재홍</x:t>
+    <x:t>이지우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김시현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정의진</x:t>
   </x:si>
   <x:si>
     <x:t>하정원</x:t>
   </x:si>
   <x:si>
-    <x:t>이지원</x:t>
-  </x:si>
-  <x:si>
     <x:t>오정은</x:t>
   </x:si>
   <x:si>
-    <x:t>김도희</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강희정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이지수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>안규호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>x</x:t>
-  </x:si>
-  <x:si>
-    <x:t>황유현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>o</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최동석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>총점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김시현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정의진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정답률</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이지우</x:t>
+    <x:t>O</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이진</x:t>
   </x:si>
   <x:si>
     <x:t>X</x:t>
   </x:si>
   <x:si>
+    <x:t>김아름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>75%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>윤희성</x:t>
+  </x:si>
+  <x:si>
     <x:t>권노희</x:t>
   </x:si>
   <x:si>
-    <x:t>김아름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>O</x:t>
-  </x:si>
-  <x:si>
-    <x:t>75%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>윤희성</x:t>
-  </x:si>
-  <x:si>
     <x:t>유하영</x:t>
   </x:si>
   <x:si>
-    <x:t>이진</x:t>
-  </x:si>
-  <x:si>
     <x:t>설현기</x:t>
   </x:si>
   <x:si>
-    <x:t>45%</x:t>
-  </x:si>
-  <x:si>
     <x:t>3,4-(2)</x:t>
   </x:si>
   <x:si>
+    <x:t>1,2-(4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,2-(1)</x:t>
+  </x:si>
+  <x:si>
     <x:t>1,2-(5)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,2-(4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,2-(1)</x:t>
+    <x:t>5,6-(4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,4-(5)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,6-(5)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,6-(3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&lt;-평균</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,4-(1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7,8-(5)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,6-(2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,6-(6)</x:t>
   </x:si>
   <x:si>
     <x:t>7,8-(2)</x:t>
@@ -161,70 +191,40 @@
     <x:t>5,6-(1)</x:t>
   </x:si>
   <x:si>
-    <x:t>5,6-(2)</x:t>
-  </x:si>
-  <x:si>
     <x:t>7,8-(4)</x:t>
   </x:si>
   <x:si>
     <x:t>1,2-(2)</x:t>
   </x:si>
   <x:si>
-    <x:t>3,4-(1)</x:t>
-  </x:si>
-  <x:si>
     <x:t>3,4-(3)</x:t>
   </x:si>
   <x:si>
-    <x:t>7,8-(5)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,6-(4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,6-(6)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,4-(5)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>100%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,6-(5)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,6-(3)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>&lt;-평균</x:t>
+    <x:t>1,2-(3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,4-(6)</x:t>
   </x:si>
   <x:si>
     <x:t>7,8-(1)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,2-(3)</x:t>
-  </x:si>
-  <x:si>
     <x:t>7,8-(3)</x:t>
   </x:si>
   <x:si>
-    <x:t>3,4-(6)</x:t>
+    <x:t>3,4-(4)</x:t>
   </x:si>
   <x:si>
     <x:t>7,8-(6)</x:t>
   </x:si>
   <x:si>
-    <x:t>3,4-(4)</x:t>
+    <x:t>2주차 이론시험 채점표</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1주차 이론시험 채점표</x:t>
   </x:si>
   <x:si>
     <x:t>3주차 이론시험 채점표</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1주차 이론시험 채점표</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2주차 이론시험 채점표</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1008,6 +1008,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1028,6 +1029,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1048,6 +1050,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1078,6 +1081,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1108,6 +1112,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1185,6 +1190,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1219,6 +1225,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1253,6 +1260,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1297,6 +1305,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1340,6 +1349,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1840,142 +1850,142 @@
     </x:row>
     <x:row r="5" spans="1:24">
       <x:c r="A5" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D5" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E5" s="3" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="D5" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E5" s="3" t="s">
-        <x:v>31</x:v>
-      </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>18</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H5" s="3" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="H5" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="K5" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="L5" s="3" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="M5" s="3" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="N5" s="3" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="O5" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P5" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="Q5" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="R5" s="3" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="S5" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="T5" s="3" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="U5" s="4" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="V5" s="4" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="M5" s="3" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="N5" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="O5" s="3" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="P5" s="3" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="Q5" s="3" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="R5" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="S5" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="T5" s="3" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="U5" s="4" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="V5" s="4" t="s">
-        <x:v>36</x:v>
-      </x:c>
       <x:c r="W5" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="X5" s="1"/>
     </x:row>
     <x:row r="6" spans="1:24">
       <x:c r="A6" s="6" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B6" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C6" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D6" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E6" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F6" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G6" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H6" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I6" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J6" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K6" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L6" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M6" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N6" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O6" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P6" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Q6" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R6" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S6" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T6" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U6" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V6" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W6" s="8" t="str">
         <x:f t="shared" ref="W6:W26" si="0">COUNTIF(B6:U6,"O")*5&amp;"%"</x:f>
@@ -1985,70 +1995,70 @@
     </x:row>
     <x:row r="7" spans="1:24">
       <x:c r="A7" s="6" t="s">
-        <x:v>48</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B7" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C7" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D7" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E7" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F7" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G7" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H7" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I7" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="J7" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="K7" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="L7" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="M7" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="N7" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="O7" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="P7" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="Q7" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="R7" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="S7" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="T7" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="U7" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="V7" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="W7" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -2058,70 +2068,70 @@
     </x:row>
     <x:row r="8" spans="1:24">
       <x:c r="A8" s="6" t="s">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B8" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C8" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D8" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E8" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F8" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G8" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H8" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I8" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="J8" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="K8" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="L8" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="M8" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="N8" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="O8" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="P8" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="Q8" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="R8" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="S8" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="T8" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="U8" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="V8" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="W8" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -2131,70 +2141,70 @@
     </x:row>
     <x:row r="9" spans="1:24">
       <x:c r="A9" s="6" t="s">
-        <x:v>42</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B9" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C9" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D9" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E9" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F9" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G9" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H9" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I9" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J9" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K9" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L9" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M9" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N9" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O9" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P9" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Q9" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R9" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S9" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T9" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U9" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="V9" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="W9" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -2204,70 +2214,70 @@
     </x:row>
     <x:row r="10" spans="1:24">
       <x:c r="A10" s="6" t="s">
-        <x:v>41</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B10" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D10" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E10" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F10" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G10" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H10" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I10" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="J10" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="K10" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="L10" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="M10" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="N10" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="O10" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="P10" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="Q10" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="R10" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="S10" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="T10" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="U10" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="V10" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="W10" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -2277,70 +2287,70 @@
     </x:row>
     <x:row r="11" spans="1:24">
       <x:c r="A11" s="6" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B11" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C11" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D11" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F11" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G11" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H11" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I11" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J11" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="K11" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L11" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M11" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N11" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O11" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P11" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Q11" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R11" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S11" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T11" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U11" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V11" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="W11" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -2353,67 +2363,67 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="B12" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C12" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D12" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E12" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F12" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G12" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H12" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I12" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J12" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K12" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L12" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M12" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="N12" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O12" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P12" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="Q12" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R12" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S12" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T12" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="U12" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V12" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="W12" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -2423,70 +2433,70 @@
     </x:row>
     <x:row r="13" spans="1:24">
       <x:c r="A13" s="6" t="s">
-        <x:v>50</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B13" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C13" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D13" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E13" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F13" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G13" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H13" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I13" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J13" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K13" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L13" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M13" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="N13" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O13" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P13" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Q13" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R13" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S13" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T13" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U13" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V13" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="W13" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -2496,70 +2506,70 @@
     </x:row>
     <x:row r="14" spans="1:24">
       <x:c r="A14" s="6" t="s">
-        <x:v>64</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B14" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C14" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D14" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E14" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F14" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G14" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H14" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I14" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J14" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="K14" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="L14" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M14" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N14" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="O14" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P14" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Q14" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="R14" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S14" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T14" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U14" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V14" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W14" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -2569,70 +2579,70 @@
     </x:row>
     <x:row r="15" spans="1:24">
       <x:c r="A15" s="6" t="s">
-        <x:v>54</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B15" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C15" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D15" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E15" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F15" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G15" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H15" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I15" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J15" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K15" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L15" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M15" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N15" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O15" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P15" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Q15" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R15" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S15" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T15" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="U15" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V15" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W15" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -2642,70 +2652,70 @@
     </x:row>
     <x:row r="16" spans="1:24">
       <x:c r="A16" s="6" t="s">
-        <x:v>45</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B16" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C16" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D16" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E16" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F16" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G16" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H16" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I16" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J16" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K16" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L16" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M16" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N16" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O16" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P16" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Q16" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R16" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S16" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T16" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U16" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V16" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W16" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -2715,70 +2725,70 @@
     </x:row>
     <x:row r="17" spans="1:24">
       <x:c r="A17" s="6" t="s">
-        <x:v>46</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B17" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C17" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D17" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E17" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F17" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G17" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H17" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I17" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J17" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K17" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L17" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="M17" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N17" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O17" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P17" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="Q17" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R17" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S17" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T17" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U17" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V17" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W17" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -2788,70 +2798,70 @@
     </x:row>
     <x:row r="18" spans="1:24">
       <x:c r="A18" s="6" t="s">
-        <x:v>57</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B18" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C18" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D18" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E18" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F18" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G18" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H18" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I18" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J18" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K18" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L18" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M18" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N18" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O18" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P18" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Q18" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R18" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S18" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T18" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U18" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V18" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="W18" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -2861,70 +2871,70 @@
     </x:row>
     <x:row r="19" spans="1:24">
       <x:c r="A19" s="6" t="s">
-        <x:v>52</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B19" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C19" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J19" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K19" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L19" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M19" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N19" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O19" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P19" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Q19" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R19" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S19" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T19" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U19" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="V19" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W19" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -2934,70 +2944,70 @@
     </x:row>
     <x:row r="20" spans="1:24">
       <x:c r="A20" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B20" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C20" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D20" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E20" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F20" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G20" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H20" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I20" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J20" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K20" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L20" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M20" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N20" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O20" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P20" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Q20" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R20" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S20" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T20" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U20" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V20" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W20" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -3007,70 +3017,70 @@
     </x:row>
     <x:row r="21" spans="1:24">
       <x:c r="A21" s="6" t="s">
-        <x:v>59</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B21" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C21" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D21" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E21" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F21" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G21" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H21" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I21" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J21" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K21" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L21" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M21" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N21" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="O21" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="P21" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Q21" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R21" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S21" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T21" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U21" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V21" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W21" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -3080,70 +3090,70 @@
     </x:row>
     <x:row r="22" spans="1:24">
       <x:c r="A22" s="6" t="s">
-        <x:v>44</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B22" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C22" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D22" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E22" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F22" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G22" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H22" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I22" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J22" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K22" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L22" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M22" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="N22" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O22" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="P22" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Q22" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R22" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S22" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="T22" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="U22" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V22" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="W22" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -3153,70 +3163,70 @@
     </x:row>
     <x:row r="23" spans="1:24">
       <x:c r="A23" s="6" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B23" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C23" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D23" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E23" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F23" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G23" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H23" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I23" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J23" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K23" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="L23" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M23" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N23" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="O23" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P23" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Q23" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="R23" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S23" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T23" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U23" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V23" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W23" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -3226,70 +3236,70 @@
     </x:row>
     <x:row r="24" spans="1:24">
       <x:c r="A24" s="6" t="s">
-        <x:v>47</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B24" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D24" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E24" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F24" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G24" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H24" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I24" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="J24" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="K24" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="L24" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="M24" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="N24" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="O24" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="P24" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="Q24" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="R24" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="S24" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="T24" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="U24" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="V24" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="W24" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -3302,67 +3312,67 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="B25" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C25" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D25" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E25" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F25" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G25" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H25" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I25" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J25" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K25" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L25" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M25" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N25" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O25" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P25" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Q25" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R25" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S25" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T25" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U25" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V25" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W25" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -3372,70 +3382,70 @@
     </x:row>
     <x:row r="26" spans="1:24">
       <x:c r="A26" s="6" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B26" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C26" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D26" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E26" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F26" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G26" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H26" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I26" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="J26" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="K26" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="L26" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="M26" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="N26" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="O26" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="P26" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="Q26" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="R26" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="S26" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="T26" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="U26" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="V26" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="W26" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -3445,7 +3455,7 @@
     </x:row>
     <x:row r="27" spans="1:24">
       <x:c r="A27" s="9" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B27" s="10">
         <x:f t="shared" ref="B27:V27" si="1">COUNTIF(B6:B26,"O")*5</x:f>
@@ -3536,7 +3546,7 @@
         <x:v>85.75</x:v>
       </x:c>
       <x:c r="X27" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3544,7 +3554,7 @@
     <x:mergeCell ref="A1:W3"/>
     <x:mergeCell ref="A4:W4"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -3562,7 +3572,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:23">
       <x:c r="A1" s="13" t="s">
-        <x:v>67</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B1" s="14"/>
       <x:c r="C1" s="14"/>
@@ -3666,78 +3676,78 @@
     </x:row>
     <x:row r="5" spans="1:23" ht="17.149999999999999">
       <x:c r="A5" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D5" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E5" s="3" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="D5" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E5" s="3" t="s">
-        <x:v>31</x:v>
-      </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>18</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H5" s="3" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="H5" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="K5" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="L5" s="3" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="M5" s="3" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="N5" s="3" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="O5" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P5" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="Q5" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="R5" s="3" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="S5" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="T5" s="3" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="U5" s="4" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="V5" s="4" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="M5" s="3" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="N5" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="O5" s="3" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="P5" s="3" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="Q5" s="3" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="R5" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="S5" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="T5" s="3" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="U5" s="4" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="V5" s="4" t="s">
-        <x:v>36</x:v>
-      </x:c>
       <x:c r="W5" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:23">
       <x:c r="A6" s="6" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B6" s="7"/>
       <x:c r="C6" s="7"/>
@@ -3767,70 +3777,70 @@
     </x:row>
     <x:row r="7" spans="1:23">
       <x:c r="A7" s="6" t="s">
-        <x:v>48</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B7" s="12" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C7" s="12" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D7" s="12" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E7" s="12" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F7" s="12" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G7" s="12" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H7" s="12" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I7" s="12" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J7" s="12" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K7" s="12" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L7" s="12" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M7" s="12" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N7" s="12" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O7" s="12" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P7" s="12" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Q7" s="12" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R7" s="12" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S7" s="12" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T7" s="12" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U7" s="12" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V7" s="12" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W7" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -3839,7 +3849,7 @@
     </x:row>
     <x:row r="8" spans="1:23">
       <x:c r="A8" s="6" t="s">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B8" s="7"/>
       <x:c r="C8" s="7"/>
@@ -3869,70 +3879,70 @@
     </x:row>
     <x:row r="9" spans="1:23">
       <x:c r="A9" s="6" t="s">
-        <x:v>42</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B9" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C9" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D9" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E9" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F9" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G9" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H9" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I9" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J9" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K9" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L9" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M9" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N9" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O9" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P9" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Q9" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="R9" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="S9" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T9" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U9" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="V9" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W9" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -3941,7 +3951,7 @@
     </x:row>
     <x:row r="10" spans="1:23">
       <x:c r="A10" s="6" t="s">
-        <x:v>41</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B10" s="7"/>
       <x:c r="C10" s="7"/>
@@ -3971,7 +3981,7 @@
     </x:row>
     <x:row r="11" spans="1:23">
       <x:c r="A11" s="6" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B11" s="7"/>
       <x:c r="C11" s="7"/>
@@ -4031,7 +4041,7 @@
     </x:row>
     <x:row r="13" spans="1:23">
       <x:c r="A13" s="6" t="s">
-        <x:v>50</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B13" s="7"/>
       <x:c r="C13" s="7"/>
@@ -4061,7 +4071,7 @@
     </x:row>
     <x:row r="14" spans="1:23">
       <x:c r="A14" s="6" t="s">
-        <x:v>64</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B14" s="7"/>
       <x:c r="C14" s="7"/>
@@ -4091,7 +4101,7 @@
     </x:row>
     <x:row r="15" spans="1:23">
       <x:c r="A15" s="6" t="s">
-        <x:v>54</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B15" s="7"/>
       <x:c r="C15" s="7"/>
@@ -4121,7 +4131,7 @@
     </x:row>
     <x:row r="16" spans="1:23">
       <x:c r="A16" s="6" t="s">
-        <x:v>45</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B16" s="7"/>
       <x:c r="C16" s="7"/>
@@ -4151,7 +4161,7 @@
     </x:row>
     <x:row r="17" spans="1:23">
       <x:c r="A17" s="6" t="s">
-        <x:v>46</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B17" s="7"/>
       <x:c r="C17" s="7"/>
@@ -4181,7 +4191,7 @@
     </x:row>
     <x:row r="18" spans="1:23">
       <x:c r="A18" s="6" t="s">
-        <x:v>57</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B18" s="7"/>
       <x:c r="C18" s="7"/>
@@ -4211,7 +4221,7 @@
     </x:row>
     <x:row r="19" spans="1:23">
       <x:c r="A19" s="6" t="s">
-        <x:v>52</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B19" s="7"/>
       <x:c r="C19" s="7"/>
@@ -4241,7 +4251,7 @@
     </x:row>
     <x:row r="20" spans="1:23">
       <x:c r="A20" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B20" s="7"/>
       <x:c r="C20" s="7"/>
@@ -4301,70 +4311,70 @@
     </x:row>
     <x:row r="22" spans="1:23">
       <x:c r="A22" s="6" t="s">
-        <x:v>59</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B22" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C22" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D22" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E22" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F22" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G22" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H22" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I22" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J22" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K22" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="L22" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M22" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="N22" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O22" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="P22" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="Q22" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R22" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S22" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="T22" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="U22" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V22" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="W22" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -4373,70 +4383,70 @@
     </x:row>
     <x:row r="23" spans="1:23">
       <x:c r="A23" s="6" t="s">
-        <x:v>44</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B23" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C23" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D23" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E23" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F23" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G23" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H23" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I23" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J23" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K23" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L23" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M23" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N23" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O23" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="P23" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="Q23" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R23" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S23" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T23" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U23" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V23" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W23" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -4445,7 +4455,7 @@
     </x:row>
     <x:row r="24" spans="1:23">
       <x:c r="A24" s="6" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B24" s="7"/>
       <x:c r="C24" s="7"/>
@@ -4475,7 +4485,7 @@
     </x:row>
     <x:row r="25" spans="1:23">
       <x:c r="A25" s="6" t="s">
-        <x:v>47</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B25" s="7"/>
       <x:c r="C25" s="7"/>
@@ -4535,7 +4545,7 @@
     </x:row>
     <x:row r="27" spans="1:23" ht="17.149999999999999">
       <x:c r="A27" s="9" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B27" s="10">
         <x:f t="shared" ref="B27:V27" si="1">COUNTIF(B6:B26,"O")*5</x:f>
@@ -4631,7 +4641,7 @@
     <x:mergeCell ref="A1:W3"/>
     <x:mergeCell ref="A4:W4"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="4294967293" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -4641,7 +4651,7 @@
   <x:sheetPr codeName="Sheet3"/>
   <x:dimension ref="A1:W27"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A7" zoomScale="52" zoomScaleNormal="52" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="52" zoomScaleNormal="52" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:selection activeCell="B19" activeCellId="0" sqref="B19:V19"/>
     </x:sheetView>
   </x:sheetViews>
@@ -4649,7 +4659,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:23">
       <x:c r="A1" s="13" t="s">
-        <x:v>65</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B1" s="14"/>
       <x:c r="C1" s="14"/>
@@ -4753,78 +4763,78 @@
     </x:row>
     <x:row r="5" spans="1:23" ht="17.149999999999999">
       <x:c r="A5" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D5" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E5" s="3" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="D5" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E5" s="3" t="s">
-        <x:v>31</x:v>
-      </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>18</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H5" s="3" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="H5" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="K5" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="L5" s="3" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="M5" s="3" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="N5" s="3" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="O5" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P5" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="Q5" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="R5" s="3" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="S5" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="T5" s="3" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="U5" s="4" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="V5" s="4" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="M5" s="3" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="N5" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="O5" s="3" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="P5" s="3" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="Q5" s="3" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="R5" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="S5" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="T5" s="3" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="U5" s="4" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="V5" s="4" t="s">
-        <x:v>36</x:v>
-      </x:c>
       <x:c r="W5" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:23">
       <x:c r="A6" s="6" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B6" s="7"/>
       <x:c r="C6" s="7"/>
@@ -4854,7 +4864,7 @@
     </x:row>
     <x:row r="7" spans="1:23">
       <x:c r="A7" s="6" t="s">
-        <x:v>48</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B7" s="7"/>
       <x:c r="C7" s="7"/>
@@ -4884,7 +4894,7 @@
     </x:row>
     <x:row r="8" spans="1:23">
       <x:c r="A8" s="6" t="s">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B8" s="7"/>
       <x:c r="C8" s="7"/>
@@ -4914,7 +4924,7 @@
     </x:row>
     <x:row r="9" spans="1:23">
       <x:c r="A9" s="6" t="s">
-        <x:v>42</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B9" s="7"/>
       <x:c r="C9" s="7"/>
@@ -4944,7 +4954,7 @@
     </x:row>
     <x:row r="10" spans="1:23">
       <x:c r="A10" s="6" t="s">
-        <x:v>41</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B10" s="7"/>
       <x:c r="C10" s="7"/>
@@ -4974,7 +4984,7 @@
     </x:row>
     <x:row r="11" spans="1:23">
       <x:c r="A11" s="6" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B11" s="7"/>
       <x:c r="C11" s="7"/>
@@ -5034,7 +5044,7 @@
     </x:row>
     <x:row r="13" spans="1:23">
       <x:c r="A13" s="6" t="s">
-        <x:v>50</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B13" s="7"/>
       <x:c r="C13" s="7"/>
@@ -5064,7 +5074,7 @@
     </x:row>
     <x:row r="14" spans="1:23">
       <x:c r="A14" s="6" t="s">
-        <x:v>64</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B14" s="7"/>
       <x:c r="C14" s="7"/>
@@ -5094,7 +5104,7 @@
     </x:row>
     <x:row r="15" spans="1:23">
       <x:c r="A15" s="6" t="s">
-        <x:v>54</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B15" s="7"/>
       <x:c r="C15" s="7"/>
@@ -5124,7 +5134,7 @@
     </x:row>
     <x:row r="16" spans="1:23">
       <x:c r="A16" s="6" t="s">
-        <x:v>62</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B16" s="7"/>
       <x:c r="C16" s="7"/>
@@ -5154,7 +5164,7 @@
     </x:row>
     <x:row r="17" spans="1:23">
       <x:c r="A17" s="6" t="s">
-        <x:v>45</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B17" s="7"/>
       <x:c r="C17" s="7"/>
@@ -5184,70 +5194,70 @@
     </x:row>
     <x:row r="18" spans="1:23">
       <x:c r="A18" s="6" t="s">
-        <x:v>46</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B18" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C18" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D18" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E18" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F18" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G18" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H18" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I18" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J18" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="K18" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L18" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M18" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="N18" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="O18" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P18" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Q18" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="R18" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="S18" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T18" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U18" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="V18" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W18" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -5256,68 +5266,68 @@
     </x:row>
     <x:row r="19" spans="1:23">
       <x:c r="A19" s="6" t="s">
-        <x:v>57</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B19" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C19" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J19" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K19" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="L19" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="M19" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N19" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O19" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P19" s="7"/>
       <x:c r="Q19" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R19" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S19" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T19" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U19" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V19" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W19" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -5326,68 +5336,68 @@
     </x:row>
     <x:row r="20" spans="1:23">
       <x:c r="A20" s="6" t="s">
-        <x:v>52</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B20" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C20" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D20" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E20" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F20" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G20" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H20" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I20" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J20" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K20" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L20" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="M20" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="N20" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O20" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P20" s="7"/>
       <x:c r="Q20" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R20" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S20" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T20" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U20" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V20" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W20" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -5396,7 +5406,7 @@
     </x:row>
     <x:row r="21" spans="1:23">
       <x:c r="A21" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B21" s="7"/>
       <x:c r="C21" s="7"/>
@@ -5426,7 +5436,7 @@
     </x:row>
     <x:row r="22" spans="1:23">
       <x:c r="A22" s="6" t="s">
-        <x:v>59</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B22" s="7"/>
       <x:c r="C22" s="7"/>
@@ -5456,68 +5466,68 @@
     </x:row>
     <x:row r="23" spans="1:23">
       <x:c r="A23" s="6" t="s">
-        <x:v>44</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B23" s="12" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C23" s="12" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D23" s="12" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E23" s="12" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F23" s="12" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G23" s="12" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H23" s="12" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I23" s="12" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J23" s="12" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K23" s="12" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L23" s="12" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M23" s="12" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N23" s="12" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O23" s="12" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P23" s="12"/>
       <x:c r="Q23" s="12" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R23" s="12" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S23" s="12" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T23" s="12" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U23" s="12" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V23" s="12" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W23" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -5526,68 +5536,68 @@
     </x:row>
     <x:row r="24" spans="1:23">
       <x:c r="A24" s="6" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B24" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C24" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D24" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E24" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F24" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G24" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H24" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I24" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J24" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K24" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L24" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M24" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N24" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O24" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P24" s="7"/>
       <x:c r="Q24" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R24" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S24" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T24" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U24" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V24" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W24" s="8" t="str">
         <x:f t="shared" si="0"/>
@@ -5596,7 +5606,7 @@
     </x:row>
     <x:row r="25" spans="1:23">
       <x:c r="A25" s="6" t="s">
-        <x:v>47</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B25" s="7"/>
       <x:c r="C25" s="7"/>
@@ -5656,7 +5666,7 @@
     </x:row>
     <x:row r="27" spans="1:23" ht="17.149999999999999">
       <x:c r="A27" s="9" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B27" s="10">
         <x:f t="shared" ref="B27:V27" si="1">COUNTIF(B6:B26,"O")*5</x:f>
@@ -5752,7 +5762,7 @@
     <x:mergeCell ref="A1:W3"/>
     <x:mergeCell ref="A4:W4"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -1,39 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\66547\OneDrive\사진\바탕 화면\새 폴더\2022_DeepLearningStudy\02_Test_Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336337C0-B73C-442A-B850-7F1600760297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="9.103.88.44548"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>맞음: O 틀림: X</t>
   </si>
@@ -204,90 +188,172 @@
   </si>
   <si>
     <t>o</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>x</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="26">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF3F3F76"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FFFFFFFF"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="Malgun Gothic"/>
       <color rgb="FF000000"/>
-      <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="30"/>
+      <sz val="30.0"/>
+      <name val="HY헤드라인M"/>
       <color rgb="FF000000"/>
-      <name val="HY헤드라인M"/>
-      <family val="1"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="HY헤드라인M"/>
       <color rgb="FF000000"/>
-      <name val="HY헤드라인M"/>
-      <family val="1"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="8.0"/>
+      <name val="돋움"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="10"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -351,13 +417,356 @@
         </stop>
       </gradientFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="22">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -376,114 +785,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,110 +803,293 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color auto="1"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="17" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="18" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="19" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="49">
     <cellStyle name="20% - 강조색1" xfId="3" builtinId="30"/>
+    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
+    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
+    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
+    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
+    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
+    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
+    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
+    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
+    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
+    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
+    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
+    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
+    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
+    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
+    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
+    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
+    <cellStyle name="강조색1" xfId="25" builtinId="29"/>
+    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
+    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
+    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
+    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
+    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
+    <cellStyle name="경고문" xfId="11" builtinId="11"/>
+    <cellStyle name="계산" xfId="18" builtinId="22"/>
+    <cellStyle name="나쁨" xfId="23" builtinId="27"/>
     <cellStyle name="메모" xfId="2" builtinId="10"/>
+    <cellStyle name="백분율" xfId="6" builtinId="5"/>
+    <cellStyle name="보통" xfId="24" builtinId="28"/>
+    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
+    <cellStyle name="셀 확인" xfId="19" builtinId="23"/>
+    <cellStyle name="쉼표" xfId="4" builtinId="3"/>
+    <cellStyle name="쉼표[0]" xfId="7" builtinId="6"/>
+    <cellStyle name="연결된 셀" xfId="20" builtinId="24"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="요약" xfId="21" builtinId="25"/>
     <cellStyle name="입력" xfId="1" builtinId="20"/>
+    <cellStyle name="제목" xfId="12" builtinId="15"/>
+    <cellStyle name="제목 1" xfId="13" builtinId="16"/>
+    <cellStyle name="제목 2" xfId="14" builtinId="17"/>
+    <cellStyle name="제목 3" xfId="15" builtinId="18"/>
+    <cellStyle name="제목 4" xfId="16" builtinId="19"/>
+    <cellStyle name="좋음" xfId="22" builtinId="26"/>
+    <cellStyle name="출력" xfId="17" builtinId="21"/>
+    <cellStyle name="통화" xfId="5" builtinId="4"/>
+    <cellStyle name="통화[0]" xfId="8" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="9" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -775,7 +1270,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -784,7 +1279,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -794,14 +1289,6 @@
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1096,15 +1583,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.75000000" defaultRowHeight="16.500000"/>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="13" t="s">
@@ -1354,7 +1840,7 @@
         <v>21</v>
       </c>
       <c r="W6" s="8" t="str">
-        <f t="shared" ref="W6:W26" si="0">COUNTIF(B6:U6,"O")*5&amp;"%"</f>
+        <f>COUNTIF(B6:U6,"O")*5&amp;"%"</f>
         <v>100%</v>
       </c>
       <c r="X6" s="1"/>
@@ -1427,7 +1913,7 @@
         <v>9</v>
       </c>
       <c r="W7" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B7:U7,"O")*5&amp;"%"</f>
         <v>50%</v>
       </c>
       <c r="X7" s="1"/>
@@ -1500,7 +1986,7 @@
         <v>12</v>
       </c>
       <c r="W8" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B8:U8,"O")*5&amp;"%"</f>
         <v>95%</v>
       </c>
       <c r="X8" s="1"/>
@@ -1573,7 +2059,7 @@
         <v>23</v>
       </c>
       <c r="W9" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B9:U9,"O")*5&amp;"%"</f>
         <v>80%</v>
       </c>
       <c r="X9" s="1"/>
@@ -1646,7 +2132,7 @@
         <v>9</v>
       </c>
       <c r="W10" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B10:U10,"O")*5&amp;"%"</f>
         <v>95%</v>
       </c>
       <c r="X10" s="1"/>
@@ -1719,7 +2205,7 @@
         <v>23</v>
       </c>
       <c r="W11" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B11:U11,"O")*5&amp;"%"</f>
         <v>75%</v>
       </c>
       <c r="X11" s="1"/>
@@ -1792,7 +2278,7 @@
         <v>23</v>
       </c>
       <c r="W12" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B12:U12,"O")*5&amp;"%"</f>
         <v>80%</v>
       </c>
       <c r="X12" s="1"/>
@@ -1865,7 +2351,7 @@
         <v>23</v>
       </c>
       <c r="W13" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B13:U13,"O")*5&amp;"%"</f>
         <v>95%</v>
       </c>
       <c r="X13" s="1"/>
@@ -1938,7 +2424,7 @@
         <v>21</v>
       </c>
       <c r="W14" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B14:U14,"O")*5&amp;"%"</f>
         <v>65%</v>
       </c>
       <c r="X14" s="1"/>
@@ -2011,7 +2497,7 @@
         <v>21</v>
       </c>
       <c r="W15" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B15:U15,"O")*5&amp;"%"</f>
         <v>95%</v>
       </c>
       <c r="X15" s="1"/>
@@ -2084,7 +2570,7 @@
         <v>21</v>
       </c>
       <c r="W16" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B16:U16,"O")*5&amp;"%"</f>
         <v>90%</v>
       </c>
       <c r="X16" s="1"/>
@@ -2157,7 +2643,7 @@
         <v>21</v>
       </c>
       <c r="W17" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B17:U17,"O")*5&amp;"%"</f>
         <v>75%</v>
       </c>
       <c r="X17" s="1"/>
@@ -2230,7 +2716,7 @@
         <v>23</v>
       </c>
       <c r="W18" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B18:U18,"O")*5&amp;"%"</f>
         <v>85%</v>
       </c>
       <c r="X18" s="1"/>
@@ -2303,7 +2789,7 @@
         <v>21</v>
       </c>
       <c r="W19" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B19:U19,"O")*5&amp;"%"</f>
         <v>75%</v>
       </c>
       <c r="X19" s="1"/>
@@ -2376,7 +2862,7 @@
         <v>21</v>
       </c>
       <c r="W20" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B20:U20,"O")*5&amp;"%"</f>
         <v>95%</v>
       </c>
       <c r="X20" s="1"/>
@@ -2449,7 +2935,7 @@
         <v>21</v>
       </c>
       <c r="W21" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B21:U21,"O")*5&amp;"%"</f>
         <v>80%</v>
       </c>
       <c r="X21" s="1"/>
@@ -2522,7 +3008,7 @@
         <v>23</v>
       </c>
       <c r="W22" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B22:U22,"O")*5&amp;"%"</f>
         <v>65%</v>
       </c>
       <c r="X22" s="1"/>
@@ -2595,7 +3081,7 @@
         <v>21</v>
       </c>
       <c r="W23" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B23:U23,"O")*5&amp;"%"</f>
         <v>75%</v>
       </c>
       <c r="X23" s="1"/>
@@ -2668,7 +3154,7 @@
         <v>9</v>
       </c>
       <c r="W24" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B24:U24,"O")*5&amp;"%"</f>
         <v>60%</v>
       </c>
       <c r="X24" s="1"/>
@@ -2741,7 +3227,7 @@
         <v>21</v>
       </c>
       <c r="W25" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B25:U25,"O")*5&amp;"%"</f>
         <v>100%</v>
       </c>
       <c r="X25" s="1"/>
@@ -2814,7 +3300,7 @@
         <v>9</v>
       </c>
       <c r="W26" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B26:U26,"O")*5&amp;"%"</f>
         <v>85%</v>
       </c>
       <c r="X26" s="1"/>
@@ -2824,87 +3310,87 @@
         <v>17</v>
       </c>
       <c r="B27" s="10">
-        <f t="shared" ref="B27:V27" si="1">COUNTIF(B6:B26,"O")*5</f>
+        <f>COUNTIF(B6:B26,"O")*5</f>
         <v>105</v>
       </c>
       <c r="C27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(C6:C26,"O")*5</f>
         <v>65</v>
       </c>
       <c r="D27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D6:D26,"O")*5</f>
         <v>80</v>
       </c>
       <c r="E27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(E6:E26,"O")*5</f>
         <v>75</v>
       </c>
       <c r="F27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F6:F26,"O")*5</f>
         <v>80</v>
       </c>
       <c r="G27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(G6:G26,"O")*5</f>
         <v>90</v>
       </c>
       <c r="H27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(H6:H26,"O")*5</f>
         <v>65</v>
       </c>
       <c r="I27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(I6:I26,"O")*5</f>
         <v>75</v>
       </c>
       <c r="J27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(J6:J26,"O")*5</f>
         <v>90</v>
       </c>
       <c r="K27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(K6:K26,"O")*5</f>
         <v>85</v>
       </c>
       <c r="L27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(L6:L26,"O")*5</f>
         <v>85</v>
       </c>
       <c r="M27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(M6:M26,"O")*5</f>
         <v>85</v>
       </c>
       <c r="N27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(N6:N26,"O")*5</f>
         <v>80</v>
       </c>
       <c r="O27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(O6:O26,"O")*5</f>
         <v>90</v>
       </c>
       <c r="P27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(P6:P26,"O")*5</f>
         <v>85</v>
       </c>
       <c r="Q27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(Q6:Q26,"O")*5</f>
         <v>95</v>
       </c>
       <c r="R27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(R6:R26,"O")*5</f>
         <v>105</v>
       </c>
       <c r="S27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(S6:S26,"O")*5</f>
         <v>95</v>
       </c>
       <c r="T27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(T6:T26,"O")*5</f>
         <v>90</v>
       </c>
       <c r="U27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(U6:U26,"O")*5</f>
         <v>95</v>
       </c>
       <c r="V27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(V6:V26,"O")*5</f>
         <v>70</v>
       </c>
       <c r="W27" s="11">
@@ -2920,22 +3406,21 @@
     <mergeCell ref="A1:W3"/>
     <mergeCell ref="A4:W4"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="52" zoomScaleNormal="52" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:V20"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.75000000" defaultRowHeight="16.500000"/>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="13" t="s">
@@ -3014,7 +3499,7 @@
       <c r="V3" s="17"/>
       <c r="W3" s="18"/>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" ht="17.250000">
       <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
@@ -3041,7 +3526,7 @@
       <c r="V4" s="20"/>
       <c r="W4" s="21"/>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" ht="17.250000">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -3138,7 +3623,7 @@
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
       <c r="W6" s="8" t="str">
-        <f t="shared" ref="W6:W26" si="0">COUNTIF(B6:U6,"O")*5&amp;"%"</f>
+        <f>COUNTIF(B6:U6,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
     </row>
@@ -3210,7 +3695,7 @@
         <v>21</v>
       </c>
       <c r="W7" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B7:U7,"O")*5&amp;"%"</f>
         <v>100%</v>
       </c>
     </row>
@@ -3240,7 +3725,7 @@
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
       <c r="W8" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B8:U8,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
     </row>
@@ -3312,7 +3797,7 @@
         <v>21</v>
       </c>
       <c r="W9" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B9:U9,"O")*5&amp;"%"</f>
         <v>75%</v>
       </c>
     </row>
@@ -3342,7 +3827,7 @@
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
       <c r="W10" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B10:U10,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
     </row>
@@ -3372,7 +3857,7 @@
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
       <c r="W11" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B11:U11,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
     </row>
@@ -3380,30 +3865,72 @@
       <c r="A12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
+      <c r="B12" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="S12" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="T12" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="U12" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="V12" s="22" t="s">
+        <v>21</v>
+      </c>
       <c r="W12" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
+        <f>COUNTIF(B12:U12,"O")*5&amp;"%"</f>
+        <v>90%</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -3432,7 +3959,7 @@
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
       <c r="W13" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B13:U13,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
     </row>
@@ -3462,7 +3989,7 @@
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
       <c r="W14" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B14:U14,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
     </row>
@@ -3492,7 +4019,7 @@
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
       <c r="W15" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B15:U15,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
     </row>
@@ -3522,7 +4049,7 @@
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
       <c r="W16" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B16:U16,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
     </row>
@@ -3552,7 +4079,7 @@
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
       <c r="W17" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B17:U17,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
     </row>
@@ -3582,7 +4109,7 @@
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
       <c r="W18" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B18:U18,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
     </row>
@@ -3612,7 +4139,7 @@
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
       <c r="W19" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B19:U19,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
     </row>
@@ -3684,7 +4211,7 @@
         <v>56</v>
       </c>
       <c r="W20" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B20:U20,"O")*5&amp;"%"</f>
         <v>80%</v>
       </c>
     </row>
@@ -3714,7 +4241,7 @@
       <c r="U21" s="7"/>
       <c r="V21" s="7"/>
       <c r="W21" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B21:U21,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
     </row>
@@ -3786,7 +4313,7 @@
         <v>23</v>
       </c>
       <c r="W22" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B22:U22,"O")*5&amp;"%"</f>
         <v>45%</v>
       </c>
     </row>
@@ -3858,7 +4385,7 @@
         <v>21</v>
       </c>
       <c r="W23" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B23:U23,"O")*5&amp;"%"</f>
         <v>75%</v>
       </c>
     </row>
@@ -3888,7 +4415,7 @@
       <c r="U24" s="7"/>
       <c r="V24" s="7"/>
       <c r="W24" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B24:U24,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
     </row>
@@ -3918,7 +4445,7 @@
       <c r="U25" s="7"/>
       <c r="V25" s="7"/>
       <c r="W25" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B25:U25,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
     </row>
@@ -3948,101 +4475,101 @@
       <c r="U26" s="7"/>
       <c r="V26" s="7"/>
       <c r="W26" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B26:U26,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" ht="17.250000">
       <c r="A27" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B27" s="10">
-        <f t="shared" ref="B27:V27" si="1">COUNTIF(B6:B26,"O")*5</f>
+        <f>COUNTIF(B6:B26,"O")*5</f>
+        <v>30</v>
+      </c>
+      <c r="C27" s="10">
+        <f>COUNTIF(C6:C26,"O")*5</f>
+        <v>15</v>
+      </c>
+      <c r="D27" s="10">
+        <f>COUNTIF(D6:D26,"O")*5</f>
         <v>25</v>
       </c>
-      <c r="C27" s="10">
-        <f t="shared" si="1"/>
+      <c r="E27" s="10">
+        <f>COUNTIF(E6:E26,"O")*5</f>
         <v>15</v>
       </c>
-      <c r="D27" s="10">
-        <f t="shared" si="1"/>
+      <c r="F27" s="10">
+        <f>COUNTIF(F6:F26,"O")*5</f>
+        <v>15</v>
+      </c>
+      <c r="G27" s="10">
+        <f>COUNTIF(G6:G26,"O")*5</f>
+        <v>25</v>
+      </c>
+      <c r="H27" s="10">
+        <f>COUNTIF(H6:H26,"O")*5</f>
+        <v>30</v>
+      </c>
+      <c r="I27" s="10">
+        <f>COUNTIF(I6:I26,"O")*5</f>
+        <v>30</v>
+      </c>
+      <c r="J27" s="10">
+        <f>COUNTIF(J6:J26,"O")*5</f>
+        <v>30</v>
+      </c>
+      <c r="K27" s="10">
+        <f>COUNTIF(K6:K26,"O")*5</f>
         <v>20</v>
       </c>
-      <c r="E27" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="F27" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="G27" s="10">
-        <f t="shared" si="1"/>
+      <c r="L27" s="10">
+        <f>COUNTIF(L6:L26,"O")*5</f>
+        <v>30</v>
+      </c>
+      <c r="M27" s="10">
+        <f>COUNTIF(M6:M26,"O")*5</f>
         <v>20</v>
       </c>
-      <c r="H27" s="10">
-        <f t="shared" si="1"/>
+      <c r="N27" s="10">
+        <f>COUNTIF(N6:N26,"O")*5</f>
+        <v>30</v>
+      </c>
+      <c r="O27" s="10">
+        <f>COUNTIF(O6:O26,"O")*5</f>
+        <v>20</v>
+      </c>
+      <c r="P27" s="10">
+        <f>COUNTIF(P6:P26,"O")*5</f>
+        <v>20</v>
+      </c>
+      <c r="Q27" s="10">
+        <f>COUNTIF(Q6:Q26,"O")*5</f>
+        <v>20</v>
+      </c>
+      <c r="R27" s="10">
+        <f>COUNTIF(R6:R26,"O")*5</f>
+        <v>20</v>
+      </c>
+      <c r="S27" s="10">
+        <f>COUNTIF(S6:S26,"O")*5</f>
         <v>25</v>
       </c>
-      <c r="I27" s="10">
-        <f t="shared" si="1"/>
+      <c r="T27" s="10">
+        <f>COUNTIF(T6:T26,"O")*5</f>
         <v>25</v>
       </c>
-      <c r="J27" s="10">
-        <f t="shared" si="1"/>
+      <c r="U27" s="10">
+        <f>COUNTIF(U6:U26,"O")*5</f>
+        <v>20</v>
+      </c>
+      <c r="V27" s="10">
+        <f>COUNTIF(V6:V26,"O")*5</f>
         <v>25</v>
-      </c>
-      <c r="K27" s="10">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="L27" s="10">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="M27" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="N27" s="10">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="O27" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="P27" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="Q27" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="R27" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="S27" s="10">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="T27" s="10">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="U27" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="V27" s="10">
-        <f t="shared" si="1"/>
-        <v>20</v>
       </c>
       <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>
-        <v>18.75</v>
+        <v>23.25</v>
       </c>
     </row>
   </sheetData>
@@ -4050,22 +4577,21 @@
     <mergeCell ref="A1:W3"/>
     <mergeCell ref="A4:W4"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Sheet3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="52" zoomScaleNormal="52" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:V14"/>
+    <sheetView zoomScale="52" zoomScaleNormal="52" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.75000000" defaultRowHeight="16.500000"/>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="13" t="s">
@@ -4144,7 +4670,7 @@
       <c r="V3" s="17"/>
       <c r="W3" s="18"/>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" ht="17.250000">
       <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
@@ -4171,7 +4697,7 @@
       <c r="V4" s="20"/>
       <c r="W4" s="21"/>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" ht="17.250000">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -4268,7 +4794,7 @@
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
       <c r="W6" s="8" t="str">
-        <f t="shared" ref="W6:W26" si="0">COUNTIF(B6:U6,"O")*5&amp;"%"</f>
+        <f>COUNTIF(B6:U6,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
     </row>
@@ -4298,7 +4824,7 @@
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
       <c r="W7" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B7:U7,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
     </row>
@@ -4328,7 +4854,7 @@
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
       <c r="W8" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B8:U8,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
     </row>
@@ -4358,7 +4884,7 @@
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
       <c r="W9" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B9:U9,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
     </row>
@@ -4388,7 +4914,7 @@
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
       <c r="W10" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B10:U10,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
     </row>
@@ -4418,7 +4944,7 @@
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
       <c r="W11" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B11:U11,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
     </row>
@@ -4448,7 +4974,7 @@
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
       <c r="W12" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B12:U12,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
     </row>
@@ -4478,7 +5004,7 @@
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
       <c r="W13" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B13:U13,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
     </row>
@@ -4550,7 +5076,7 @@
         <v>56</v>
       </c>
       <c r="W14" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B14:U14,"O")*5&amp;"%"</f>
         <v>95%</v>
       </c>
     </row>
@@ -4580,7 +5106,7 @@
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
       <c r="W15" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B15:U15,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
     </row>
@@ -4610,7 +5136,7 @@
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
       <c r="W16" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B16:U16,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
     </row>
@@ -4640,7 +5166,7 @@
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
       <c r="W17" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B17:U17,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
     </row>
@@ -4712,7 +5238,7 @@
         <v>21</v>
       </c>
       <c r="W18" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B18:U18,"O")*5&amp;"%"</f>
         <v>55%</v>
       </c>
     </row>
@@ -4782,7 +5308,7 @@
         <v>21</v>
       </c>
       <c r="W19" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B19:U19,"O")*5&amp;"%"</f>
         <v>80%</v>
       </c>
     </row>
@@ -4852,7 +5378,7 @@
         <v>21</v>
       </c>
       <c r="W20" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B20:U20,"O")*5&amp;"%"</f>
         <v>85%</v>
       </c>
     </row>
@@ -4882,7 +5408,7 @@
       <c r="U21" s="7"/>
       <c r="V21" s="7"/>
       <c r="W21" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B21:U21,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
     </row>
@@ -4912,7 +5438,7 @@
       <c r="U22" s="7"/>
       <c r="V22" s="7"/>
       <c r="W22" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B22:U22,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
     </row>
@@ -4982,7 +5508,7 @@
         <v>21</v>
       </c>
       <c r="W23" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B23:U23,"O")*5&amp;"%"</f>
         <v>95%</v>
       </c>
     </row>
@@ -5052,7 +5578,7 @@
         <v>21</v>
       </c>
       <c r="W24" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B24:U24,"O")*5&amp;"%"</f>
         <v>90%</v>
       </c>
     </row>
@@ -5082,7 +5608,7 @@
       <c r="U25" s="7"/>
       <c r="V25" s="7"/>
       <c r="W25" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B25:U25,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
     </row>
@@ -5112,96 +5638,96 @@
       <c r="U26" s="7"/>
       <c r="V26" s="7"/>
       <c r="W26" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B26:U26,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" ht="17.250000">
       <c r="A27" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B27" s="10">
-        <f t="shared" ref="B27:V27" si="1">COUNTIF(B6:B26,"O")*5</f>
+        <f>COUNTIF(B6:B26,"O")*5</f>
         <v>30</v>
       </c>
       <c r="C27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(C6:C26,"O")*5</f>
         <v>25</v>
       </c>
       <c r="D27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D6:D26,"O")*5</f>
         <v>30</v>
       </c>
       <c r="E27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(E6:E26,"O")*5</f>
         <v>30</v>
       </c>
       <c r="F27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F6:F26,"O")*5</f>
         <v>30</v>
       </c>
       <c r="G27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(G6:G26,"O")*5</f>
         <v>15</v>
       </c>
       <c r="H27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(H6:H26,"O")*5</f>
         <v>25</v>
       </c>
       <c r="I27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(I6:I26,"O")*5</f>
         <v>25</v>
       </c>
       <c r="J27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(J6:J26,"O")*5</f>
         <v>25</v>
       </c>
       <c r="K27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(K6:K26,"O")*5</f>
         <v>25</v>
       </c>
       <c r="L27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(L6:L26,"O")*5</f>
         <v>20</v>
       </c>
       <c r="M27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(M6:M26,"O")*5</f>
         <v>20</v>
       </c>
       <c r="N27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(N6:N26,"O")*5</f>
         <v>25</v>
       </c>
       <c r="O27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(O6:O26,"O")*5</f>
         <v>30</v>
       </c>
       <c r="P27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(P6:P26,"O")*5</f>
         <v>10</v>
       </c>
       <c r="Q27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(Q6:Q26,"O")*5</f>
         <v>25</v>
       </c>
       <c r="R27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(R6:R26,"O")*5</f>
         <v>25</v>
       </c>
       <c r="S27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(S6:S26,"O")*5</f>
         <v>30</v>
       </c>
       <c r="T27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(T6:T26,"O")*5</f>
         <v>30</v>
       </c>
       <c r="U27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(U6:U26,"O")*5</f>
         <v>25</v>
       </c>
       <c r="V27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(V6:V26,"O")*5</f>
         <v>30</v>
       </c>
       <c r="W27" s="11">
@@ -5214,8 +5740,8 @@
     <mergeCell ref="A1:W3"/>
     <mergeCell ref="A4:W4"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="9.103.88.44548"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -198,7 +198,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
@@ -295,12 +295,6 @@
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
       <color rgb="FFFA7D00"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FFFFFFFF"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -586,7 +580,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -734,7 +728,6 @@
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -743,7 +736,6 @@
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -752,7 +744,6 @@
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -767,22 +758,6 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -797,7 +772,6 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -806,7 +780,6 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -817,7 +790,6 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -875,97 +847,97 @@
     <xf numFmtId="0" fontId="15" fillId="11" borderId="17" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="18" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="19" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="18" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3416,7 +3388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
@@ -3865,67 +3837,67 @@
       <c r="A12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="O12" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="P12" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q12" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="R12" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="S12" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="T12" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="U12" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="V12" s="22" t="s">
+      <c r="B12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="T12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="U12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V12" s="7" t="s">
         <v>21</v>
       </c>
       <c r="W12" s="8" t="str">
@@ -4587,8 +4559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView zoomScale="52" zoomScaleNormal="52" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75000000" defaultRowHeight="16.500000"/>
@@ -4832,30 +4804,70 @@
       <c r="A8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
+      <c r="B8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="S8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="T8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="V8" s="22" t="s">
+        <v>21</v>
+      </c>
       <c r="W8" s="8" t="str">
         <f>COUNTIF(B8:U8,"O")*5&amp;"%"</f>
-        <v>0%</v>
+        <v>95%</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -5648,59 +5660,59 @@
       </c>
       <c r="B27" s="10">
         <f>COUNTIF(B6:B26,"O")*5</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C27" s="10">
         <f>COUNTIF(C6:C26,"O")*5</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D27" s="10">
         <f>COUNTIF(D6:D26,"O")*5</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E27" s="10">
         <f>COUNTIF(E6:E26,"O")*5</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F27" s="10">
         <f>COUNTIF(F6:F26,"O")*5</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G27" s="10">
         <f>COUNTIF(G6:G26,"O")*5</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H27" s="10">
         <f>COUNTIF(H6:H26,"O")*5</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I27" s="10">
         <f>COUNTIF(I6:I26,"O")*5</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J27" s="10">
         <f>COUNTIF(J6:J26,"O")*5</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K27" s="10">
         <f>COUNTIF(K6:K26,"O")*5</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L27" s="10">
         <f>COUNTIF(L6:L26,"O")*5</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M27" s="10">
         <f>COUNTIF(M6:M26,"O")*5</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N27" s="10">
         <f>COUNTIF(N6:N26,"O")*5</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="O27" s="10">
         <f>COUNTIF(O6:O26,"O")*5</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="P27" s="10">
         <f>COUNTIF(P6:P26,"O")*5</f>
@@ -5708,31 +5720,31 @@
       </c>
       <c r="Q27" s="10">
         <f>COUNTIF(Q6:Q26,"O")*5</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R27" s="10">
         <f>COUNTIF(R6:R26,"O")*5</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="S27" s="10">
         <f>COUNTIF(S6:S26,"O")*5</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="T27" s="10">
         <f>COUNTIF(T6:T26,"O")*5</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="U27" s="10">
         <f>COUNTIF(U6:U26,"O")*5</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="V27" s="10">
         <f>COUNTIF(V6:V26,"O")*5</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>
-        <v>25</v>
+        <v>29.75</v>
       </c>
     </row>
   </sheetData>

--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -1,23 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="9.103.88.44548"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\다운로드2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E777314-5463-4045-8F66-3B8C00F1FF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="2"/>
+    <workbookView xWindow="12105" yWindow="1755" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="60">
   <si>
     <t>맞음: O 틀림: X</t>
   </si>
@@ -191,163 +207,103 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="10">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
-      <color rgb="FF000000"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="맑은 고딕"/>
-      <color rgb="FF3F3F76"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="맑은 고딕"/>
-      <color rgb="FFFFFFFF"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
-      <color rgb="FF000000"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Malgun Gothic"/>
-      <color rgb="FF000000"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="30.0"/>
+      <sz val="30"/>
+      <color rgb="FF000000"/>
       <name val="HY헤드라인M"/>
-      <color rgb="FF000000"/>
+      <family val="1"/>
+      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="HY헤드라인M"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <sz val="8.0"/>
-      <name val="돋움"/>
-      <color rgb="FF000000"/>
+      <family val="1"/>
+      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
-      <color theme="10"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="맑은 고딕"/>
-      <color theme="11"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
-      <color rgb="FFFF0000"/>
-    </font>
-    <font>
-      <sz val="18.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FF3F3F3F"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FFFA7D00"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FFFA7D00"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FF006100"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FF9C0006"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FF9C6500"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="0"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FF7F7F7F"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -411,181 +367,14 @@
         </stop>
       </gradientFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="21">
+  <borders count="14">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -600,6 +389,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -614,6 +404,7 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -628,6 +419,7 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -638,6 +430,7 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -648,6 +441,7 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -658,6 +452,7 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -666,6 +461,7 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -676,6 +472,7 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -684,6 +481,7 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -692,6 +490,7 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -702,6 +501,7 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -710,6 +510,7 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -720,224 +521,26 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FFACCCEA"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399980"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="17" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="18" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -948,120 +551,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="6">
     <cellStyle name="20% - 강조색1" xfId="3" builtinId="30"/>
-    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
-    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
-    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
-    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
-    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
-    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
-    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
-    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
-    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
-    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
-    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
-    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
-    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
-    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
-    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
-    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
-    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
-    <cellStyle name="강조색1" xfId="25" builtinId="29"/>
-    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
-    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
-    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
-    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
-    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
-    <cellStyle name="경고문" xfId="11" builtinId="11"/>
-    <cellStyle name="계산" xfId="18" builtinId="22"/>
-    <cellStyle name="나쁨" xfId="23" builtinId="27"/>
     <cellStyle name="메모" xfId="2" builtinId="10"/>
-    <cellStyle name="백분율" xfId="6" builtinId="5"/>
-    <cellStyle name="보통" xfId="24" builtinId="28"/>
-    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
-    <cellStyle name="셀 확인" xfId="19" builtinId="23"/>
-    <cellStyle name="쉼표" xfId="4" builtinId="3"/>
-    <cellStyle name="쉼표[0]" xfId="7" builtinId="6"/>
-    <cellStyle name="연결된 셀" xfId="20" builtinId="24"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="요약" xfId="21" builtinId="25"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="입력" xfId="1" builtinId="20"/>
-    <cellStyle name="제목" xfId="12" builtinId="15"/>
-    <cellStyle name="제목 1" xfId="13" builtinId="16"/>
-    <cellStyle name="제목 2" xfId="14" builtinId="17"/>
-    <cellStyle name="제목 3" xfId="15" builtinId="18"/>
-    <cellStyle name="제목 4" xfId="16" builtinId="19"/>
-    <cellStyle name="좋음" xfId="22" builtinId="26"/>
-    <cellStyle name="출력" xfId="17" builtinId="21"/>
-    <cellStyle name="통화" xfId="5" builtinId="4"/>
-    <cellStyle name="통화[0]" xfId="8" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="4" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -1242,7 +802,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1251,7 +811,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1261,6 +821,14 @@
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1555,121 +1123,121 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75000000" defaultRowHeight="16.500000"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="16"/>
       <c r="X1" s="1"/>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="18"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="19"/>
       <c r="X2" s="1"/>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="18"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="19"/>
       <c r="X3" s="1"/>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="22"/>
       <c r="X4" s="1"/>
     </row>
     <row r="5" spans="1:24">
@@ -1812,7 +1380,7 @@
         <v>21</v>
       </c>
       <c r="W6" s="8" t="str">
-        <f>COUNTIF(B6:U6,"O")*5&amp;"%"</f>
+        <f t="shared" ref="W6:W26" si="0">COUNTIF(B6:U6,"O")*5&amp;"%"</f>
         <v>100%</v>
       </c>
       <c r="X6" s="1"/>
@@ -1885,7 +1453,7 @@
         <v>9</v>
       </c>
       <c r="W7" s="8" t="str">
-        <f>COUNTIF(B7:U7,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>50%</v>
       </c>
       <c r="X7" s="1"/>
@@ -1958,7 +1526,7 @@
         <v>12</v>
       </c>
       <c r="W8" s="8" t="str">
-        <f>COUNTIF(B8:U8,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>95%</v>
       </c>
       <c r="X8" s="1"/>
@@ -2031,7 +1599,7 @@
         <v>23</v>
       </c>
       <c r="W9" s="8" t="str">
-        <f>COUNTIF(B9:U9,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>80%</v>
       </c>
       <c r="X9" s="1"/>
@@ -2104,7 +1672,7 @@
         <v>9</v>
       </c>
       <c r="W10" s="8" t="str">
-        <f>COUNTIF(B10:U10,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>95%</v>
       </c>
       <c r="X10" s="1"/>
@@ -2177,7 +1745,7 @@
         <v>23</v>
       </c>
       <c r="W11" s="8" t="str">
-        <f>COUNTIF(B11:U11,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>75%</v>
       </c>
       <c r="X11" s="1"/>
@@ -2250,7 +1818,7 @@
         <v>23</v>
       </c>
       <c r="W12" s="8" t="str">
-        <f>COUNTIF(B12:U12,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>80%</v>
       </c>
       <c r="X12" s="1"/>
@@ -2323,7 +1891,7 @@
         <v>23</v>
       </c>
       <c r="W13" s="8" t="str">
-        <f>COUNTIF(B13:U13,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>95%</v>
       </c>
       <c r="X13" s="1"/>
@@ -2396,7 +1964,7 @@
         <v>21</v>
       </c>
       <c r="W14" s="8" t="str">
-        <f>COUNTIF(B14:U14,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>65%</v>
       </c>
       <c r="X14" s="1"/>
@@ -2469,7 +2037,7 @@
         <v>21</v>
       </c>
       <c r="W15" s="8" t="str">
-        <f>COUNTIF(B15:U15,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>95%</v>
       </c>
       <c r="X15" s="1"/>
@@ -2542,7 +2110,7 @@
         <v>21</v>
       </c>
       <c r="W16" s="8" t="str">
-        <f>COUNTIF(B16:U16,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>90%</v>
       </c>
       <c r="X16" s="1"/>
@@ -2615,7 +2183,7 @@
         <v>21</v>
       </c>
       <c r="W17" s="8" t="str">
-        <f>COUNTIF(B17:U17,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>75%</v>
       </c>
       <c r="X17" s="1"/>
@@ -2688,7 +2256,7 @@
         <v>23</v>
       </c>
       <c r="W18" s="8" t="str">
-        <f>COUNTIF(B18:U18,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>85%</v>
       </c>
       <c r="X18" s="1"/>
@@ -2761,7 +2329,7 @@
         <v>21</v>
       </c>
       <c r="W19" s="8" t="str">
-        <f>COUNTIF(B19:U19,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>75%</v>
       </c>
       <c r="X19" s="1"/>
@@ -2834,7 +2402,7 @@
         <v>21</v>
       </c>
       <c r="W20" s="8" t="str">
-        <f>COUNTIF(B20:U20,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>95%</v>
       </c>
       <c r="X20" s="1"/>
@@ -2907,7 +2475,7 @@
         <v>21</v>
       </c>
       <c r="W21" s="8" t="str">
-        <f>COUNTIF(B21:U21,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>80%</v>
       </c>
       <c r="X21" s="1"/>
@@ -2980,7 +2548,7 @@
         <v>23</v>
       </c>
       <c r="W22" s="8" t="str">
-        <f>COUNTIF(B22:U22,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>65%</v>
       </c>
       <c r="X22" s="1"/>
@@ -3053,7 +2621,7 @@
         <v>21</v>
       </c>
       <c r="W23" s="8" t="str">
-        <f>COUNTIF(B23:U23,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>75%</v>
       </c>
       <c r="X23" s="1"/>
@@ -3126,7 +2694,7 @@
         <v>9</v>
       </c>
       <c r="W24" s="8" t="str">
-        <f>COUNTIF(B24:U24,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>60%</v>
       </c>
       <c r="X24" s="1"/>
@@ -3199,7 +2767,7 @@
         <v>21</v>
       </c>
       <c r="W25" s="8" t="str">
-        <f>COUNTIF(B25:U25,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>100%</v>
       </c>
       <c r="X25" s="1"/>
@@ -3272,7 +2840,7 @@
         <v>9</v>
       </c>
       <c r="W26" s="8" t="str">
-        <f>COUNTIF(B26:U26,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>85%</v>
       </c>
       <c r="X26" s="1"/>
@@ -3282,87 +2850,87 @@
         <v>17</v>
       </c>
       <c r="B27" s="10">
-        <f>COUNTIF(B6:B26,"O")*5</f>
+        <f t="shared" ref="B27:V27" si="1">COUNTIF(B6:B26,"O")*5</f>
         <v>105</v>
       </c>
       <c r="C27" s="10">
-        <f>COUNTIF(C6:C26,"O")*5</f>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="D27" s="10">
-        <f>COUNTIF(D6:D26,"O")*5</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="E27" s="10">
-        <f>COUNTIF(E6:E26,"O")*5</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="F27" s="10">
-        <f>COUNTIF(F6:F26,"O")*5</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="G27" s="10">
-        <f>COUNTIF(G6:G26,"O")*5</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="H27" s="10">
-        <f>COUNTIF(H6:H26,"O")*5</f>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="I27" s="10">
-        <f>COUNTIF(I6:I26,"O")*5</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="J27" s="10">
-        <f>COUNTIF(J6:J26,"O")*5</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="K27" s="10">
-        <f>COUNTIF(K6:K26,"O")*5</f>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="L27" s="10">
-        <f>COUNTIF(L6:L26,"O")*5</f>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="M27" s="10">
-        <f>COUNTIF(M6:M26,"O")*5</f>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="N27" s="10">
-        <f>COUNTIF(N6:N26,"O")*5</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="O27" s="10">
-        <f>COUNTIF(O6:O26,"O")*5</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="P27" s="10">
-        <f>COUNTIF(P6:P26,"O")*5</f>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="Q27" s="10">
-        <f>COUNTIF(Q6:Q26,"O")*5</f>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="R27" s="10">
-        <f>COUNTIF(R6:R26,"O")*5</f>
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="S27" s="10">
-        <f>COUNTIF(S6:S26,"O")*5</f>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="T27" s="10">
-        <f>COUNTIF(T6:T26,"O")*5</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="U27" s="10">
-        <f>COUNTIF(U6:U26,"O")*5</f>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="V27" s="10">
-        <f>COUNTIF(V6:V26,"O")*5</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="W27" s="11">
@@ -3379,126 +2947,126 @@
     <mergeCell ref="A4:W4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="AA18" sqref="AA18"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75000000" defaultRowHeight="16.500000"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="16"/>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="18"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="19"/>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="18"/>
-    </row>
-    <row r="4" spans="1:23" ht="17.250000">
-      <c r="A4" s="19" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="19"/>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="21"/>
-    </row>
-    <row r="5" spans="1:23" ht="17.250000">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="22"/>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -3595,7 +3163,7 @@
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
       <c r="W6" s="8" t="str">
-        <f>COUNTIF(B6:U6,"O")*5&amp;"%"</f>
+        <f t="shared" ref="W6:W26" si="0">COUNTIF(B6:U6,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
     </row>
@@ -3667,7 +3235,7 @@
         <v>21</v>
       </c>
       <c r="W7" s="8" t="str">
-        <f>COUNTIF(B7:U7,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>100%</v>
       </c>
     </row>
@@ -3697,7 +3265,7 @@
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
       <c r="W8" s="8" t="str">
-        <f>COUNTIF(B8:U8,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>0%</v>
       </c>
     </row>
@@ -3769,7 +3337,7 @@
         <v>21</v>
       </c>
       <c r="W9" s="8" t="str">
-        <f>COUNTIF(B9:U9,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>75%</v>
       </c>
     </row>
@@ -3799,7 +3367,7 @@
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
       <c r="W10" s="8" t="str">
-        <f>COUNTIF(B10:U10,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>0%</v>
       </c>
     </row>
@@ -3829,7 +3397,7 @@
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
       <c r="W11" s="8" t="str">
-        <f>COUNTIF(B11:U11,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>0%</v>
       </c>
     </row>
@@ -3901,7 +3469,7 @@
         <v>21</v>
       </c>
       <c r="W12" s="8" t="str">
-        <f>COUNTIF(B12:U12,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>90%</v>
       </c>
     </row>
@@ -3931,7 +3499,7 @@
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
       <c r="W13" s="8" t="str">
-        <f>COUNTIF(B13:U13,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>0%</v>
       </c>
     </row>
@@ -3961,7 +3529,7 @@
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
       <c r="W14" s="8" t="str">
-        <f>COUNTIF(B14:U14,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>0%</v>
       </c>
     </row>
@@ -3991,7 +3559,7 @@
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
       <c r="W15" s="8" t="str">
-        <f>COUNTIF(B15:U15,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>0%</v>
       </c>
     </row>
@@ -4021,7 +3589,7 @@
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
       <c r="W16" s="8" t="str">
-        <f>COUNTIF(B16:U16,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>0%</v>
       </c>
     </row>
@@ -4051,7 +3619,7 @@
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
       <c r="W17" s="8" t="str">
-        <f>COUNTIF(B17:U17,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>0%</v>
       </c>
     </row>
@@ -4081,7 +3649,7 @@
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
       <c r="W18" s="8" t="str">
-        <f>COUNTIF(B18:U18,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>0%</v>
       </c>
     </row>
@@ -4111,7 +3679,7 @@
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
       <c r="W19" s="8" t="str">
-        <f>COUNTIF(B19:U19,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>0%</v>
       </c>
     </row>
@@ -4183,7 +3751,7 @@
         <v>56</v>
       </c>
       <c r="W20" s="8" t="str">
-        <f>COUNTIF(B20:U20,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>80%</v>
       </c>
     </row>
@@ -4213,7 +3781,7 @@
       <c r="U21" s="7"/>
       <c r="V21" s="7"/>
       <c r="W21" s="8" t="str">
-        <f>COUNTIF(B21:U21,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>0%</v>
       </c>
     </row>
@@ -4285,7 +3853,7 @@
         <v>23</v>
       </c>
       <c r="W22" s="8" t="str">
-        <f>COUNTIF(B22:U22,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>45%</v>
       </c>
     </row>
@@ -4357,7 +3925,7 @@
         <v>21</v>
       </c>
       <c r="W23" s="8" t="str">
-        <f>COUNTIF(B23:U23,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>75%</v>
       </c>
     </row>
@@ -4365,30 +3933,72 @@
       <c r="A24" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
+      <c r="B24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="R24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="S24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="T24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="U24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="V24" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="W24" s="8" t="str">
-        <f>COUNTIF(B24:U24,"O")*5&amp;"%"</f>
-        <v>0%</v>
+        <f t="shared" si="0"/>
+        <v>100%</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -4417,7 +4027,7 @@
       <c r="U25" s="7"/>
       <c r="V25" s="7"/>
       <c r="W25" s="8" t="str">
-        <f>COUNTIF(B25:U25,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>0%</v>
       </c>
     </row>
@@ -4447,101 +4057,101 @@
       <c r="U26" s="7"/>
       <c r="V26" s="7"/>
       <c r="W26" s="8" t="str">
-        <f>COUNTIF(B26:U26,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>0%</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="17.250000">
+    <row r="27" spans="1:23">
       <c r="A27" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B27" s="10">
-        <f>COUNTIF(B6:B26,"O")*5</f>
+        <f t="shared" ref="B27:V27" si="1">COUNTIF(B6:B26,"O")*5</f>
+        <v>35</v>
+      </c>
+      <c r="C27" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="D27" s="10">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="C27" s="10">
-        <f>COUNTIF(C6:C26,"O")*5</f>
-        <v>15</v>
-      </c>
-      <c r="D27" s="10">
-        <f>COUNTIF(D6:D26,"O")*5</f>
+      <c r="E27" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G27" s="10">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="H27" s="10">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="I27" s="10">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="J27" s="10">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="K27" s="10">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="E27" s="10">
-        <f>COUNTIF(E6:E26,"O")*5</f>
-        <v>15</v>
-      </c>
-      <c r="F27" s="10">
-        <f>COUNTIF(F6:F26,"O")*5</f>
-        <v>15</v>
-      </c>
-      <c r="G27" s="10">
-        <f>COUNTIF(G6:G26,"O")*5</f>
+      <c r="L27" s="10">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="M27" s="10">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="H27" s="10">
-        <f>COUNTIF(H6:H26,"O")*5</f>
+      <c r="N27" s="10">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="O27" s="10">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="P27" s="10">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="Q27" s="10">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="R27" s="10">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="S27" s="10">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="I27" s="10">
-        <f>COUNTIF(I6:I26,"O")*5</f>
+      <c r="T27" s="10">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="J27" s="10">
-        <f>COUNTIF(J6:J26,"O")*5</f>
+      <c r="U27" s="10">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="V27" s="10">
+        <f t="shared" si="1"/>
         <v>30</v>
-      </c>
-      <c r="K27" s="10">
-        <f>COUNTIF(K6:K26,"O")*5</f>
-        <v>20</v>
-      </c>
-      <c r="L27" s="10">
-        <f>COUNTIF(L6:L26,"O")*5</f>
-        <v>30</v>
-      </c>
-      <c r="M27" s="10">
-        <f>COUNTIF(M6:M26,"O")*5</f>
-        <v>20</v>
-      </c>
-      <c r="N27" s="10">
-        <f>COUNTIF(N6:N26,"O")*5</f>
-        <v>30</v>
-      </c>
-      <c r="O27" s="10">
-        <f>COUNTIF(O6:O26,"O")*5</f>
-        <v>20</v>
-      </c>
-      <c r="P27" s="10">
-        <f>COUNTIF(P6:P26,"O")*5</f>
-        <v>20</v>
-      </c>
-      <c r="Q27" s="10">
-        <f>COUNTIF(Q6:Q26,"O")*5</f>
-        <v>20</v>
-      </c>
-      <c r="R27" s="10">
-        <f>COUNTIF(R6:R26,"O")*5</f>
-        <v>20</v>
-      </c>
-      <c r="S27" s="10">
-        <f>COUNTIF(S6:S26,"O")*5</f>
-        <v>25</v>
-      </c>
-      <c r="T27" s="10">
-        <f>COUNTIF(T6:T26,"O")*5</f>
-        <v>25</v>
-      </c>
-      <c r="U27" s="10">
-        <f>COUNTIF(U6:U26,"O")*5</f>
-        <v>20</v>
-      </c>
-      <c r="V27" s="10">
-        <f>COUNTIF(V6:V26,"O")*5</f>
-        <v>25</v>
       </c>
       <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>
-        <v>23.25</v>
+        <v>28.25</v>
       </c>
     </row>
   </sheetData>
@@ -4550,126 +4160,126 @@
     <mergeCell ref="A4:W4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="Y11" sqref="Y11"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75000000" defaultRowHeight="16.500000"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="16"/>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="18"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="19"/>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="18"/>
-    </row>
-    <row r="4" spans="1:23" ht="17.250000">
-      <c r="A4" s="19" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="19"/>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="21"/>
-    </row>
-    <row r="5" spans="1:23" ht="17.250000">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="22"/>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -4766,7 +4376,7 @@
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
       <c r="W6" s="8" t="str">
-        <f>COUNTIF(B6:U6,"O")*5&amp;"%"</f>
+        <f t="shared" ref="W6:W26" si="0">COUNTIF(B6:U6,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
     </row>
@@ -4796,7 +4406,7 @@
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
       <c r="W7" s="8" t="str">
-        <f>COUNTIF(B7:U7,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>0%</v>
       </c>
     </row>
@@ -4804,69 +4414,69 @@
       <c r="A8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="O8" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="R8" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="S8" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="T8" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="U8" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="V8" s="22" t="s">
+      <c r="B8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="S8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="T8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="V8" s="13" t="s">
         <v>21</v>
       </c>
       <c r="W8" s="8" t="str">
-        <f>COUNTIF(B8:U8,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>95%</v>
       </c>
     </row>
@@ -4896,7 +4506,7 @@
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
       <c r="W9" s="8" t="str">
-        <f>COUNTIF(B9:U9,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>0%</v>
       </c>
     </row>
@@ -4926,7 +4536,7 @@
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
       <c r="W10" s="8" t="str">
-        <f>COUNTIF(B10:U10,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>0%</v>
       </c>
     </row>
@@ -4956,7 +4566,7 @@
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
       <c r="W11" s="8" t="str">
-        <f>COUNTIF(B11:U11,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>0%</v>
       </c>
     </row>
@@ -4986,7 +4596,7 @@
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
       <c r="W12" s="8" t="str">
-        <f>COUNTIF(B12:U12,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>0%</v>
       </c>
     </row>
@@ -5016,7 +4626,7 @@
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
       <c r="W13" s="8" t="str">
-        <f>COUNTIF(B13:U13,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>0%</v>
       </c>
     </row>
@@ -5088,7 +4698,7 @@
         <v>56</v>
       </c>
       <c r="W14" s="8" t="str">
-        <f>COUNTIF(B14:U14,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>95%</v>
       </c>
     </row>
@@ -5118,7 +4728,7 @@
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
       <c r="W15" s="8" t="str">
-        <f>COUNTIF(B15:U15,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>0%</v>
       </c>
     </row>
@@ -5148,7 +4758,7 @@
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
       <c r="W16" s="8" t="str">
-        <f>COUNTIF(B16:U16,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>0%</v>
       </c>
     </row>
@@ -5178,7 +4788,7 @@
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
       <c r="W17" s="8" t="str">
-        <f>COUNTIF(B17:U17,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>0%</v>
       </c>
     </row>
@@ -5250,7 +4860,7 @@
         <v>21</v>
       </c>
       <c r="W18" s="8" t="str">
-        <f>COUNTIF(B18:U18,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>55%</v>
       </c>
     </row>
@@ -5320,7 +4930,7 @@
         <v>21</v>
       </c>
       <c r="W19" s="8" t="str">
-        <f>COUNTIF(B19:U19,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>80%</v>
       </c>
     </row>
@@ -5390,7 +5000,7 @@
         <v>21</v>
       </c>
       <c r="W20" s="8" t="str">
-        <f>COUNTIF(B20:U20,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>85%</v>
       </c>
     </row>
@@ -5398,30 +5008,72 @@
       <c r="A21" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
+      <c r="B21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="R21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="S21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="T21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="U21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="V21" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="W21" s="8" t="str">
-        <f>COUNTIF(B21:U21,"O")*5&amp;"%"</f>
-        <v>0%</v>
+        <f t="shared" si="0"/>
+        <v>95%</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -5450,7 +5102,7 @@
       <c r="U22" s="7"/>
       <c r="V22" s="7"/>
       <c r="W22" s="8" t="str">
-        <f>COUNTIF(B22:U22,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>0%</v>
       </c>
     </row>
@@ -5520,7 +5172,7 @@
         <v>21</v>
       </c>
       <c r="W23" s="8" t="str">
-        <f>COUNTIF(B23:U23,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>95%</v>
       </c>
     </row>
@@ -5590,7 +5242,7 @@
         <v>21</v>
       </c>
       <c r="W24" s="8" t="str">
-        <f>COUNTIF(B24:U24,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>90%</v>
       </c>
     </row>
@@ -5620,7 +5272,7 @@
       <c r="U25" s="7"/>
       <c r="V25" s="7"/>
       <c r="W25" s="8" t="str">
-        <f>COUNTIF(B25:U25,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>0%</v>
       </c>
     </row>
@@ -5650,101 +5302,101 @@
       <c r="U26" s="7"/>
       <c r="V26" s="7"/>
       <c r="W26" s="8" t="str">
-        <f>COUNTIF(B26:U26,"O")*5&amp;"%"</f>
+        <f t="shared" si="0"/>
         <v>0%</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="17.250000">
+    <row r="27" spans="1:23">
       <c r="A27" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B27" s="10">
-        <f>COUNTIF(B6:B26,"O")*5</f>
+        <f t="shared" ref="B27:V27" si="1">COUNTIF(B6:B26,"O")*5</f>
+        <v>40</v>
+      </c>
+      <c r="C27" s="10">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="D27" s="10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E27" s="10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="G27" s="10">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="H27" s="10">
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="C27" s="10">
-        <f>COUNTIF(C6:C26,"O")*5</f>
+      <c r="I27" s="10">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="J27" s="10">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="K27" s="10">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="L27" s="10">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="D27" s="10">
-        <f>COUNTIF(D6:D26,"O")*5</f>
+      <c r="M27" s="10">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="N27" s="10">
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="E27" s="10">
-        <f>COUNTIF(E6:E26,"O")*5</f>
+      <c r="O27" s="10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="P27" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="Q27" s="10">
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="F27" s="10">
-        <f>COUNTIF(F6:F26,"O")*5</f>
+      <c r="R27" s="10">
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="G27" s="10">
-        <f>COUNTIF(G6:G26,"O")*5</f>
-        <v>20</v>
-      </c>
-      <c r="H27" s="10">
-        <f>COUNTIF(H6:H26,"O")*5</f>
-        <v>30</v>
-      </c>
-      <c r="I27" s="10">
-        <f>COUNTIF(I6:I26,"O")*5</f>
-        <v>30</v>
-      </c>
-      <c r="J27" s="10">
-        <f>COUNTIF(J6:J26,"O")*5</f>
-        <v>30</v>
-      </c>
-      <c r="K27" s="10">
-        <f>COUNTIF(K6:K26,"O")*5</f>
-        <v>30</v>
-      </c>
-      <c r="L27" s="10">
-        <f>COUNTIF(L6:L26,"O")*5</f>
-        <v>25</v>
-      </c>
-      <c r="M27" s="10">
-        <f>COUNTIF(M6:M26,"O")*5</f>
-        <v>25</v>
-      </c>
-      <c r="N27" s="10">
-        <f>COUNTIF(N6:N26,"O")*5</f>
-        <v>30</v>
-      </c>
-      <c r="O27" s="10">
-        <f>COUNTIF(O6:O26,"O")*5</f>
+      <c r="S27" s="10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="T27" s="10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="U27" s="10">
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="P27" s="10">
-        <f>COUNTIF(P6:P26,"O")*5</f>
-        <v>10</v>
-      </c>
-      <c r="Q27" s="10">
-        <f>COUNTIF(Q6:Q26,"O")*5</f>
-        <v>30</v>
-      </c>
-      <c r="R27" s="10">
-        <f>COUNTIF(R6:R26,"O")*5</f>
-        <v>30</v>
-      </c>
-      <c r="S27" s="10">
-        <f>COUNTIF(S6:S26,"O")*5</f>
-        <v>35</v>
-      </c>
-      <c r="T27" s="10">
-        <f>COUNTIF(T6:T26,"O")*5</f>
-        <v>35</v>
-      </c>
-      <c r="U27" s="10">
-        <f>COUNTIF(U6:U26,"O")*5</f>
-        <v>30</v>
-      </c>
       <c r="V27" s="10">
-        <f>COUNTIF(V6:V26,"O")*5</f>
-        <v>35</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>
-        <v>29.75</v>
+        <v>34.5</v>
       </c>
     </row>
   </sheetData>
@@ -5753,7 +5405,7 @@
     <mergeCell ref="A4:W4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -5,26 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\다운로드2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DLS\2022_DeepLearningStudy\02_Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E777314-5463-4045-8F66-3B8C00F1FF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0FE83D-F559-4CE6-B617-94EAE67CA7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12105" yWindow="1755" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15150" yWindow="3780" windowWidth="12900" windowHeight="16365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="63">
   <si>
     <t>맞음: O 틀림: X</t>
   </si>
@@ -215,13 +213,25 @@
   <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -296,6 +306,13 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1126,7 +1143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -2956,8 +2973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="V24" sqref="V24"/>
+    <sheetView topLeftCell="D1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -3477,30 +3494,72 @@
       <c r="A13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
+      <c r="B13" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="O13" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q13" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="R13" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="S13" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="T13" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="U13" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="V13" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="W13" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>80%</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -4067,91 +4126,91 @@
       </c>
       <c r="B27" s="10">
         <f t="shared" ref="B27:V27" si="1">COUNTIF(B6:B26,"O")*5</f>
+        <v>40</v>
+      </c>
+      <c r="C27" s="10">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="D27" s="10">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="E27" s="10">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="G27" s="10">
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="C27" s="10">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="D27" s="10">
+      <c r="H27" s="10">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="I27" s="10">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="J27" s="10">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="K27" s="10">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="E27" s="10">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F27" s="10">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="G27" s="10">
+      <c r="L27" s="10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="M27" s="10">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="H27" s="10">
+      <c r="N27" s="10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="O27" s="10">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="P27" s="10">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="Q27" s="10">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="R27" s="10">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="S27" s="10">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="I27" s="10">
+      <c r="T27" s="10">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="J27" s="10">
+      <c r="U27" s="10">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="V27" s="10">
         <f t="shared" si="1"/>
         <v>35</v>
-      </c>
-      <c r="K27" s="10">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="L27" s="10">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="M27" s="10">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="N27" s="10">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="O27" s="10">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="P27" s="10">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="Q27" s="10">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="R27" s="10">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="S27" s="10">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="T27" s="10">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="U27" s="10">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="V27" s="10">
-        <f t="shared" si="1"/>
-        <v>30</v>
       </c>
       <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>
-        <v>28.25</v>
+        <v>32.25</v>
       </c>
     </row>
   </sheetData>
@@ -4170,7 +4229,7 @@
   <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="V21" sqref="V21"/>
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -4514,30 +4573,72 @@
       <c r="A10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
+      <c r="B10" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="O10" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q10" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="R10" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="S10" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="T10" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="U10" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="V10" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="W10" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>95%</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -5312,91 +5413,91 @@
       </c>
       <c r="B27" s="10">
         <f t="shared" ref="B27:V27" si="1">COUNTIF(B6:B26,"O")*5</f>
+        <v>45</v>
+      </c>
+      <c r="C27" s="10">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="D27" s="10">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="E27" s="10">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="C27" s="10">
+      <c r="F27" s="10">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="G27" s="10">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="D27" s="10">
+      <c r="H27" s="10">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="E27" s="10">
+      <c r="I27" s="10">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="F27" s="10">
+      <c r="J27" s="10">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="G27" s="10">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="H27" s="10">
+      <c r="K27" s="10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="L27" s="10">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="I27" s="10">
+      <c r="M27" s="10">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="J27" s="10">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="K27" s="10">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="L27" s="10">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="M27" s="10">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
       <c r="N27" s="10">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="O27" s="10">
         <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="P27" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="Q27" s="10">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="P27" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="Q27" s="10">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
       <c r="R27" s="10">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="S27" s="10">
         <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="T27" s="10">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="U27" s="10">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="T27" s="10">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="U27" s="10">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
       <c r="V27" s="10">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>
-        <v>34.5</v>
+        <v>39.25</v>
       </c>
     </row>
   </sheetData>

--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -1,28 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DLS\2022_DeepLearningStudy\02_Test_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ijin/Desktop/2022_DeepLearningStudy/02_Test_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0FE83D-F559-4CE6-B617-94EAE67CA7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68768D3B-538E-FB40-8068-8A4C74F7D89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15150" yWindow="3780" windowWidth="12900" windowHeight="16365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="64">
   <si>
     <t>맞음: O 틀림: X</t>
   </si>
@@ -225,6 +227,10 @@
   <si>
     <t>o</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1143,11 +1149,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="110" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="14" t="s">
@@ -2977,7 +2983,7 @@
       <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="14" t="s">
@@ -4228,11 +4234,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="14" t="s">
@@ -5253,7 +5259,9 @@
       <c r="O23" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="P23" s="12"/>
+      <c r="P23" s="12" t="s">
+        <v>63</v>
+      </c>
       <c r="Q23" s="12" t="s">
         <v>21</v>
       </c>
@@ -5274,7 +5282,7 @@
       </c>
       <c r="W23" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>95%</v>
+        <v>100%</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -5469,7 +5477,7 @@
       </c>
       <c r="P27" s="10">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q27" s="10">
         <f t="shared" si="1"/>
@@ -5497,7 +5505,7 @@
       </c>
       <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>
-        <v>39.25</v>
+        <v>39.5</v>
       </c>
     </row>
   </sheetData>

--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -5,24 +5,26 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DLS\2022_DeepLearningStudy\02_Test_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlfkr\Desktop\딥러닝스터디\2022_DeepLearningStudy\02_Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0FE83D-F559-4CE6-B617-94EAE67CA7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D308705-1B40-4711-A582-7FFC13646CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15150" yWindow="3780" windowWidth="12900" windowHeight="16365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1965" yWindow="690" windowWidth="20430" windowHeight="14685" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="65">
   <si>
     <t>맞음: O 틀림: X</t>
   </si>
@@ -225,6 +227,14 @@
   <si>
     <t>o</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1143,7 +1153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -2973,8 +2983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="AA29" sqref="AA29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -3392,30 +3402,72 @@
       <c r="A11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
+      <c r="B11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="U11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="V11" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="W11" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -4126,91 +4178,91 @@
       </c>
       <c r="B27" s="10">
         <f t="shared" ref="B27:V27" si="1">COUNTIF(B6:B26,"O")*5</f>
+        <v>45</v>
+      </c>
+      <c r="C27" s="10">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="D27" s="10">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="E27" s="10">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="G27" s="10">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="C27" s="10">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="D27" s="10">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="E27" s="10">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="F27" s="10">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="G27" s="10">
+      <c r="H27" s="10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="I27" s="10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J27" s="10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K27" s="10">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="H27" s="10">
+      <c r="L27" s="10">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="M27" s="10">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="I27" s="10">
+      <c r="N27" s="10">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="O27" s="10">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="J27" s="10">
+      <c r="P27" s="10">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="K27" s="10">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="L27" s="10">
+      <c r="Q27" s="10">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="R27" s="10">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="S27" s="10">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="M27" s="10">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="N27" s="10">
+      <c r="T27" s="10">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="O27" s="10">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="P27" s="10">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="Q27" s="10">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="R27" s="10">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="S27" s="10">
+      <c r="U27" s="10">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="T27" s="10">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="U27" s="10">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
       <c r="V27" s="10">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>
-        <v>32.25</v>
+        <v>37.25</v>
       </c>
     </row>
   </sheetData>
@@ -4228,8 +4280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -4413,8 +4465,6 @@
       <c r="A6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -4543,30 +4593,72 @@
       <c r="A9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
+      <c r="B9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="U9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="V9" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="W9" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
+        <f>COUNTIF(B9:U9,"O")*5&amp;"%"</f>
+        <v>90%</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -5412,92 +5504,92 @@
         <v>17</v>
       </c>
       <c r="B27" s="10">
-        <f t="shared" ref="B27:V27" si="1">COUNTIF(B6:B26,"O")*5</f>
+        <f>COUNTIF(B7:B26,"O")*5</f>
+        <v>50</v>
+      </c>
+      <c r="C27" s="10">
+        <f>COUNTIF(C7:C26,"O")*5</f>
+        <v>40</v>
+      </c>
+      <c r="D27" s="10">
+        <f t="shared" ref="B27:V27" si="1">COUNTIF(D6:D26,"O")*5</f>
         <v>45</v>
       </c>
-      <c r="C27" s="10">
+      <c r="E27" s="10">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="G27" s="10">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="D27" s="10">
+      <c r="H27" s="10">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="E27" s="10">
+      <c r="I27" s="10">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="J27" s="10">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="K27" s="10">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="L27" s="10">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="F27" s="10">
+      <c r="M27" s="10">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="N27" s="10">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="G27" s="10">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="H27" s="10">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="I27" s="10">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="J27" s="10">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="K27" s="10">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="L27" s="10">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="M27" s="10">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="N27" s="10">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
       <c r="O27" s="10">
         <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="P27" s="10">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="Q27" s="10">
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="P27" s="10">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="Q27" s="10">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
       <c r="R27" s="10">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="S27" s="10">
         <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="T27" s="10">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="U27" s="10">
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="T27" s="10">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="U27" s="10">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
       <c r="V27" s="10">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>
-        <v>39.25</v>
+        <v>43.75</v>
       </c>
     </row>
   </sheetData>

--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DLS\2022_DeepLearningStudy\02_Test_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2022_DeepLearningStudy\2022_DeepLearningStudy\02_Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0FE83D-F559-4CE6-B617-94EAE67CA7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15150" yWindow="3780" windowWidth="12900" windowHeight="16365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15150" yWindow="3780" windowWidth="12900" windowHeight="16365" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="72">
   <si>
     <t>맞음: O 틀림: X</t>
   </si>
@@ -225,12 +224,48 @@
   <si>
     <t>o</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11">
     <font>
       <sz val="11"/>
@@ -819,7 +854,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -828,7 +863,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1140,10 +1175,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -2970,11 +3005,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -4094,30 +4129,72 @@
       <c r="A26" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
+      <c r="B26" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="N26" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="O26" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="P26" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q26" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="R26" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="S26" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="T26" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="U26" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="V26" s="13" t="s">
+        <v>69</v>
+      </c>
       <c r="W26" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>90%</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -4130,79 +4207,79 @@
       </c>
       <c r="C27" s="10">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D27" s="10">
         <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="E27" s="10">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="E27" s="10">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
       <c r="F27" s="10">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G27" s="10">
         <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="H27" s="10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="I27" s="10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J27" s="10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K27" s="10">
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="H27" s="10">
+      <c r="L27" s="10">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="M27" s="10">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="I27" s="10">
+      <c r="N27" s="10">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="O27" s="10">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="P27" s="10">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="J27" s="10">
+      <c r="Q27" s="10">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="K27" s="10">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="L27" s="10">
+      <c r="R27" s="10">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="S27" s="10">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="M27" s="10">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="N27" s="10">
+      <c r="T27" s="10">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="O27" s="10">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="P27" s="10">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="Q27" s="10">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="R27" s="10">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="S27" s="10">
+      <c r="U27" s="10">
         <f t="shared" si="1"/>
         <v>35</v>
-      </c>
-      <c r="T27" s="10">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="U27" s="10">
-        <f t="shared" si="1"/>
-        <v>30</v>
       </c>
       <c r="V27" s="10">
         <f t="shared" si="1"/>
@@ -4210,7 +4287,7 @@
       </c>
       <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>
-        <v>32.25</v>
+        <v>36.75</v>
       </c>
     </row>
   </sheetData>
@@ -4225,11 +4302,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -4867,30 +4944,72 @@
       <c r="A17" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
+      <c r="B17" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="N17" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="O17" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="P17" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q17" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="R17" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="S17" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="T17" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="U17" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="V17" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="W17" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>35%</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -5413,91 +5532,91 @@
       </c>
       <c r="B27" s="10">
         <f t="shared" ref="B27:V27" si="1">COUNTIF(B6:B26,"O")*5</f>
+        <v>50</v>
+      </c>
+      <c r="C27" s="10">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="D27" s="10">
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="C27" s="10">
+      <c r="E27" s="10">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="G27" s="10">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="D27" s="10">
+      <c r="H27" s="10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="I27" s="10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J27" s="10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K27" s="10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="L27" s="10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="M27" s="10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="N27" s="10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="O27" s="10">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="P27" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="Q27" s="10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="R27" s="10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="S27" s="10">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="E27" s="10">
+      <c r="T27" s="10">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="U27" s="10">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="F27" s="10">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="G27" s="10">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="H27" s="10">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="I27" s="10">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="J27" s="10">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="K27" s="10">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="L27" s="10">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="M27" s="10">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="N27" s="10">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="O27" s="10">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="P27" s="10">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="Q27" s="10">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="R27" s="10">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="S27" s="10">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="T27" s="10">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="U27" s="10">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
       <c r="V27" s="10">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>
-        <v>39.25</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlfkr\Desktop\딥러닝스터디\2022_DeepLearningStudy\02_Test_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/14ab70bdc0bfc001/바탕 화면/병아리/2022_DeepLearningStudy/02_Test_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D308705-1B40-4711-A582-7FFC13646CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="6_{EFF94AB3-6A74-41F5-AB29-42F32C869AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E30B7CB-675A-4052-A853-1EE2249568C0}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="690" windowWidth="20430" windowHeight="14685" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="65">
   <si>
     <t>맞음: O 틀림: X</t>
   </si>
@@ -2983,8 +2983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="AA29" sqref="AA29"/>
+    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -3270,30 +3270,72 @@
       <c r="A8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
+      <c r="B8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="T8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="V8" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="W8" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>95%</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -4178,91 +4220,91 @@
       </c>
       <c r="B27" s="10">
         <f t="shared" ref="B27:V27" si="1">COUNTIF(B6:B26,"O")*5</f>
+        <v>50</v>
+      </c>
+      <c r="C27" s="10">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="D27" s="10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E27" s="10">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="G27" s="10">
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="C27" s="10">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="D27" s="10">
+      <c r="H27" s="10">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="I27" s="10">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="J27" s="10">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="K27" s="10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="L27" s="10">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="M27" s="10">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="E27" s="10">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="F27" s="10">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="G27" s="10">
+      <c r="N27" s="10">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="O27" s="10">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="H27" s="10">
+      <c r="P27" s="10">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="I27" s="10">
+      <c r="Q27" s="10">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="J27" s="10">
+      <c r="R27" s="10">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="K27" s="10">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="L27" s="10">
+      <c r="S27" s="10">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="M27" s="10">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="N27" s="10">
+      <c r="T27" s="10">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="O27" s="10">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="P27" s="10">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="Q27" s="10">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="R27" s="10">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="S27" s="10">
+      <c r="U27" s="10">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="T27" s="10">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="U27" s="10">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
       <c r="V27" s="10">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>
-        <v>37.25</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -4280,8 +4322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -5443,30 +5485,72 @@
       <c r="A25" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
+      <c r="B25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="O25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="P25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="R25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="S25" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="U25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="V25" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="W25" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>80%</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -5505,71 +5589,71 @@
       </c>
       <c r="B27" s="10">
         <f>COUNTIF(B7:B26,"O")*5</f>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C27" s="10">
         <f>COUNTIF(C7:C26,"O")*5</f>
         <v>40</v>
       </c>
       <c r="D27" s="10">
-        <f t="shared" ref="B27:V27" si="1">COUNTIF(D6:D26,"O")*5</f>
+        <f t="shared" ref="D27:V27" si="1">COUNTIF(D6:D26,"O")*5</f>
+        <v>50</v>
+      </c>
+      <c r="E27" s="10">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="G27" s="10">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="H27" s="10">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="I27" s="10">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J27" s="10">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="K27" s="10">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="L27" s="10">
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="E27" s="10">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="F27" s="10">
+      <c r="M27" s="10">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="N27" s="10">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="G27" s="10">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="H27" s="10">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="I27" s="10">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="J27" s="10">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="K27" s="10">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="L27" s="10">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="M27" s="10">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="N27" s="10">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
       <c r="O27" s="10">
         <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="P27" s="10">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="Q27" s="10">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="P27" s="10">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="Q27" s="10">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
       <c r="R27" s="10">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S27" s="10">
         <f t="shared" si="1"/>
@@ -5577,11 +5661,11 @@
       </c>
       <c r="T27" s="10">
         <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="U27" s="10">
+        <f t="shared" si="1"/>
         <v>50</v>
-      </c>
-      <c r="U27" s="10">
-        <f t="shared" si="1"/>
-        <v>45</v>
       </c>
       <c r="V27" s="10">
         <f t="shared" si="1"/>
@@ -5589,7 +5673,7 @@
       </c>
       <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>
-        <v>43.75</v>
+        <v>47.75</v>
       </c>
     </row>
   </sheetData>

--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -5,26 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/14ab70bdc0bfc001/바탕 화면/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\2022_DeepLearningStudy\02_Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1DCDBFC-077D-4E6C-87B9-E4B4BFA324DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79DBA45-E5E7-4A43-96AE-CBC2F19B7681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="65">
   <si>
     <t>맞음: O 틀림: X</t>
   </si>
@@ -1157,7 +1155,7 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="14" t="s">
@@ -2983,11 +2981,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView tabSelected="1" topLeftCell="F20" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="14" t="s">
@@ -4158,30 +4156,72 @@
       <c r="A25" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
+      <c r="B25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="O25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="P25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="R25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="S25" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T25" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="U25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="V25" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="W25" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>65%</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -4220,7 +4260,7 @@
       </c>
       <c r="B27" s="10">
         <f t="shared" ref="B27:V27" si="1">COUNTIF(B6:B26,"O")*5</f>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C27" s="10">
         <f t="shared" si="1"/>
@@ -4228,7 +4268,7 @@
       </c>
       <c r="D27" s="10">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E27" s="10">
         <f t="shared" si="1"/>
@@ -4240,19 +4280,19 @@
       </c>
       <c r="G27" s="10">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H27" s="10">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I27" s="10">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J27" s="10">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K27" s="10">
         <f t="shared" si="1"/>
@@ -4264,27 +4304,27 @@
       </c>
       <c r="M27" s="10">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N27" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="O27" s="10">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="P27" s="10">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Q27" s="10">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="R27" s="10">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="S27" s="10">
         <f t="shared" si="1"/>
@@ -4296,15 +4336,15 @@
       </c>
       <c r="U27" s="10">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="V27" s="10">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>
-        <v>42</v>
+        <v>45.25</v>
       </c>
     </row>
   </sheetData>
@@ -4326,7 +4366,7 @@
       <selection activeCell="B25" sqref="B25:V25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="14" t="s">

--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -5,24 +5,26 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\2022_DeepLearningStudy\02_Test_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5635b272914cf7ac/바탕 화면/03_Team_Data/D팀/2022_DeepLearningStudy/02_Test_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79DBA45-E5E7-4A43-96AE-CBC2F19B7681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{E79DBA45-E5E7-4A43-96AE-CBC2F19B7681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF3B55EF-8B3B-40A7-9CDD-A5C83C8FC0CF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6400" yWindow="700" windowWidth="19200" windowHeight="13350" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="65">
   <si>
     <t>맞음: O 틀림: X</t>
   </si>
@@ -1155,7 +1157,7 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="14" t="s">
@@ -2981,11 +2983,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F20" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="T31" sqref="T31"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:V19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="14" t="s">
@@ -3808,30 +3810,72 @@
       <c r="A19" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
+      <c r="B19" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="O19" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="P19" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q19" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="R19" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="S19" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T19" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="U19" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="V19" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="W19" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>75%</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -4260,11 +4304,11 @@
       </c>
       <c r="B27" s="10">
         <f t="shared" ref="B27:V27" si="1">COUNTIF(B6:B26,"O")*5</f>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C27" s="10">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D27" s="10">
         <f t="shared" si="1"/>
@@ -4272,27 +4316,27 @@
       </c>
       <c r="E27" s="10">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F27" s="10">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G27" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H27" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I27" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J27" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K27" s="10">
         <f t="shared" si="1"/>
@@ -4300,7 +4344,7 @@
       </c>
       <c r="L27" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="M27" s="10">
         <f t="shared" si="1"/>
@@ -4308,11 +4352,11 @@
       </c>
       <c r="N27" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="O27" s="10">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P27" s="10">
         <f t="shared" si="1"/>
@@ -4320,11 +4364,11 @@
       </c>
       <c r="Q27" s="10">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="R27" s="10">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S27" s="10">
         <f t="shared" si="1"/>
@@ -4332,19 +4376,19 @@
       </c>
       <c r="T27" s="10">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="U27" s="10">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="V27" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>
-        <v>45.25</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -4366,7 +4410,7 @@
       <selection activeCell="B25" sqref="B25:V25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="14" t="s">

--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5635b272914cf7ac/바탕 화면/03_Team_Data/D팀/2022_DeepLearningStudy/02_Test_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{E79DBA45-E5E7-4A43-96AE-CBC2F19B7681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF3B55EF-8B3B-40A7-9CDD-A5C83C8FC0CF}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{E79DBA45-E5E7-4A43-96AE-CBC2F19B7681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AAFC5F9-9BE2-4B15-A181-A762F7576217}"/>
   <bookViews>
-    <workbookView xWindow="6400" yWindow="700" windowWidth="19200" windowHeight="13350" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4960" yWindow="910" windowWidth="19200" windowHeight="13350" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="65">
   <si>
     <t>맞음: O 틀림: X</t>
   </si>
@@ -2983,7 +2983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="B19" sqref="B19:V19"/>
     </sheetView>
   </sheetViews>
@@ -4406,8 +4406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:V25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
@@ -5025,30 +5025,72 @@
       <c r="A15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
+      <c r="B15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="R15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="S15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="T15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="U15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="V15" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="W15" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -5673,91 +5715,91 @@
       </c>
       <c r="B27" s="10">
         <f>COUNTIF(B7:B26,"O")*5</f>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C27" s="10">
         <f>COUNTIF(C7:C26,"O")*5</f>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D27" s="10">
         <f t="shared" ref="D27:V27" si="1">COUNTIF(D6:D26,"O")*5</f>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E27" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F27" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G27" s="10">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H27" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I27" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J27" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K27" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="L27" s="10">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M27" s="10">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N27" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="O27" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="P27" s="10">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q27" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="R27" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="S27" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="T27" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="U27" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="V27" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>
-        <v>47.75</v>
+        <v>52.75</v>
       </c>
     </row>
   </sheetData>

--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5635b272914cf7ac/바탕 화면/03_Team_Data/D팀/2022_DeepLearningStudy/02_Test_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2affedf885c1892d/바탕 화면/스터디/2022_DeepLearningStudy/02_Test_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{E79DBA45-E5E7-4A43-96AE-CBC2F19B7681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AAFC5F9-9BE2-4B15-A181-A762F7576217}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{E79DBA45-E5E7-4A43-96AE-CBC2F19B7681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66BFFEEF-DF4E-4B0C-890D-42C7F054D4C4}"/>
   <bookViews>
-    <workbookView xWindow="4960" yWindow="910" windowWidth="19200" windowHeight="13350" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="65">
   <si>
     <t>맞음: O 틀림: X</t>
   </si>
@@ -1157,7 +1157,7 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="14" t="s">
@@ -2983,11 +2983,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:V19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="14" t="s">
@@ -3954,30 +3954,72 @@
       <c r="A21" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
+      <c r="B21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="N21" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O21" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P21" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q21" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="R21" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="T21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="U21" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="V21" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="W21" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>40%</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -4304,15 +4346,15 @@
       </c>
       <c r="B27" s="10">
         <f t="shared" ref="B27:V27" si="1">COUNTIF(B6:B26,"O")*5</f>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C27" s="10">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D27" s="10">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E27" s="10">
         <f t="shared" si="1"/>
@@ -4324,7 +4366,7 @@
       </c>
       <c r="G27" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H27" s="10">
         <f t="shared" si="1"/>
@@ -4344,11 +4386,11 @@
       </c>
       <c r="L27" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="M27" s="10">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N27" s="10">
         <f t="shared" si="1"/>
@@ -4372,11 +4414,11 @@
       </c>
       <c r="S27" s="10">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="T27" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="U27" s="10">
         <f t="shared" si="1"/>
@@ -4388,7 +4430,7 @@
       </c>
       <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -4406,11 +4448,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:V15"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="14" t="s">
@@ -5097,30 +5139,72 @@
       <c r="A16" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
+      <c r="B16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="O16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="P16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="S16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="T16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="U16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="V16" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="W16" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>80%</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -5715,7 +5799,7 @@
       </c>
       <c r="B27" s="10">
         <f>COUNTIF(B7:B26,"O")*5</f>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C27" s="10">
         <f>COUNTIF(C7:C26,"O")*5</f>
@@ -5723,31 +5807,31 @@
       </c>
       <c r="D27" s="10">
         <f t="shared" ref="D27:V27" si="1">COUNTIF(D6:D26,"O")*5</f>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E27" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F27" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G27" s="10">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H27" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I27" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J27" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K27" s="10">
         <f t="shared" si="1"/>
@@ -5755,19 +5839,19 @@
       </c>
       <c r="L27" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="M27" s="10">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N27" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="O27" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="P27" s="10">
         <f t="shared" si="1"/>
@@ -5775,11 +5859,11 @@
       </c>
       <c r="Q27" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="R27" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="S27" s="10">
         <f t="shared" si="1"/>
@@ -5787,19 +5871,19 @@
       </c>
       <c r="T27" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="U27" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="V27" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>
-        <v>52.75</v>
+        <v>56.75</v>
       </c>
     </row>
   </sheetData>

--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -1,39 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="9.103.88.44548"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2affedf885c1892d/바탕 화면/스터디/2022_DeepLearningStudy/02_Test_Data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{E79DBA45-E5E7-4A43-96AE-CBC2F19B7681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66BFFEEF-DF4E-4B0C-890D-42C7F054D4C4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>맞음: O 틀림: X</t>
   </si>
@@ -210,127 +194,188 @@
   </si>
   <si>
     <t>o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>o</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>x</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>o</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="26">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF3F3F76"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FFFFFFFF"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="Malgun Gothic"/>
       <color rgb="FF000000"/>
-      <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="30"/>
+      <sz val="30.0"/>
+      <name val="HY헤드라인M"/>
       <color rgb="FF000000"/>
-      <name val="HY헤드라인M"/>
-      <family val="1"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="HY헤드라인M"/>
       <color rgb="FF000000"/>
-      <name val="HY헤드라인M"/>
-      <family val="1"/>
-      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="10"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="11"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="8.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="11.0"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -394,13 +439,356 @@
         </stop>
       </gradientFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="22">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -419,114 +807,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,119 +825,288 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color auto="1"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="17" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="18" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="19" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="49">
     <cellStyle name="20% - 강조색1" xfId="3" builtinId="30"/>
+    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
+    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
+    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
+    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
+    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
+    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
+    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
+    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
+    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
+    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
+    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
+    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
+    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
+    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
+    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
+    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
+    <cellStyle name="강조색1" xfId="25" builtinId="29"/>
+    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
+    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
+    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
+    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
+    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
+    <cellStyle name="경고문" xfId="11" builtinId="11"/>
+    <cellStyle name="계산" xfId="18" builtinId="22"/>
+    <cellStyle name="나쁨" xfId="23" builtinId="27"/>
     <cellStyle name="메모" xfId="2" builtinId="10"/>
+    <cellStyle name="백분율" xfId="8" builtinId="5"/>
+    <cellStyle name="보통" xfId="24" builtinId="28"/>
+    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
+    <cellStyle name="셀 확인" xfId="19" builtinId="23"/>
+    <cellStyle name="쉼표" xfId="6" builtinId="3"/>
+    <cellStyle name="쉼표[0]" xfId="9" builtinId="6"/>
+    <cellStyle name="연결된 셀" xfId="20" builtinId="24"/>
     <cellStyle name="열어 본 하이퍼링크" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="요약" xfId="21" builtinId="25"/>
     <cellStyle name="입력" xfId="1" builtinId="20"/>
+    <cellStyle name="제목" xfId="12" builtinId="15"/>
+    <cellStyle name="제목 1" xfId="13" builtinId="16"/>
+    <cellStyle name="제목 2" xfId="14" builtinId="17"/>
+    <cellStyle name="제목 3" xfId="15" builtinId="18"/>
+    <cellStyle name="제목 4" xfId="16" builtinId="19"/>
+    <cellStyle name="좋음" xfId="22" builtinId="26"/>
+    <cellStyle name="출력" xfId="17" builtinId="21"/>
+    <cellStyle name="통화" xfId="7" builtinId="4"/>
+    <cellStyle name="통화[0]" xfId="10" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="4" builtinId="8" hidden="1"/>
   </cellStyles>
@@ -829,7 +1289,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -838,7 +1298,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -848,14 +1308,6 @@
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1150,121 +1602,121 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.62500000" defaultRowHeight="16.500000"/>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="16"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="15"/>
       <c r="X1" s="1"/>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="19"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="18"/>
       <c r="X2" s="1"/>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="19"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="18"/>
       <c r="X3" s="1"/>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="22"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="21"/>
       <c r="X4" s="1"/>
     </row>
     <row r="5" spans="1:24">
@@ -1407,7 +1859,7 @@
         <v>21</v>
       </c>
       <c r="W6" s="8" t="str">
-        <f t="shared" ref="W6:W26" si="0">COUNTIF(B6:U6,"O")*5&amp;"%"</f>
+        <f>COUNTIF(B6:U6,"O")*5&amp;"%"</f>
         <v>100%</v>
       </c>
       <c r="X6" s="1"/>
@@ -1480,7 +1932,7 @@
         <v>9</v>
       </c>
       <c r="W7" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B7:U7,"O")*5&amp;"%"</f>
         <v>50%</v>
       </c>
       <c r="X7" s="1"/>
@@ -1553,7 +2005,7 @@
         <v>12</v>
       </c>
       <c r="W8" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B8:U8,"O")*5&amp;"%"</f>
         <v>95%</v>
       </c>
       <c r="X8" s="1"/>
@@ -1626,7 +2078,7 @@
         <v>23</v>
       </c>
       <c r="W9" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B9:U9,"O")*5&amp;"%"</f>
         <v>80%</v>
       </c>
       <c r="X9" s="1"/>
@@ -1699,7 +2151,7 @@
         <v>9</v>
       </c>
       <c r="W10" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B10:U10,"O")*5&amp;"%"</f>
         <v>95%</v>
       </c>
       <c r="X10" s="1"/>
@@ -1772,7 +2224,7 @@
         <v>23</v>
       </c>
       <c r="W11" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B11:U11,"O")*5&amp;"%"</f>
         <v>75%</v>
       </c>
       <c r="X11" s="1"/>
@@ -1845,7 +2297,7 @@
         <v>23</v>
       </c>
       <c r="W12" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B12:U12,"O")*5&amp;"%"</f>
         <v>80%</v>
       </c>
       <c r="X12" s="1"/>
@@ -1918,7 +2370,7 @@
         <v>23</v>
       </c>
       <c r="W13" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B13:U13,"O")*5&amp;"%"</f>
         <v>95%</v>
       </c>
       <c r="X13" s="1"/>
@@ -1991,7 +2443,7 @@
         <v>21</v>
       </c>
       <c r="W14" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B14:U14,"O")*5&amp;"%"</f>
         <v>65%</v>
       </c>
       <c r="X14" s="1"/>
@@ -2064,7 +2516,7 @@
         <v>21</v>
       </c>
       <c r="W15" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B15:U15,"O")*5&amp;"%"</f>
         <v>95%</v>
       </c>
       <c r="X15" s="1"/>
@@ -2137,7 +2589,7 @@
         <v>21</v>
       </c>
       <c r="W16" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B16:U16,"O")*5&amp;"%"</f>
         <v>90%</v>
       </c>
       <c r="X16" s="1"/>
@@ -2210,7 +2662,7 @@
         <v>21</v>
       </c>
       <c r="W17" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B17:U17,"O")*5&amp;"%"</f>
         <v>75%</v>
       </c>
       <c r="X17" s="1"/>
@@ -2283,7 +2735,7 @@
         <v>23</v>
       </c>
       <c r="W18" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B18:U18,"O")*5&amp;"%"</f>
         <v>85%</v>
       </c>
       <c r="X18" s="1"/>
@@ -2356,7 +2808,7 @@
         <v>21</v>
       </c>
       <c r="W19" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B19:U19,"O")*5&amp;"%"</f>
         <v>75%</v>
       </c>
       <c r="X19" s="1"/>
@@ -2429,7 +2881,7 @@
         <v>21</v>
       </c>
       <c r="W20" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B20:U20,"O")*5&amp;"%"</f>
         <v>95%</v>
       </c>
       <c r="X20" s="1"/>
@@ -2502,7 +2954,7 @@
         <v>21</v>
       </c>
       <c r="W21" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B21:U21,"O")*5&amp;"%"</f>
         <v>80%</v>
       </c>
       <c r="X21" s="1"/>
@@ -2575,7 +3027,7 @@
         <v>23</v>
       </c>
       <c r="W22" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B22:U22,"O")*5&amp;"%"</f>
         <v>65%</v>
       </c>
       <c r="X22" s="1"/>
@@ -2648,7 +3100,7 @@
         <v>21</v>
       </c>
       <c r="W23" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B23:U23,"O")*5&amp;"%"</f>
         <v>75%</v>
       </c>
       <c r="X23" s="1"/>
@@ -2721,7 +3173,7 @@
         <v>9</v>
       </c>
       <c r="W24" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B24:U24,"O")*5&amp;"%"</f>
         <v>60%</v>
       </c>
       <c r="X24" s="1"/>
@@ -2794,7 +3246,7 @@
         <v>21</v>
       </c>
       <c r="W25" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B25:U25,"O")*5&amp;"%"</f>
         <v>100%</v>
       </c>
       <c r="X25" s="1"/>
@@ -2867,7 +3319,7 @@
         <v>9</v>
       </c>
       <c r="W26" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B26:U26,"O")*5&amp;"%"</f>
         <v>85%</v>
       </c>
       <c r="X26" s="1"/>
@@ -2877,87 +3329,87 @@
         <v>17</v>
       </c>
       <c r="B27" s="10">
-        <f t="shared" ref="B27:V27" si="1">COUNTIF(B6:B26,"O")*5</f>
+        <f>COUNTIF(B6:B26,"O")*5</f>
         <v>105</v>
       </c>
       <c r="C27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(C6:C26,"O")*5</f>
         <v>65</v>
       </c>
       <c r="D27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D6:D26,"O")*5</f>
         <v>80</v>
       </c>
       <c r="E27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(E6:E26,"O")*5</f>
         <v>75</v>
       </c>
       <c r="F27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F6:F26,"O")*5</f>
         <v>80</v>
       </c>
       <c r="G27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(G6:G26,"O")*5</f>
         <v>90</v>
       </c>
       <c r="H27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(H6:H26,"O")*5</f>
         <v>65</v>
       </c>
       <c r="I27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(I6:I26,"O")*5</f>
         <v>75</v>
       </c>
       <c r="J27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(J6:J26,"O")*5</f>
         <v>90</v>
       </c>
       <c r="K27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(K6:K26,"O")*5</f>
         <v>85</v>
       </c>
       <c r="L27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(L6:L26,"O")*5</f>
         <v>85</v>
       </c>
       <c r="M27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(M6:M26,"O")*5</f>
         <v>85</v>
       </c>
       <c r="N27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(N6:N26,"O")*5</f>
         <v>80</v>
       </c>
       <c r="O27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(O6:O26,"O")*5</f>
         <v>90</v>
       </c>
       <c r="P27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(P6:P26,"O")*5</f>
         <v>85</v>
       </c>
       <c r="Q27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(Q6:Q26,"O")*5</f>
         <v>95</v>
       </c>
       <c r="R27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(R6:R26,"O")*5</f>
         <v>105</v>
       </c>
       <c r="S27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(S6:S26,"O")*5</f>
         <v>95</v>
       </c>
       <c r="T27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(T6:T26,"O")*5</f>
         <v>90</v>
       </c>
       <c r="U27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(U6:U26,"O")*5</f>
         <v>95</v>
       </c>
       <c r="V27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(V6:V26,"O")*5</f>
         <v>70</v>
       </c>
       <c r="W27" s="11">
@@ -2974,126 +3426,126 @@
     <mergeCell ref="A4:W4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.62500000" defaultRowHeight="16.500000"/>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="16"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="15"/>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="19"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="18"/>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="19"/>
-    </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="20" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="18"/>
+    </row>
+    <row r="4" spans="1:23" ht="17.250000">
+      <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="22"/>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="21"/>
+    </row>
+    <row r="5" spans="1:23" ht="17.250000">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -3190,7 +3642,7 @@
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
       <c r="W6" s="8" t="str">
-        <f t="shared" ref="W6:W26" si="0">COUNTIF(B6:U6,"O")*5&amp;"%"</f>
+        <f>COUNTIF(B6:U6,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
     </row>
@@ -3262,7 +3714,7 @@
         <v>21</v>
       </c>
       <c r="W7" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B7:U7,"O")*5&amp;"%"</f>
         <v>100%</v>
       </c>
     </row>
@@ -3303,7 +3755,7 @@
       <c r="L8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M8" s="13" t="s">
+      <c r="M8" s="7" t="s">
         <v>23</v>
       </c>
       <c r="N8" s="12" t="s">
@@ -3334,7 +3786,7 @@
         <v>21</v>
       </c>
       <c r="W8" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B8:U8,"O")*5&amp;"%"</f>
         <v>95%</v>
       </c>
     </row>
@@ -3406,7 +3858,7 @@
         <v>21</v>
       </c>
       <c r="W9" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B9:U9,"O")*5&amp;"%"</f>
         <v>75%</v>
       </c>
     </row>
@@ -3436,7 +3888,7 @@
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
       <c r="W10" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B10:U10,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
     </row>
@@ -3508,7 +3960,7 @@
         <v>63</v>
       </c>
       <c r="W11" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B11:U11,"O")*5&amp;"%"</f>
         <v>100%</v>
       </c>
     </row>
@@ -3580,7 +4032,7 @@
         <v>21</v>
       </c>
       <c r="W12" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B12:U12,"O")*5&amp;"%"</f>
         <v>90%</v>
       </c>
     </row>
@@ -3588,71 +4040,71 @@
       <c r="A13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="I13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="K13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="L13" s="13" t="s">
+      <c r="L13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="M13" s="13" t="s">
+      <c r="M13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="N13" s="13" t="s">
+      <c r="N13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="O13" s="13" t="s">
+      <c r="O13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="P13" s="13" t="s">
+      <c r="P13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="Q13" s="13" t="s">
+      <c r="Q13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="R13" s="13" t="s">
+      <c r="R13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="S13" s="13" t="s">
+      <c r="S13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="T13" s="13" t="s">
+      <c r="T13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="U13" s="13" t="s">
+      <c r="U13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="V13" s="13" t="s">
+      <c r="V13" s="7" t="s">
         <v>60</v>
       </c>
       <c r="W13" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B13:U13,"O")*5&amp;"%"</f>
         <v>80%</v>
       </c>
     </row>
@@ -3682,7 +4134,7 @@
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
       <c r="W14" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B14:U14,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
     </row>
@@ -3712,7 +4164,7 @@
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
       <c r="W15" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B15:U15,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
     </row>
@@ -3742,7 +4194,7 @@
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
       <c r="W16" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B16:U16,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
     </row>
@@ -3772,7 +4224,7 @@
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
       <c r="W17" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B17:U17,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
     </row>
@@ -3802,7 +4254,7 @@
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
       <c r="W18" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B18:U18,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
     </row>
@@ -3810,71 +4262,71 @@
       <c r="A19" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M19" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="N19" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="O19" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="P19" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q19" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="R19" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="S19" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T19" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="U19" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="V19" s="13" t="s">
+      <c r="B19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="S19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="T19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="U19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V19" s="7" t="s">
         <v>21</v>
       </c>
       <c r="W19" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B19:U19,"O")*5&amp;"%"</f>
         <v>75%</v>
       </c>
     </row>
@@ -3946,7 +4398,7 @@
         <v>56</v>
       </c>
       <c r="W20" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B20:U20,"O")*5&amp;"%"</f>
         <v>80%</v>
       </c>
     </row>
@@ -3954,71 +4406,71 @@
       <c r="A21" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="13" t="s">
+      <c r="B21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J21" s="13" t="s">
+      <c r="G21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K21" s="13" t="s">
+      <c r="K21" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M21" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="N21" s="13" t="s">
+      <c r="L21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N21" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O21" s="13" t="s">
+      <c r="O21" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P21" s="13" t="s">
+      <c r="P21" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="Q21" s="13" t="s">
+      <c r="Q21" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="R21" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S21" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="T21" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="U21" s="13" t="s">
+      <c r="R21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="S21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="T21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="U21" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="V21" s="13" t="s">
+      <c r="V21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="W21" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B21:U21,"O")*5&amp;"%"</f>
         <v>40%</v>
       </c>
     </row>
@@ -4090,7 +4542,7 @@
         <v>23</v>
       </c>
       <c r="W22" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B22:U22,"O")*5&amp;"%"</f>
         <v>45%</v>
       </c>
     </row>
@@ -4162,7 +4614,7 @@
         <v>21</v>
       </c>
       <c r="W23" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B23:U23,"O")*5&amp;"%"</f>
         <v>75%</v>
       </c>
     </row>
@@ -4234,7 +4686,7 @@
         <v>58</v>
       </c>
       <c r="W24" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B24:U24,"O")*5&amp;"%"</f>
         <v>100%</v>
       </c>
     </row>
@@ -4242,71 +4694,71 @@
       <c r="A25" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="L25" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M25" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="N25" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="O25" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="P25" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q25" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="R25" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="S25" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T25" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U25" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="V25" s="13" t="s">
+      <c r="B25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="S25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="T25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="U25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V25" s="7" t="s">
         <v>21</v>
       </c>
       <c r="W25" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B25:U25,"O")*5&amp;"%"</f>
         <v>65%</v>
       </c>
     </row>
@@ -4336,96 +4788,96 @@
       <c r="U26" s="7"/>
       <c r="V26" s="7"/>
       <c r="W26" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B26:U26,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" ht="17.250000">
       <c r="A27" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B27" s="10">
-        <f t="shared" ref="B27:V27" si="1">COUNTIF(B6:B26,"O")*5</f>
+        <f>COUNTIF(B6:B26,"O")*5</f>
         <v>65</v>
       </c>
       <c r="C27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(C6:C26,"O")*5</f>
         <v>45</v>
       </c>
       <c r="D27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D6:D26,"O")*5</f>
         <v>50</v>
       </c>
       <c r="E27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(E6:E26,"O")*5</f>
         <v>40</v>
       </c>
       <c r="F27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F6:F26,"O")*5</f>
         <v>40</v>
       </c>
       <c r="G27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(G6:G26,"O")*5</f>
         <v>60</v>
       </c>
       <c r="H27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(H6:H26,"O")*5</f>
         <v>55</v>
       </c>
       <c r="I27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(I6:I26,"O")*5</f>
         <v>55</v>
       </c>
       <c r="J27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(J6:J26,"O")*5</f>
         <v>55</v>
       </c>
       <c r="K27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(K6:K26,"O")*5</f>
         <v>40</v>
       </c>
       <c r="L27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(L6:L26,"O")*5</f>
         <v>60</v>
       </c>
       <c r="M27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(M6:M26,"O")*5</f>
         <v>45</v>
       </c>
       <c r="N27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(N6:N26,"O")*5</f>
         <v>60</v>
       </c>
       <c r="O27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(O6:O26,"O")*5</f>
         <v>50</v>
       </c>
       <c r="P27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(P6:P26,"O")*5</f>
         <v>45</v>
       </c>
       <c r="Q27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(Q6:Q26,"O")*5</f>
         <v>50</v>
       </c>
       <c r="R27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(R6:R26,"O")*5</f>
         <v>50</v>
       </c>
       <c r="S27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(S6:S26,"O")*5</f>
         <v>50</v>
       </c>
       <c r="T27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(T6:T26,"O")*5</f>
         <v>55</v>
       </c>
       <c r="U27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(U6:U26,"O")*5</f>
         <v>50</v>
       </c>
       <c r="V27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(V6:V26,"O")*5</f>
         <v>55</v>
       </c>
       <c r="W27" s="11">
@@ -4439,126 +4891,126 @@
     <mergeCell ref="A4:W4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="AA17" sqref="AA17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.62500000" defaultRowHeight="16.500000"/>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="16"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="15"/>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="19"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="18"/>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="19"/>
-    </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="20" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="18"/>
+    </row>
+    <row r="4" spans="1:23" ht="17.250000">
+      <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="22"/>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="21"/>
+    </row>
+    <row r="5" spans="1:23" ht="17.250000">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -4653,7 +5105,7 @@
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
       <c r="W6" s="8" t="str">
-        <f t="shared" ref="W6:W26" si="0">COUNTIF(B6:U6,"O")*5&amp;"%"</f>
+        <f>COUNTIF(B6:U6,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
     </row>
@@ -4683,7 +5135,7 @@
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
       <c r="W7" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B7:U7,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
     </row>
@@ -4691,70 +5143,72 @@
       <c r="A8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="O8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="R8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="S8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="T8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="U8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="V8" s="13" t="s">
+      <c r="B8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="W8" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>95%</v>
+        <f>COUNTIF(B8:U8,"O")*5&amp;"%"</f>
+        <v>100%</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -4833,71 +5287,71 @@
       <c r="A10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="M10" s="13" t="s">
+      <c r="M10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="N10" s="13" t="s">
+      <c r="N10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="O10" s="13" t="s">
+      <c r="O10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="P10" s="13" t="s">
+      <c r="P10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="Q10" s="13" t="s">
+      <c r="Q10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="R10" s="13" t="s">
+      <c r="R10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="S10" s="13" t="s">
+      <c r="S10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="T10" s="13" t="s">
+      <c r="T10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="U10" s="13" t="s">
+      <c r="U10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="V10" s="13" t="s">
+      <c r="V10" s="7" t="s">
         <v>60</v>
       </c>
       <c r="W10" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B10:U10,"O")*5&amp;"%"</f>
         <v>95%</v>
       </c>
     </row>
@@ -4927,7 +5381,7 @@
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
       <c r="W11" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B11:U11,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
     </row>
@@ -4957,7 +5411,7 @@
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
       <c r="W12" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B12:U12,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
     </row>
@@ -4987,7 +5441,7 @@
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
       <c r="W13" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B13:U13,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
     </row>
@@ -5059,7 +5513,7 @@
         <v>56</v>
       </c>
       <c r="W14" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B14:U14,"O")*5&amp;"%"</f>
         <v>95%</v>
       </c>
     </row>
@@ -5067,71 +5521,71 @@
       <c r="A15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="N15" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="O15" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="P15" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q15" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="R15" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="S15" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="T15" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="U15" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="V15" s="13" t="s">
+      <c r="B15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="S15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="T15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="U15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V15" s="7" t="s">
         <v>21</v>
       </c>
       <c r="W15" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B15:U15,"O")*5&amp;"%"</f>
         <v>100%</v>
       </c>
     </row>
@@ -5139,71 +5593,71 @@
       <c r="A16" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="13" t="s">
+      <c r="B16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="K16" s="13" t="s">
+      <c r="D16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M16" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="N16" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="O16" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="P16" s="13" t="s">
+      <c r="L16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="Q16" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="R16" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="S16" s="13" t="s">
+      <c r="Q16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="T16" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="U16" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="V16" s="13" t="s">
+      <c r="T16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="U16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="V16" s="7" t="s">
         <v>9</v>
       </c>
       <c r="W16" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B16:U16,"O")*5&amp;"%"</f>
         <v>80%</v>
       </c>
     </row>
@@ -5233,7 +5687,7 @@
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
       <c r="W17" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B17:U17,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
     </row>
@@ -5305,7 +5759,7 @@
         <v>21</v>
       </c>
       <c r="W18" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B18:U18,"O")*5&amp;"%"</f>
         <v>55%</v>
       </c>
     </row>
@@ -5375,7 +5829,7 @@
         <v>21</v>
       </c>
       <c r="W19" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B19:U19,"O")*5&amp;"%"</f>
         <v>80%</v>
       </c>
     </row>
@@ -5445,7 +5899,7 @@
         <v>21</v>
       </c>
       <c r="W20" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B20:U20,"O")*5&amp;"%"</f>
         <v>85%</v>
       </c>
     </row>
@@ -5517,7 +5971,7 @@
         <v>58</v>
       </c>
       <c r="W21" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B21:U21,"O")*5&amp;"%"</f>
         <v>95%</v>
       </c>
     </row>
@@ -5547,7 +6001,7 @@
       <c r="U22" s="7"/>
       <c r="V22" s="7"/>
       <c r="W22" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B22:U22,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
     </row>
@@ -5617,7 +6071,7 @@
         <v>21</v>
       </c>
       <c r="W23" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B23:U23,"O")*5&amp;"%"</f>
         <v>95%</v>
       </c>
     </row>
@@ -5687,7 +6141,7 @@
         <v>21</v>
       </c>
       <c r="W24" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B24:U24,"O")*5&amp;"%"</f>
         <v>90%</v>
       </c>
     </row>
@@ -5695,71 +6149,71 @@
       <c r="A25" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M25" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="N25" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="O25" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="P25" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q25" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="R25" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="S25" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T25" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="U25" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="V25" s="13" t="s">
+      <c r="B25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="S25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="T25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="U25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V25" s="7" t="s">
         <v>23</v>
       </c>
       <c r="W25" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B25:U25,"O")*5&amp;"%"</f>
         <v>80%</v>
       </c>
     </row>
@@ -5789,11 +6243,11 @@
       <c r="U26" s="7"/>
       <c r="V26" s="7"/>
       <c r="W26" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B26:U26,"O")*5&amp;"%"</f>
         <v>0%</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" ht="17.250000">
       <c r="A27" s="9" t="s">
         <v>17</v>
       </c>
@@ -5806,84 +6260,84 @@
         <v>45</v>
       </c>
       <c r="D27" s="10">
-        <f t="shared" ref="D27:V27" si="1">COUNTIF(D6:D26,"O")*5</f>
+        <f>COUNTIF(D6:D26,"O")*5</f>
         <v>60</v>
       </c>
       <c r="E27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(E6:E26,"O")*5</f>
         <v>60</v>
       </c>
       <c r="F27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F6:F26,"O")*5</f>
         <v>65</v>
       </c>
       <c r="G27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(G6:G26,"O")*5</f>
         <v>45</v>
       </c>
       <c r="H27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(H6:H26,"O")*5</f>
         <v>60</v>
       </c>
       <c r="I27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(I6:I26,"O")*5</f>
         <v>60</v>
       </c>
       <c r="J27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(J6:J26,"O")*5</f>
         <v>60</v>
       </c>
       <c r="K27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(K6:K26,"O")*5</f>
         <v>55</v>
       </c>
       <c r="L27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(L6:L26,"O")*5</f>
         <v>55</v>
       </c>
       <c r="M27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(M6:M26,"O")*5</f>
         <v>45</v>
       </c>
       <c r="N27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(N6:N26,"O")*5</f>
         <v>60</v>
       </c>
       <c r="O27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(O6:O26,"O")*5</f>
         <v>65</v>
       </c>
       <c r="P27" s="10">
-        <f t="shared" si="1"/>
-        <v>35</v>
+        <f>COUNTIF(P6:P26,"O")*5</f>
+        <v>40</v>
       </c>
       <c r="Q27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(Q6:Q26,"O")*5</f>
         <v>60</v>
       </c>
       <c r="R27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(R6:R26,"O")*5</f>
         <v>60</v>
       </c>
       <c r="S27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(S6:S26,"O")*5</f>
         <v>55</v>
       </c>
       <c r="T27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(T6:T26,"O")*5</f>
         <v>65</v>
       </c>
       <c r="U27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(U6:U26,"O")*5</f>
         <v>60</v>
       </c>
       <c r="V27" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(V6:V26,"O")*5</f>
         <v>60</v>
       </c>
       <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>
-        <v>56.75</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -5892,7 +6346,7 @@
     <mergeCell ref="A4:W4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hjwon\Desktop\딥러닝 스터디\2022_DeepLearningStudy\02_Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4430FD-A6B8-499D-86EF-7B884504E6B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF026137-27EC-4521-ACA3-03A5C87CC396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="56">
   <si>
     <t>맞음: O 틀림: X</t>
   </si>
@@ -2923,7 +2923,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="B17" sqref="B17:V17"/>
     </sheetView>
   </sheetViews>
@@ -4431,8 +4431,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
@@ -4934,30 +4934,72 @@
       <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
+      <c r="B11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="U11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="V11" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="W11" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>70%</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -5828,7 +5870,7 @@
       </c>
       <c r="B27" s="10">
         <f>COUNTIF(B7:B26,"O")*5</f>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C27" s="10">
         <f>COUNTIF(C7:C26,"O")*5</f>
@@ -5840,47 +5882,47 @@
       </c>
       <c r="E27" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F27" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G27" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H27" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="I27" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="J27" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K27" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="L27" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M27" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N27" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="O27" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="P27" s="10">
         <f t="shared" si="1"/>
@@ -5896,11 +5938,11 @@
       </c>
       <c r="S27" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="T27" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="U27" s="10">
         <f t="shared" si="1"/>
@@ -5908,11 +5950,11 @@
       </c>
       <c r="V27" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>
-        <v>61.5</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hjwon\Desktop\딥러닝 스터디\2022_DeepLearningStudy\02_Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF026137-27EC-4521-ACA3-03A5C87CC396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA38C62-16DD-484B-B25D-AB66D94A4F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2923,7 +2923,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="B17" sqref="B17:V17"/>
     </sheetView>
   </sheetViews>
@@ -4431,8 +4431,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:V11"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>

--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blueb\OneDrive\바탕 화면\새 폴더\2022_DeepLearningStudy\02_Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886EF867-2B76-4A95-8FE3-54AF82627688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBB922F-C33F-497F-8F00-B6F9E067FBA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24" yWindow="84" windowWidth="15420" windowHeight="11292" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="84" windowWidth="15420" windowHeight="11292" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2923,8 +2923,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:U16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="17.399999999999999"/>
@@ -4431,7 +4431,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>

--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -5,11 +5,11 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rnjss\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rnjss\OneDrive\바탕 화면\딥러닝 스터디\2022_DeepLearningStudy\02_Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="17580" windowHeight="6480" activeTab="1"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="17580" windowHeight="6480" activeTab="2"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -26,28 +26,10 @@
     <x:t>맞음: O 틀림: X</x:t>
   </x:si>
   <x:si>
-    <x:t>3,4-(5)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>&lt;-평균</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,6-(4)</x:t>
-  </x:si>
-  <x:si>
     <x:t>1,2-(2)</x:t>
   </x:si>
   <x:si>
-    <x:t>3,4-(2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7,8-(5)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,4-(1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,6-(5)</x:t>
+    <x:t>1,2-(1)</x:t>
   </x:si>
   <x:si>
     <x:t>7,8-(3)</x:t>
@@ -56,37 +38,52 @@
     <x:t>3,4-(3)</x:t>
   </x:si>
   <x:si>
-    <x:t>5,6-(6)</x:t>
+    <x:t>5,6-(3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,6-(5)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,2-(3)</x:t>
   </x:si>
   <x:si>
     <x:t>1,2-(4)</x:t>
   </x:si>
   <x:si>
-    <x:t>5,6-(3)</x:t>
+    <x:t>5,6-(4)</x:t>
   </x:si>
   <x:si>
-    <x:t>3,4-(6)</x:t>
+    <x:t>3,4-(1)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,2-(3)</x:t>
+    <x:t>5,6-(6)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,4-(2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&lt;-평균</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,4-(4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,2-(5)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7,8-(5)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7,8-(2)</x:t>
   </x:si>
   <x:si>
     <x:t>5,6-(1)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,2-(5)</x:t>
+    <x:t>3,4-(5)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,2-(1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7,8-(2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,4-(4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,6-(2)</x:t>
+    <x:t>3,4-(6)</x:t>
   </x:si>
   <x:si>
     <x:t>7,8-(4)</x:t>
@@ -101,7 +98,121 @@
     <x:t>7,8-(1)</x:t>
   </x:si>
   <x:si>
+    <x:t>5,6-(2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이지원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>o</x:t>
+  </x:si>
+  <x:si>
+    <x:t>95%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>90%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김도희</x:t>
+  </x:si>
+  <x:si>
+    <x:t>85%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유하영</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이규리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설현기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>80%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정답률</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오정은</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이지우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김예림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하정원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X</x:t>
+  </x:si>
+  <x:si>
+    <x:t>권노희</x:t>
+  </x:si>
+  <x:si>
+    <x:t>윤희성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>안규호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김아름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>O</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>75%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최동석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>65%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>황유현</x:t>
+  </x:si>
+  <x:si>
     <x:t>김시현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강희정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정의진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>x</x:t>
   </x:si>
   <x:si>
     <x:t>이재홍</x:t>
@@ -110,124 +221,13 @@
     <x:t>이지수</x:t>
   </x:si>
   <x:si>
-    <x:t>황유현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정의진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강희정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>x</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이지원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이지우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유하영</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김아름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>O</x:t>
-  </x:si>
-  <x:si>
-    <x:t>안규호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정답률</x:t>
-  </x:si>
-  <x:si>
-    <x:t>권노희</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이규리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김예림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김도희</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하정원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오정은</x:t>
-  </x:si>
-  <x:si>
-    <x:t>윤희성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>o</x:t>
-  </x:si>
-  <x:si>
-    <x:t>총점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>90%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>95%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>85%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설현기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>80%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>75%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>60%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최동석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>65%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2주차 이론시험 채점표</x:t>
+    <x:t>1주차 이론시험 채점표</x:t>
   </x:si>
   <x:si>
     <x:t>3주차 이론시험 채점표</x:t>
   </x:si>
   <x:si>
-    <x:t>1주차 이론시험 채점표</x:t>
+    <x:t>2주차 이론시험 채점표</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1682,6 +1682,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1702,6 +1703,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1722,6 +1724,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1752,6 +1755,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1782,6 +1786,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1859,6 +1864,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1893,6 +1899,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1927,6 +1934,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1971,6 +1979,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2014,6 +2023,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2406,7 +2416,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:24">
       <x:c r="A1" s="14" t="s">
-        <x:v>68</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B1" s="15"/>
       <x:c r="C1" s="15"/>
@@ -2514,142 +2524,142 @@
     </x:row>
     <x:row r="5" spans="1:24">
       <x:c r="A5" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B5" s="3" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C5" s="3" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D5" s="3" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="B5" s="3" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C5" s="3" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="D5" s="3" t="s">
-        <x:v>40</x:v>
-      </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>42</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>28</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>63</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>45</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>30</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K5" s="3" t="s">
         <x:v>48</x:v>
       </x:c>
       <x:c r="L5" s="3" t="s">
-        <x:v>57</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="M5" s="3" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="N5" s="3" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="O5" s="3" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="P5" s="3" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="Q5" s="3" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="R5" s="3" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="S5" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="T5" s="3" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="U5" s="4" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="V5" s="4" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="W5" s="5" t="s">
         <x:v>38</x:v>
-      </x:c>
-      <x:c r="N5" s="3" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="O5" s="3" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="P5" s="3" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="Q5" s="3" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="R5" s="3" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="S5" s="3" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="T5" s="3" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="U5" s="4" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="V5" s="4" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="W5" s="5" t="s">
-        <x:v>41</x:v>
       </x:c>
       <x:c r="X5" s="1"/>
     </x:row>
     <x:row r="6" spans="1:24">
       <x:c r="A6" s="6" t="s">
-        <x:v>18</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B6" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C6" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D6" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E6" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F6" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G6" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H6" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I6" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J6" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="K6" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="L6" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M6" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="N6" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="O6" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="P6" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="Q6" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="R6" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="S6" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="T6" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="U6" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="V6" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="W6" s="8" t="str">
         <x:f>COUNTIF(B6:U6,"O")*5&amp;"%"</x:f>
@@ -2659,70 +2669,70 @@
     </x:row>
     <x:row r="7" spans="1:24">
       <x:c r="A7" s="6" t="s">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B7" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C7" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D7" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E7" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F7" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="G7" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H7" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="I7" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="J7" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="K7" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="L7" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="M7" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="N7" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="O7" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="P7" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="Q7" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="R7" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="S7" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="T7" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="U7" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="V7" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="W7" s="8" t="str">
         <x:f>COUNTIF(B7:U7,"O")*5&amp;"%"</x:f>
@@ -2732,70 +2742,70 @@
     </x:row>
     <x:row r="8" spans="1:24">
       <x:c r="A8" s="6" t="s">
-        <x:v>15</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B8" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C8" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D8" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E8" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F8" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G8" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H8" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="I8" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J8" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="K8" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="L8" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="M8" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="N8" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="O8" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="P8" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="Q8" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="R8" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="S8" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="T8" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="U8" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="V8" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="W8" s="8" t="str">
         <x:f>COUNTIF(B8:U8,"O")*5&amp;"%"</x:f>
@@ -2805,70 +2815,70 @@
     </x:row>
     <x:row r="9" spans="1:24">
       <x:c r="A9" s="6" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B9" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C9" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D9" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E9" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F9" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G9" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H9" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I9" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J9" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="K9" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="L9" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M9" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="N9" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="O9" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="P9" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="Q9" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="R9" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="S9" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="T9" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="U9" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="V9" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="W9" s="8" t="str">
         <x:f>COUNTIF(B9:U9,"O")*5&amp;"%"</x:f>
@@ -2878,70 +2888,70 @@
     </x:row>
     <x:row r="10" spans="1:24">
       <x:c r="A10" s="6" t="s">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B10" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C10" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D10" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E10" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F10" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G10" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H10" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="I10" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J10" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="K10" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="L10" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="M10" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="N10" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="O10" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="P10" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="Q10" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="R10" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="S10" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="T10" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="U10" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="V10" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="W10" s="8" t="str">
         <x:f>COUNTIF(B10:U10,"O")*5&amp;"%"</x:f>
@@ -2951,70 +2961,70 @@
     </x:row>
     <x:row r="11" spans="1:24">
       <x:c r="A11" s="6" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B11" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C11" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D11" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E11" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F11" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G11" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H11" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I11" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="J11" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="K11" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="L11" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M11" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="N11" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="O11" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="P11" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="Q11" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="R11" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="S11" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="T11" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="U11" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="V11" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="W11" s="8" t="str">
         <x:f>COUNTIF(B11:U11,"O")*5&amp;"%"</x:f>
@@ -3024,70 +3034,70 @@
     </x:row>
     <x:row r="12" spans="1:24">
       <x:c r="A12" s="6" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B12" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C12" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D12" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E12" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F12" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G12" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H12" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I12" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J12" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="K12" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="L12" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M12" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="N12" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="O12" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="P12" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="Q12" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="R12" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="S12" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="T12" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="U12" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="V12" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="W12" s="8" t="str">
         <x:f>COUNTIF(B12:U12,"O")*5&amp;"%"</x:f>
@@ -3097,70 +3107,70 @@
     </x:row>
     <x:row r="13" spans="1:24">
       <x:c r="A13" s="6" t="s">
-        <x:v>10</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B13" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C13" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D13" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E13" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F13" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G13" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H13" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I13" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J13" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="K13" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="L13" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M13" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="N13" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="O13" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="P13" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="Q13" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="R13" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="S13" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="T13" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="U13" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="V13" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="W13" s="8" t="str">
         <x:f>COUNTIF(B13:U13,"O")*5&amp;"%"</x:f>
@@ -3170,70 +3180,70 @@
     </x:row>
     <x:row r="14" spans="1:24">
       <x:c r="A14" s="6" t="s">
-        <x:v>20</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B14" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C14" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D14" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E14" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F14" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G14" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H14" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I14" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="J14" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="K14" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="L14" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M14" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="N14" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="O14" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="P14" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="Q14" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="R14" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="S14" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="T14" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="U14" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="V14" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="W14" s="8" t="str">
         <x:f>COUNTIF(B14:U14,"O")*5&amp;"%"</x:f>
@@ -3243,70 +3253,70 @@
     </x:row>
     <x:row r="15" spans="1:24">
       <x:c r="A15" s="6" t="s">
-        <x:v>1</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="K15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="L15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="N15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="O15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="P15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="Q15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="R15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="S15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="T15" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="U15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="V15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="W15" s="8" t="str">
         <x:f>COUNTIF(B15:U15,"O")*5&amp;"%"</x:f>
@@ -3316,70 +3326,70 @@
     </x:row>
     <x:row r="16" spans="1:24">
       <x:c r="A16" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B16" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C16" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D16" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E16" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F16" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G16" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H16" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I16" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J16" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="K16" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="L16" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M16" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="N16" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="O16" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="P16" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="Q16" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="R16" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="S16" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="T16" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="U16" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="V16" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="W16" s="8" t="str">
         <x:f>COUNTIF(B16:U16,"O")*5&amp;"%"</x:f>
@@ -3389,70 +3399,70 @@
     </x:row>
     <x:row r="17" spans="1:24">
       <x:c r="A17" s="6" t="s">
-        <x:v>21</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B17" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C17" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D17" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F17" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G17" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H17" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I17" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="J17" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="K17" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="L17" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="M17" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="N17" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="O17" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="P17" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="Q17" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="R17" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="S17" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="T17" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="U17" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="V17" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="W17" s="8" t="str">
         <x:f>COUNTIF(B17:U17,"O")*5&amp;"%"</x:f>
@@ -3462,70 +3472,70 @@
     </x:row>
     <x:row r="18" spans="1:24">
       <x:c r="A18" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B18" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C18" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D18" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E18" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F18" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G18" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H18" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I18" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J18" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="K18" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="L18" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M18" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="N18" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="O18" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="P18" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="Q18" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="R18" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="S18" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="T18" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="U18" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="V18" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="W18" s="8" t="str">
         <x:f>COUNTIF(B18:U18,"O")*5&amp;"%"</x:f>
@@ -3535,70 +3545,70 @@
     </x:row>
     <x:row r="19" spans="1:24">
       <x:c r="A19" s="6" t="s">
-        <x:v>3</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B19" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C19" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="J19" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="K19" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="L19" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M19" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="N19" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="O19" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="P19" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="Q19" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="R19" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="S19" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="T19" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="U19" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="V19" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="W19" s="8" t="str">
         <x:f>COUNTIF(B19:U19,"O")*5&amp;"%"</x:f>
@@ -3608,70 +3618,70 @@
     </x:row>
     <x:row r="20" spans="1:24">
       <x:c r="A20" s="6" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B20" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C20" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D20" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E20" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F20" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G20" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H20" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I20" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="J20" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="K20" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="L20" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M20" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="N20" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="O20" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="P20" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="Q20" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="R20" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="S20" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="T20" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="U20" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="V20" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="W20" s="8" t="str">
         <x:f>COUNTIF(B20:U20,"O")*5&amp;"%"</x:f>
@@ -3681,70 +3691,70 @@
     </x:row>
     <x:row r="21" spans="1:24">
       <x:c r="A21" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B21" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C21" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D21" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E21" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F21" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G21" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H21" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I21" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J21" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="K21" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="L21" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M21" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="N21" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="O21" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="P21" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="Q21" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="R21" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="S21" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="T21" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="U21" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="V21" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="W21" s="8" t="str">
         <x:f>COUNTIF(B21:U21,"O")*5&amp;"%"</x:f>
@@ -3754,70 +3764,70 @@
     </x:row>
     <x:row r="22" spans="1:24">
       <x:c r="A22" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B22" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C22" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D22" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E22" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F22" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G22" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H22" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I22" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J22" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="K22" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="L22" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M22" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="N22" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="O22" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="P22" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="Q22" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="R22" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="S22" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="T22" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="U22" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="V22" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="W22" s="8" t="str">
         <x:f>COUNTIF(B22:U22,"O")*5&amp;"%"</x:f>
@@ -3827,70 +3837,70 @@
     </x:row>
     <x:row r="23" spans="1:24">
       <x:c r="A23" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B23" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C23" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D23" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E23" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F23" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G23" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H23" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I23" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J23" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="K23" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="L23" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M23" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="N23" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="O23" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="P23" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="Q23" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="R23" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="S23" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="T23" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="U23" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="V23" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="W23" s="8" t="str">
         <x:f>COUNTIF(B23:U23,"O")*5&amp;"%"</x:f>
@@ -3900,70 +3910,70 @@
     </x:row>
     <x:row r="24" spans="1:24">
       <x:c r="A24" s="6" t="s">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B24" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C24" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D24" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E24" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F24" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="G24" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H24" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="I24" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J24" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="K24" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="L24" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="M24" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="N24" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="O24" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="P24" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="Q24" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="R24" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="S24" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="T24" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="U24" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="V24" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="W24" s="8" t="str">
         <x:f>COUNTIF(B24:U24,"O")*5&amp;"%"</x:f>
@@ -3973,70 +3983,70 @@
     </x:row>
     <x:row r="25" spans="1:24">
       <x:c r="A25" s="6" t="s">
-        <x:v>6</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B25" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C25" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D25" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E25" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F25" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G25" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H25" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I25" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J25" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="K25" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="L25" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M25" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="N25" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="O25" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="P25" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="Q25" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="R25" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="S25" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="T25" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="U25" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="V25" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="W25" s="8" t="str">
         <x:f>COUNTIF(B25:U25,"O")*5&amp;"%"</x:f>
@@ -4046,70 +4056,70 @@
     </x:row>
     <x:row r="26" spans="1:24">
       <x:c r="A26" s="6" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B26" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C26" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D26" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E26" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F26" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G26" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H26" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="I26" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J26" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="K26" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="L26" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="M26" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="N26" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="O26" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="P26" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="Q26" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="R26" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="S26" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="T26" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="U26" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="V26" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="W26" s="8" t="str">
         <x:f>COUNTIF(B26:U26,"O")*5&amp;"%"</x:f>
@@ -4119,7 +4129,7 @@
     </x:row>
     <x:row r="27" spans="1:24">
       <x:c r="A27" s="9" t="s">
-        <x:v>51</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B27" s="10">
         <x:f>COUNTIF(B6:B26,"O")*5</x:f>
@@ -4210,7 +4220,7 @@
         <x:v>85.75</x:v>
       </x:c>
       <x:c r="X27" s="7" t="s">
-        <x:v>2</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4218,7 +4228,7 @@
     <x:mergeCell ref="A1:W3"/>
     <x:mergeCell ref="A4:W4"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -4228,7 +4238,7 @@
   <x:sheetPr codeName="Sheet2"/>
   <x:dimension ref="A1:W27"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:selection activeCell="V15" activeCellId="0" sqref="V15:V15"/>
     </x:sheetView>
   </x:sheetViews>
@@ -4236,7 +4246,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:23">
       <x:c r="A1" s="14" t="s">
-        <x:v>66</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B1" s="15"/>
       <x:c r="C1" s="15"/>
@@ -4340,78 +4350,78 @@
     </x:row>
     <x:row r="5" spans="1:23" ht="17.149999999999999">
       <x:c r="A5" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B5" s="3" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C5" s="3" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D5" s="3" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="B5" s="3" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C5" s="3" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="D5" s="3" t="s">
-        <x:v>40</x:v>
-      </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>42</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>28</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>63</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>45</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>30</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K5" s="3" t="s">
         <x:v>48</x:v>
       </x:c>
       <x:c r="L5" s="3" t="s">
-        <x:v>57</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="M5" s="3" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="N5" s="3" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="O5" s="3" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="P5" s="3" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="Q5" s="3" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="R5" s="3" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="S5" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="T5" s="3" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="U5" s="4" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="V5" s="4" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="W5" s="5" t="s">
         <x:v>38</x:v>
-      </x:c>
-      <x:c r="N5" s="3" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="O5" s="3" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="P5" s="3" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="Q5" s="3" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="R5" s="3" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="S5" s="3" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="T5" s="3" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="U5" s="4" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="V5" s="4" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="W5" s="5" t="s">
-        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:23">
       <x:c r="A6" s="6" t="s">
-        <x:v>18</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B6" s="7"/>
       <x:c r="C6" s="7"/>
@@ -4441,70 +4451,70 @@
     </x:row>
     <x:row r="7" spans="1:23">
       <x:c r="A7" s="6" t="s">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B7" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C7" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D7" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E7" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F7" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G7" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H7" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I7" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J7" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="K7" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="L7" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M7" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="N7" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="O7" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="P7" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="Q7" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="R7" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="S7" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="T7" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="U7" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="V7" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="W7" s="8" t="str">
         <x:f>COUNTIF(B7:U7,"O")*5&amp;"%"</x:f>
@@ -4513,70 +4523,70 @@
     </x:row>
     <x:row r="8" spans="1:23">
       <x:c r="A8" s="6" t="s">
-        <x:v>15</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B8" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C8" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D8" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E8" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F8" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G8" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H8" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I8" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J8" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="K8" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="L8" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M8" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="N8" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="O8" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="P8" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="Q8" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="R8" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="S8" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="T8" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="U8" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="V8" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="W8" s="8" t="str">
         <x:f>COUNTIF(B8:U8,"O")*5&amp;"%"</x:f>
@@ -4585,70 +4595,70 @@
     </x:row>
     <x:row r="9" spans="1:23">
       <x:c r="A9" s="6" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B9" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C9" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D9" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E9" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F9" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G9" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H9" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I9" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J9" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="K9" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="L9" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M9" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="N9" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="O9" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="P9" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="Q9" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="R9" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="S9" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="T9" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="U9" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="V9" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="W9" s="8" t="str">
         <x:f>COUNTIF(B9:U9,"O")*5&amp;"%"</x:f>
@@ -4657,7 +4667,7 @@
     </x:row>
     <x:row r="10" spans="1:23">
       <x:c r="A10" s="6" t="s">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B10" s="7"/>
       <x:c r="C10" s="7"/>
@@ -4687,70 +4697,70 @@
     </x:row>
     <x:row r="11" spans="1:23">
       <x:c r="A11" s="6" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B11" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C11" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D11" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E11" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F11" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G11" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H11" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I11" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J11" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="K11" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="L11" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M11" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="N11" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="O11" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="P11" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="Q11" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="R11" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="S11" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="T11" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="U11" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="V11" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="W11" s="8" t="str">
         <x:f>COUNTIF(B11:U11,"O")*5&amp;"%"</x:f>
@@ -4759,70 +4769,70 @@
     </x:row>
     <x:row r="12" spans="1:23">
       <x:c r="A12" s="6" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B12" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C12" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D12" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E12" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F12" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G12" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H12" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I12" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J12" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="K12" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="L12" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M12" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="N12" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="O12" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="P12" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="Q12" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="R12" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="S12" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="T12" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="U12" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="V12" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="W12" s="8" t="str">
         <x:f>COUNTIF(B12:U12,"O")*5&amp;"%"</x:f>
@@ -4831,70 +4841,70 @@
     </x:row>
     <x:row r="13" spans="1:23">
       <x:c r="A13" s="6" t="s">
-        <x:v>10</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B13" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C13" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D13" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E13" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F13" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G13" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H13" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="I13" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="J13" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="K13" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="L13" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="M13" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="N13" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="O13" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="P13" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="Q13" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="R13" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="S13" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="T13" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="U13" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="V13" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="W13" s="8" t="str">
         <x:f>COUNTIF(B13:U13,"O")*5&amp;"%"</x:f>
@@ -4903,7 +4913,7 @@
     </x:row>
     <x:row r="14" spans="1:23">
       <x:c r="A14" s="6" t="s">
-        <x:v>20</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B14" s="7"/>
       <x:c r="C14" s="7"/>
@@ -4933,70 +4943,70 @@
     </x:row>
     <x:row r="15" spans="1:23">
       <x:c r="A15" s="6" t="s">
-        <x:v>1</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="K15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="L15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="N15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="O15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="P15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="Q15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="R15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="S15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="T15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="U15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="V15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="W15" s="8" t="str">
         <x:f>COUNTIF(B15:U15,"O")*5&amp;"%"</x:f>
@@ -5005,7 +5015,7 @@
     </x:row>
     <x:row r="16" spans="1:23">
       <x:c r="A16" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B16" s="7"/>
       <x:c r="C16" s="7"/>
@@ -5035,7 +5045,7 @@
     </x:row>
     <x:row r="17" spans="1:23">
       <x:c r="A17" s="6" t="s">
-        <x:v>21</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B17" s="7"/>
       <x:c r="C17" s="7"/>
@@ -5065,7 +5075,7 @@
     </x:row>
     <x:row r="18" spans="1:23">
       <x:c r="A18" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B18" s="7"/>
       <x:c r="C18" s="7"/>
@@ -5095,70 +5105,70 @@
     </x:row>
     <x:row r="19" spans="1:23">
       <x:c r="A19" s="6" t="s">
-        <x:v>3</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B19" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C19" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J19" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="K19" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="L19" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M19" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="N19" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="O19" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="P19" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="Q19" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="R19" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="S19" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="T19" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="U19" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="V19" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="W19" s="8" t="str">
         <x:f>COUNTIF(B19:U19,"O")*5&amp;"%"</x:f>
@@ -5167,70 +5177,70 @@
     </x:row>
     <x:row r="20" spans="1:23">
       <x:c r="A20" s="6" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B20" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C20" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D20" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E20" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F20" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G20" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H20" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="I20" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J20" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="K20" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="L20" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="M20" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="N20" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="O20" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="P20" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="Q20" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="R20" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="S20" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="T20" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="U20" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="V20" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="W20" s="8" t="str">
         <x:f>COUNTIF(B20:U20,"O")*5&amp;"%"</x:f>
@@ -5242,67 +5252,67 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B21" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C21" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D21" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E21" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F21" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="G21" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H21" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I21" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="J21" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="K21" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="L21" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="M21" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="N21" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="O21" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="P21" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="Q21" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="R21" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="S21" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="T21" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="U21" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="V21" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="W21" s="8" t="str">
         <x:f>COUNTIF(B21:U21,"O")*5&amp;"%"</x:f>
@@ -5311,70 +5321,70 @@
     </x:row>
     <x:row r="22" spans="1:23">
       <x:c r="A22" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B22" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C22" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D22" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E22" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F22" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G22" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H22" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I22" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J22" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="K22" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="L22" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M22" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="N22" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="O22" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="P22" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="Q22" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="R22" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="S22" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="T22" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="U22" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="V22" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="W22" s="8" t="str">
         <x:f>COUNTIF(B22:U22,"O")*5&amp;"%"</x:f>
@@ -5383,70 +5393,70 @@
     </x:row>
     <x:row r="23" spans="1:23">
       <x:c r="A23" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B23" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C23" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D23" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E23" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F23" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G23" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H23" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I23" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J23" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="K23" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="L23" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M23" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="N23" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="O23" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="P23" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="Q23" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="R23" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="S23" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="T23" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="U23" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="V23" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="W23" s="8" t="str">
         <x:f>COUNTIF(B23:U23,"O")*5&amp;"%"</x:f>
@@ -5455,70 +5465,70 @@
     </x:row>
     <x:row r="24" spans="1:23">
       <x:c r="A24" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B24" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C24" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D24" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E24" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F24" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G24" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H24" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="I24" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J24" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="K24" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="L24" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="M24" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="N24" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="O24" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="P24" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="Q24" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="R24" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="S24" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="T24" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="U24" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="V24" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="W24" s="8" t="str">
         <x:f>COUNTIF(B24:U24,"O")*5&amp;"%"</x:f>
@@ -5527,70 +5537,70 @@
     </x:row>
     <x:row r="25" spans="1:23">
       <x:c r="A25" s="6" t="s">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B25" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C25" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D25" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E25" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F25" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G25" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H25" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I25" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J25" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="K25" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="L25" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="M25" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="N25" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="O25" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="P25" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="Q25" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="R25" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="S25" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="T25" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="U25" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="V25" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="W25" s="8" t="str">
         <x:f>COUNTIF(B25:U25,"O")*5&amp;"%"</x:f>
@@ -5599,7 +5609,7 @@
     </x:row>
     <x:row r="26" spans="1:23">
       <x:c r="A26" s="6" t="s">
-        <x:v>6</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B26" s="7"/>
       <x:c r="C26" s="7"/>
@@ -5629,7 +5639,7 @@
     </x:row>
     <x:row r="27" spans="1:23" ht="17.149999999999999">
       <x:c r="A27" s="9" t="s">
-        <x:v>51</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B27" s="10">
         <x:f>COUNTIF(B6:B26,"O")*5</x:f>
@@ -5725,7 +5735,7 @@
     <x:mergeCell ref="A1:W3"/>
     <x:mergeCell ref="A4:W4"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -5735,8 +5745,8 @@
   <x:sheetPr codeName="Sheet3"/>
   <x:dimension ref="A1:W27"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="K23" activeCellId="0" sqref="K23:K23"/>
+    <x:sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="J20" activeCellId="0" sqref="J20:J20"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.399999999999999"/>
@@ -5847,141 +5857,141 @@
     </x:row>
     <x:row r="5" spans="1:23" ht="17.149999999999999">
       <x:c r="A5" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B5" s="3" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C5" s="3" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D5" s="3" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="B5" s="3" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C5" s="3" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="D5" s="3" t="s">
-        <x:v>40</x:v>
-      </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>42</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>28</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>63</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>45</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>30</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K5" s="3" t="s">
         <x:v>48</x:v>
       </x:c>
       <x:c r="L5" s="3" t="s">
-        <x:v>57</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="M5" s="3" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="N5" s="3" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="O5" s="3" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="P5" s="3" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="Q5" s="3" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="R5" s="3" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="S5" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="T5" s="3" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="U5" s="4" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="V5" s="4" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="W5" s="5" t="s">
         <x:v>38</x:v>
-      </x:c>
-      <x:c r="N5" s="3" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="O5" s="3" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="P5" s="3" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="Q5" s="3" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="R5" s="3" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="S5" s="3" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="T5" s="3" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="U5" s="4" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="V5" s="4" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="W5" s="5" t="s">
-        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:23">
       <x:c r="A6" s="6" t="s">
-        <x:v>18</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B6" s="13" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C6" s="13" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D6" s="13" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E6" s="13" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F6" s="13" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G6" s="13" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H6" s="13" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I6" s="13" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J6" s="13" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="K6" s="13" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="L6" s="13" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M6" s="13" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="N6" s="13" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="O6" s="13" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="P6" s="13" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="Q6" s="13" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="R6" s="13" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="S6" s="13" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="T6" s="13" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="U6" s="13" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="V6" s="13" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="W6" s="8" t="str">
         <x:f>COUNTIF(B6:U6,"O")*5&amp;"%"</x:f>
@@ -5990,7 +6000,7 @@
     </x:row>
     <x:row r="7" spans="1:23">
       <x:c r="A7" s="6" t="s">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B7" s="7"/>
       <x:c r="C7" s="7"/>
@@ -6020,70 +6030,70 @@
     </x:row>
     <x:row r="8" spans="1:23">
       <x:c r="A8" s="6" t="s">
-        <x:v>15</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B8" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C8" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D8" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E8" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F8" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G8" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H8" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I8" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J8" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="K8" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="L8" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M8" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="N8" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="O8" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="P8" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="Q8" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="R8" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="S8" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="T8" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="U8" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="V8" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="W8" s="8" t="str">
         <x:f>COUNTIF(B8:U8,"O")*5&amp;"%"</x:f>
@@ -6092,70 +6102,70 @@
     </x:row>
     <x:row r="9" spans="1:23">
       <x:c r="A9" s="6" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B9" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C9" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D9" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E9" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F9" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G9" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H9" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I9" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J9" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="K9" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="L9" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M9" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="N9" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="O9" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="P9" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="Q9" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="R9" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="S9" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="T9" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="U9" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="V9" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="W9" s="8" t="str">
         <x:f>COUNTIF(B9:U9,"O")*5&amp;"%"</x:f>
@@ -6164,79 +6174,79 @@
     </x:row>
     <x:row r="10" spans="1:23">
       <x:c r="A10" s="6" t="s">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B10" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C10" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D10" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E10" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F10" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G10" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H10" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="I10" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J10" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="K10" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="L10" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="M10" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="N10" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="O10" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="P10" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="Q10" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="R10" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="S10" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="T10" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="U10" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="V10" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="W10" s="8" t="str">
         <x:f>COUNTIF(B10:U10,"O")*5&amp;"%"</x:f>
-        <x:v>100%</x:v>
+        <x:v>95%</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:23">
       <x:c r="A11" s="6" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B11" s="7"/>
       <x:c r="C11" s="7"/>
@@ -6266,7 +6276,7 @@
     </x:row>
     <x:row r="12" spans="1:23">
       <x:c r="A12" s="6" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B12" s="7"/>
       <x:c r="C12" s="7"/>
@@ -6296,7 +6306,7 @@
     </x:row>
     <x:row r="13" spans="1:23">
       <x:c r="A13" s="6" t="s">
-        <x:v>10</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B13" s="7"/>
       <x:c r="C13" s="7"/>
@@ -6326,70 +6336,70 @@
     </x:row>
     <x:row r="14" spans="1:23">
       <x:c r="A14" s="6" t="s">
-        <x:v>20</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B14" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C14" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D14" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E14" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F14" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G14" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="H14" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="I14" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J14" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="K14" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="L14" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="M14" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="N14" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="O14" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="P14" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="Q14" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="R14" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="S14" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="T14" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="U14" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="V14" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="W14" s="8" t="str">
         <x:f>COUNTIF(B14:U14,"O")*5&amp;"%"</x:f>
@@ -6398,70 +6408,70 @@
     </x:row>
     <x:row r="15" spans="1:23">
       <x:c r="A15" s="6" t="s">
-        <x:v>1</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="K15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="L15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="N15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="O15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="P15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="Q15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="R15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="S15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="T15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="U15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="V15" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="W15" s="8" t="str">
         <x:f>COUNTIF(B15:U15,"O")*5&amp;"%"</x:f>
@@ -6470,70 +6480,70 @@
     </x:row>
     <x:row r="16" spans="1:23">
       <x:c r="A16" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B16" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C16" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D16" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E16" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F16" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G16" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H16" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="I16" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J16" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="K16" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="L16" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="M16" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="N16" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="O16" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="P16" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="Q16" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="R16" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="S16" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="T16" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="U16" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="V16" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="W16" s="8" t="str">
         <x:f>COUNTIF(B16:U16,"O")*5&amp;"%"</x:f>
@@ -6542,7 +6552,7 @@
     </x:row>
     <x:row r="17" spans="1:23">
       <x:c r="A17" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B17" s="7"/>
       <x:c r="C17" s="7"/>
@@ -6572,70 +6582,70 @@
     </x:row>
     <x:row r="18" spans="1:23">
       <x:c r="A18" s="6" t="s">
-        <x:v>21</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B18" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C18" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D18" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E18" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F18" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G18" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H18" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I18" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="J18" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="K18" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="L18" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M18" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="N18" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="O18" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="P18" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="Q18" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="R18" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="S18" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="T18" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="U18" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="V18" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="W18" s="8" t="str">
         <x:f>COUNTIF(B18:U18,"O")*5&amp;"%"</x:f>
@@ -6644,68 +6654,68 @@
     </x:row>
     <x:row r="19" spans="1:23">
       <x:c r="A19" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B19" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C19" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J19" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="K19" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="L19" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="M19" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="N19" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="O19" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="P19" s="7"/>
       <x:c r="Q19" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="R19" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="S19" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="T19" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="U19" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="V19" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="W19" s="8" t="str">
         <x:f>COUNTIF(B19:U19,"O")*5&amp;"%"</x:f>
@@ -6714,68 +6724,68 @@
     </x:row>
     <x:row r="20" spans="1:23">
       <x:c r="A20" s="6" t="s">
-        <x:v>3</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B20" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C20" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D20" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E20" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F20" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G20" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H20" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I20" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J20" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="K20" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="L20" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="M20" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="N20" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="O20" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="P20" s="7"/>
       <x:c r="Q20" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="R20" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="S20" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="T20" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="U20" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="V20" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="W20" s="8" t="str">
         <x:f>COUNTIF(B20:U20,"O")*5&amp;"%"</x:f>
@@ -6784,70 +6794,70 @@
     </x:row>
     <x:row r="21" spans="1:23">
       <x:c r="A21" s="6" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B21" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C21" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D21" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E21" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F21" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G21" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H21" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="I21" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J21" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="K21" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="L21" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="M21" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="N21" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="O21" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="P21" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="Q21" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="R21" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="S21" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="T21" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="U21" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="V21" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="W21" s="8" t="str">
         <x:f>COUNTIF(B21:U21,"O")*5&amp;"%"</x:f>
@@ -6856,7 +6866,7 @@
     </x:row>
     <x:row r="22" spans="1:23">
       <x:c r="A22" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B22" s="7"/>
       <x:c r="C22" s="7"/>
@@ -6886,68 +6896,68 @@
     </x:row>
     <x:row r="23" spans="1:23">
       <x:c r="A23" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B23" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C23" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D23" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E23" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F23" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G23" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H23" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I23" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J23" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="K23" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="L23" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M23" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="N23" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="O23" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="P23" s="12"/>
       <x:c r="Q23" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="R23" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="S23" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="T23" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="U23" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="V23" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="W23" s="8" t="str">
         <x:f>COUNTIF(B23:U23,"O")*5&amp;"%"</x:f>
@@ -6956,68 +6966,68 @@
     </x:row>
     <x:row r="24" spans="1:23">
       <x:c r="A24" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B24" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C24" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D24" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E24" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F24" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G24" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H24" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I24" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J24" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="K24" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="L24" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M24" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="N24" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="O24" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="P24" s="7"/>
       <x:c r="Q24" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="R24" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="S24" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="T24" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="U24" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="V24" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="W24" s="8" t="str">
         <x:f>COUNTIF(B24:U24,"O")*5&amp;"%"</x:f>
@@ -7026,70 +7036,70 @@
     </x:row>
     <x:row r="25" spans="1:23">
       <x:c r="A25" s="6" t="s">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B25" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C25" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D25" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E25" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F25" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G25" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H25" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I25" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J25" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="K25" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="L25" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M25" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="N25" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="O25" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="P25" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="Q25" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="R25" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="S25" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="T25" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="U25" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="V25" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="W25" s="8" t="str">
         <x:f>COUNTIF(B25:U25,"O")*5&amp;"%"</x:f>
@@ -7098,7 +7108,7 @@
     </x:row>
     <x:row r="26" spans="1:23">
       <x:c r="A26" s="6" t="s">
-        <x:v>6</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B26" s="7"/>
       <x:c r="C26" s="7"/>
@@ -7128,7 +7138,7 @@
     </x:row>
     <x:row r="27" spans="1:23" ht="17.149999999999999">
       <x:c r="A27" s="9" t="s">
-        <x:v>51</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B27" s="10">
         <x:f>COUNTIF(B7:B26,"O")*5</x:f>
@@ -7144,7 +7154,7 @@
       </x:c>
       <x:c r="E27" s="10">
         <x:f>COUNTIF(E6:E26,"O")*5</x:f>
-        <x:v>70</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F27" s="10">
         <x:f>COUNTIF(F6:F26,"O")*5</x:f>
@@ -7216,7 +7226,7 @@
       </x:c>
       <x:c r="W27" s="11">
         <x:f>SUM(B27:U27)/20</x:f>
-        <x:v>61.75</x:v>
+        <x:v>61.5</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -7224,7 +7234,7 @@
     <x:mergeCell ref="A1:W3"/>
     <x:mergeCell ref="A4:W4"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fileVersion appName="HCell" lastEdited="11.0" lowestEdited="11.0" rupBuild="0.4749"/>
+  <x:fileVersion appName="HCell" lastEdited="10.0" lowestEdited="10.0" rupBuild="0.8325"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rnjss\OneDrive\바탕 화면\딥러닝 스터디\2022_DeepLearningStudy\02_Test_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82108\OneDrive\바탕 화면\DeepLearning_Study\2022_DeepLearningStudy\02_Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="17580" windowHeight="6480" activeTab="2"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="18940" windowHeight="7610" activeTab="2"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -21,45 +21,189 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="69">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="69">
+  <x:si>
+    <x:t>3주차 이론시험 채점표</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1주차 이론시험 채점표</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2주차 이론시험 채점표</x:t>
+  </x:si>
   <x:si>
     <x:t>맞음: O 틀림: X</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최동석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>90%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이지우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>윤희성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오정은</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정답률</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김도희</x:t>
+  </x:si>
+  <x:si>
+    <x:t>80%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하정원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김예림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이지원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>o</x:t>
+  </x:si>
+  <x:si>
+    <x:t>85%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이규리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>안규호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>95%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유하영</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X</x:t>
+  </x:si>
+  <x:si>
+    <x:t>권노희</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김아름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>O</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설현기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>75%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강희정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>65%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김시현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>황유현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이지수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>x</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이재홍</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정의진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,6-(2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7,8-(6)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,4-(6)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7,8-(1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7,8-(4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,6-(6)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,6-(4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7,8-(3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,6-(5)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,4-(1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,2-(1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,4-(3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,2-(3)</x:t>
   </x:si>
   <x:si>
     <x:t>1,2-(2)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,2-(1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7,8-(3)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,4-(3)</x:t>
-  </x:si>
-  <x:si>
     <x:t>5,6-(3)</x:t>
   </x:si>
   <x:si>
-    <x:t>5,6-(5)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,2-(3)</x:t>
-  </x:si>
-  <x:si>
     <x:t>1,2-(4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,6-(4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,4-(1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,6-(6)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,4-(2)</x:t>
   </x:si>
   <x:si>
     <x:t>&lt;-평균</x:t>
@@ -68,166 +212,22 @@
     <x:t>3,4-(4)</x:t>
   </x:si>
   <x:si>
+    <x:t>5,6-(1)</x:t>
+  </x:si>
+  <x:si>
     <x:t>1,2-(5)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,4-(5)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,4-(2)</x:t>
   </x:si>
   <x:si>
     <x:t>7,8-(5)</x:t>
   </x:si>
   <x:si>
     <x:t>7,8-(2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,6-(1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,4-(5)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,4-(6)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7,8-(4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>100%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7,8-(6)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7,8-(1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,6-(2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이지원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>o</x:t>
-  </x:si>
-  <x:si>
-    <x:t>95%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>90%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김도희</x:t>
-  </x:si>
-  <x:si>
-    <x:t>85%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유하영</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이규리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설현기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>80%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정답률</x:t>
-  </x:si>
-  <x:si>
-    <x:t>총점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오정은</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이지우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김예림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하정원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X</x:t>
-  </x:si>
-  <x:si>
-    <x:t>권노희</x:t>
-  </x:si>
-  <x:si>
-    <x:t>윤희성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>안규호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김아름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>O</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>75%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최동석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>60%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>65%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>황유현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김시현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강희정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정의진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>x</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이재홍</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이지수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1주차 이론시험 채점표</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3주차 이론시험 채점표</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2주차 이론시험 채점표</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -317,11 +317,26 @@
       <x:sz val="11"/>
       <x:color rgb="ffff0000"/>
     </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="18"/>
-      <x:color rgb="ff44546a"/>
-    </x:font>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="18"/>
+          <x:color rgb="ff44546a"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="18"/>
+          <x:color rgb="ff44546a"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -1682,7 +1697,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1703,7 +1717,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1724,7 +1737,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1755,7 +1767,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1786,7 +1797,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1864,7 +1874,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1899,7 +1908,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1934,7 +1942,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1979,7 +1986,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2023,7 +2029,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2416,7 +2421,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:24">
       <x:c r="A1" s="14" t="s">
-        <x:v>66</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="15"/>
       <x:c r="C1" s="15"/>
@@ -2496,7 +2501,7 @@
     </x:row>
     <x:row r="4" spans="1:24">
       <x:c r="A4" s="20" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B4" s="21"/>
       <x:c r="C4" s="21"/>
@@ -2524,142 +2529,142 @@
     </x:row>
     <x:row r="5" spans="1:24">
       <x:c r="A5" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>60</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D5" s="3" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E5" s="3" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F5" s="3" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G5" s="3" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H5" s="3" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I5" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="J5" s="3" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="K5" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="L5" s="3" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="M5" s="3" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="N5" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="O5" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="P5" s="3" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="D5" s="3" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="E5" s="3" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="F5" s="3" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="G5" s="3" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="H5" s="3" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="I5" s="3" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="J5" s="3" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="K5" s="3" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="L5" s="3" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="M5" s="3" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="N5" s="3" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="O5" s="3" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="P5" s="3" t="s">
-        <x:v>64</x:v>
-      </x:c>
       <x:c r="Q5" s="3" t="s">
-        <x:v>59</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="R5" s="3" t="s">
-        <x:v>61</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="S5" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="T5" s="3" t="s">
-        <x:v>44</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="U5" s="4" t="s">
-        <x:v>40</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="V5" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="W5" s="5" t="s">
-        <x:v>38</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="X5" s="1"/>
     </x:row>
     <x:row r="6" spans="1:24">
       <x:c r="A6" s="6" t="s">
-        <x:v>2</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B6" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C6" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D6" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E6" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F6" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G6" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H6" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I6" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J6" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K6" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L6" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="M6" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="N6" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O6" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="P6" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="Q6" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="R6" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="S6" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="T6" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="U6" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="V6" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="W6" s="8" t="str">
         <x:f>COUNTIF(B6:U6,"O")*5&amp;"%"</x:f>
@@ -2669,70 +2674,70 @@
     </x:row>
     <x:row r="7" spans="1:24">
       <x:c r="A7" s="6" t="s">
-        <x:v>1</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B7" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C7" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D7" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F7" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G7" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H7" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="I7" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="J7" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="K7" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="L7" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="M7" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="N7" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="O7" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="P7" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="Q7" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="R7" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="S7" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="T7" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="U7" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="V7" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="W7" s="8" t="str">
         <x:f>COUNTIF(B7:U7,"O")*5&amp;"%"</x:f>
@@ -2742,70 +2747,70 @@
     </x:row>
     <x:row r="8" spans="1:24">
       <x:c r="A8" s="6" t="s">
-        <x:v>7</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B8" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C8" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D8" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E8" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F8" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G8" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H8" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I8" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J8" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="K8" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="L8" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="M8" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="N8" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="O8" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="P8" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="Q8" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="R8" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="S8" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="T8" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="U8" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="V8" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="W8" s="8" t="str">
         <x:f>COUNTIF(B8:U8,"O")*5&amp;"%"</x:f>
@@ -2815,70 +2820,70 @@
     </x:row>
     <x:row r="9" spans="1:24">
       <x:c r="A9" s="6" t="s">
-        <x:v>8</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E9" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G9" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H9" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="M9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="N9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="P9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="Q9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="R9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="S9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="T9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="U9" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="V9" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="W9" s="8" t="str">
         <x:f>COUNTIF(B9:U9,"O")*5&amp;"%"</x:f>
@@ -2888,70 +2893,70 @@
     </x:row>
     <x:row r="10" spans="1:24">
       <x:c r="A10" s="6" t="s">
-        <x:v>15</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E10" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="K10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="L10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="M10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="N10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="O10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="P10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="Q10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="R10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="S10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="T10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="U10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="V10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="W10" s="8" t="str">
         <x:f>COUNTIF(B10:U10,"O")*5&amp;"%"</x:f>
@@ -2961,70 +2966,70 @@
     </x:row>
     <x:row r="11" spans="1:24">
       <x:c r="A11" s="6" t="s">
-        <x:v>10</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C11" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D11" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F11" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I11" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J11" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="M11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="N11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="P11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="Q11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="R11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="S11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="T11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="U11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="V11" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="W11" s="8" t="str">
         <x:f>COUNTIF(B11:U11,"O")*5&amp;"%"</x:f>
@@ -3034,70 +3039,70 @@
     </x:row>
     <x:row r="12" spans="1:24">
       <x:c r="A12" s="6" t="s">
-        <x:v>12</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C12" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="M12" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="N12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="P12" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="Q12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="R12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="S12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="T12" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="U12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="V12" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="W12" s="8" t="str">
         <x:f>COUNTIF(B12:U12,"O")*5&amp;"%"</x:f>
@@ -3107,70 +3112,70 @@
     </x:row>
     <x:row r="13" spans="1:24">
       <x:c r="A13" s="6" t="s">
-        <x:v>4</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B13" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C13" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D13" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E13" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F13" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G13" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H13" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I13" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J13" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K13" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L13" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="M13" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="N13" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O13" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="P13" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="Q13" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="R13" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="S13" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="T13" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="U13" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="V13" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="W13" s="8" t="str">
         <x:f>COUNTIF(B13:U13,"O")*5&amp;"%"</x:f>
@@ -3180,70 +3185,70 @@
     </x:row>
     <x:row r="14" spans="1:24">
       <x:c r="A14" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B14" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C14" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D14" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E14" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F14" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G14" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H14" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I14" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J14" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K14" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="L14" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="M14" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="N14" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="O14" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="P14" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="Q14" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="R14" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="S14" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="T14" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="U14" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="V14" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="W14" s="8" t="str">
         <x:f>COUNTIF(B14:U14,"O")*5&amp;"%"</x:f>
@@ -3253,70 +3258,70 @@
     </x:row>
     <x:row r="15" spans="1:24">
       <x:c r="A15" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="M15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="N15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="P15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="Q15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="R15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="S15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="T15" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="U15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="V15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="W15" s="8" t="str">
         <x:f>COUNTIF(B15:U15,"O")*5&amp;"%"</x:f>
@@ -3326,70 +3331,70 @@
     </x:row>
     <x:row r="16" spans="1:24">
       <x:c r="A16" s="6" t="s">
-        <x:v>18</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B16" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C16" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D16" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E16" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F16" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G16" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H16" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I16" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J16" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K16" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L16" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="M16" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="N16" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O16" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="P16" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="Q16" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="R16" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="S16" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="T16" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="U16" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="V16" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="W16" s="8" t="str">
         <x:f>COUNTIF(B16:U16,"O")*5&amp;"%"</x:f>
@@ -3399,70 +3404,70 @@
     </x:row>
     <x:row r="17" spans="1:24">
       <x:c r="A17" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B17" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C17" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D17" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E17" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F17" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G17" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H17" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I17" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J17" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K17" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L17" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="M17" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="N17" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O17" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="P17" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="Q17" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="R17" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="S17" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="T17" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="U17" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="V17" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="W17" s="8" t="str">
         <x:f>COUNTIF(B17:U17,"O")*5&amp;"%"</x:f>
@@ -3472,70 +3477,70 @@
     </x:row>
     <x:row r="18" spans="1:24">
       <x:c r="A18" s="6" t="s">
-        <x:v>5</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C18" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E18" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F18" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="M18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="N18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="P18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="Q18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="R18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="S18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="T18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="U18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="V18" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="W18" s="8" t="str">
         <x:f>COUNTIF(B18:U18,"O")*5&amp;"%"</x:f>
@@ -3545,70 +3550,70 @@
     </x:row>
     <x:row r="19" spans="1:24">
       <x:c r="A19" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="M19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="N19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="P19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="Q19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="R19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="S19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="T19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="U19" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="V19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="W19" s="8" t="str">
         <x:f>COUNTIF(B19:U19,"O")*5&amp;"%"</x:f>
@@ -3618,70 +3623,70 @@
     </x:row>
     <x:row r="20" spans="1:24">
       <x:c r="A20" s="6" t="s">
-        <x:v>6</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I20" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="M20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="N20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="P20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="Q20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="R20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="S20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="T20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="U20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="V20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="W20" s="8" t="str">
         <x:f>COUNTIF(B20:U20,"O")*5&amp;"%"</x:f>
@@ -3691,70 +3696,70 @@
     </x:row>
     <x:row r="21" spans="1:24">
       <x:c r="A21" s="6" t="s">
-        <x:v>24</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B21" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C21" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D21" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E21" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F21" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G21" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H21" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I21" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J21" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K21" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L21" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="M21" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="N21" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="O21" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="P21" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="Q21" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="R21" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="S21" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="T21" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="U21" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="V21" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="W21" s="8" t="str">
         <x:f>COUNTIF(B21:U21,"O")*5&amp;"%"</x:f>
@@ -3764,70 +3769,70 @@
     </x:row>
     <x:row r="22" spans="1:24">
       <x:c r="A22" s="6" t="s">
-        <x:v>17</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B22" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C22" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D22" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E22" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F22" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G22" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H22" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I22" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J22" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K22" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L22" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="M22" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="N22" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O22" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="P22" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="Q22" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="R22" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="S22" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="T22" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="U22" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="V22" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="W22" s="8" t="str">
         <x:f>COUNTIF(B22:U22,"O")*5&amp;"%"</x:f>
@@ -3837,70 +3842,70 @@
     </x:row>
     <x:row r="23" spans="1:24">
       <x:c r="A23" s="6" t="s">
-        <x:v>3</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C23" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D23" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K23" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="L23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="M23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="N23" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="O23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="P23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="Q23" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="R23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="S23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="T23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="U23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="V23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="W23" s="8" t="str">
         <x:f>COUNTIF(B23:U23,"O")*5&amp;"%"</x:f>
@@ -3910,70 +3915,70 @@
     </x:row>
     <x:row r="24" spans="1:24">
       <x:c r="A24" s="6" t="s">
-        <x:v>21</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C24" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E24" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F24" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H24" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="I24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="K24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="L24" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="M24" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="N24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="O24" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="P24" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="Q24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="R24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="S24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="T24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="U24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="V24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="W24" s="8" t="str">
         <x:f>COUNTIF(B24:U24,"O")*5&amp;"%"</x:f>
@@ -3983,70 +3988,70 @@
     </x:row>
     <x:row r="25" spans="1:24">
       <x:c r="A25" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="M25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="N25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="P25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="Q25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="R25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="S25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="T25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="U25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="V25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="W25" s="8" t="str">
         <x:f>COUNTIF(B25:U25,"O")*5&amp;"%"</x:f>
@@ -4056,70 +4061,70 @@
     </x:row>
     <x:row r="26" spans="1:24">
       <x:c r="A26" s="6" t="s">
-        <x:v>23</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B26" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C26" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D26" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E26" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F26" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G26" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H26" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="I26" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J26" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="K26" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="L26" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="M26" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="N26" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="O26" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="P26" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="Q26" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="R26" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="S26" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="T26" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="U26" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="V26" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="W26" s="8" t="str">
         <x:f>COUNTIF(B26:U26,"O")*5&amp;"%"</x:f>
@@ -4129,7 +4134,7 @@
     </x:row>
     <x:row r="27" spans="1:24">
       <x:c r="A27" s="9" t="s">
-        <x:v>39</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B27" s="10">
         <x:f>COUNTIF(B6:B26,"O")*5</x:f>
@@ -4220,7 +4225,7 @@
         <x:v>85.75</x:v>
       </x:c>
       <x:c r="X27" s="7" t="s">
-        <x:v>13</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4246,7 +4251,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:23">
       <x:c r="A1" s="14" t="s">
-        <x:v>68</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="15"/>
       <x:c r="C1" s="15"/>
@@ -4323,7 +4328,7 @@
     </x:row>
     <x:row r="4" spans="1:23" ht="16.75">
       <x:c r="A4" s="20" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B4" s="21"/>
       <x:c r="C4" s="21"/>
@@ -4350,78 +4355,78 @@
     </x:row>
     <x:row r="5" spans="1:23" ht="17.149999999999999">
       <x:c r="A5" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>60</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D5" s="3" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E5" s="3" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F5" s="3" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G5" s="3" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H5" s="3" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I5" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="J5" s="3" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="K5" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="L5" s="3" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="M5" s="3" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="N5" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="O5" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="P5" s="3" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="D5" s="3" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="E5" s="3" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="F5" s="3" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="G5" s="3" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="H5" s="3" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="I5" s="3" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="J5" s="3" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="K5" s="3" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="L5" s="3" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="M5" s="3" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="N5" s="3" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="O5" s="3" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="P5" s="3" t="s">
-        <x:v>64</x:v>
-      </x:c>
       <x:c r="Q5" s="3" t="s">
-        <x:v>59</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="R5" s="3" t="s">
-        <x:v>61</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="S5" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="T5" s="3" t="s">
-        <x:v>44</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="U5" s="4" t="s">
-        <x:v>40</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="V5" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="W5" s="5" t="s">
-        <x:v>38</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:23">
       <x:c r="A6" s="6" t="s">
-        <x:v>2</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B6" s="7"/>
       <x:c r="C6" s="7"/>
@@ -4451,70 +4456,70 @@
     </x:row>
     <x:row r="7" spans="1:23">
       <x:c r="A7" s="6" t="s">
-        <x:v>1</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B7" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C7" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D7" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E7" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F7" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G7" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H7" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I7" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J7" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K7" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L7" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="M7" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="N7" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O7" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="P7" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="Q7" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="R7" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="S7" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="T7" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="U7" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="V7" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="W7" s="8" t="str">
         <x:f>COUNTIF(B7:U7,"O")*5&amp;"%"</x:f>
@@ -4523,70 +4528,70 @@
     </x:row>
     <x:row r="8" spans="1:23">
       <x:c r="A8" s="6" t="s">
-        <x:v>7</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B8" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C8" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D8" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E8" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F8" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G8" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H8" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I8" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J8" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K8" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L8" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="M8" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="N8" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O8" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="P8" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="Q8" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="R8" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="S8" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="T8" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="U8" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="V8" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="W8" s="8" t="str">
         <x:f>COUNTIF(B8:U8,"O")*5&amp;"%"</x:f>
@@ -4595,70 +4600,70 @@
     </x:row>
     <x:row r="9" spans="1:23">
       <x:c r="A9" s="6" t="s">
-        <x:v>8</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E9" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F9" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="M9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="N9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="P9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="Q9" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="R9" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="S9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="T9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="U9" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="V9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="W9" s="8" t="str">
         <x:f>COUNTIF(B9:U9,"O")*5&amp;"%"</x:f>
@@ -4667,7 +4672,7 @@
     </x:row>
     <x:row r="10" spans="1:23">
       <x:c r="A10" s="6" t="s">
-        <x:v>15</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B10" s="7"/>
       <x:c r="C10" s="7"/>
@@ -4697,70 +4702,70 @@
     </x:row>
     <x:row r="11" spans="1:23">
       <x:c r="A11" s="6" t="s">
-        <x:v>10</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="M11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="N11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="P11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="Q11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="R11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="S11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="T11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="U11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="V11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="W11" s="8" t="str">
         <x:f>COUNTIF(B11:U11,"O")*5&amp;"%"</x:f>
@@ -4769,70 +4774,70 @@
     </x:row>
     <x:row r="12" spans="1:23">
       <x:c r="A12" s="6" t="s">
-        <x:v>12</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C12" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K12" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="L12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="M12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="N12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="P12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="Q12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="R12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="S12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="T12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="U12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="V12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="W12" s="8" t="str">
         <x:f>COUNTIF(B12:U12,"O")*5&amp;"%"</x:f>
@@ -4841,70 +4846,70 @@
     </x:row>
     <x:row r="13" spans="1:23">
       <x:c r="A13" s="6" t="s">
-        <x:v>4</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B13" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C13" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D13" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E13" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F13" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G13" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H13" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="I13" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="J13" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="K13" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="L13" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="M13" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="N13" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="O13" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="P13" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="Q13" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="R13" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="S13" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="T13" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="U13" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="V13" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="W13" s="8" t="str">
         <x:f>COUNTIF(B13:U13,"O")*5&amp;"%"</x:f>
@@ -4913,7 +4918,7 @@
     </x:row>
     <x:row r="14" spans="1:23">
       <x:c r="A14" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B14" s="7"/>
       <x:c r="C14" s="7"/>
@@ -4943,70 +4948,70 @@
     </x:row>
     <x:row r="15" spans="1:23">
       <x:c r="A15" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="M15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="N15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="P15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="Q15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="R15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="S15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="T15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="U15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="V15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="W15" s="8" t="str">
         <x:f>COUNTIF(B15:U15,"O")*5&amp;"%"</x:f>
@@ -5015,7 +5020,7 @@
     </x:row>
     <x:row r="16" spans="1:23">
       <x:c r="A16" s="6" t="s">
-        <x:v>18</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B16" s="7"/>
       <x:c r="C16" s="7"/>
@@ -5045,7 +5050,7 @@
     </x:row>
     <x:row r="17" spans="1:23">
       <x:c r="A17" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B17" s="7"/>
       <x:c r="C17" s="7"/>
@@ -5075,7 +5080,7 @@
     </x:row>
     <x:row r="18" spans="1:23">
       <x:c r="A18" s="6" t="s">
-        <x:v>5</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B18" s="7"/>
       <x:c r="C18" s="7"/>
@@ -5105,70 +5110,70 @@
     </x:row>
     <x:row r="19" spans="1:23">
       <x:c r="A19" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K19" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="L19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="M19" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="N19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="P19" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="Q19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="R19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="S19" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="T19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="U19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="V19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="W19" s="8" t="str">
         <x:f>COUNTIF(B19:U19,"O")*5&amp;"%"</x:f>
@@ -5177,70 +5182,70 @@
     </x:row>
     <x:row r="20" spans="1:23">
       <x:c r="A20" s="6" t="s">
-        <x:v>6</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B20" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C20" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D20" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E20" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F20" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G20" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H20" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I20" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J20" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="K20" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="L20" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="M20" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="N20" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="O20" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="P20" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="Q20" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="R20" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="S20" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="T20" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="U20" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="V20" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="W20" s="8" t="str">
         <x:f>COUNTIF(B20:U20,"O")*5&amp;"%"</x:f>
@@ -5249,70 +5254,70 @@
     </x:row>
     <x:row r="21" spans="1:23">
       <x:c r="A21" s="6" t="s">
-        <x:v>11</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B21" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C21" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D21" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E21" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F21" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G21" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H21" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I21" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J21" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="K21" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="L21" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="M21" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="N21" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="O21" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="P21" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="Q21" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="R21" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="S21" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="T21" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="U21" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="V21" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="W21" s="8" t="str">
         <x:f>COUNTIF(B21:U21,"O")*5&amp;"%"</x:f>
@@ -5321,70 +5326,70 @@
     </x:row>
     <x:row r="22" spans="1:23">
       <x:c r="A22" s="6" t="s">
-        <x:v>24</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B22" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C22" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D22" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E22" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F22" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G22" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H22" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I22" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J22" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K22" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="L22" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="M22" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="N22" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O22" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="P22" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="Q22" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="R22" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="S22" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="T22" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="U22" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="V22" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="W22" s="8" t="str">
         <x:f>COUNTIF(B22:U22,"O")*5&amp;"%"</x:f>
@@ -5393,70 +5398,70 @@
     </x:row>
     <x:row r="23" spans="1:23">
       <x:c r="A23" s="6" t="s">
-        <x:v>17</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C23" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E23" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F23" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="M23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="N23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O23" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="P23" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="Q23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="R23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="S23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="T23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="U23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="V23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="W23" s="8" t="str">
         <x:f>COUNTIF(B23:U23,"O")*5&amp;"%"</x:f>
@@ -5465,70 +5470,70 @@
     </x:row>
     <x:row r="24" spans="1:23">
       <x:c r="A24" s="6" t="s">
-        <x:v>3</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="K24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="L24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="M24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="N24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="O24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="P24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="Q24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="R24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="S24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="T24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="U24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="V24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="W24" s="8" t="str">
         <x:f>COUNTIF(B24:U24,"O")*5&amp;"%"</x:f>
@@ -5537,70 +5542,70 @@
     </x:row>
     <x:row r="25" spans="1:23">
       <x:c r="A25" s="6" t="s">
-        <x:v>21</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C25" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E25" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F25" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K25" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="L25" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="M25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="N25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="P25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="Q25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="R25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="S25" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="T25" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="U25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="V25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="W25" s="8" t="str">
         <x:f>COUNTIF(B25:U25,"O")*5&amp;"%"</x:f>
@@ -5609,7 +5614,7 @@
     </x:row>
     <x:row r="26" spans="1:23">
       <x:c r="A26" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B26" s="7"/>
       <x:c r="C26" s="7"/>
@@ -5639,7 +5644,7 @@
     </x:row>
     <x:row r="27" spans="1:23" ht="17.149999999999999">
       <x:c r="A27" s="9" t="s">
-        <x:v>39</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B27" s="10">
         <x:f>COUNTIF(B6:B26,"O")*5</x:f>
@@ -5746,14 +5751,14 @@
   <x:dimension ref="A1:W27"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="J20" activeCellId="0" sqref="J20:J20"/>
+      <x:selection activeCell="P19" activeCellId="0" sqref="P19:P19"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.399999999999999"/>
   <x:sheetData>
     <x:row r="1" spans="1:23">
       <x:c r="A1" s="14" t="s">
-        <x:v>67</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="15"/>
       <x:c r="C1" s="15"/>
@@ -5830,7 +5835,7 @@
     </x:row>
     <x:row r="4" spans="1:23" ht="16.75">
       <x:c r="A4" s="20" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B4" s="21"/>
       <x:c r="C4" s="21"/>
@@ -5857,141 +5862,141 @@
     </x:row>
     <x:row r="5" spans="1:23" ht="17.149999999999999">
       <x:c r="A5" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>60</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D5" s="3" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E5" s="3" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F5" s="3" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G5" s="3" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H5" s="3" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I5" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="J5" s="3" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="K5" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="L5" s="3" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="M5" s="3" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="N5" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="O5" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="P5" s="3" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="D5" s="3" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="E5" s="3" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="F5" s="3" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="G5" s="3" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="H5" s="3" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="I5" s="3" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="J5" s="3" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="K5" s="3" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="L5" s="3" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="M5" s="3" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="N5" s="3" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="O5" s="3" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="P5" s="3" t="s">
-        <x:v>64</x:v>
-      </x:c>
       <x:c r="Q5" s="3" t="s">
-        <x:v>59</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="R5" s="3" t="s">
-        <x:v>61</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="S5" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="T5" s="3" t="s">
-        <x:v>44</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="U5" s="4" t="s">
-        <x:v>40</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="V5" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="W5" s="5" t="s">
-        <x:v>38</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:23">
       <x:c r="A6" s="6" t="s">
-        <x:v>2</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B6" s="13" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C6" s="13" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D6" s="13" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E6" s="13" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F6" s="13" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G6" s="13" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H6" s="13" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I6" s="13" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J6" s="13" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K6" s="13" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L6" s="13" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="M6" s="13" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="N6" s="13" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O6" s="13" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="P6" s="13" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="Q6" s="13" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="R6" s="13" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="S6" s="13" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="T6" s="13" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="U6" s="13" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="V6" s="13" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="W6" s="8" t="str">
         <x:f>COUNTIF(B6:U6,"O")*5&amp;"%"</x:f>
@@ -6000,7 +6005,7 @@
     </x:row>
     <x:row r="7" spans="1:23">
       <x:c r="A7" s="6" t="s">
-        <x:v>1</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B7" s="7"/>
       <x:c r="C7" s="7"/>
@@ -6030,70 +6035,70 @@
     </x:row>
     <x:row r="8" spans="1:23">
       <x:c r="A8" s="6" t="s">
-        <x:v>7</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B8" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C8" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D8" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E8" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F8" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G8" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H8" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I8" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J8" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K8" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L8" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="M8" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="N8" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O8" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="P8" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="Q8" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="R8" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="S8" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="T8" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="U8" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="V8" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="W8" s="8" t="str">
         <x:f>COUNTIF(B8:U8,"O")*5&amp;"%"</x:f>
@@ -6102,70 +6107,70 @@
     </x:row>
     <x:row r="9" spans="1:23">
       <x:c r="A9" s="6" t="s">
-        <x:v>8</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D9" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="M9" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="N9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="P9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="Q9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="R9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="S9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="T9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="U9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="V9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="W9" s="8" t="str">
         <x:f>COUNTIF(B9:U9,"O")*5&amp;"%"</x:f>
@@ -6174,70 +6179,70 @@
     </x:row>
     <x:row r="10" spans="1:23">
       <x:c r="A10" s="6" t="s">
-        <x:v>15</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E10" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="K10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="L10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="M10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="N10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="O10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="P10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="Q10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="R10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="S10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="T10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="U10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="V10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="W10" s="8" t="str">
         <x:f>COUNTIF(B10:U10,"O")*5&amp;"%"</x:f>
@@ -6246,7 +6251,7 @@
     </x:row>
     <x:row r="11" spans="1:23">
       <x:c r="A11" s="6" t="s">
-        <x:v>10</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B11" s="7"/>
       <x:c r="C11" s="7"/>
@@ -6276,7 +6281,7 @@
     </x:row>
     <x:row r="12" spans="1:23">
       <x:c r="A12" s="6" t="s">
-        <x:v>12</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B12" s="7"/>
       <x:c r="C12" s="7"/>
@@ -6306,7 +6311,7 @@
     </x:row>
     <x:row r="13" spans="1:23">
       <x:c r="A13" s="6" t="s">
-        <x:v>4</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B13" s="7"/>
       <x:c r="C13" s="7"/>
@@ -6336,70 +6341,70 @@
     </x:row>
     <x:row r="14" spans="1:23">
       <x:c r="A14" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B14" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C14" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D14" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E14" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F14" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G14" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H14" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I14" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J14" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="K14" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="L14" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="M14" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="N14" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="O14" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="P14" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="Q14" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="R14" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="S14" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="T14" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="U14" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="V14" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="W14" s="8" t="str">
         <x:f>COUNTIF(B14:U14,"O")*5&amp;"%"</x:f>
@@ -6408,70 +6413,70 @@
     </x:row>
     <x:row r="15" spans="1:23">
       <x:c r="A15" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="M15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="N15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="P15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="Q15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="R15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="S15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="T15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="U15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="V15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="W15" s="8" t="str">
         <x:f>COUNTIF(B15:U15,"O")*5&amp;"%"</x:f>
@@ -6480,70 +6485,70 @@
     </x:row>
     <x:row r="16" spans="1:23">
       <x:c r="A16" s="6" t="s">
-        <x:v>20</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B16" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C16" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D16" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E16" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F16" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G16" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H16" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I16" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J16" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="K16" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="L16" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="M16" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="N16" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="O16" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="P16" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="Q16" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="R16" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="S16" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="T16" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="U16" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="V16" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="W16" s="8" t="str">
         <x:f>COUNTIF(B16:U16,"O")*5&amp;"%"</x:f>
@@ -6552,7 +6557,7 @@
     </x:row>
     <x:row r="17" spans="1:23">
       <x:c r="A17" s="6" t="s">
-        <x:v>18</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B17" s="7"/>
       <x:c r="C17" s="7"/>
@@ -6582,70 +6587,70 @@
     </x:row>
     <x:row r="18" spans="1:23">
       <x:c r="A18" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G18" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H18" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I18" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J18" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="M18" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="N18" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="O18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="P18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="Q18" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="R18" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="S18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="T18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="U18" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="V18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="W18" s="8" t="str">
         <x:f>COUNTIF(B18:U18,"O")*5&amp;"%"</x:f>
@@ -6654,138 +6659,140 @@
     </x:row>
     <x:row r="19" spans="1:23">
       <x:c r="A19" s="6" t="s">
-        <x:v>5</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K19" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="L19" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="M19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="N19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O19" s="7" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="P19" s="7"/>
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P19" s="7" t="s">
+        <x:v>31</x:v>
+      </x:c>
       <x:c r="Q19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="R19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="S19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="T19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="U19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="V19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="W19" s="8" t="str">
         <x:f>COUNTIF(B19:U19,"O")*5&amp;"%"</x:f>
-        <x:v>80%</x:v>
+        <x:v>85%</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:23">
       <x:c r="A20" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L20" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="M20" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="N20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="P20" s="7"/>
       <x:c r="Q20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="R20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="S20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="T20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="U20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="V20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="W20" s="8" t="str">
         <x:f>COUNTIF(B20:U20,"O")*5&amp;"%"</x:f>
@@ -6794,70 +6801,70 @@
     </x:row>
     <x:row r="21" spans="1:23">
       <x:c r="A21" s="6" t="s">
-        <x:v>6</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B21" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C21" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D21" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E21" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F21" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G21" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H21" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I21" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J21" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="K21" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="L21" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="M21" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="N21" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="O21" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="P21" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="Q21" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="R21" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="S21" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="T21" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="U21" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="V21" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="W21" s="8" t="str">
         <x:f>COUNTIF(B21:U21,"O")*5&amp;"%"</x:f>
@@ -6866,7 +6873,7 @@
     </x:row>
     <x:row r="22" spans="1:23">
       <x:c r="A22" s="6" t="s">
-        <x:v>24</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B22" s="7"/>
       <x:c r="C22" s="7"/>
@@ -6896,68 +6903,68 @@
     </x:row>
     <x:row r="23" spans="1:23">
       <x:c r="A23" s="6" t="s">
-        <x:v>17</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B23" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C23" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D23" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E23" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F23" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G23" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H23" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I23" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J23" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K23" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L23" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="M23" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="N23" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O23" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="P23" s="12"/>
       <x:c r="Q23" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="R23" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="S23" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="T23" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="U23" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="V23" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="W23" s="8" t="str">
         <x:f>COUNTIF(B23:U23,"O")*5&amp;"%"</x:f>
@@ -6966,68 +6973,68 @@
     </x:row>
     <x:row r="24" spans="1:23">
       <x:c r="A24" s="6" t="s">
-        <x:v>3</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B24" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C24" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D24" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E24" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F24" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G24" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H24" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I24" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J24" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K24" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L24" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="M24" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="N24" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O24" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="P24" s="7"/>
       <x:c r="Q24" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="R24" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="S24" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="T24" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="U24" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="V24" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="W24" s="8" t="str">
         <x:f>COUNTIF(B24:U24,"O")*5&amp;"%"</x:f>
@@ -7036,70 +7043,70 @@
     </x:row>
     <x:row r="25" spans="1:23">
       <x:c r="A25" s="6" t="s">
-        <x:v>21</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C25" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G25" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="M25" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="N25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="P25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="Q25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="R25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="S25" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="T25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="U25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="V25" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="W25" s="8" t="str">
         <x:f>COUNTIF(B25:U25,"O")*5&amp;"%"</x:f>
@@ -7108,7 +7115,7 @@
     </x:row>
     <x:row r="26" spans="1:23">
       <x:c r="A26" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B26" s="7"/>
       <x:c r="C26" s="7"/>
@@ -7138,7 +7145,7 @@
     </x:row>
     <x:row r="27" spans="1:23" ht="17.149999999999999">
       <x:c r="A27" s="9" t="s">
-        <x:v>39</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B27" s="10">
         <x:f>COUNTIF(B7:B26,"O")*5</x:f>
@@ -7198,7 +7205,7 @@
       </x:c>
       <x:c r="P27" s="10">
         <x:f>COUNTIF(P6:P26,"O")*5</x:f>
-        <x:v>45</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="Q27" s="10">
         <x:f>COUNTIF(Q6:Q26,"O")*5</x:f>
@@ -7226,7 +7233,7 @@
       </x:c>
       <x:c r="W27" s="11">
         <x:f>SUM(B27:U27)/20</x:f>
-        <x:v>61.5</x:v>
+        <x:v>61.75</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fileVersion appName="HCell" lastEdited="11.0" lowestEdited="11.0" rupBuild="0.4749"/>
+  <x:fileVersion appName="HCell" lastEdited="10.0" lowestEdited="10.0" rupBuild="0.4575"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rnjss\OneDrive\바탕 화면\딥러닝 스터디\2022_DeepLearningStudy\02_Test_Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="17580" windowHeight="6480" activeTab="2"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="19050" windowHeight="8925" activeTab="2"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -21,63 +16,174 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="69">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="70">
+  <x:si>
+    <x:t>3주차 이론시험 채점표</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1주차 이론시험 채점표</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2주차 이론시험 채점표</x:t>
+  </x:si>
+  <x:si>
+    <x:t>85%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유하영</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이지원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이규리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김도희</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설현기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>o</x:t>
+  </x:si>
+  <x:si>
+    <x:t>80%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>90%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>95%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오정은</x:t>
+  </x:si>
+  <x:si>
+    <x:t>권노희</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최동석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김시현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>윤희성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>65%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>x</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이지우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하정원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>O</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정의진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>황유현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이재홍</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이지수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정답률</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김예림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강희정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>안규호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>75%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김아름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>70%</x:t>
+  </x:si>
   <x:si>
     <x:t>맞음: O 틀림: X</x:t>
   </x:si>
   <x:si>
-    <x:t>1,2-(2)</x:t>
+    <x:t>3,4-(3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,2-(5)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,4-(1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7,8-(3)</x:t>
   </x:si>
   <x:si>
     <x:t>1,2-(1)</x:t>
   </x:si>
   <x:si>
-    <x:t>7,8-(3)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,4-(3)</x:t>
-  </x:si>
-  <x:si>
     <x:t>5,6-(3)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,6-(5)</x:t>
   </x:si>
   <x:si>
     <x:t>1,2-(3)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,2-(4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,6-(4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,4-(1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,6-(6)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,4-(2)</x:t>
+    <x:t>5,6-(1)</x:t>
   </x:si>
   <x:si>
     <x:t>&lt;-평균</x:t>
   </x:si>
   <x:si>
-    <x:t>3,4-(4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,2-(5)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7,8-(5)</x:t>
-  </x:si>
-  <x:si>
     <x:t>7,8-(2)</x:t>
   </x:si>
   <x:si>
-    <x:t>5,6-(1)</x:t>
+    <x:t>7,8-(6)</x:t>
   </x:si>
   <x:si>
     <x:t>3,4-(5)</x:t>
@@ -92,142 +198,34 @@
     <x:t>100%</x:t>
   </x:si>
   <x:si>
-    <x:t>7,8-(6)</x:t>
+    <x:t>5,6-(6)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7,8-(5)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,4-(4)</x:t>
   </x:si>
   <x:si>
     <x:t>7,8-(1)</x:t>
   </x:si>
   <x:si>
+    <x:t>1,2-(4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,4-(2)</x:t>
+  </x:si>
+  <x:si>
     <x:t>5,6-(2)</x:t>
   </x:si>
   <x:si>
-    <x:t>이지원</x:t>
+    <x:t>5,6-(4)</x:t>
   </x:si>
   <x:si>
-    <x:t>o</x:t>
+    <x:t>5,6-(5)</x:t>
   </x:si>
   <x:si>
-    <x:t>95%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>90%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김도희</x:t>
-  </x:si>
-  <x:si>
-    <x:t>85%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유하영</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이규리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설현기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>80%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정답률</x:t>
-  </x:si>
-  <x:si>
-    <x:t>총점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오정은</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이지우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김예림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하정원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X</x:t>
-  </x:si>
-  <x:si>
-    <x:t>권노희</x:t>
-  </x:si>
-  <x:si>
-    <x:t>윤희성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>안규호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김아름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>O</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>75%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최동석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>60%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>65%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>황유현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김시현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강희정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정의진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>x</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이재홍</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이지수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1주차 이론시험 채점표</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3주차 이론시험 채점표</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2주차 이론시험 채점표</x:t>
+    <x:t>1,2-(2)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -277,8 +275,8 @@
           <x:sz val="11"/>
           <x:color rgb="ff0563c1"/>
           <x:u/>
+          <hs:underlineShape val="solid"/>
           <hs:underlineType val="1"/>
-          <hs:underlineShape val="solid"/>
           <hs:underlineColor rgb="ff0563c1"/>
         </x:font>
       </mc:Choice>
@@ -298,8 +296,8 @@
           <x:sz val="11"/>
           <x:color rgb="ff954f72"/>
           <x:u/>
+          <hs:underlineShape val="solid"/>
           <hs:underlineType val="1"/>
-          <hs:underlineShape val="solid"/>
           <hs:underlineColor rgb="ff954f72"/>
         </x:font>
       </mc:Choice>
@@ -317,11 +315,26 @@
       <x:sz val="11"/>
       <x:color rgb="ffff0000"/>
     </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="18"/>
-      <x:color rgb="ff44546a"/>
-    </x:font>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="18"/>
+          <x:color rgb="ff44546a"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="18"/>
+          <x:color rgb="ff44546a"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -886,21 +899,24 @@
     </x:fill>
   </x:fills>
   <x:borders count="21">
-    <x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
       <x:left>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:left>
       <x:right>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:right>
       <x:top>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:top>
       <x:bottom>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
     </x:border>
-    <x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
       <x:left style="thin">
         <x:color rgb="ff7f7f7f"/>
       </x:left>
@@ -913,8 +929,11 @@
       <x:bottom style="thin">
         <x:color rgb="ff7f7f7f"/>
       </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
     </x:border>
-    <x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
       <x:left style="thin">
         <x:color rgb="ffb2b2b2"/>
       </x:left>
@@ -927,50 +946,62 @@
       <x:bottom style="thin">
         <x:color rgb="ffb2b2b2"/>
       </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
     </x:border>
-    <x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
       <x:left>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:left>
       <x:right>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:right>
       <x:top>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:top>
       <x:bottom style="thick">
         <x:color rgb="ff4472c4"/>
       </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
     </x:border>
-    <x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
       <x:left>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:left>
       <x:right>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:right>
       <x:top>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:top>
       <x:bottom style="thick">
         <x:color rgb="ffacccea"/>
       </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
     </x:border>
-    <x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
       <x:left>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:left>
       <x:right>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:right>
       <x:top>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:top>
       <x:bottom style="medium">
         <x:color rgb="ff8fabdb"/>
       </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
     </x:border>
-    <x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
       <x:left style="thin">
         <x:color rgb="ff3f3f3f"/>
       </x:left>
@@ -983,8 +1014,11 @@
       <x:bottom style="thin">
         <x:color rgb="ff3f3f3f"/>
       </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
     </x:border>
-    <x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
       <x:left style="double">
         <x:color rgb="ff3f3f3f"/>
       </x:left>
@@ -997,27 +1031,33 @@
       <x:bottom style="double">
         <x:color rgb="ff3f3f3f"/>
       </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
     </x:border>
-    <x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
       <x:left>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:left>
       <x:right>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:right>
       <x:top>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:top>
       <x:bottom style="double">
         <x:color rgb="ffff8001"/>
       </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
     </x:border>
-    <x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
       <x:left>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:left>
       <x:right>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:right>
       <x:top style="thin">
         <x:color rgb="ff4472c4"/>
@@ -1025,160 +1065,196 @@
       <x:bottom style="double">
         <x:color rgb="ff4472c4"/>
       </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
     </x:border>
-    <x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
       <x:left style="medium">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:left>
       <x:right style="medium">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:right>
       <x:top style="medium">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:top>
       <x:bottom style="medium">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
     </x:border>
-    <x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
       <x:left>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:left>
       <x:right>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:right>
       <x:top style="medium">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:top>
       <x:bottom style="medium">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
     </x:border>
-    <x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
       <x:left style="medium">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:left>
       <x:right style="medium">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:right>
       <x:top>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:top>
       <x:bottom>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
     </x:border>
-    <x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
       <x:left style="medium">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:left>
       <x:right>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:right>
       <x:top style="medium">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:top>
       <x:bottom>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
     </x:border>
-    <x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
       <x:left>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:left>
       <x:right>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:right>
       <x:top style="medium">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:top>
       <x:bottom>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
     </x:border>
-    <x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
       <x:left>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:left>
       <x:right style="medium">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:right>
       <x:top style="medium">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:top>
       <x:bottom>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
     </x:border>
-    <x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
       <x:left style="medium">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:left>
       <x:right>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:right>
       <x:top>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:top>
       <x:bottom>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
     </x:border>
-    <x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
       <x:left>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:left>
       <x:right style="medium">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:right>
       <x:top>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:top>
       <x:bottom>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
     </x:border>
-    <x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
       <x:left style="medium">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:left>
       <x:right>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:right>
       <x:top>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:top>
       <x:bottom style="medium">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
     </x:border>
-    <x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
       <x:left>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:left>
       <x:right>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:right>
       <x:top>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:top>
       <x:bottom style="medium">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
     </x:border>
-    <x:border>
+    <x:border diagonalUp="1" diagonalDown="1">
       <x:left>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:left>
       <x:right style="medium">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:right>
       <x:top>
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:top>
       <x:bottom style="medium">
-        <x:color auto="1"/>
+        <x:color indexed="64"/>
       </x:bottom>
+      <x:diagonal>
+        <x:color indexed="64"/>
+      </x:diagonal>
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="44">
@@ -1607,52 +1683,52 @@
     </mc:AlternateContent>
   </x:cellXfs>
   <x:cellStyles count="44">
-    <x:cellStyle name="표준" xfId="0" builtinId="0"/>
-    <x:cellStyle name="입력" xfId="1" builtinId="20"/>
-    <x:cellStyle name="메모" xfId="2" builtinId="10"/>
-    <x:cellStyle name="20% - 강조색1" xfId="3" builtinId="30"/>
-    <x:cellStyle name="하이퍼링크" xfId="4" builtinId="8"/>
-    <x:cellStyle name="열어 본 하이퍼링크" xfId="5" builtinId="9"/>
-    <x:cellStyle name="경고문" xfId="6" builtinId="11"/>
-    <x:cellStyle name="제목" xfId="7" builtinId="15"/>
-    <x:cellStyle name="제목 1" xfId="8" builtinId="16"/>
-    <x:cellStyle name="제목 2" xfId="9" builtinId="17"/>
-    <x:cellStyle name="제목 3" xfId="10" builtinId="18"/>
-    <x:cellStyle name="제목 4" xfId="11" builtinId="19"/>
-    <x:cellStyle name="출력" xfId="12" builtinId="21"/>
-    <x:cellStyle name="계산" xfId="13" builtinId="22"/>
-    <x:cellStyle name="셀 확인" xfId="14" builtinId="23"/>
-    <x:cellStyle name="연결된 셀" xfId="15" builtinId="24"/>
-    <x:cellStyle name="요약" xfId="16" builtinId="25"/>
-    <x:cellStyle name="좋음" xfId="17" builtinId="26"/>
-    <x:cellStyle name="나쁨" xfId="18" builtinId="27"/>
-    <x:cellStyle name="보통" xfId="19" builtinId="28"/>
-    <x:cellStyle name="강조색1" xfId="20" builtinId="29"/>
-    <x:cellStyle name="40% - 강조색1" xfId="21" builtinId="31"/>
-    <x:cellStyle name="60% - 강조색1" xfId="22" builtinId="32"/>
-    <x:cellStyle name="강조색2" xfId="23" builtinId="33"/>
-    <x:cellStyle name="20% - 강조색2" xfId="24" builtinId="34"/>
-    <x:cellStyle name="40% - 강조색2" xfId="25" builtinId="35"/>
-    <x:cellStyle name="60% - 강조색2" xfId="26" builtinId="36"/>
-    <x:cellStyle name="강조색3" xfId="27" builtinId="37"/>
-    <x:cellStyle name="20% - 강조색3" xfId="28" builtinId="38"/>
-    <x:cellStyle name="40% - 강조색3" xfId="29" builtinId="39"/>
-    <x:cellStyle name="60% - 강조색3" xfId="30" builtinId="40"/>
-    <x:cellStyle name="강조색4" xfId="31" builtinId="41"/>
-    <x:cellStyle name="20% - 강조색4" xfId="32" builtinId="42"/>
-    <x:cellStyle name="40% - 강조색4" xfId="33" builtinId="43"/>
-    <x:cellStyle name="60% - 강조색4" xfId="34" builtinId="44"/>
-    <x:cellStyle name="강조색5" xfId="35" builtinId="45"/>
-    <x:cellStyle name="20% - 강조색5" xfId="36" builtinId="46"/>
-    <x:cellStyle name="40% - 강조색5" xfId="37" builtinId="47"/>
-    <x:cellStyle name="60% - 강조색5" xfId="38" builtinId="48"/>
-    <x:cellStyle name="강조색6" xfId="39" builtinId="49"/>
-    <x:cellStyle name="20% - 강조색6" xfId="40" builtinId="50"/>
-    <x:cellStyle name="40% - 강조색6" xfId="41" builtinId="51"/>
-    <x:cellStyle name="60% - 강조색6" xfId="42" builtinId="52"/>
-    <x:cellStyle name="설명텍스트" xfId="43" builtinId="53"/>
+    <x:cellStyle xfId="0" builtinId="0"/>
+    <x:cellStyle name="입력" xfId="1"/>
+    <x:cellStyle name="메모" xfId="2"/>
+    <x:cellStyle name="20% - 강조색1" xfId="3"/>
+    <x:cellStyle name="하이퍼링크" xfId="4"/>
+    <x:cellStyle name="열어 본 하이퍼링크" xfId="5"/>
+    <x:cellStyle name="경고문" xfId="6"/>
+    <x:cellStyle name="제목" xfId="7"/>
+    <x:cellStyle name="제목 1" xfId="8"/>
+    <x:cellStyle name="제목 2" xfId="9"/>
+    <x:cellStyle name="제목 3" xfId="10"/>
+    <x:cellStyle name="제목 4" xfId="11"/>
+    <x:cellStyle name="출력" xfId="12"/>
+    <x:cellStyle name="계산" xfId="13"/>
+    <x:cellStyle name="셀 확인" xfId="14"/>
+    <x:cellStyle name="연결된 셀" xfId="15"/>
+    <x:cellStyle name="요약" xfId="16"/>
+    <x:cellStyle name="좋음" xfId="17"/>
+    <x:cellStyle name="나쁨" xfId="18"/>
+    <x:cellStyle name="보통" xfId="19"/>
+    <x:cellStyle name="강조색1" xfId="20"/>
+    <x:cellStyle name="40% - 강조색1" xfId="21"/>
+    <x:cellStyle name="60% - 강조색1" xfId="22"/>
+    <x:cellStyle name="강조색2" xfId="23"/>
+    <x:cellStyle name="20% - 강조색2" xfId="24"/>
+    <x:cellStyle name="40% - 강조색2" xfId="25"/>
+    <x:cellStyle name="60% - 강조색2" xfId="26"/>
+    <x:cellStyle name="강조색3" xfId="27"/>
+    <x:cellStyle name="20% - 강조색3" xfId="28"/>
+    <x:cellStyle name="40% - 강조색3" xfId="29"/>
+    <x:cellStyle name="60% - 강조색3" xfId="30"/>
+    <x:cellStyle name="강조색4" xfId="31"/>
+    <x:cellStyle name="20% - 강조색4" xfId="32"/>
+    <x:cellStyle name="40% - 강조색4" xfId="33"/>
+    <x:cellStyle name="60% - 강조색4" xfId="34"/>
+    <x:cellStyle name="강조색5" xfId="35"/>
+    <x:cellStyle name="20% - 강조색5" xfId="36"/>
+    <x:cellStyle name="40% - 강조색5" xfId="37"/>
+    <x:cellStyle name="60% - 강조색5" xfId="38"/>
+    <x:cellStyle name="강조색6" xfId="39"/>
+    <x:cellStyle name="20% - 강조색6" xfId="40"/>
+    <x:cellStyle name="40% - 강조색6" xfId="41"/>
+    <x:cellStyle name="60% - 강조색6" xfId="42"/>
+    <x:cellStyle name="설명텍스트" xfId="43"/>
   </x:cellStyles>
-  <x:dxfs count="14">
+  <x:dxfs count="32">
     <x:dxf>
       <x:fill>
         <x:patternFill patternType="solid">
@@ -1682,7 +1758,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1703,7 +1778,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1724,7 +1798,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1755,7 +1828,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1786,7 +1858,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1794,10 +1865,10 @@
           </x:font>
           <x:border>
             <x:left>
-              <x:color auto="1"/>
+              <x:color indexed="64"/>
             </x:left>
             <x:right>
-              <x:color auto="1"/>
+              <x:color indexed="64"/>
             </x:right>
             <x:top style="medium">
               <x:color rgb="ff6182d6"/>
@@ -1806,10 +1877,10 @@
               <x:color rgb="ff6182d6"/>
             </x:bottom>
             <x:vertical>
-              <x:color auto="1"/>
+              <x:color indexed="64"/>
             </x:vertical>
             <x:horizontal>
-              <x:color auto="1"/>
+              <x:color indexed="64"/>
             </x:horizontal>
           </x:border>
         </x:dxf>
@@ -1821,10 +1892,10 @@
           </x:font>
           <x:border>
             <x:left>
-              <x:color auto="1"/>
+              <x:color indexed="64"/>
             </x:left>
             <x:right>
-              <x:color auto="1"/>
+              <x:color indexed="64"/>
             </x:right>
             <x:top style="medium">
               <x:color rgb="ff6182d6"/>
@@ -1833,10 +1904,10 @@
               <x:color rgb="ff6182d6"/>
             </x:bottom>
             <x:vertical>
-              <x:color auto="1"/>
+              <x:color indexed="64"/>
             </x:vertical>
             <x:horizontal>
-              <x:color auto="1"/>
+              <x:color indexed="64"/>
             </x:horizontal>
           </x:border>
         </x:dxf>
@@ -1864,7 +1935,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1899,7 +1969,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1934,7 +2003,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1979,7 +2047,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2023,7 +2090,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2091,6 +2157,457 @@
         </x:dxf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ffdae3f3"/>
+              <x:bgColor rgb="ffdae3f3"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:bottom style="thin">
+              <x:color rgb="ff8fabdb"/>
+            </x:bottom>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ffdae3f3"/>
+              <x:bgColor rgb="ffdae3f3"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:bottom style="thin">
+              <x:color rgb="ff8fabdb"/>
+            </x:bottom>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ffdae3f3"/>
+              <x:bgColor rgb="ffdae3f3"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:top style="thin">
+              <x:color rgb="ff8fabdb"/>
+            </x:top>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ffdae3f3"/>
+              <x:bgColor rgb="ffdae3f3"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:top style="thin">
+              <x:color rgb="ff8fabdb"/>
+            </x:top>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:dxf>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:fgColor rgb="ffd9d9d9"/>
+          <x:bgColor rgb="ffd9d9d9"/>
+        </x:patternFill>
+      </x:fill>
+    </x:dxf>
+    <x:dxf>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:fgColor rgb="ffd9d9d9"/>
+          <x:bgColor rgb="ffd9d9d9"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border>
+        <x:left style="thin">
+          <x:color rgb="ffbfbfbf"/>
+        </x:left>
+        <x:right style="thin">
+          <x:color rgb="ffbfbfbf"/>
+        </x:right>
+      </x:border>
+    </x:dxf>
+    <x:dxf>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:fgColor rgb="ffd9d9d9"/>
+          <x:bgColor rgb="ffd9d9d9"/>
+        </x:patternFill>
+      </x:fill>
+    </x:dxf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:border>
+            <x:top style="thin">
+              <x:color rgb="ff4472c4"/>
+            </x:top>
+            <x:bottom style="thin">
+              <x:color rgb="ff4472c4"/>
+            </x:bottom>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+          </x:font>
+          <x:border>
+            <x:top style="thin">
+              <x:color rgb="ff4472c4"/>
+            </x:top>
+            <x:bottom style="thin">
+              <x:color rgb="ff4472c4"/>
+            </x:bottom>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+          </x:font>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:border>
+            <x:bottom style="thin">
+              <x:color rgb="ff8fabdb"/>
+            </x:bottom>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+          </x:font>
+          <x:border>
+            <x:bottom style="thin">
+              <x:color rgb="ff8fabdb"/>
+            </x:bottom>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+          </x:font>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:dxf>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:fgColor rgb="ffdae3f3"/>
+          <x:bgColor rgb="ffdae3f3"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border>
+        <x:bottom style="thin">
+          <x:color rgb="ff8fabdb"/>
+        </x:bottom>
+      </x:border>
+    </x:dxf>
+    <x:dxf>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:fgColor rgb="ffdae3f3"/>
+          <x:bgColor rgb="ffdae3f3"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border>
+        <x:bottom style="thin">
+          <x:color rgb="ff8fabdb"/>
+        </x:bottom>
+      </x:border>
+    </x:dxf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:border>
+            <x:left style="thin">
+              <x:color rgb="ff8fabdb"/>
+            </x:left>
+            <x:right style="thin">
+              <x:color rgb="ff8fabdb"/>
+            </x:right>
+            <x:top style="thin">
+              <x:color rgb="ff8fabdb"/>
+            </x:top>
+            <x:bottom style="thin">
+              <x:color rgb="ff8fabdb"/>
+            </x:bottom>
+            <x:horizontal style="thin">
+              <x:color rgb="ff8fabdb"/>
+            </x:horizontal>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ff000000"/>
+          </x:font>
+          <x:border>
+            <x:left style="thin">
+              <x:color rgb="ff8fabdb"/>
+            </x:left>
+            <x:right style="thin">
+              <x:color rgb="ff8fabdb"/>
+            </x:right>
+            <x:top style="thin">
+              <x:color rgb="ff8fabdb"/>
+            </x:top>
+            <x:bottom style="thin">
+              <x:color rgb="ff8fabdb"/>
+            </x:bottom>
+            <x:horizontal style="thin">
+              <x:color rgb="ff8fabdb"/>
+            </x:horizontal>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ffffffff"/>
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ff4472c4"/>
+              <x:bgColor rgb="ff4472c4"/>
+            </x:patternFill>
+          </x:fill>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ffffffff"/>
+            <x:b val="1"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ff4472c4"/>
+              <x:bgColor rgb="ff4472c4"/>
+            </x:patternFill>
+          </x:fill>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:border>
+            <x:top style="double">
+              <x:color rgb="ff4472c4"/>
+            </x:top>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+          </x:font>
+          <x:border>
+            <x:top style="double">
+              <x:color rgb="ff4472c4"/>
+            </x:top>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+          </x:font>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ff000000"/>
+            <x:b val="1"/>
+          </x:font>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:dxf>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:fgColor rgb="ffdae3f3"/>
+          <x:bgColor rgb="ffdae3f3"/>
+        </x:patternFill>
+      </x:fill>
+    </x:dxf>
+    <x:dxf>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:fgColor rgb="ffdae3f3"/>
+          <x:bgColor rgb="ffdae3f3"/>
+        </x:patternFill>
+      </x:fill>
+    </x:dxf>
   </x:dxfs>
   <x:tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <x:tableStyle name="Normal Style 1 - Accent 1" pivot="0" table="1" count="7">
@@ -2116,7 +2633,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office 테마">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2158,7 +2675,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="20000000000000000000"/>
+        <a:latin typeface="Calibri Light" panose="2147483647"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2210,7 +2727,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="20000000000000000000"/>
+        <a:latin typeface="Calibri" panose="2147483647"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2416,7 +2933,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:24">
       <x:c r="A1" s="14" t="s">
-        <x:v>66</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="15"/>
       <x:c r="C1" s="15"/>
@@ -2496,7 +3013,7 @@
     </x:row>
     <x:row r="4" spans="1:24">
       <x:c r="A4" s="20" t="s">
-        <x:v>0</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B4" s="21"/>
       <x:c r="C4" s="21"/>
@@ -2524,142 +3041,142 @@
     </x:row>
     <x:row r="5" spans="1:24">
       <x:c r="A5" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>60</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D5" s="3" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E5" s="3" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F5" s="3" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G5" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H5" s="3" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="I5" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="J5" s="3" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="K5" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="L5" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="M5" s="3" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="D5" s="3" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="E5" s="3" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="F5" s="3" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="G5" s="3" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="H5" s="3" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="I5" s="3" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="J5" s="3" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="K5" s="3" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="L5" s="3" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="M5" s="3" t="s">
-        <x:v>50</x:v>
-      </x:c>
       <x:c r="N5" s="3" t="s">
-        <x:v>33</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O5" s="3" t="s">
-        <x:v>41</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="P5" s="3" t="s">
-        <x:v>64</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="Q5" s="3" t="s">
-        <x:v>59</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="R5" s="3" t="s">
-        <x:v>61</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="S5" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="T5" s="3" t="s">
-        <x:v>44</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="U5" s="4" t="s">
-        <x:v>40</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="V5" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="W5" s="5" t="s">
-        <x:v>38</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="X5" s="1"/>
     </x:row>
     <x:row r="6" spans="1:24">
       <x:c r="A6" s="6" t="s">
-        <x:v>2</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B6" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C6" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D6" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E6" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F6" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G6" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H6" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I6" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J6" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K6" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L6" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M6" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N6" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O6" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P6" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Q6" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R6" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S6" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T6" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U6" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V6" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W6" s="8" t="str">
         <x:f>COUNTIF(B6:U6,"O")*5&amp;"%"</x:f>
@@ -2669,70 +3186,70 @@
     </x:row>
     <x:row r="7" spans="1:24">
       <x:c r="A7" s="6" t="s">
-        <x:v>1</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B7" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C7" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D7" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E7" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="C7" s="7" t="s">
+      <x:c r="F7" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="D7" s="7" t="s">
+      <x:c r="G7" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="H7" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="E7" s="7" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="F7" s="7" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="G7" s="7" t="s">
+      <x:c r="I7" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="H7" s="7" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="I7" s="7" t="s">
-        <x:v>63</x:v>
-      </x:c>
       <x:c r="J7" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="K7" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="L7" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="M7" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="N7" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="N7" s="7" t="s">
-        <x:v>63</x:v>
-      </x:c>
       <x:c r="O7" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="P7" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="P7" s="7" t="s">
-        <x:v>63</x:v>
-      </x:c>
       <x:c r="Q7" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="R7" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="S7" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="R7" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="S7" s="7" t="s">
-        <x:v>63</x:v>
-      </x:c>
       <x:c r="T7" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="U7" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="V7" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="W7" s="8" t="str">
         <x:f>COUNTIF(B7:U7,"O")*5&amp;"%"</x:f>
@@ -2742,70 +3259,70 @@
     </x:row>
     <x:row r="8" spans="1:24">
       <x:c r="A8" s="6" t="s">
-        <x:v>7</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B8" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C8" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D8" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E8" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F8" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G8" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="H8" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="I8" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="J8" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="K8" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="L8" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="C8" s="7" t="s">
+      <x:c r="M8" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="N8" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="O8" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="P8" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="Q8" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="R8" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="S8" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="T8" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="U8" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="V8" s="7" t="s">
         <x:v>27</x:v>
-      </x:c>
-      <x:c r="D8" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="E8" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="F8" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G8" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="H8" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="I8" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="J8" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="K8" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="L8" s="7" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="M8" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="N8" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="O8" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="P8" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="Q8" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="R8" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="S8" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="T8" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="U8" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="V8" s="7" t="s">
-        <x:v>63</x:v>
       </x:c>
       <x:c r="W8" s="8" t="str">
         <x:f>COUNTIF(B8:U8,"O")*5&amp;"%"</x:f>
@@ -2815,70 +3332,70 @@
     </x:row>
     <x:row r="9" spans="1:24">
       <x:c r="A9" s="6" t="s">
-        <x:v>8</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E9" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G9" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H9" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Q9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U9" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="V9" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="W9" s="8" t="str">
         <x:f>COUNTIF(B9:U9,"O")*5&amp;"%"</x:f>
@@ -2888,70 +3405,70 @@
     </x:row>
     <x:row r="10" spans="1:24">
       <x:c r="A10" s="6" t="s">
-        <x:v>15</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B10" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C10" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D10" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E10" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="C10" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="D10" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="E10" s="7" t="s">
-        <x:v>63</x:v>
-      </x:c>
       <x:c r="F10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="J10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="K10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="L10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="M10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="O10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="P10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="Q10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="R10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="S10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="T10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="U10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="V10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="W10" s="8" t="str">
         <x:f>COUNTIF(B10:U10,"O")*5&amp;"%"</x:f>
@@ -2961,70 +3478,70 @@
     </x:row>
     <x:row r="11" spans="1:24">
       <x:c r="A11" s="6" t="s">
-        <x:v>10</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C11" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D11" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F11" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I11" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="J11" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Q11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V11" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="W11" s="8" t="str">
         <x:f>COUNTIF(B11:U11,"O")*5&amp;"%"</x:f>
@@ -3034,70 +3551,70 @@
     </x:row>
     <x:row r="12" spans="1:24">
       <x:c r="A12" s="6" t="s">
-        <x:v>12</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C12" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M12" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="N12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P12" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="Q12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T12" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="U12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V12" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="W12" s="8" t="str">
         <x:f>COUNTIF(B12:U12,"O")*5&amp;"%"</x:f>
@@ -3107,70 +3624,70 @@
     </x:row>
     <x:row r="13" spans="1:24">
       <x:c r="A13" s="6" t="s">
-        <x:v>4</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B13" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C13" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D13" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E13" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F13" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G13" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H13" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I13" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J13" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K13" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L13" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M13" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="N13" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O13" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P13" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Q13" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R13" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S13" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T13" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U13" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V13" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="W13" s="8" t="str">
         <x:f>COUNTIF(B13:U13,"O")*5&amp;"%"</x:f>
@@ -3180,70 +3697,70 @@
     </x:row>
     <x:row r="14" spans="1:24">
       <x:c r="A14" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B14" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C14" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D14" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E14" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F14" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G14" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H14" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I14" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="J14" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K14" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="L14" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M14" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N14" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="O14" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P14" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Q14" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="R14" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S14" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T14" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U14" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V14" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W14" s="8" t="str">
         <x:f>COUNTIF(B14:U14,"O")*5&amp;"%"</x:f>
@@ -3253,70 +3770,70 @@
     </x:row>
     <x:row r="15" spans="1:24">
       <x:c r="A15" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Q15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T15" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="U15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W15" s="8" t="str">
         <x:f>COUNTIF(B15:U15,"O")*5&amp;"%"</x:f>
@@ -3326,70 +3843,70 @@
     </x:row>
     <x:row r="16" spans="1:24">
       <x:c r="A16" s="6" t="s">
-        <x:v>18</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B16" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C16" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D16" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E16" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F16" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G16" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H16" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I16" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J16" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K16" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L16" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M16" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N16" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O16" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P16" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Q16" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R16" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S16" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T16" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U16" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V16" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W16" s="8" t="str">
         <x:f>COUNTIF(B16:U16,"O")*5&amp;"%"</x:f>
@@ -3399,70 +3916,70 @@
     </x:row>
     <x:row r="17" spans="1:24">
       <x:c r="A17" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B17" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C17" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D17" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E17" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F17" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G17" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H17" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I17" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="J17" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K17" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L17" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="M17" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N17" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O17" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P17" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="Q17" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R17" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S17" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T17" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U17" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V17" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W17" s="8" t="str">
         <x:f>COUNTIF(B17:U17,"O")*5&amp;"%"</x:f>
@@ -3472,70 +3989,70 @@
     </x:row>
     <x:row r="18" spans="1:24">
       <x:c r="A18" s="6" t="s">
-        <x:v>5</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C18" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E18" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F18" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Q18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V18" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="W18" s="8" t="str">
         <x:f>COUNTIF(B18:U18,"O")*5&amp;"%"</x:f>
@@ -3545,70 +4062,70 @@
     </x:row>
     <x:row r="19" spans="1:24">
       <x:c r="A19" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="J19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Q19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U19" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="V19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W19" s="8" t="str">
         <x:f>COUNTIF(B19:U19,"O")*5&amp;"%"</x:f>
@@ -3618,70 +4135,70 @@
     </x:row>
     <x:row r="20" spans="1:24">
       <x:c r="A20" s="6" t="s">
-        <x:v>6</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I20" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="J20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Q20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W20" s="8" t="str">
         <x:f>COUNTIF(B20:U20,"O")*5&amp;"%"</x:f>
@@ -3691,70 +4208,70 @@
     </x:row>
     <x:row r="21" spans="1:24">
       <x:c r="A21" s="6" t="s">
-        <x:v>24</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B21" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C21" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D21" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E21" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F21" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G21" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H21" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I21" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J21" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K21" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L21" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M21" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N21" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="O21" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="P21" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Q21" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R21" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S21" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T21" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U21" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V21" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W21" s="8" t="str">
         <x:f>COUNTIF(B21:U21,"O")*5&amp;"%"</x:f>
@@ -3764,70 +4281,70 @@
     </x:row>
     <x:row r="22" spans="1:24">
       <x:c r="A22" s="6" t="s">
-        <x:v>17</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B22" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C22" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D22" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E22" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F22" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G22" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H22" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I22" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J22" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K22" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L22" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M22" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="N22" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O22" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="P22" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Q22" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R22" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S22" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="T22" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="U22" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V22" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="W22" s="8" t="str">
         <x:f>COUNTIF(B22:U22,"O")*5&amp;"%"</x:f>
@@ -3837,70 +4354,70 @@
     </x:row>
     <x:row r="23" spans="1:24">
       <x:c r="A23" s="6" t="s">
-        <x:v>3</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C23" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D23" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K23" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="L23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N23" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="O23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Q23" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="R23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W23" s="8" t="str">
         <x:f>COUNTIF(B23:U23,"O")*5&amp;"%"</x:f>
@@ -3910,70 +4427,70 @@
     </x:row>
     <x:row r="24" spans="1:24">
       <x:c r="A24" s="6" t="s">
-        <x:v>21</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B24" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C24" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="C24" s="7" t="s">
-        <x:v>63</x:v>
-      </x:c>
       <x:c r="D24" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E24" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="E24" s="7" t="s">
-        <x:v>63</x:v>
-      </x:c>
       <x:c r="F24" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G24" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="H24" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="H24" s="7" t="s">
-        <x:v>63</x:v>
-      </x:c>
       <x:c r="I24" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="J24" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="K24" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="L24" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="J24" s="7" t="s">
+      <x:c r="M24" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="K24" s="7" t="s">
+      <x:c r="N24" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="O24" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="L24" s="7" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="M24" s="7" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="N24" s="7" t="s">
+      <x:c r="P24" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="O24" s="7" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="P24" s="7" t="s">
-        <x:v>63</x:v>
-      </x:c>
       <x:c r="Q24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="R24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="S24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="T24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="U24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="V24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="W24" s="8" t="str">
         <x:f>COUNTIF(B24:U24,"O")*5&amp;"%"</x:f>
@@ -3983,70 +4500,70 @@
     </x:row>
     <x:row r="25" spans="1:24">
       <x:c r="A25" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Q25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W25" s="8" t="str">
         <x:f>COUNTIF(B25:U25,"O")*5&amp;"%"</x:f>
@@ -4056,70 +4573,70 @@
     </x:row>
     <x:row r="26" spans="1:24">
       <x:c r="A26" s="6" t="s">
-        <x:v>23</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B26" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C26" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D26" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E26" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F26" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G26" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="H26" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="C26" s="7" t="s">
+      <x:c r="I26" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="J26" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="K26" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="D26" s="7" t="s">
+      <x:c r="L26" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="M26" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="N26" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="E26" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="F26" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G26" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="H26" s="7" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="I26" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="J26" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="K26" s="7" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="L26" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="M26" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="N26" s="7" t="s">
-        <x:v>63</x:v>
-      </x:c>
       <x:c r="O26" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="P26" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="Q26" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="R26" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="S26" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="T26" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="U26" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="V26" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="W26" s="8" t="str">
         <x:f>COUNTIF(B26:U26,"O")*5&amp;"%"</x:f>
@@ -4129,7 +4646,7 @@
     </x:row>
     <x:row r="27" spans="1:24">
       <x:c r="A27" s="9" t="s">
-        <x:v>39</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B27" s="10">
         <x:f>COUNTIF(B6:B26,"O")*5</x:f>
@@ -4220,7 +4737,7 @@
         <x:v>85.75</x:v>
       </x:c>
       <x:c r="X27" s="7" t="s">
-        <x:v>13</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4238,15 +4755,15 @@
   <x:sheetPr codeName="Sheet2"/>
   <x:dimension ref="A1:W27"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="V15" activeCellId="0" sqref="V15:V15"/>
+    <x:sheetView topLeftCell="A1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="B18" activeCellId="0" sqref="B18:V18"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.399999999999999"/>
   <x:sheetData>
     <x:row r="1" spans="1:23">
       <x:c r="A1" s="14" t="s">
-        <x:v>68</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="15"/>
       <x:c r="C1" s="15"/>
@@ -4323,7 +4840,7 @@
     </x:row>
     <x:row r="4" spans="1:23" ht="16.75">
       <x:c r="A4" s="20" t="s">
-        <x:v>0</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B4" s="21"/>
       <x:c r="C4" s="21"/>
@@ -4350,78 +4867,78 @@
     </x:row>
     <x:row r="5" spans="1:23" ht="17.149999999999999">
       <x:c r="A5" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>60</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D5" s="3" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E5" s="3" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F5" s="3" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G5" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H5" s="3" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="I5" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="J5" s="3" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="K5" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="L5" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="M5" s="3" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="D5" s="3" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="E5" s="3" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="F5" s="3" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="G5" s="3" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="H5" s="3" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="I5" s="3" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="J5" s="3" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="K5" s="3" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="L5" s="3" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="M5" s="3" t="s">
-        <x:v>50</x:v>
-      </x:c>
       <x:c r="N5" s="3" t="s">
-        <x:v>33</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O5" s="3" t="s">
-        <x:v>41</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="P5" s="3" t="s">
-        <x:v>64</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="Q5" s="3" t="s">
-        <x:v>59</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="R5" s="3" t="s">
-        <x:v>61</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="S5" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="T5" s="3" t="s">
-        <x:v>44</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="U5" s="4" t="s">
-        <x:v>40</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="V5" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="W5" s="5" t="s">
-        <x:v>38</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:23">
       <x:c r="A6" s="6" t="s">
-        <x:v>2</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B6" s="7"/>
       <x:c r="C6" s="7"/>
@@ -4451,70 +4968,70 @@
     </x:row>
     <x:row r="7" spans="1:23">
       <x:c r="A7" s="6" t="s">
-        <x:v>1</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B7" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C7" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D7" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E7" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F7" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G7" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H7" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I7" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J7" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K7" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L7" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M7" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N7" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O7" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P7" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Q7" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R7" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S7" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T7" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U7" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V7" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W7" s="8" t="str">
         <x:f>COUNTIF(B7:U7,"O")*5&amp;"%"</x:f>
@@ -4523,70 +5040,70 @@
     </x:row>
     <x:row r="8" spans="1:23">
       <x:c r="A8" s="6" t="s">
-        <x:v>7</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B8" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C8" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D8" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E8" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F8" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G8" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H8" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I8" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J8" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K8" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L8" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M8" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="N8" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O8" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P8" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Q8" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R8" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S8" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T8" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U8" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V8" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W8" s="8" t="str">
         <x:f>COUNTIF(B8:U8,"O")*5&amp;"%"</x:f>
@@ -4595,70 +5112,70 @@
     </x:row>
     <x:row r="9" spans="1:23">
       <x:c r="A9" s="6" t="s">
-        <x:v>8</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E9" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F9" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Q9" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="R9" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="S9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U9" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="V9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W9" s="8" t="str">
         <x:f>COUNTIF(B9:U9,"O")*5&amp;"%"</x:f>
@@ -4667,7 +5184,7 @@
     </x:row>
     <x:row r="10" spans="1:23">
       <x:c r="A10" s="6" t="s">
-        <x:v>15</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B10" s="7"/>
       <x:c r="C10" s="7"/>
@@ -4697,70 +5214,70 @@
     </x:row>
     <x:row r="11" spans="1:23">
       <x:c r="A11" s="6" t="s">
-        <x:v>10</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Q11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V11" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W11" s="8" t="str">
         <x:f>COUNTIF(B11:U11,"O")*5&amp;"%"</x:f>
@@ -4769,70 +5286,70 @@
     </x:row>
     <x:row r="12" spans="1:23">
       <x:c r="A12" s="6" t="s">
-        <x:v>12</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C12" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K12" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="L12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Q12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W12" s="8" t="str">
         <x:f>COUNTIF(B12:U12,"O")*5&amp;"%"</x:f>
@@ -4841,70 +5358,70 @@
     </x:row>
     <x:row r="13" spans="1:23">
       <x:c r="A13" s="6" t="s">
-        <x:v>4</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B13" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C13" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D13" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="C13" s="7" t="s">
+      <x:c r="E13" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F13" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G13" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="H13" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="D13" s="7" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="E13" s="7" t="s">
+      <x:c r="I13" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="F13" s="7" t="s">
+      <x:c r="J13" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="G13" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="H13" s="7" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="I13" s="7" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="J13" s="7" t="s">
-        <x:v>63</x:v>
-      </x:c>
       <x:c r="K13" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="L13" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="M13" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N13" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="O13" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="P13" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="Q13" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="R13" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="S13" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="T13" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="U13" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="V13" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="W13" s="8" t="str">
         <x:f>COUNTIF(B13:U13,"O")*5&amp;"%"</x:f>
@@ -4913,7 +5430,7 @@
     </x:row>
     <x:row r="14" spans="1:23">
       <x:c r="A14" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B14" s="7"/>
       <x:c r="C14" s="7"/>
@@ -4943,70 +5460,70 @@
     </x:row>
     <x:row r="15" spans="1:23">
       <x:c r="A15" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Q15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W15" s="8" t="str">
         <x:f>COUNTIF(B15:U15,"O")*5&amp;"%"</x:f>
@@ -5015,7 +5532,7 @@
     </x:row>
     <x:row r="16" spans="1:23">
       <x:c r="A16" s="6" t="s">
-        <x:v>18</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B16" s="7"/>
       <x:c r="C16" s="7"/>
@@ -5045,7 +5562,7 @@
     </x:row>
     <x:row r="17" spans="1:23">
       <x:c r="A17" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B17" s="7"/>
       <x:c r="C17" s="7"/>
@@ -5075,100 +5592,142 @@
     </x:row>
     <x:row r="18" spans="1:23">
       <x:c r="A18" s="6" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B18" s="7"/>
-      <x:c r="C18" s="7"/>
-      <x:c r="D18" s="7"/>
-      <x:c r="E18" s="7"/>
-      <x:c r="F18" s="7"/>
-      <x:c r="G18" s="7"/>
-      <x:c r="H18" s="7"/>
-      <x:c r="I18" s="7"/>
-      <x:c r="J18" s="7"/>
-      <x:c r="K18" s="7"/>
-      <x:c r="L18" s="7"/>
-      <x:c r="M18" s="7"/>
-      <x:c r="N18" s="7"/>
-      <x:c r="O18" s="7"/>
-      <x:c r="P18" s="7"/>
-      <x:c r="Q18" s="7"/>
-      <x:c r="R18" s="7"/>
-      <x:c r="S18" s="7"/>
-      <x:c r="T18" s="7"/>
-      <x:c r="U18" s="7"/>
-      <x:c r="V18" s="7"/>
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B18" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C18" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D18" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E18" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F18" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G18" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H18" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I18" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="J18" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="K18" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L18" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="M18" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="N18" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O18" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="P18" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="Q18" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="R18" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="S18" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="T18" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="U18" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="V18" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
       <x:c r="W18" s="8" t="str">
         <x:f>COUNTIF(B18:U18,"O")*5&amp;"%"</x:f>
-        <x:v>0%</x:v>
+        <x:v>70%</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:23">
       <x:c r="A19" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K19" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="L19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M19" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="N19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P19" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="Q19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S19" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="T19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W19" s="8" t="str">
         <x:f>COUNTIF(B19:U19,"O")*5&amp;"%"</x:f>
@@ -5177,70 +5736,70 @@
     </x:row>
     <x:row r="20" spans="1:23">
       <x:c r="A20" s="6" t="s">
-        <x:v>6</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B20" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C20" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D20" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E20" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F20" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G20" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="H20" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="I20" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="J20" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="K20" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="L20" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="M20" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="C20" s="7" t="s">
+      <x:c r="N20" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="O20" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="P20" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="Q20" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="D20" s="7" t="s">
+      <x:c r="R20" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="E20" s="7" t="s">
+      <x:c r="S20" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="T20" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="U20" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="F20" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G20" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="H20" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="I20" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="J20" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="K20" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="L20" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="M20" s="7" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="N20" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="O20" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="P20" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="Q20" s="7" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="R20" s="7" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="S20" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="T20" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="U20" s="7" t="s">
-        <x:v>63</x:v>
-      </x:c>
       <x:c r="V20" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="W20" s="8" t="str">
         <x:f>COUNTIF(B20:U20,"O")*5&amp;"%"</x:f>
@@ -5249,70 +5808,70 @@
     </x:row>
     <x:row r="21" spans="1:23">
       <x:c r="A21" s="6" t="s">
-        <x:v>11</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B21" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C21" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D21" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E21" s="7" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F21" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="C21" s="7" t="s">
+      <x:c r="G21" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="H21" s="7" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="I21" s="7" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J21" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="D21" s="7" t="s">
+      <x:c r="K21" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="E21" s="7" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="F21" s="7" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="G21" s="7" t="s">
+      <x:c r="L21" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="M21" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="N21" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="H21" s="7" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="I21" s="7" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="J21" s="7" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="K21" s="7" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="L21" s="7" t="s">
+      <x:c r="O21" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="M21" s="7" t="s">
+      <x:c r="P21" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="N21" s="7" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="O21" s="7" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="P21" s="7" t="s">
-        <x:v>63</x:v>
-      </x:c>
       <x:c r="Q21" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="R21" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="S21" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="T21" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="U21" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="T21" s="7" t="s">
+      <x:c r="V21" s="7" t="s">
         <x:v>27</x:v>
-      </x:c>
-      <x:c r="U21" s="7" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="V21" s="7" t="s">
-        <x:v>63</x:v>
       </x:c>
       <x:c r="W21" s="8" t="str">
         <x:f>COUNTIF(B21:U21,"O")*5&amp;"%"</x:f>
@@ -5321,70 +5880,70 @@
     </x:row>
     <x:row r="22" spans="1:23">
       <x:c r="A22" s="6" t="s">
-        <x:v>24</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B22" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C22" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D22" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E22" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F22" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G22" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H22" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I22" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J22" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K22" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="L22" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M22" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="N22" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O22" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="P22" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="Q22" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R22" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S22" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="T22" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="U22" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V22" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="W22" s="8" t="str">
         <x:f>COUNTIF(B22:U22,"O")*5&amp;"%"</x:f>
@@ -5393,70 +5952,70 @@
     </x:row>
     <x:row r="23" spans="1:23">
       <x:c r="A23" s="6" t="s">
-        <x:v>17</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C23" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E23" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F23" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O23" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="P23" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="Q23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W23" s="8" t="str">
         <x:f>COUNTIF(B23:U23,"O")*5&amp;"%"</x:f>
@@ -5465,70 +6024,70 @@
     </x:row>
     <x:row r="24" spans="1:23">
       <x:c r="A24" s="6" t="s">
-        <x:v>3</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="J24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="K24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="L24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="M24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="O24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="P24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="Q24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="R24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="S24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="T24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="U24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="V24" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="W24" s="8" t="str">
         <x:f>COUNTIF(B24:U24,"O")*5&amp;"%"</x:f>
@@ -5537,70 +6096,70 @@
     </x:row>
     <x:row r="25" spans="1:23">
       <x:c r="A25" s="6" t="s">
-        <x:v>21</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C25" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E25" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F25" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K25" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="L25" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="M25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Q25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S25" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="T25" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="U25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W25" s="8" t="str">
         <x:f>COUNTIF(B25:U25,"O")*5&amp;"%"</x:f>
@@ -5609,7 +6168,7 @@
     </x:row>
     <x:row r="26" spans="1:23">
       <x:c r="A26" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B26" s="7"/>
       <x:c r="C26" s="7"/>
@@ -5639,11 +6198,11 @@
     </x:row>
     <x:row r="27" spans="1:23" ht="17.149999999999999">
       <x:c r="A27" s="9" t="s">
-        <x:v>39</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B27" s="10">
         <x:f>COUNTIF(B6:B26,"O")*5</x:f>
-        <x:v>70</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C27" s="10">
         <x:f>COUNTIF(C6:C26,"O")*5</x:f>
@@ -5651,31 +6210,31 @@
       </x:c>
       <x:c r="D27" s="10">
         <x:f>COUNTIF(D6:D26,"O")*5</x:f>
-        <x:v>55</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E27" s="10">
         <x:f>COUNTIF(E6:E26,"O")*5</x:f>
-        <x:v>45</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F27" s="10">
         <x:f>COUNTIF(F6:F26,"O")*5</x:f>
-        <x:v>45</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G27" s="10">
         <x:f>COUNTIF(G6:G26,"O")*5</x:f>
-        <x:v>65</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H27" s="10">
         <x:f>COUNTIF(H6:H26,"O")*5</x:f>
-        <x:v>60</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="I27" s="10">
         <x:f>COUNTIF(I6:I26,"O")*5</x:f>
-        <x:v>60</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="J27" s="10">
         <x:f>COUNTIF(J6:J26,"O")*5</x:f>
-        <x:v>60</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="K27" s="10">
         <x:f>COUNTIF(K6:K26,"O")*5</x:f>
@@ -5683,19 +6242,19 @@
       </x:c>
       <x:c r="L27" s="10">
         <x:f>COUNTIF(L6:L26,"O")*5</x:f>
-        <x:v>65</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="M27" s="10">
         <x:f>COUNTIF(M6:M26,"O")*5</x:f>
-        <x:v>50</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="N27" s="10">
         <x:f>COUNTIF(N6:N26,"O")*5</x:f>
-        <x:v>65</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="O27" s="10">
         <x:f>COUNTIF(O6:O26,"O")*5</x:f>
-        <x:v>55</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="P27" s="10">
         <x:f>COUNTIF(P6:P26,"O")*5</x:f>
@@ -5711,11 +6270,11 @@
       </x:c>
       <x:c r="S27" s="10">
         <x:f>COUNTIF(S6:S26,"O")*5</x:f>
-        <x:v>55</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="T27" s="10">
         <x:f>COUNTIF(T6:T26,"O")*5</x:f>
-        <x:v>60</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="U27" s="10">
         <x:f>COUNTIF(U6:U26,"O")*5</x:f>
@@ -5723,11 +6282,11 @@
       </x:c>
       <x:c r="V27" s="10">
         <x:f>COUNTIF(V6:V26,"O")*5</x:f>
-        <x:v>60</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="W27" s="11">
         <x:f>SUM(B27:U27)/20</x:f>
-        <x:v>56</x:v>
+        <x:v>59.5</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -5746,14 +6305,14 @@
   <x:dimension ref="A1:W27"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="J20" activeCellId="0" sqref="J20:J20"/>
+      <x:selection activeCell="B12" activeCellId="0" sqref="B12:V12"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.399999999999999"/>
   <x:sheetData>
     <x:row r="1" spans="1:23">
       <x:c r="A1" s="14" t="s">
-        <x:v>67</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="15"/>
       <x:c r="C1" s="15"/>
@@ -5830,7 +6389,7 @@
     </x:row>
     <x:row r="4" spans="1:23" ht="16.75">
       <x:c r="A4" s="20" t="s">
-        <x:v>0</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B4" s="21"/>
       <x:c r="C4" s="21"/>
@@ -5857,141 +6416,141 @@
     </x:row>
     <x:row r="5" spans="1:23" ht="17.149999999999999">
       <x:c r="A5" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>60</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D5" s="3" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E5" s="3" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F5" s="3" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G5" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H5" s="3" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="I5" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="J5" s="3" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="K5" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="L5" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="M5" s="3" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="D5" s="3" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="E5" s="3" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="F5" s="3" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="G5" s="3" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="H5" s="3" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="I5" s="3" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="J5" s="3" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="K5" s="3" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="L5" s="3" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="M5" s="3" t="s">
-        <x:v>50</x:v>
-      </x:c>
       <x:c r="N5" s="3" t="s">
-        <x:v>33</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O5" s="3" t="s">
-        <x:v>41</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="P5" s="3" t="s">
-        <x:v>64</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="Q5" s="3" t="s">
-        <x:v>59</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="R5" s="3" t="s">
-        <x:v>61</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="S5" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="T5" s="3" t="s">
-        <x:v>44</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="U5" s="4" t="s">
-        <x:v>40</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="V5" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="W5" s="5" t="s">
-        <x:v>38</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:23">
       <x:c r="A6" s="6" t="s">
-        <x:v>2</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B6" s="13" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C6" s="13" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D6" s="13" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E6" s="13" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F6" s="13" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G6" s="13" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H6" s="13" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I6" s="13" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J6" s="13" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K6" s="13" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L6" s="13" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M6" s="13" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N6" s="13" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O6" s="13" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P6" s="13" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Q6" s="13" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R6" s="13" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S6" s="13" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T6" s="13" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U6" s="13" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V6" s="13" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W6" s="8" t="str">
         <x:f>COUNTIF(B6:U6,"O")*5&amp;"%"</x:f>
@@ -6000,7 +6559,7 @@
     </x:row>
     <x:row r="7" spans="1:23">
       <x:c r="A7" s="6" t="s">
-        <x:v>1</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B7" s="7"/>
       <x:c r="C7" s="7"/>
@@ -6030,70 +6589,70 @@
     </x:row>
     <x:row r="8" spans="1:23">
       <x:c r="A8" s="6" t="s">
-        <x:v>7</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B8" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C8" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D8" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E8" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F8" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G8" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H8" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I8" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J8" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K8" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L8" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M8" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N8" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O8" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P8" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Q8" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R8" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S8" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T8" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U8" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V8" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W8" s="8" t="str">
         <x:f>COUNTIF(B8:U8,"O")*5&amp;"%"</x:f>
@@ -6102,70 +6661,70 @@
     </x:row>
     <x:row r="9" spans="1:23">
       <x:c r="A9" s="6" t="s">
-        <x:v>8</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D9" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M9" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="N9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Q9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W9" s="8" t="str">
         <x:f>COUNTIF(B9:U9,"O")*5&amp;"%"</x:f>
@@ -6174,70 +6733,70 @@
     </x:row>
     <x:row r="10" spans="1:23">
       <x:c r="A10" s="6" t="s">
-        <x:v>15</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B10" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C10" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D10" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E10" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="C10" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="D10" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="E10" s="7" t="s">
-        <x:v>63</x:v>
-      </x:c>
       <x:c r="F10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="J10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="K10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="L10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="M10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="O10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="P10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="Q10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="R10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="S10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="T10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="U10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="V10" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="W10" s="8" t="str">
         <x:f>COUNTIF(B10:U10,"O")*5&amp;"%"</x:f>
@@ -6246,7 +6805,7 @@
     </x:row>
     <x:row r="11" spans="1:23">
       <x:c r="A11" s="6" t="s">
-        <x:v>10</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B11" s="7"/>
       <x:c r="C11" s="7"/>
@@ -6276,37 +6835,79 @@
     </x:row>
     <x:row r="12" spans="1:23">
       <x:c r="A12" s="6" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B12" s="7"/>
-      <x:c r="C12" s="7"/>
-      <x:c r="D12" s="7"/>
-      <x:c r="E12" s="7"/>
-      <x:c r="F12" s="7"/>
-      <x:c r="G12" s="7"/>
-      <x:c r="H12" s="7"/>
-      <x:c r="I12" s="7"/>
-      <x:c r="J12" s="7"/>
-      <x:c r="K12" s="7"/>
-      <x:c r="L12" s="7"/>
-      <x:c r="M12" s="7"/>
-      <x:c r="N12" s="7"/>
-      <x:c r="O12" s="7"/>
-      <x:c r="P12" s="7"/>
-      <x:c r="Q12" s="7"/>
-      <x:c r="R12" s="7"/>
-      <x:c r="S12" s="7"/>
-      <x:c r="T12" s="7"/>
-      <x:c r="U12" s="7"/>
-      <x:c r="V12" s="7"/>
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B12" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C12" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D12" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E12" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F12" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G12" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H12" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I12" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="J12" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="K12" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="L12" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="M12" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="N12" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O12" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="P12" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="Q12" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="R12" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="S12" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="T12" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="U12" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="V12" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
       <x:c r="W12" s="8" t="str">
         <x:f>COUNTIF(B12:U12,"O")*5&amp;"%"</x:f>
-        <x:v>0%</x:v>
+        <x:v>100%</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:23">
       <x:c r="A13" s="6" t="s">
-        <x:v>4</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B13" s="7"/>
       <x:c r="C13" s="7"/>
@@ -6336,70 +6937,70 @@
     </x:row>
     <x:row r="14" spans="1:23">
       <x:c r="A14" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B14" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C14" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D14" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E14" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F14" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G14" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="C14" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="D14" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="E14" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="F14" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G14" s="7" t="s">
-        <x:v>63</x:v>
-      </x:c>
       <x:c r="H14" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I14" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="J14" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="K14" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="L14" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="M14" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N14" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="O14" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="P14" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="Q14" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="R14" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="S14" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="T14" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="U14" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="V14" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="W14" s="8" t="str">
         <x:f>COUNTIF(B14:U14,"O")*5&amp;"%"</x:f>
@@ -6408,70 +7009,70 @@
     </x:row>
     <x:row r="15" spans="1:23">
       <x:c r="A15" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Q15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W15" s="8" t="str">
         <x:f>COUNTIF(B15:U15,"O")*5&amp;"%"</x:f>
@@ -6480,70 +7081,70 @@
     </x:row>
     <x:row r="16" spans="1:23">
       <x:c r="A16" s="6" t="s">
-        <x:v>20</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B16" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C16" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="C16" s="7" t="s">
-        <x:v>63</x:v>
-      </x:c>
       <x:c r="D16" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E16" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F16" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G16" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="H16" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="I16" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="J16" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="K16" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="E16" s="7" t="s">
+      <x:c r="L16" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="M16" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="N16" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="O16" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="P16" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="F16" s="7" t="s">
+      <x:c r="Q16" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="R16" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="S16" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="G16" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="H16" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="I16" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="J16" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="K16" s="7" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="L16" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="M16" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="N16" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="O16" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="P16" s="7" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="Q16" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="R16" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="S16" s="7" t="s">
-        <x:v>63</x:v>
-      </x:c>
       <x:c r="T16" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="U16" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="V16" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="W16" s="8" t="str">
         <x:f>COUNTIF(B16:U16,"O")*5&amp;"%"</x:f>
@@ -6552,7 +7153,7 @@
     </x:row>
     <x:row r="17" spans="1:23">
       <x:c r="A17" s="6" t="s">
-        <x:v>18</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B17" s="7"/>
       <x:c r="C17" s="7"/>
@@ -6582,70 +7183,70 @@
     </x:row>
     <x:row r="18" spans="1:23">
       <x:c r="A18" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G18" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H18" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I18" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="J18" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M18" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="N18" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="O18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Q18" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="R18" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="S18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U18" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="V18" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W18" s="8" t="str">
         <x:f>COUNTIF(B18:U18,"O")*5&amp;"%"</x:f>
@@ -6654,68 +7255,68 @@
     </x:row>
     <x:row r="19" spans="1:23">
       <x:c r="A19" s="6" t="s">
-        <x:v>5</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K19" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="L19" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="M19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P19" s="7"/>
       <x:c r="Q19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V19" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W19" s="8" t="str">
         <x:f>COUNTIF(B19:U19,"O")*5&amp;"%"</x:f>
@@ -6724,68 +7325,68 @@
     </x:row>
     <x:row r="20" spans="1:23">
       <x:c r="A20" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L20" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="M20" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="N20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P20" s="7"/>
       <x:c r="Q20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V20" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W20" s="8" t="str">
         <x:f>COUNTIF(B20:U20,"O")*5&amp;"%"</x:f>
@@ -6794,70 +7395,70 @@
     </x:row>
     <x:row r="21" spans="1:23">
       <x:c r="A21" s="6" t="s">
-        <x:v>6</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B21" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C21" s="7" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="C21" s="7" t="s">
-        <x:v>63</x:v>
-      </x:c>
       <x:c r="D21" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E21" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F21" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G21" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H21" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I21" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="J21" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="K21" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="L21" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="M21" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N21" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="O21" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="P21" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="Q21" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="R21" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="S21" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="T21" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="U21" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="V21" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="W21" s="8" t="str">
         <x:f>COUNTIF(B21:U21,"O")*5&amp;"%"</x:f>
@@ -6866,7 +7467,7 @@
     </x:row>
     <x:row r="22" spans="1:23">
       <x:c r="A22" s="6" t="s">
-        <x:v>24</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B22" s="7"/>
       <x:c r="C22" s="7"/>
@@ -6896,68 +7497,68 @@
     </x:row>
     <x:row r="23" spans="1:23">
       <x:c r="A23" s="6" t="s">
-        <x:v>17</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B23" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C23" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D23" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E23" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F23" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G23" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H23" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I23" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J23" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K23" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L23" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M23" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N23" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O23" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P23" s="12"/>
       <x:c r="Q23" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R23" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S23" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T23" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U23" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V23" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W23" s="8" t="str">
         <x:f>COUNTIF(B23:U23,"O")*5&amp;"%"</x:f>
@@ -6966,68 +7567,68 @@
     </x:row>
     <x:row r="24" spans="1:23">
       <x:c r="A24" s="6" t="s">
-        <x:v>3</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B24" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C24" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D24" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E24" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F24" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G24" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H24" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I24" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J24" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K24" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L24" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M24" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N24" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O24" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P24" s="7"/>
       <x:c r="Q24" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R24" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S24" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="T24" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U24" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V24" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="W24" s="8" t="str">
         <x:f>COUNTIF(B24:U24,"O")*5&amp;"%"</x:f>
@@ -7036,70 +7637,70 @@
     </x:row>
     <x:row r="25" spans="1:23">
       <x:c r="A25" s="6" t="s">
-        <x:v>21</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C25" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G25" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M25" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="N25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Q25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S25" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="T25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U25" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="V25" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="W25" s="8" t="str">
         <x:f>COUNTIF(B25:U25,"O")*5&amp;"%"</x:f>
@@ -7108,7 +7709,7 @@
     </x:row>
     <x:row r="26" spans="1:23">
       <x:c r="A26" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B26" s="7"/>
       <x:c r="C26" s="7"/>
@@ -7138,95 +7739,95 @@
     </x:row>
     <x:row r="27" spans="1:23" ht="17.149999999999999">
       <x:c r="A27" s="9" t="s">
-        <x:v>39</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B27" s="10">
         <x:f>COUNTIF(B7:B26,"O")*5</x:f>
-        <x:v>65</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C27" s="10">
         <x:f>COUNTIF(C7:C26,"O")*5</x:f>
-        <x:v>45</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D27" s="10">
         <x:f>COUNTIF(D6:D26,"O")*5</x:f>
-        <x:v>65</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E27" s="10">
         <x:f>COUNTIF(E6:E26,"O")*5</x:f>
-        <x:v>65</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F27" s="10">
         <x:f>COUNTIF(F6:F26,"O")*5</x:f>
-        <x:v>70</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G27" s="10">
         <x:f>COUNTIF(G6:G26,"O")*5</x:f>
-        <x:v>50</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H27" s="10">
         <x:f>COUNTIF(H6:H26,"O")*5</x:f>
-        <x:v>65</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I27" s="10">
         <x:f>COUNTIF(I6:I26,"O")*5</x:f>
-        <x:v>65</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="J27" s="10">
         <x:f>COUNTIF(J6:J26,"O")*5</x:f>
-        <x:v>65</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="K27" s="10">
         <x:f>COUNTIF(K6:K26,"O")*5</x:f>
-        <x:v>60</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="L27" s="10">
         <x:f>COUNTIF(L6:L26,"O")*5</x:f>
-        <x:v>60</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="M27" s="10">
         <x:f>COUNTIF(M6:M26,"O")*5</x:f>
-        <x:v>50</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="N27" s="10">
         <x:f>COUNTIF(N6:N26,"O")*5</x:f>
-        <x:v>65</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="O27" s="10">
         <x:f>COUNTIF(O6:O26,"O")*5</x:f>
-        <x:v>70</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="P27" s="10">
         <x:f>COUNTIF(P6:P26,"O")*5</x:f>
-        <x:v>45</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="Q27" s="10">
         <x:f>COUNTIF(Q6:Q26,"O")*5</x:f>
-        <x:v>65</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="R27" s="10">
         <x:f>COUNTIF(R6:R26,"O")*5</x:f>
-        <x:v>65</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="S27" s="10">
         <x:f>COUNTIF(S6:S26,"O")*5</x:f>
-        <x:v>60</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="T27" s="10">
         <x:f>COUNTIF(T6:T26,"O")*5</x:f>
-        <x:v>70</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="U27" s="10">
         <x:f>COUNTIF(U6:U26,"O")*5</x:f>
-        <x:v>65</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="V27" s="10">
         <x:f>COUNTIF(V6:V26,"O")*5</x:f>
-        <x:v>65</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="W27" s="11">
         <x:f>SUM(B27:U27)/20</x:f>
-        <x:v>61.5</x:v>
+        <x:v>66.5</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ijin/Desktop/2022_DeepLearningStudy/02_Test_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yerim0605\Desktop\꾀꼬리\2022_DeepLearningStudy\02_Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31ECEF3A-6B89-124D-9D9A-E8F400F0AFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A5B8D3-5FA0-46FF-9D44-5DBA4EFF2360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19060" windowHeight="8920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12" yWindow="72" windowWidth="18240" windowHeight="10740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="58">
   <si>
     <t>3주차 이론시험 채점표</t>
   </si>
@@ -206,12 +206,16 @@
     <t>O</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -386,6 +390,20 @@
     <font>
       <sz val="8"/>
       <name val="나눔명조"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -977,7 +995,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1046,6 +1064,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1602,7 +1623,7 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="14" t="s">
@@ -3429,11 +3450,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:V18"/>
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:V10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="14" t="s">
@@ -3860,30 +3881,72 @@
       <c r="A10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
+      <c r="B10" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="R10" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="S10" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="T10" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="U10" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="V10" s="23" t="s">
+        <v>21</v>
+      </c>
       <c r="W10" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>95%</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -4876,55 +4939,55 @@
       </c>
       <c r="B27" s="10">
         <f t="shared" ref="B27:V27" si="1">COUNTIF(B6:B26,"O")*5</f>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C27" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D27" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E27" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F27" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G27" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H27" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="I27" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="J27" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K27" s="10">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L27" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M27" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="N27" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="O27" s="10">
         <f t="shared" si="1"/>
@@ -4932,35 +4995,35 @@
       </c>
       <c r="P27" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Q27" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="R27" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="S27" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="T27" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="U27" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="V27" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>
-        <v>59.5</v>
+        <v>64.25</v>
       </c>
     </row>
   </sheetData>
@@ -4979,11 +5042,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="14" t="s">
@@ -6144,30 +6207,72 @@
       <c r="A22" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
+      <c r="B22" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="N22" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="O22" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="P22" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q22" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="R22" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="S22" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="T22" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="U22" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="V22" s="23" t="s">
+        <v>21</v>
+      </c>
       <c r="W22" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>90%</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -6420,11 +6525,11 @@
       </c>
       <c r="B27" s="10">
         <f>COUNTIF(B7:B26,"O")*5</f>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C27" s="10">
         <f>COUNTIF(C7:C26,"O")*5</f>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D27" s="10">
         <f t="shared" ref="D27:V27" si="1">COUNTIF(D6:D26,"O")*5</f>
@@ -6432,47 +6537,47 @@
       </c>
       <c r="E27" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F27" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G27" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H27" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I27" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="J27" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K27" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="L27" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M27" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="N27" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="O27" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="P27" s="10">
         <f t="shared" si="1"/>
@@ -6480,31 +6585,31 @@
       </c>
       <c r="Q27" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R27" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="S27" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="T27" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="U27" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="V27" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>
-        <v>66.75</v>
+        <v>71.25</v>
       </c>
     </row>
   </sheetData>

--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yerim0605\Desktop\꾀꼬리\2022_DeepLearningStudy\02_Test_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2022_DeepLearningStudy\2022_DeepLearningStudy\02_Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A5B8D3-5FA0-46FF-9D44-5DBA4EFF2360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="72" windowWidth="18240" windowHeight="10740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="75" windowWidth="18240" windowHeight="10740" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="60">
   <si>
     <t>3주차 이론시험 채점표</t>
   </si>
@@ -210,12 +209,20 @@
     <t>O</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -404,6 +411,13 @@
     <font>
       <sz val="8"/>
       <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -1038,6 +1052,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1065,55 +1082,52 @@
     <xf numFmtId="0" fontId="13" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="44">
-    <cellStyle name="20% - 강조색1" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20% - 강조색2" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="20% - 강조색3" xfId="28" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="20% - 강조색4" xfId="32" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="20% - 강조색5" xfId="36" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="20% - 강조색6" xfId="40" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="40% - 강조색1" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="40% - 강조색2" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="40% - 강조색3" xfId="29" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="40% - 강조색4" xfId="33" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="40% - 강조색5" xfId="37" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="40% - 강조색6" xfId="41" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="60% - 강조색1" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="60% - 강조색2" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="60% - 강조색3" xfId="30" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="60% - 강조색4" xfId="34" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="60% - 강조색5" xfId="38" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="60% - 강조색6" xfId="42" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="강조색1" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="강조색2" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="강조색3" xfId="27" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="강조색4" xfId="31" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="강조색5" xfId="35" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="강조색6" xfId="39" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="경고문" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="계산" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="나쁨" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="메모" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="보통" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="설명텍스트" xfId="43" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="셀 확인" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="연결된 셀" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="요약" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="입력" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="제목" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="제목 1" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="제목 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="제목 3" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="제목 4" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="좋음" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="출력" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="20% - 강조색1" xfId="3"/>
+    <cellStyle name="20% - 강조색2" xfId="24"/>
+    <cellStyle name="20% - 강조색3" xfId="28"/>
+    <cellStyle name="20% - 강조색4" xfId="32"/>
+    <cellStyle name="20% - 강조색5" xfId="36"/>
+    <cellStyle name="20% - 강조색6" xfId="40"/>
+    <cellStyle name="40% - 강조색1" xfId="21"/>
+    <cellStyle name="40% - 강조색2" xfId="25"/>
+    <cellStyle name="40% - 강조색3" xfId="29"/>
+    <cellStyle name="40% - 강조색4" xfId="33"/>
+    <cellStyle name="40% - 강조색5" xfId="37"/>
+    <cellStyle name="40% - 강조색6" xfId="41"/>
+    <cellStyle name="60% - 강조색1" xfId="22"/>
+    <cellStyle name="60% - 강조색2" xfId="26"/>
+    <cellStyle name="60% - 강조색3" xfId="30"/>
+    <cellStyle name="60% - 강조색4" xfId="34"/>
+    <cellStyle name="60% - 강조색5" xfId="38"/>
+    <cellStyle name="60% - 강조색6" xfId="42"/>
+    <cellStyle name="강조색1" xfId="20"/>
+    <cellStyle name="강조색2" xfId="23"/>
+    <cellStyle name="강조색3" xfId="27"/>
+    <cellStyle name="강조색4" xfId="31"/>
+    <cellStyle name="강조색5" xfId="35"/>
+    <cellStyle name="강조색6" xfId="39"/>
+    <cellStyle name="경고문" xfId="6"/>
+    <cellStyle name="계산" xfId="13"/>
+    <cellStyle name="나쁨" xfId="18"/>
+    <cellStyle name="메모" xfId="2"/>
+    <cellStyle name="보통" xfId="19"/>
+    <cellStyle name="설명텍스트" xfId="43"/>
+    <cellStyle name="셀 확인" xfId="14"/>
+    <cellStyle name="연결된 셀" xfId="15"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="5"/>
+    <cellStyle name="요약" xfId="16"/>
+    <cellStyle name="입력" xfId="1"/>
+    <cellStyle name="제목" xfId="7"/>
+    <cellStyle name="제목 1" xfId="8"/>
+    <cellStyle name="제목 2" xfId="9"/>
+    <cellStyle name="제목 3" xfId="10"/>
+    <cellStyle name="제목 4" xfId="11"/>
+    <cellStyle name="좋음" xfId="17"/>
+    <cellStyle name="출력" xfId="12"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="하이퍼링크" xfId="4"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -1294,7 +1308,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1303,7 +1317,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1615,7 +1629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X27"/>
   <sheetViews>
@@ -1623,114 +1637,114 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="17"/>
       <c r="X1" s="1"/>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="19"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="20"/>
       <c r="X2" s="1"/>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="19"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="20"/>
       <c r="X3" s="1"/>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="23"/>
       <c r="X4" s="1"/>
     </row>
     <row r="5" spans="1:24">
@@ -3446,119 +3460,119 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:V10"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:V26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="17"/>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="19"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="20"/>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="19"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="20"/>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="23"/>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="2" t="s">
@@ -3881,67 +3895,67 @@
       <c r="A10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="N10" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="O10" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="P10" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q10" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="R10" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="S10" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="T10" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="U10" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="V10" s="23" t="s">
+      <c r="B10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="R10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="U10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="V10" s="14" t="s">
         <v>21</v>
       </c>
       <c r="W10" s="8" t="str">
@@ -4907,6 +4921,1676 @@
       <c r="A26" s="6" t="s">
         <v>47</v>
       </c>
+      <c r="B26" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="M26" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="N26" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="O26" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="P26" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q26" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="R26" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="S26" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="T26" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="U26" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="V26" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="W26" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>90%</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="10">
+        <f t="shared" ref="B27:V27" si="1">COUNTIF(B6:B26,"O")*5</f>
+        <v>80</v>
+      </c>
+      <c r="C27" s="10">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="D27" s="10">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="E27" s="10">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="G27" s="10">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="H27" s="10">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="I27" s="10">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="J27" s="10">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="K27" s="10">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="L27" s="10">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="M27" s="10">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="N27" s="10">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="O27" s="10">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="P27" s="10">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="Q27" s="10">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="R27" s="10">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="S27" s="10">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="T27" s="10">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="U27" s="10">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="V27" s="10">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="W27" s="11">
+        <f>SUM(B27:U27)/20</f>
+        <v>68.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:W3"/>
+    <mergeCell ref="A4:W4"/>
+  </mergeCells>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:W27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="Z21" sqref="Z21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="17"/>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="20"/>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="20"/>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="23"/>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="T6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="U6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="V6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="W6" s="8" t="str">
+        <f t="shared" ref="W6:W26" si="0">COUNTIF(B6:U6,"O")*5&amp;"%"</f>
+        <v>100%</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>100%</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="U9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="W9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>90%</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="U10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="V10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="W10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>95%</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W12" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>100%</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>95%</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="S15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="T15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="U15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="W15" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>100%</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="R16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="S16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="U16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="V16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="W16" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>80%</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="O17" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="P17" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q17" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="R17" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="S17" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="T17" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="U17" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="V17" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="W17" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>35%</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="R18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="S18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="T18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="U18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="V18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="W18" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>55%</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="S19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="T19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="U19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="W19" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>80%</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="S20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="T20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="U20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="W20" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>85%</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="S21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="T21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="V21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="W21" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>95%</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="N22" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O22" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="P22" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q22" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="R22" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="S22" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="T22" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="U22" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="V22" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="W22" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>90%</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N23" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="O23" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="P23" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q23" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="R23" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="S23" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="T23" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="U23" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="V23" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="W23" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>100%</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="S24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="T24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="U24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="W24" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>90%</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="S25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="T25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="U25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="W25" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>80%</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -4938,44 +6622,44 @@
         <v>13</v>
       </c>
       <c r="B27" s="10">
-        <f t="shared" ref="B27:V27" si="1">COUNTIF(B6:B26,"O")*5</f>
+        <f>COUNTIF(B7:B26,"O")*5</f>
         <v>80</v>
       </c>
       <c r="C27" s="10">
+        <f>COUNTIF(C7:C26,"O")*5</f>
+        <v>55</v>
+      </c>
+      <c r="D27" s="10">
+        <f t="shared" ref="D27:V27" si="1">COUNTIF(D6:D26,"O")*5</f>
+        <v>70</v>
+      </c>
+      <c r="E27" s="10">
         <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="D27" s="10">
+        <v>80</v>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="G27" s="10">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="E27" s="10">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="F27" s="10">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="G27" s="10">
+      <c r="H27" s="10">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="H27" s="10">
+      <c r="I27" s="10">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="J27" s="10">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="K27" s="10">
         <f t="shared" si="1"/>
         <v>70</v>
-      </c>
-      <c r="I27" s="10">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="J27" s="10">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="K27" s="10">
-        <f t="shared" si="1"/>
-        <v>50</v>
       </c>
       <c r="L27" s="10">
         <f t="shared" si="1"/>
@@ -4983,7 +6667,7 @@
       </c>
       <c r="M27" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N27" s="10">
         <f t="shared" si="1"/>
@@ -4991,7 +6675,7 @@
       </c>
       <c r="O27" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="P27" s="10">
         <f t="shared" si="1"/>
@@ -4999,1592 +6683,6 @@
       </c>
       <c r="Q27" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="R27" s="10">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="S27" s="10">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="T27" s="10">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="U27" s="10">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="V27" s="10">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="W27" s="11">
-        <f>SUM(B27:U27)/20</f>
-        <v>64.25</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:W3"/>
-    <mergeCell ref="A4:W4"/>
-  </mergeCells>
-  <phoneticPr fontId="23" type="noConversion"/>
-  <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:W27"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
-  <sheetData>
-    <row r="1" spans="1:23">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="16"/>
-    </row>
-    <row r="2" spans="1:23">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="19"/>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="19"/>
-    </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="22"/>
-    </row>
-    <row r="5" spans="1:23">
-      <c r="A5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="W5" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="P6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="R6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="S6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="T6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="U6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="V6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="W6" s="8" t="str">
-        <f t="shared" ref="W6:W26" si="0">COUNTIF(B6:U6,"O")*5&amp;"%"</f>
-        <v>100%</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
-      <c r="A7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
-      <c r="A8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="R8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="S8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="T8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="U8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="V8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="W8" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>100%</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
-      <c r="A9" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="R9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="S9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="T9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="U9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="V9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="W9" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>90%</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="A10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="R10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="S10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="T10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="U10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="V10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="W10" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>95%</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
-      <c r="A11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
-      <c r="A12" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W12" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>100%</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="A13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
-      <c r="A14" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="R14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="S14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="T14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="U14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="V14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="W14" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>95%</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="A15" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="R15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="S15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="T15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="U15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="V15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="W15" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>100%</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="A16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="R16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="S16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="T16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="U16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="V16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="W16" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>80%</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23">
-      <c r="A17" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23">
-      <c r="A18" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="R18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="S18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="T18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="U18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="V18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="W18" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>55%</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23">
-      <c r="A19" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="R19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="S19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="T19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="U19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="V19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="W19" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>80%</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23">
-      <c r="A20" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="R20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="S20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="T20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="U20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="V20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="W20" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>85%</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23">
-      <c r="A21" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="N21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="R21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="S21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="T21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="U21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="V21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="W21" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>95%</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23">
-      <c r="A22" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="J22" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="K22" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="M22" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="N22" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="O22" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="P22" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q22" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="R22" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="S22" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="T22" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="U22" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="V22" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="W22" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>90%</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23">
-      <c r="A23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="M23" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="N23" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="O23" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="P23" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q23" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="R23" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="S23" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="T23" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="U23" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="V23" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="W23" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>100%</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23">
-      <c r="A24" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="R24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="S24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="T24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="U24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="V24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="W24" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>90%</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23">
-      <c r="A25" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="R25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="S25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="T25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="U25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="V25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="W25" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>80%</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23">
-      <c r="A26" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23">
-      <c r="A27" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="10">
-        <f>COUNTIF(B7:B26,"O")*5</f>
-        <v>75</v>
-      </c>
-      <c r="C27" s="10">
-        <f>COUNTIF(C7:C26,"O")*5</f>
-        <v>55</v>
-      </c>
-      <c r="D27" s="10">
-        <f t="shared" ref="D27:V27" si="1">COUNTIF(D6:D26,"O")*5</f>
-        <v>70</v>
-      </c>
-      <c r="E27" s="10">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="F27" s="10">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="G27" s="10">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="H27" s="10">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="I27" s="10">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="J27" s="10">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="K27" s="10">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="L27" s="10">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="M27" s="10">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="N27" s="10">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="O27" s="10">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="P27" s="10">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="Q27" s="10">
-        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="R27" s="10">
@@ -6605,11 +6703,11 @@
       </c>
       <c r="V27" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>
-        <v>71.25</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2022_DeepLearningStudy\2022_DeepLearningStudy\02_Test_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blueb\OneDrive\바탕 화면\새 폴더 (3)\2022_DeepLearningStudy\02_Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A18B59-E646-46D4-9944-FB9BA091324A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="75" windowWidth="18240" windowHeight="10740" activeTab="2"/>
+    <workbookView xWindow="2868" yWindow="840" windowWidth="15420" windowHeight="11292" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="60">
   <si>
     <t>3주차 이론시험 채점표</t>
   </si>
@@ -221,7 +222,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="27">
     <font>
       <sz val="11"/>
@@ -1084,50 +1085,50 @@
     </xf>
   </cellXfs>
   <cellStyles count="44">
-    <cellStyle name="20% - 강조색1" xfId="3"/>
-    <cellStyle name="20% - 강조색2" xfId="24"/>
-    <cellStyle name="20% - 강조색3" xfId="28"/>
-    <cellStyle name="20% - 강조색4" xfId="32"/>
-    <cellStyle name="20% - 강조색5" xfId="36"/>
-    <cellStyle name="20% - 강조색6" xfId="40"/>
-    <cellStyle name="40% - 강조색1" xfId="21"/>
-    <cellStyle name="40% - 강조색2" xfId="25"/>
-    <cellStyle name="40% - 강조색3" xfId="29"/>
-    <cellStyle name="40% - 강조색4" xfId="33"/>
-    <cellStyle name="40% - 강조색5" xfId="37"/>
-    <cellStyle name="40% - 강조색6" xfId="41"/>
-    <cellStyle name="60% - 강조색1" xfId="22"/>
-    <cellStyle name="60% - 강조색2" xfId="26"/>
-    <cellStyle name="60% - 강조색3" xfId="30"/>
-    <cellStyle name="60% - 강조색4" xfId="34"/>
-    <cellStyle name="60% - 강조색5" xfId="38"/>
-    <cellStyle name="60% - 강조색6" xfId="42"/>
-    <cellStyle name="강조색1" xfId="20"/>
-    <cellStyle name="강조색2" xfId="23"/>
-    <cellStyle name="강조색3" xfId="27"/>
-    <cellStyle name="강조색4" xfId="31"/>
-    <cellStyle name="강조색5" xfId="35"/>
-    <cellStyle name="강조색6" xfId="39"/>
-    <cellStyle name="경고문" xfId="6"/>
-    <cellStyle name="계산" xfId="13"/>
-    <cellStyle name="나쁨" xfId="18"/>
-    <cellStyle name="메모" xfId="2"/>
-    <cellStyle name="보통" xfId="19"/>
-    <cellStyle name="설명텍스트" xfId="43"/>
-    <cellStyle name="셀 확인" xfId="14"/>
-    <cellStyle name="연결된 셀" xfId="15"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="5"/>
-    <cellStyle name="요약" xfId="16"/>
-    <cellStyle name="입력" xfId="1"/>
-    <cellStyle name="제목" xfId="7"/>
-    <cellStyle name="제목 1" xfId="8"/>
-    <cellStyle name="제목 2" xfId="9"/>
-    <cellStyle name="제목 3" xfId="10"/>
-    <cellStyle name="제목 4" xfId="11"/>
-    <cellStyle name="좋음" xfId="17"/>
-    <cellStyle name="출력" xfId="12"/>
+    <cellStyle name="20% - 강조색1" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - 강조색2" xfId="24" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - 강조색3" xfId="28" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - 강조색4" xfId="32" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - 강조색5" xfId="36" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - 강조색6" xfId="40" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - 강조색1" xfId="21" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - 강조색2" xfId="25" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - 강조색3" xfId="29" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - 강조색4" xfId="33" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - 강조색5" xfId="37" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - 강조색6" xfId="41" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - 강조색1" xfId="22" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - 강조색2" xfId="26" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - 강조색3" xfId="30" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - 강조색4" xfId="34" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - 강조색5" xfId="38" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - 강조색6" xfId="42" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="강조색1" xfId="20" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="강조색2" xfId="23" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="강조색3" xfId="27" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="강조색4" xfId="31" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="강조색5" xfId="35" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="강조색6" xfId="39" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="경고문" xfId="6" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="계산" xfId="13" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="나쁨" xfId="18" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="메모" xfId="2" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="보통" xfId="19" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="설명텍스트" xfId="43" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="셀 확인" xfId="14" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="연결된 셀" xfId="15" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="5" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="요약" xfId="16" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="입력" xfId="1" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="제목" xfId="7" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="제목 1" xfId="8" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="제목 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="제목 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="제목 4" xfId="11" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="좋음" xfId="17" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="출력" xfId="12" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="4"/>
+    <cellStyle name="하이퍼링크" xfId="4" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -1308,7 +1309,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1317,7 +1318,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1629,7 +1630,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X27"/>
   <sheetViews>
@@ -1637,7 +1638,7 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="15" t="s">
@@ -3460,7 +3461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:W27"/>
   <sheetViews>
@@ -3468,7 +3469,7 @@
       <selection activeCell="B26" sqref="B26:V26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="15" t="s">
@@ -5094,15 +5095,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="Z21" sqref="Z21"/>
+      <selection activeCell="B13" sqref="B13:V13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="15" t="s">
@@ -5703,30 +5704,72 @@
       <c r="A13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
+      <c r="B13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="P13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="R13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="S13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="T13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="U13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="V13" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="W13" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>75%</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -6623,11 +6666,11 @@
       </c>
       <c r="B27" s="10">
         <f>COUNTIF(B7:B26,"O")*5</f>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C27" s="10">
         <f>COUNTIF(C7:C26,"O")*5</f>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D27" s="10">
         <f t="shared" ref="D27:V27" si="1">COUNTIF(D6:D26,"O")*5</f>
@@ -6635,47 +6678,47 @@
       </c>
       <c r="E27" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F27" s="10">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G27" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H27" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I27" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J27" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K27" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="L27" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M27" s="10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N27" s="10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="O27" s="10">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P27" s="10">
         <f t="shared" si="1"/>
@@ -6691,11 +6734,11 @@
       </c>
       <c r="S27" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="T27" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="U27" s="10">
         <f t="shared" si="1"/>
@@ -6703,11 +6746,11 @@
       </c>
       <c r="V27" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="W27" s="11">
         <f>SUM(B27:U27)/20</f>
-        <v>73</v>
+        <v>76.75</v>
       </c>
     </row>
   </sheetData>
@@ -6717,6 +6760,6 @@
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
+++ b/02_Test_Data/DeepLearningStudy_4기_채점표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blueb\OneDrive\바탕 화면\새 폴더 (3)\2022_DeepLearningStudy\02_Test_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hjwon\Desktop\딥러닝 스터디\2022_DeepLearningStudy\02_Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A18B59-E646-46D4-9944-FB9BA091324A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32145FD5-0132-4097-91A1-36D1309359C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2868" yWindow="840" windowWidth="15420" windowHeight="11292" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="61">
   <si>
     <t>3주차 이론시험 채점표</t>
   </si>
@@ -217,6 +217,10 @@
   <si>
     <t>O</t>
     <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1638,7 +1642,7 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="15" t="s">
@@ -3465,11 +3469,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:V26"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:V17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="15" t="s">
@@ -4316,30 +4320,72 @@
       <c r="A17" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
+      <c r="B17" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="O17" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="P17" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q17" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="R17" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="S17" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="T17" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U17" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="V17" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="W17" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>90%</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -4996,7 +5042,7 @@
       </c>
       <c r="B27" s="10">
         <f t="shared" ref="B27:V27" si="1">COUNTIF(B6:B26,"O")*5</f>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C27" s="10">
         <f t="shared" si="1"/>
@@ -5004,31 +5050,31 @@
       </c>
       <c r="D27" s="10">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E27" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F27" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G27" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H27" s="10">
         <f t